--- a/InputData/trans/SYVbT/Start Year Vehicles by Technology.xlsx
+++ b/InputData/trans/SYVbT/Start Year Vehicles by Technology.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (Energy Innovation)\EI-PlcyMdl\eps-1.5.0-us-wipM\InputData\trans\SYVbT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-us\InputData\trans\SYVbT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="18840" windowHeight="5550"/>
+    <workbookView xWindow="360" yWindow="60" windowWidth="18840" windowHeight="5550" firstSheet="2" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2043" uniqueCount="1071">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2048" uniqueCount="1076">
   <si>
     <t>SYVbT Start Year Vehicles by Technology</t>
   </si>
@@ -4410,9 +4410,6 @@
     <t>Annual Energy Outlook 2019</t>
   </si>
   <si>
-    <t>For the U.S. in EPS 1.4.3, the start year is 2017, as the first simulated year is 2018.</t>
-  </si>
-  <si>
     <t>ref2019.d111618a</t>
   </si>
   <si>
@@ -4683,6 +4680,24 @@
   </si>
   <si>
     <t>share of passenger ships that is gasoline</t>
+  </si>
+  <si>
+    <t>We use AEO 2019 to calculate start year vehicles, as AEO 2020 does not include 2018 data.</t>
+  </si>
+  <si>
+    <t>For the U.S. in EPS 3.0, the start year is 2018, as the first simulated year is 2019.</t>
+  </si>
+  <si>
+    <t>Efficiency electric</t>
+  </si>
+  <si>
+    <t>Efficiency diesel</t>
+  </si>
+  <si>
+    <t>Electric BTUs * efficiency</t>
+  </si>
+  <si>
+    <t>Diesel BTUs * efficiency</t>
   </si>
 </sst>
 </file>
@@ -5609,7 +5624,7 @@
     </xf>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -5791,6 +5806,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -5869,6 +5885,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="142" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="143">
     <cellStyle name="20% - Accent1 2" xfId="17"/>
@@ -6396,13 +6413,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B82"/>
+  <dimension ref="A1:B83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53:A55"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="73.140625" customWidth="1"/>
+    <col min="2" max="2" width="73.1328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -6440,12 +6459,12 @@
     </row>
     <row r="8" spans="1:2">
       <c r="B8" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="B10" s="11" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -6460,12 +6479,12 @@
     </row>
     <row r="13" spans="1:2">
       <c r="B13" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="B14" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -6475,12 +6494,12 @@
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="11" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="19" spans="2:2">
@@ -6490,17 +6509,17 @@
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="24" spans="2:2">
@@ -6635,115 +6654,120 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" t="s">
-        <v>907</v>
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>1070</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>931</v>
+        <v>907</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
         <v>933</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" t="s">
-        <v>938</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
         <v>939</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" t="s">
-        <v>925</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" t="s">
         <v>924</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1">
-      <c r="A68" t="s">
-        <v>934</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>772</v>
+        <v>934</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>935</v>
+        <v>772</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" t="s">
         <v>937</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1">
-      <c r="A73" t="s">
-        <v>955</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" t="s">
         <v>958</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1">
-      <c r="A78" t="s">
-        <v>908</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
         <v>910</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
-      <c r="A82" t="s">
-        <v>1019</v>
-      </c>
-      <c r="B82">
-        <v>2017</v>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B83">
+        <v>2018</v>
       </c>
     </row>
   </sheetData>
@@ -6758,11 +6782,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" customWidth="1"/>
-    <col min="3" max="5" width="16.85546875" customWidth="1"/>
+    <col min="1" max="1" width="16.86328125" customWidth="1"/>
+    <col min="2" max="2" width="24.3984375" customWidth="1"/>
+    <col min="3" max="5" width="16.86328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -6840,16 +6864,18 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:AG15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="32.7109375" customWidth="1"/>
+    <col min="2" max="2" width="32.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:33">
       <c r="A1">
         <v>10</v>
       </c>
@@ -6857,7 +6883,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:33">
       <c r="A3">
         <v>300</v>
       </c>
@@ -6865,44 +6891,324 @@
         <v>936</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:33">
       <c r="A5">
-        <f>SUM(INDEX('AEO 37'!$97:$97,MATCH(About!$B$82,'AEO 37'!$1:$1,0)),INDEX('AEO 37'!$102:$102,MATCH(About!$B$82,'AEO 37'!$1:$1,0)),INDEX('AEO 37'!$104:$104,MATCH(About!$B$82,'AEO 37'!$1:$1,0)))/INDEX('AEO 37'!$95:$95,MATCH(About!$B$82,'AEO 37'!$1:$1,0))</f>
-        <v>0.51182813414003359</v>
+        <f>B14/SUM(B14:B15)</f>
+        <v>0.75216927859794647</v>
       </c>
       <c r="B5" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33">
+      <c r="A6">
+        <f>1-A5</f>
+        <v>0.24783072140205353</v>
+      </c>
+      <c r="B6" t="s">
         <v>1067</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6">
-        <f>SUM(INDEX('AEO 37'!$98:$98,MATCH(About!$B$82,'AEO 37'!$1:$1,0)),INDEX('AEO 37'!$105:$105,MATCH(About!$B$82,'AEO 37'!$1:$1,0)))/INDEX('AEO 37'!$95:$95,MATCH(About!$B$82,'AEO 37'!$1:$1,0))</f>
-        <v>0.4881718658599663</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="8" spans="1:33">
+      <c r="A8">
+        <f>SUM(INDEX('AEO 37'!$110:$110,MATCH(About!$B$83,'AEO 37'!$1:$1,0)))/INDEX('AEO 37'!$109:$109,MATCH(About!$B$83,'AEO 37'!$1:$1,0))</f>
+        <v>0.78597113659666662</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33">
+      <c r="A9">
+        <f>SUM(INDEX('AEO 37'!$111:$111,MATCH(About!$B$83,'AEO 37'!$1:$1,0)))/INDEX('AEO 37'!$109:$109,MATCH(About!$B$83,'AEO 37'!$1:$1,0))</f>
+        <v>0.21402884692874577</v>
+      </c>
+      <c r="B9" t="s">
         <v>1068</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8">
-        <f>SUM(INDEX('AEO 37'!$110:$110,MATCH(About!$B$82,'AEO 37'!$1:$1,0)))/INDEX('AEO 37'!$109:$109,MATCH(About!$B$82,'AEO 37'!$1:$1,0))</f>
-        <v>0.78794595848566396</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9">
-        <f>SUM(INDEX('AEO 37'!$111:$111,MATCH(About!$B$82,'AEO 37'!$1:$1,0)))/INDEX('AEO 37'!$109:$109,MATCH(About!$B$82,'AEO 37'!$1:$1,0))</f>
-        <v>0.21205404151433599</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:33">
       <c r="A10" s="78"/>
+    </row>
+    <row r="11" spans="1:33">
+      <c r="A11" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B11" s="106">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="C11" s="106"/>
+      <c r="D11" s="106"/>
+      <c r="E11" s="106"/>
+      <c r="F11" s="106"/>
+      <c r="G11" s="106"/>
+      <c r="H11" s="106"/>
+      <c r="I11" s="106"/>
+      <c r="J11" s="106"/>
+      <c r="K11" s="106"/>
+      <c r="L11" s="106"/>
+      <c r="M11" s="106"/>
+      <c r="N11" s="106"/>
+      <c r="O11" s="106"/>
+      <c r="P11" s="106"/>
+      <c r="Q11" s="106"/>
+      <c r="R11" s="106"/>
+      <c r="S11" s="106"/>
+      <c r="T11" s="106"/>
+      <c r="U11" s="106"/>
+      <c r="V11" s="106"/>
+      <c r="W11" s="106"/>
+      <c r="X11" s="106"/>
+      <c r="Y11" s="106"/>
+      <c r="Z11" s="106"/>
+      <c r="AA11" s="106"/>
+      <c r="AB11" s="106"/>
+      <c r="AC11" s="106"/>
+      <c r="AD11" s="106"/>
+      <c r="AE11" s="106"/>
+      <c r="AF11" s="106"/>
+      <c r="AG11" s="106"/>
+    </row>
+    <row r="12" spans="1:33">
+      <c r="A12" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B12" s="106">
+        <v>0.95</v>
+      </c>
+      <c r="C12" s="106"/>
+      <c r="D12" s="106"/>
+      <c r="E12" s="106"/>
+      <c r="F12" s="106"/>
+      <c r="G12" s="106"/>
+      <c r="H12" s="106"/>
+      <c r="I12" s="106"/>
+      <c r="J12" s="106"/>
+      <c r="K12" s="106"/>
+      <c r="L12" s="106"/>
+      <c r="M12" s="106"/>
+      <c r="N12" s="106"/>
+      <c r="O12" s="106"/>
+      <c r="P12" s="106"/>
+      <c r="Q12" s="106"/>
+      <c r="R12" s="106"/>
+      <c r="S12" s="106"/>
+      <c r="T12" s="106"/>
+      <c r="U12" s="106"/>
+      <c r="V12" s="106"/>
+      <c r="W12" s="106"/>
+      <c r="X12" s="106"/>
+      <c r="Y12" s="106"/>
+      <c r="Z12" s="106"/>
+      <c r="AA12" s="106"/>
+      <c r="AB12" s="106"/>
+      <c r="AC12" s="106"/>
+      <c r="AD12" s="106"/>
+      <c r="AE12" s="106"/>
+      <c r="AF12" s="106"/>
+      <c r="AG12" s="106"/>
+    </row>
+    <row r="14" spans="1:33">
+      <c r="A14" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B14">
+        <v>23772624250000</v>
+      </c>
+      <c r="C14">
+        <v>24047863950000</v>
+      </c>
+      <c r="D14">
+        <v>24311497500000</v>
+      </c>
+      <c r="E14">
+        <v>24540287900000</v>
+      </c>
+      <c r="F14">
+        <v>24755604450000</v>
+      </c>
+      <c r="G14">
+        <v>25001480600000</v>
+      </c>
+      <c r="H14">
+        <v>25237832050000</v>
+      </c>
+      <c r="I14">
+        <v>25472413650000</v>
+      </c>
+      <c r="J14">
+        <v>25707567150000</v>
+      </c>
+      <c r="K14">
+        <v>25945570650000</v>
+      </c>
+      <c r="L14">
+        <v>26183748950000</v>
+      </c>
+      <c r="M14">
+        <v>26400119050000</v>
+      </c>
+      <c r="N14">
+        <v>26621834800000</v>
+      </c>
+      <c r="O14">
+        <v>26843989450000</v>
+      </c>
+      <c r="P14">
+        <v>27059580550000.004</v>
+      </c>
+      <c r="Q14">
+        <v>27266110550000</v>
+      </c>
+      <c r="R14">
+        <v>27465376850000</v>
+      </c>
+      <c r="S14">
+        <v>27656835100000</v>
+      </c>
+      <c r="T14">
+        <v>27848192650000</v>
+      </c>
+      <c r="U14">
+        <v>28027393050000</v>
+      </c>
+      <c r="V14">
+        <v>28200800350000</v>
+      </c>
+      <c r="W14">
+        <v>28377071900000</v>
+      </c>
+      <c r="X14">
+        <v>28541799050000</v>
+      </c>
+      <c r="Y14">
+        <v>28696612000000.004</v>
+      </c>
+      <c r="Z14">
+        <v>28851625400000</v>
+      </c>
+      <c r="AA14">
+        <v>29000824800000</v>
+      </c>
+      <c r="AB14">
+        <v>29146531050000</v>
+      </c>
+      <c r="AC14">
+        <v>29301301249999.996</v>
+      </c>
+      <c r="AD14">
+        <v>29458844500000</v>
+      </c>
+      <c r="AE14">
+        <v>29624205300000</v>
+      </c>
+      <c r="AF14">
+        <v>29799374850000.004</v>
+      </c>
+      <c r="AG14">
+        <v>29981629500000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33">
+      <c r="A15" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B15">
+        <v>7832793475000</v>
+      </c>
+      <c r="C15">
+        <v>7976624175000</v>
+      </c>
+      <c r="D15">
+        <v>8108632025000.002</v>
+      </c>
+      <c r="E15">
+        <v>8220850950000</v>
+      </c>
+      <c r="F15">
+        <v>8327773350000.002</v>
+      </c>
+      <c r="G15">
+        <v>8456120400000</v>
+      </c>
+      <c r="H15">
+        <v>8573548100000</v>
+      </c>
+      <c r="I15">
+        <v>8689932549999.999</v>
+      </c>
+      <c r="J15">
+        <v>8807058325000</v>
+      </c>
+      <c r="K15">
+        <v>8929529375000.002</v>
+      </c>
+      <c r="L15">
+        <v>9050899650000</v>
+      </c>
+      <c r="M15">
+        <v>9140914250000</v>
+      </c>
+      <c r="N15">
+        <v>9266734100000</v>
+      </c>
+      <c r="O15">
+        <v>9393687550000</v>
+      </c>
+      <c r="P15">
+        <v>9509812000000</v>
+      </c>
+      <c r="Q15">
+        <v>9627574125000.002</v>
+      </c>
+      <c r="R15">
+        <v>9747785775000</v>
+      </c>
+      <c r="S15">
+        <v>9866314900000</v>
+      </c>
+      <c r="T15">
+        <v>9992742825000</v>
+      </c>
+      <c r="U15">
+        <v>10112273600000</v>
+      </c>
+      <c r="V15">
+        <v>10232965600000</v>
+      </c>
+      <c r="W15">
+        <v>10364983525000</v>
+      </c>
+      <c r="X15">
+        <v>10493954250000</v>
+      </c>
+      <c r="Y15">
+        <v>10615863375000</v>
+      </c>
+      <c r="Z15">
+        <v>10746239075000</v>
+      </c>
+      <c r="AA15">
+        <v>10875760675000</v>
+      </c>
+      <c r="AB15">
+        <v>11001281525000</v>
+      </c>
+      <c r="AC15">
+        <v>11133462925000</v>
+      </c>
+      <c r="AD15">
+        <v>11252006350000</v>
+      </c>
+      <c r="AE15">
+        <v>11366518150000.002</v>
+      </c>
+      <c r="AF15">
+        <v>11475964175000</v>
+      </c>
+      <c r="AG15">
+        <v>11576012825000</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6916,22 +7222,24 @@
   </sheetPr>
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" customWidth="1"/>
-    <col min="6" max="8" width="23.28515625" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.86328125" customWidth="1"/>
+    <col min="2" max="2" width="24.59765625" customWidth="1"/>
+    <col min="3" max="3" width="20.86328125" customWidth="1"/>
+    <col min="4" max="4" width="18.265625" customWidth="1"/>
+    <col min="5" max="5" width="17.1328125" customWidth="1"/>
+    <col min="6" max="8" width="23.265625" customWidth="1"/>
+    <col min="10" max="10" width="14.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30">
+    <row r="1" spans="1:10">
       <c r="A1" s="76" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>10</v>
@@ -6949,10 +7257,10 @@
         <v>14</v>
       </c>
       <c r="G1" s="18" t="s">
+        <v>1041</v>
+      </c>
+      <c r="H1" s="18" t="s">
         <v>1042</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>1043</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -6960,32 +7268,32 @@
         <v>4</v>
       </c>
       <c r="B2" s="19">
-        <f>(SUM(INDEX('AEO 40'!$23:$25,0,MATCH(About!$B$82,'AEO 40'!$1:$1,0)))+SUM(INDEX('AEO 40'!$48:$50,0,MATCH(About!$B$82,'AEO 40'!$1:$1,0))))*1000000</f>
-        <v>369177</v>
+        <f>(SUM(INDEX('AEO 40'!$23:$25,0,MATCH(About!$B$83,'AEO 40'!$1:$1,0)))+SUM(INDEX('AEO 40'!$48:$50,0,MATCH(About!$B$83,'AEO 40'!$1:$1,0))))*1000000</f>
+        <v>573468</v>
       </c>
       <c r="C2" s="19">
-        <f>(SUM(INDEX('AEO 40'!$30:$31,0,MATCH(About!$B$82,'AEO 40'!$1:$1,0)))+SUM(INDEX('AEO 40'!$55:$56,0,MATCH(About!$B$82,'AEO 40'!$1:$1,0))))*1000000</f>
-        <v>141561</v>
+        <f>(SUM(INDEX('AEO 40'!$30:$31,0,MATCH(About!$B$83,'AEO 40'!$1:$1,0)))+SUM(INDEX('AEO 40'!$55:$56,0,MATCH(About!$B$83,'AEO 40'!$1:$1,0))))*1000000</f>
+        <v>130135</v>
       </c>
       <c r="D2" s="19">
-        <f>SUM(INDEX('AEO 40'!$17:$17,MATCH(About!$B$82,'AEO 40'!$1:$1,0)),INDEX('AEO 40'!$22:$22,MATCH(About!$B$82,'AEO 40'!$1:$1,0)),INDEX('AEO 40'!$29:$29,MATCH(About!$B$82,'AEO 40'!$1:$1,0)),INDEX('AEO 40'!$42:$42,MATCH(About!$B$82,'AEO 40'!$1:$1,0)),INDEX('AEO 40'!$54:$54,MATCH(About!$B$82,'AEO 40'!$1:$1,0)),INDEX('AEO 40'!$47:$47,MATCH(About!$B$82,'AEO 40'!$1:$1,0)))*1000000</f>
-        <v>251507362</v>
+        <f>SUM(INDEX('AEO 40'!$17:$17,MATCH(About!$B$83,'AEO 40'!$1:$1,0)),INDEX('AEO 40'!$22:$22,MATCH(About!$B$83,'AEO 40'!$1:$1,0)),INDEX('AEO 40'!$29:$29,MATCH(About!$B$83,'AEO 40'!$1:$1,0)),INDEX('AEO 40'!$42:$42,MATCH(About!$B$83,'AEO 40'!$1:$1,0)),INDEX('AEO 40'!$54:$54,MATCH(About!$B$83,'AEO 40'!$1:$1,0)),INDEX('AEO 40'!$47:$47,MATCH(About!$B$83,'AEO 40'!$1:$1,0)))*1000000</f>
+        <v>252793981.00000003</v>
       </c>
       <c r="E2" s="19">
-        <f>(INDEX('AEO 40'!$18:$18,MATCH(About!$B$82,'AEO 40'!$1:$1,0))+INDEX('AEO 40'!$43:$43,MATCH(About!$B$82,'AEO 40'!$1:$1,0)))*1000000</f>
-        <v>1232880</v>
+        <f>(INDEX('AEO 40'!$18:$18,MATCH(About!$B$83,'AEO 40'!$1:$1,0))+INDEX('AEO 40'!$43:$43,MATCH(About!$B$83,'AEO 40'!$1:$1,0)))*1000000</f>
+        <v>1271880</v>
       </c>
       <c r="F2" s="19">
-        <f>(SUM(INDEX('AEO 40'!$26:$27,0,MATCH(About!$B$82,'AEO 40'!$1:$1,0)))+SUM(INDEX('AEO 40'!$51:$52,0,MATCH(About!$B$82,'AEO 40'!$1:$1,0))))*1000000</f>
-        <v>357614</v>
+        <f>(SUM(INDEX('AEO 40'!$26:$27,0,MATCH(About!$B$83,'AEO 40'!$1:$1,0)))+SUM(INDEX('AEO 40'!$51:$52,0,MATCH(About!$B$83,'AEO 40'!$1:$1,0))))*1000000</f>
+        <v>531987</v>
       </c>
       <c r="G2" s="19">
-        <f>(SUM(INDEX('AEO 40'!$32:$33,0,MATCH(About!$B$82,'AEO 40'!$1:$1,0)))+SUM(INDEX('AEO 40'!$57:$58,0,MATCH(About!$B$82,'AEO 40'!$1:$1,0))))*1000000</f>
-        <v>105105</v>
+        <f>(SUM(INDEX('AEO 40'!$32:$33,0,MATCH(About!$B$83,'AEO 40'!$1:$1,0)))+SUM(INDEX('AEO 40'!$57:$58,0,MATCH(About!$B$83,'AEO 40'!$1:$1,0))))*1000000</f>
+        <v>99543</v>
       </c>
       <c r="H2" s="20">
-        <f>(SUM(INDEX('AEO 40'!$35:$35,0,MATCH(About!$B$82,'AEO 40'!$1:$1,0)))+SUM(INDEX('AEO 40'!$60:$60,0,MATCH(About!$B$82,'AEO 40'!$1:$1,0))))*1000000</f>
-        <v>4172</v>
+        <f>(SUM(INDEX('AEO 40'!$35:$35,0,MATCH(About!$B$83,'AEO 40'!$1:$1,0)))+SUM(INDEX('AEO 40'!$60:$60,0,MATCH(About!$B$83,'AEO 40'!$1:$1,0))))*1000000</f>
+        <v>9439</v>
       </c>
       <c r="J2" s="19"/>
     </row>
@@ -6998,27 +7306,27 @@
         <v>300</v>
       </c>
       <c r="C3" s="19">
-        <f>SUM(INDEX('AEO 37'!$75:$75,MATCH(About!$B$82,'AEO 37'!$1:$1,0)),INDEX('AEO 37'!$83:$83,MATCH(About!$B$82,'AEO 37'!$1:$1,0)),INDEX('AEO 37'!$91:$91,MATCH(About!$B$82,'AEO 37'!$1:$1,0)))/INDEX('AEO 37'!$70:$70,MATCH(About!$B$82,'AEO 37'!$1:$1,0))*INDEX('NTS 1-11'!$14:$14,MATCH(About!$B$82,'NTS 1-11'!$2:$2,0))-'SYVbT-freight'!C2</f>
-        <v>90051.74602116608</v>
+        <f>SUM(INDEX('AEO 37'!$75:$75,MATCH(About!$B$83,'AEO 37'!$1:$1,0)),INDEX('AEO 37'!$83:$83,MATCH(About!$B$83,'AEO 37'!$1:$1,0)),INDEX('AEO 37'!$91:$91,MATCH(About!$B$83,'AEO 37'!$1:$1,0)))/INDEX('AEO 37'!$70:$70,MATCH(About!$B$83,'AEO 37'!$1:$1,0))*INDEX('NTS 1-11'!$14:$14,MATCH(About!$B$83,'NTS 1-11'!$2:$2,0))-'SYVbT-freight'!C2</f>
+        <v>92925.161608754352</v>
       </c>
       <c r="D3" s="20">
-        <f>SUM(INDEX('AEO 37'!$72:$72,MATCH(About!$B$82,'AEO 37'!$1:$1,0)),INDEX('AEO 37'!$80:$80,MATCH(About!$B$82,'AEO 37'!$1:$1,0)),INDEX('AEO 37'!$88:$88,MATCH(About!$B$82,'AEO 37'!$1:$1,0)))/INDEX('AEO 37'!$70:$70,MATCH(About!$B$82,'AEO 37'!$1:$1,0))*INDEX('NTS 1-11'!$14:$14,MATCH(About!$B$82,'NTS 1-11'!$2:$2,0))</f>
-        <v>98680.718907420727</v>
+        <f>SUM(INDEX('AEO 37'!$72:$72,MATCH(About!$B$83,'AEO 37'!$1:$1,0)),INDEX('AEO 37'!$80:$80,MATCH(About!$B$83,'AEO 37'!$1:$1,0)),INDEX('AEO 37'!$88:$88,MATCH(About!$B$83,'AEO 37'!$1:$1,0)))/INDEX('AEO 37'!$70:$70,MATCH(About!$B$83,'AEO 37'!$1:$1,0))*INDEX('NTS 1-11'!$14:$14,MATCH(About!$B$83,'NTS 1-11'!$2:$2,0))</f>
+        <v>101746.79541054915</v>
       </c>
       <c r="E3" s="19">
-        <f>SUM(INDEX('AEO 37'!$74:$74,MATCH(About!$B$82,'AEO 37'!$1:$1,0)),INDEX('AEO 37'!$82:$82,MATCH(About!$B$82,'AEO 37'!$1:$1,0)),INDEX('AEO 37'!$90:$90,MATCH(About!$B$82,'AEO 37'!$1:$1,0)))/INDEX('AEO 37'!$70:$70,MATCH(About!$B$82,'AEO 37'!$1:$1,0))*INDEX('NTS 1-11'!$14:$14,MATCH(About!$B$82,'NTS 1-11'!$2:$2,0))</f>
-        <v>800794.19250958553</v>
+        <f>SUM(INDEX('AEO 37'!$74:$74,MATCH(About!$B$83,'AEO 37'!$1:$1,0)),INDEX('AEO 37'!$82:$82,MATCH(About!$B$83,'AEO 37'!$1:$1,0)),INDEX('AEO 37'!$90:$90,MATCH(About!$B$83,'AEO 37'!$1:$1,0)))/INDEX('AEO 37'!$70:$70,MATCH(About!$B$83,'AEO 37'!$1:$1,0))*INDEX('NTS 1-11'!$14:$14,MATCH(About!$B$83,'NTS 1-11'!$2:$2,0))</f>
+        <v>825771.86389471905</v>
       </c>
       <c r="F3" s="20">
         <v>0</v>
       </c>
       <c r="G3" s="19">
-        <f>SUM(INDEX('AEO 37'!$76:$76,MATCH(About!$B$82,'AEO 37'!$1:$1,0)),INDEX('AEO 37'!$84:$84,MATCH(About!$B$82,'AEO 37'!$1:$1,0)),INDEX('AEO 37'!$92:$92,MATCH(About!$B$82,'AEO 37'!$1:$1,0)))/INDEX('AEO 37'!$70:$70,MATCH(About!$B$82,'AEO 37'!$1:$1,0))*INDEX('NTS 1-11'!$14:$14,MATCH(About!$B$82,'NTS 1-11'!$2:$2,0))</f>
-        <v>6622.4539841735223</v>
+        <f>SUM(INDEX('AEO 37'!$76:$76,MATCH(About!$B$83,'AEO 37'!$1:$1,0)),INDEX('AEO 37'!$84:$84,MATCH(About!$B$83,'AEO 37'!$1:$1,0)),INDEX('AEO 37'!$92:$92,MATCH(About!$B$83,'AEO 37'!$1:$1,0)))/INDEX('AEO 37'!$70:$70,MATCH(About!$B$83,'AEO 37'!$1:$1,0))*INDEX('NTS 1-11'!$14:$14,MATCH(About!$B$83,'NTS 1-11'!$2:$2,0))</f>
+        <v>6827.2456318812028</v>
       </c>
       <c r="H3" s="19">
-        <f>SUM(INDEX('AEO 37'!$78:$78,MATCH(About!$B$82,'AEO 37'!$1:$1,0)),INDEX('AEO 37'!$86:$86,MATCH(About!$B$82,'AEO 37'!$1:$1,0)),INDEX('AEO 37'!$94:$94,MATCH(About!$B$82,'AEO 37'!$1:$1,0)))/INDEX('AEO 37'!$70:$70,MATCH(About!$B$82,'AEO 37'!$1:$1,0))*INDEX('NTS 1-11'!$14:$14,MATCH(About!$B$82,'NTS 1-11'!$2:$2,0))</f>
-        <v>61.174419837550886</v>
+        <f>SUM(INDEX('AEO 37'!$78:$78,MATCH(About!$B$83,'AEO 37'!$1:$1,0)),INDEX('AEO 37'!$86:$86,MATCH(About!$B$83,'AEO 37'!$1:$1,0)),INDEX('AEO 37'!$94:$94,MATCH(About!$B$83,'AEO 37'!$1:$1,0)))/INDEX('AEO 37'!$70:$70,MATCH(About!$B$83,'AEO 37'!$1:$1,0))*INDEX('NTS 1-11'!$14:$14,MATCH(About!$B$83,'NTS 1-11'!$2:$2,0))</f>
+        <v>63.231751992177983</v>
       </c>
       <c r="I3" s="19"/>
       <c r="J3" s="75"/>
@@ -7037,8 +7345,8 @@
         <v>0</v>
       </c>
       <c r="E4" s="19">
-        <f>INDEX('AEO 49'!$72:$72,MATCH(About!$B$82,'AEO 49'!$1:$1,0))</f>
-        <v>6585.1777339999999</v>
+        <f>INDEX('AEO 49'!$72:$72,MATCH(About!$B$83,'AEO 49'!$1:$1,0))</f>
+        <v>6869.1513670000004</v>
       </c>
       <c r="F4" s="20">
         <v>0</v>
@@ -7055,8 +7363,8 @@
         <v>7</v>
       </c>
       <c r="B5" s="20">
-        <f>(SUM(INDEX('NTS 1-11'!$17:$17,MATCH(About!$B$82,'NTS 1-11'!$2:$2,0)),INDEX('NTS 1-11'!$18:$18,MATCH(About!$B$82,'NTS 1-11'!$2:$2,0)),INDEX('NTS 1-11'!$20:$20,MATCH(About!$B$82,'NTS 1-11'!$2:$2,0)))/Misc!A1+INDEX('NTS 1-11'!$29:$29,MATCH(About!$B$82,'NTS 1-11'!$2:$2,0)))*Misc!A5</f>
-        <v>1258.1247365296165</v>
+        <f>(SUM(INDEX('NTS 1-11'!$17:$17,MATCH(About!$B$83,'NTS 1-11'!$2:$2,0)),INDEX('NTS 1-11'!$18:$18,MATCH(About!$B$83,'NTS 1-11'!$2:$2,0)),INDEX('NTS 1-11'!$20:$20,MATCH(About!$B$83,'NTS 1-11'!$2:$2,0)))/Misc!A1+INDEX('NTS 1-11'!$29:$29,MATCH(About!$B$83,'NTS 1-11'!$2:$2,0)))*Misc!A5</f>
+        <v>1861.3933137463398</v>
       </c>
       <c r="C5" s="20">
         <v>0</v>
@@ -7065,8 +7373,8 @@
         <v>0</v>
       </c>
       <c r="E5" s="19">
-        <f>(SUM(INDEX('NTS 1-11'!$17:$17,MATCH(About!$B$82,'NTS 1-11'!$2:$2,0)),INDEX('NTS 1-11'!$18:$18,MATCH(About!$B$82,'NTS 1-11'!$2:$2,0)),INDEX('NTS 1-11'!$20:$20,MATCH(About!$B$82,'NTS 1-11'!$2:$2,0)))/Misc!A1+INDEX('NTS 1-11'!$29:$29,MATCH(About!$B$82,'NTS 1-11'!$2:$2,0)))*Misc!A6</f>
-        <v>1199.9752634703832</v>
+        <f>(SUM(INDEX('NTS 1-11'!$17:$17,MATCH(About!$B$83,'NTS 1-11'!$2:$2,0)),INDEX('NTS 1-11'!$18:$18,MATCH(About!$B$83,'NTS 1-11'!$2:$2,0)),INDEX('NTS 1-11'!$20:$20,MATCH(About!$B$83,'NTS 1-11'!$2:$2,0)))/Misc!A1+INDEX('NTS 1-11'!$29:$29,MATCH(About!$B$83,'NTS 1-11'!$2:$2,0)))*Misc!A6</f>
+        <v>613.30668625366241</v>
       </c>
       <c r="F5" s="20">
         <v>0</v>
@@ -7090,11 +7398,11 @@
       </c>
       <c r="D6" s="20">
         <f>SUM('NRBS 40'!B5,'NRBS 40'!B7,'NRBS 40'!B8)*1000*Misc!A8</f>
-        <v>10010853.402560361</v>
+        <v>9985763.2904606499</v>
       </c>
       <c r="E6" s="19">
         <f>SUM('NRBS 40'!B5,'NRBS 40'!B7,'NRBS 40'!B8)*1000*Misc!A9</f>
-        <v>2694146.5974396388</v>
+        <v>2719236.5002297149</v>
       </c>
       <c r="F6" s="20">
         <v>0</v>
@@ -7117,8 +7425,8 @@
         <v>0</v>
       </c>
       <c r="D7" s="20">
-        <f>TREND('NTS 1-11'!AD9:AH9,'NTS 1-11'!AD2:AH2,About!B82)</f>
-        <v>8705071.2002178878</v>
+        <f>TREND('NTS 1-11'!AD9:AH9,'NTS 1-11'!AD2:AH2,About!B83)</f>
+        <v>8769584.3002178818</v>
       </c>
       <c r="E7" s="20">
         <v>0</v>
@@ -7161,23 +7469,25 @@
   </sheetPr>
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" customWidth="1"/>
-    <col min="6" max="8" width="23.28515625" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.86328125" customWidth="1"/>
+    <col min="2" max="2" width="24.59765625" customWidth="1"/>
+    <col min="3" max="3" width="20.86328125" customWidth="1"/>
+    <col min="4" max="4" width="18.265625" customWidth="1"/>
+    <col min="5" max="5" width="17.1328125" customWidth="1"/>
+    <col min="6" max="8" width="23.265625" customWidth="1"/>
+    <col min="9" max="9" width="13.3984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30">
+    <row r="1" spans="1:10">
       <c r="A1" s="76" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>10</v>
@@ -7195,10 +7505,10 @@
         <v>14</v>
       </c>
       <c r="G1" s="18" t="s">
+        <v>1041</v>
+      </c>
+      <c r="H1" s="18" t="s">
         <v>1042</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>1043</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -7206,31 +7516,31 @@
         <v>4</v>
       </c>
       <c r="B2" s="20">
-        <f>SUM(INDEX('AEO 46'!73:73,0,MATCH(About!$B$82,'AEO 46'!1:1,0)))*10^6</f>
+        <f>SUM(INDEX('AEO 46'!73:73,0,MATCH(About!$B$83,'AEO 46'!1:1,0)))*10^6</f>
         <v>0</v>
       </c>
       <c r="C2" s="20">
-        <f>SUM(INDEX('AEO 46'!71:71,0,MATCH(About!$B$82,'AEO 46'!1:1,0)))*1000</f>
-        <v>11380.197</v>
+        <f>SUM(INDEX('AEO 46'!71:71,0,MATCH(About!$B$83,'AEO 46'!1:1,0)))*1000</f>
+        <v>11591.99</v>
       </c>
       <c r="D2" s="20">
-        <f>SUM(INDEX('AEO 46'!68:68,MATCH(About!$B$82,'AEO 46'!1:1,0)),INDEX('AEO 46'!72:72,MATCH(About!$B$82,'AEO 46'!1:1,0)))*1000</f>
-        <v>9022563.2320000008</v>
+        <f>SUM(INDEX('AEO 46'!68:68,MATCH(About!$B$83,'AEO 46'!1:1,0)),INDEX('AEO 46'!72:72,MATCH(About!$B$83,'AEO 46'!1:1,0)))*1000</f>
+        <v>8971212.6459999997</v>
       </c>
       <c r="E2" s="20">
-        <f>INDEX('AEO 46'!69:69,MATCH(About!$B$82,'AEO 46'!$1:$1,0))*1000</f>
-        <v>4734830.5659999996</v>
+        <f>INDEX('AEO 46'!69:69,MATCH(About!$B$83,'AEO 46'!$1:$1,0))*1000</f>
+        <v>4869416.5039999997</v>
       </c>
       <c r="F2" s="20">
-        <f>INDEX('AEO 46'!74:74,MATCH(About!$B$82,'AEO 46'!$1:$1,0))*10^6+INDEX('AEO 46'!75:75,MATCH(About!$B$82,'AEO 46'!$1:$1,0))*10^6</f>
+        <f>INDEX('AEO 46'!74:74,MATCH(About!$B$83,'AEO 46'!$1:$1,0))*10^6+INDEX('AEO 46'!75:75,MATCH(About!$B$83,'AEO 46'!$1:$1,0))*10^6</f>
         <v>0</v>
       </c>
       <c r="G2" s="20">
-        <f>SUM(INDEX('AEO 46'!70:70,0,MATCH(About!$B$82,'AEO 46'!1:1,0)))*1000</f>
-        <v>41.408000000000001</v>
+        <f>SUM(INDEX('AEO 46'!70:70,0,MATCH(About!$B$83,'AEO 46'!1:1,0)))*1000</f>
+        <v>701.37300000000005</v>
       </c>
       <c r="H2" s="77">
-        <f>SUM(INDEX('AEO 46'!76:76,0,MATCH(About!$B$82,'AEO 46'!1:1,0)))*1000</f>
+        <f>SUM(INDEX('AEO 46'!76:76,0,MATCH(About!$B$83,'AEO 46'!1:1,0)))*1000</f>
         <v>0</v>
       </c>
       <c r="I2" s="75"/>
@@ -7241,32 +7551,32 @@
         <v>5</v>
       </c>
       <c r="B3" s="77">
-        <f>SUM(INDEX('AEO 50'!$142:$142,MATCH(About!$B$82,'AEO 50'!$1:$1,0)),INDEX('AEO 50'!$153:$153,MATCH(About!$B$82,'AEO 50'!$1:$1,0)),INDEX('AEO 50'!$164:$164,MATCH(About!$B$82,'AEO 50'!$1:$1,0)))*10^6</f>
-        <v>85</v>
+        <f>SUM(INDEX('AEO 50'!$142:$142,MATCH(About!$B$83,'AEO 50'!$1:$1,0)),INDEX('AEO 50'!$153:$153,MATCH(About!$B$83,'AEO 50'!$1:$1,0)),INDEX('AEO 50'!$164:$164,MATCH(About!$B$83,'AEO 50'!$1:$1,0)))*10^6</f>
+        <v>3146</v>
       </c>
       <c r="C3" s="77">
-        <f>SUM(INDEX('AEO 50'!$140:$140,MATCH(About!$B$82,'AEO 50'!$1:$1,0)),INDEX('AEO 50'!$151:$151,MATCH(About!$B$82,'AEO 50'!$1:$1,0)),INDEX('AEO 50'!$162:$162,MATCH(About!$B$82,'AEO 50'!$1:$1,0)))*10^6</f>
-        <v>32117</v>
+        <f>SUM(INDEX('AEO 50'!$140:$140,MATCH(About!$B$83,'AEO 50'!$1:$1,0)),INDEX('AEO 50'!$151:$151,MATCH(About!$B$83,'AEO 50'!$1:$1,0)),INDEX('AEO 50'!$162:$162,MATCH(About!$B$83,'AEO 50'!$1:$1,0)))*10^6</f>
+        <v>37012</v>
       </c>
       <c r="D3" s="77">
-        <f>SUM(INDEX('AEO 50'!$138:$138,MATCH(About!$B$82,'AEO 50'!$1:$1,0)),INDEX('AEO 50'!$141:$141,MATCH(About!$B$82,'AEO 50'!$1:$1,0)),INDEX('AEO 50'!$149:$149,MATCH(About!$B$82,'AEO 50'!$1:$1,0)),INDEX('AEO 50'!$152:$152,MATCH(About!$B$82,'AEO 50'!$1:$1,0)),INDEX('AEO 50'!$160:$160,MATCH(About!$B$82,'AEO 50'!$1:$1,0)),INDEX('AEO 50'!$163:$163,MATCH(About!$B$82,'AEO 50'!$1:$1,0)))*10^6</f>
-        <v>2587286</v>
+        <f>SUM(INDEX('AEO 50'!$138:$138,MATCH(About!$B$83,'AEO 50'!$1:$1,0)),INDEX('AEO 50'!$141:$141,MATCH(About!$B$83,'AEO 50'!$1:$1,0)),INDEX('AEO 50'!$149:$149,MATCH(About!$B$83,'AEO 50'!$1:$1,0)),INDEX('AEO 50'!$152:$152,MATCH(About!$B$83,'AEO 50'!$1:$1,0)),INDEX('AEO 50'!$160:$160,MATCH(About!$B$83,'AEO 50'!$1:$1,0)),INDEX('AEO 50'!$163:$163,MATCH(About!$B$83,'AEO 50'!$1:$1,0)))*10^6</f>
+        <v>2586744</v>
       </c>
       <c r="E3" s="77">
-        <f>SUM(INDEX('AEO 50'!$137:$137,MATCH(About!$B$82,'AEO 50'!$1:$1,0)),INDEX('AEO 50'!$148:$148,MATCH(About!$B$82,'AEO 50'!$1:$1,0)),INDEX('AEO 50'!$159:$159,MATCH(About!$B$82,'AEO 50'!$1:$1,0)))*10^6</f>
-        <v>9312751</v>
+        <f>SUM(INDEX('AEO 50'!$137:$137,MATCH(About!$B$83,'AEO 50'!$1:$1,0)),INDEX('AEO 50'!$148:$148,MATCH(About!$B$83,'AEO 50'!$1:$1,0)),INDEX('AEO 50'!$159:$159,MATCH(About!$B$83,'AEO 50'!$1:$1,0)))*10^6</f>
+        <v>9405890</v>
       </c>
       <c r="F3" s="77">
-        <f>SUM(SUM(INDEX('AEO 50'!$143:$144,0,MATCH(About!$B$82,'AEO 50'!1:1,0))),SUM(INDEX('AEO 50'!$154:$155,0,MATCH(About!$B$82,'AEO 50'!1:1,0))),SUM(INDEX('AEO 50'!$165:$166,0,MATCH(About!$B$82,'AEO 50'!1:1,0))))*10^6</f>
-        <v>0</v>
+        <f>SUM(SUM(INDEX('AEO 50'!$143:$144,0,MATCH(About!$B$83,'AEO 50'!1:1,0))),SUM(INDEX('AEO 50'!$154:$155,0,MATCH(About!$B$83,'AEO 50'!1:1,0))),SUM(INDEX('AEO 50'!$165:$166,0,MATCH(About!$B$83,'AEO 50'!1:1,0))))*10^6</f>
+        <v>1276</v>
       </c>
       <c r="G3" s="20">
-        <f>SUM(INDEX('AEO 50'!$139:$139,MATCH(About!$B$82,'AEO 50'!$1:$1,0)),INDEX('AEO 50'!$150:$150,MATCH(About!$B$82,'AEO 50'!$1:$1,0)),INDEX('AEO 50'!$161:$161,MATCH(About!$B$82,'AEO 50'!$1:$1,0)))*10^6</f>
-        <v>7434</v>
+        <f>SUM(INDEX('AEO 50'!$139:$139,MATCH(About!$B$83,'AEO 50'!$1:$1,0)),INDEX('AEO 50'!$150:$150,MATCH(About!$B$83,'AEO 50'!$1:$1,0)),INDEX('AEO 50'!$161:$161,MATCH(About!$B$83,'AEO 50'!$1:$1,0)))*10^6</f>
+        <v>7611</v>
       </c>
       <c r="H3" s="20">
-        <f>SUM(INDEX('AEO 50'!$145:$145,MATCH(About!$B$82,'AEO 50'!$1:$1,0)),INDEX('AEO 50'!$156:$156,MATCH(About!$B$82,'AEO 50'!$1:$1,0)),INDEX('AEO 50'!$167:$167,MATCH(About!$B$82,'AEO 50'!$1:$1,0)))*10^6</f>
-        <v>0</v>
+        <f>SUM(INDEX('AEO 50'!$145:$145,MATCH(About!$B$83,'AEO 50'!$1:$1,0)),INDEX('AEO 50'!$156:$156,MATCH(About!$B$83,'AEO 50'!$1:$1,0)),INDEX('AEO 50'!$167:$167,MATCH(About!$B$83,'AEO 50'!$1:$1,0)))*10^6</f>
+        <v>973</v>
       </c>
       <c r="J3" s="19"/>
     </row>
@@ -7284,8 +7594,8 @@
         <v>0</v>
       </c>
       <c r="E4" s="13">
-        <f>INDEX('AEO 49'!$184:$184,MATCH(About!$B$82,'AEO 49'!$1:$1,0))</f>
-        <v>936.50335700000005</v>
+        <f>INDEX('AEO 49'!$184:$184,MATCH(About!$B$83,'AEO 49'!$1:$1,0))</f>
+        <v>910.85522500000002</v>
       </c>
       <c r="F4" s="77">
         <v>0</v>
@@ -7311,8 +7621,8 @@
         <v>0</v>
       </c>
       <c r="E5" s="19">
-        <f>INDEX('NTS 1-11'!$25:$25,MATCH(About!$B$82,'NTS 1-11'!$2:$2,0))*(SUM(FRA!E2:E4)/FRA!E2)</f>
-        <v>28117.828402366868</v>
+        <f>INDEX('NTS 1-11'!$25:$25,MATCH(About!$B$83,'NTS 1-11'!$2:$2,0))*(SUM(FRA!E2:E4)/FRA!E2)</f>
+        <v>28921.315976331338</v>
       </c>
       <c r="F5" s="77">
         <v>0</v>
@@ -7338,8 +7648,8 @@
         <v>0</v>
       </c>
       <c r="E6" s="19">
-        <f>SUM(INDEX('NTS 1-11'!32:33,0,MATCH(About!$B$82,'NTS 1-11'!2:2,0)))</f>
-        <v>9587</v>
+        <f>SUM(INDEX('NTS 1-11'!32:33,0,MATCH(About!$B$83,'NTS 1-11'!2:2,0)))</f>
+        <v>9763.8999999999869</v>
       </c>
       <c r="F6" s="77">
         <v>0</v>
@@ -7404,14 +7714,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="45.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20.86328125" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="45.73046875" customWidth="1"/>
     <col min="38" max="38" width="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="15" customHeight="1" thickBot="1">
       <c r="B1" s="9" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="C1" s="8">
         <v>2017</v>
@@ -7533,7 +7843,7 @@
         <v>217</v>
       </c>
       <c r="D4" s="37" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="E4" s="37"/>
       <c r="F4" s="37"/>
@@ -7546,7 +7856,7 @@
         <v>215</v>
       </c>
       <c r="D5" s="37" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="E5" s="37"/>
       <c r="F5" s="37"/>
@@ -7558,7 +7868,7 @@
       </c>
       <c r="D6" s="37"/>
       <c r="E6" s="37" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="F6" s="37"/>
       <c r="G6" s="37"/>
@@ -7683,7 +7993,7 @@
         <v>211</v>
       </c>
       <c r="AK12" s="38" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="13" spans="1:37" ht="15" customHeight="1" thickBot="1">
@@ -8156,7 +8466,7 @@
         <v>959</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="22" spans="1:37" ht="15" customHeight="1">
@@ -12272,7 +12582,7 @@
         <v>694</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="C68" s="17">
         <v>0.67915400000000004</v>
@@ -13859,7 +14169,7 @@
         <v>667</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="C84" s="17">
         <v>0.32080900000000001</v>
@@ -14079,44 +14389,44 @@
     </row>
     <row r="86" spans="1:37" ht="15" customHeight="1" thickBot="1"/>
     <row r="87" spans="1:37" ht="15" customHeight="1">
-      <c r="B87" s="79" t="s">
+      <c r="B87" s="80" t="s">
         <v>665</v>
       </c>
-      <c r="C87" s="79"/>
-      <c r="D87" s="79"/>
-      <c r="E87" s="79"/>
-      <c r="F87" s="79"/>
-      <c r="G87" s="79"/>
-      <c r="H87" s="79"/>
-      <c r="I87" s="79"/>
-      <c r="J87" s="79"/>
-      <c r="K87" s="79"/>
-      <c r="L87" s="79"/>
-      <c r="M87" s="79"/>
-      <c r="N87" s="79"/>
-      <c r="O87" s="79"/>
-      <c r="P87" s="79"/>
-      <c r="Q87" s="79"/>
-      <c r="R87" s="79"/>
-      <c r="S87" s="79"/>
-      <c r="T87" s="79"/>
-      <c r="U87" s="79"/>
-      <c r="V87" s="79"/>
-      <c r="W87" s="79"/>
-      <c r="X87" s="79"/>
-      <c r="Y87" s="79"/>
-      <c r="Z87" s="79"/>
-      <c r="AA87" s="79"/>
-      <c r="AB87" s="79"/>
-      <c r="AC87" s="79"/>
-      <c r="AD87" s="79"/>
-      <c r="AE87" s="79"/>
-      <c r="AF87" s="79"/>
-      <c r="AG87" s="79"/>
-      <c r="AH87" s="79"/>
-      <c r="AI87" s="79"/>
-      <c r="AJ87" s="79"/>
-      <c r="AK87" s="79"/>
+      <c r="C87" s="80"/>
+      <c r="D87" s="80"/>
+      <c r="E87" s="80"/>
+      <c r="F87" s="80"/>
+      <c r="G87" s="80"/>
+      <c r="H87" s="80"/>
+      <c r="I87" s="80"/>
+      <c r="J87" s="80"/>
+      <c r="K87" s="80"/>
+      <c r="L87" s="80"/>
+      <c r="M87" s="80"/>
+      <c r="N87" s="80"/>
+      <c r="O87" s="80"/>
+      <c r="P87" s="80"/>
+      <c r="Q87" s="80"/>
+      <c r="R87" s="80"/>
+      <c r="S87" s="80"/>
+      <c r="T87" s="80"/>
+      <c r="U87" s="80"/>
+      <c r="V87" s="80"/>
+      <c r="W87" s="80"/>
+      <c r="X87" s="80"/>
+      <c r="Y87" s="80"/>
+      <c r="Z87" s="80"/>
+      <c r="AA87" s="80"/>
+      <c r="AB87" s="80"/>
+      <c r="AC87" s="80"/>
+      <c r="AD87" s="80"/>
+      <c r="AE87" s="80"/>
+      <c r="AF87" s="80"/>
+      <c r="AG87" s="80"/>
+      <c r="AH87" s="80"/>
+      <c r="AI87" s="80"/>
+      <c r="AJ87" s="80"/>
+      <c r="AK87" s="80"/>
     </row>
     <row r="88" spans="1:37" ht="15" customHeight="1">
       <c r="B88" s="39" t="s">
@@ -14130,7 +14440,7 @@
     </row>
     <row r="90" spans="1:37" ht="15" customHeight="1">
       <c r="B90" s="39" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="91" spans="1:37" ht="15" customHeight="1">
@@ -14155,7 +14465,7 @@
     </row>
     <row r="95" spans="1:37" ht="15" customHeight="1">
       <c r="B95" s="39" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="96" spans="1:37" ht="15" customHeight="1">
@@ -14165,17 +14475,17 @@
     </row>
     <row r="97" spans="2:2" ht="15" customHeight="1">
       <c r="B97" s="39" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="98" spans="2:2" ht="15" customHeight="1">
       <c r="B98" s="39" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="99" spans="2:2" ht="15" customHeight="1">
       <c r="B99" s="39" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="100" spans="2:2" ht="15" customHeight="1">
@@ -14195,7 +14505,7 @@
     </row>
     <row r="103" spans="2:2" ht="15" customHeight="1">
       <c r="B103" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="104" spans="2:2" ht="15" customHeight="1">
@@ -14210,12 +14520,12 @@
     </row>
     <row r="106" spans="2:2" ht="15" customHeight="1">
       <c r="B106" s="39" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="107" spans="2:2" ht="15" customHeight="1">
       <c r="B107" s="39" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
   </sheetData>
@@ -14232,7 +14542,7 @@
   <dimension ref="A1:AK132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C74" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
@@ -14240,13 +14550,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="45.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20.86328125" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="45.73046875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="15" customHeight="1" thickBot="1">
       <c r="B1" s="9" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="C1" s="8">
         <v>2017</v>
@@ -14368,7 +14678,7 @@
         <v>217</v>
       </c>
       <c r="D4" s="37" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="E4" s="37"/>
       <c r="F4" s="37"/>
@@ -14381,7 +14691,7 @@
         <v>215</v>
       </c>
       <c r="D5" s="37" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="E5" s="37"/>
       <c r="F5" s="37"/>
@@ -14393,7 +14703,7 @@
       </c>
       <c r="D6" s="37"/>
       <c r="E6" s="37" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="F6" s="37"/>
       <c r="G6" s="37"/>
@@ -14518,7 +14828,7 @@
         <v>211</v>
       </c>
       <c r="AK12" s="38" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="13" spans="1:37" ht="15" customHeight="1" thickBot="1">
@@ -24804,44 +25114,44 @@
     </row>
     <row r="117" spans="1:37" ht="15" customHeight="1" thickBot="1"/>
     <row r="118" spans="1:37" ht="15" customHeight="1">
-      <c r="B118" s="79" t="s">
+      <c r="B118" s="80" t="s">
         <v>777</v>
       </c>
-      <c r="C118" s="79"/>
-      <c r="D118" s="79"/>
-      <c r="E118" s="79"/>
-      <c r="F118" s="79"/>
-      <c r="G118" s="79"/>
-      <c r="H118" s="79"/>
-      <c r="I118" s="79"/>
-      <c r="J118" s="79"/>
-      <c r="K118" s="79"/>
-      <c r="L118" s="79"/>
-      <c r="M118" s="79"/>
-      <c r="N118" s="79"/>
-      <c r="O118" s="79"/>
-      <c r="P118" s="79"/>
-      <c r="Q118" s="79"/>
-      <c r="R118" s="79"/>
-      <c r="S118" s="79"/>
-      <c r="T118" s="79"/>
-      <c r="U118" s="79"/>
-      <c r="V118" s="79"/>
-      <c r="W118" s="79"/>
-      <c r="X118" s="79"/>
-      <c r="Y118" s="79"/>
-      <c r="Z118" s="79"/>
-      <c r="AA118" s="79"/>
-      <c r="AB118" s="79"/>
-      <c r="AC118" s="79"/>
-      <c r="AD118" s="79"/>
-      <c r="AE118" s="79"/>
-      <c r="AF118" s="79"/>
-      <c r="AG118" s="79"/>
-      <c r="AH118" s="79"/>
-      <c r="AI118" s="79"/>
-      <c r="AJ118" s="79"/>
-      <c r="AK118" s="79"/>
+      <c r="C118" s="80"/>
+      <c r="D118" s="80"/>
+      <c r="E118" s="80"/>
+      <c r="F118" s="80"/>
+      <c r="G118" s="80"/>
+      <c r="H118" s="80"/>
+      <c r="I118" s="80"/>
+      <c r="J118" s="80"/>
+      <c r="K118" s="80"/>
+      <c r="L118" s="80"/>
+      <c r="M118" s="80"/>
+      <c r="N118" s="80"/>
+      <c r="O118" s="80"/>
+      <c r="P118" s="80"/>
+      <c r="Q118" s="80"/>
+      <c r="R118" s="80"/>
+      <c r="S118" s="80"/>
+      <c r="T118" s="80"/>
+      <c r="U118" s="80"/>
+      <c r="V118" s="80"/>
+      <c r="W118" s="80"/>
+      <c r="X118" s="80"/>
+      <c r="Y118" s="80"/>
+      <c r="Z118" s="80"/>
+      <c r="AA118" s="80"/>
+      <c r="AB118" s="80"/>
+      <c r="AC118" s="80"/>
+      <c r="AD118" s="80"/>
+      <c r="AE118" s="80"/>
+      <c r="AF118" s="80"/>
+      <c r="AG118" s="80"/>
+      <c r="AH118" s="80"/>
+      <c r="AI118" s="80"/>
+      <c r="AJ118" s="80"/>
+      <c r="AK118" s="80"/>
     </row>
     <row r="119" spans="1:37" ht="15" customHeight="1">
       <c r="B119" s="39" t="s">
@@ -24880,22 +25190,22 @@
     </row>
     <row r="126" spans="1:37" ht="15" customHeight="1">
       <c r="B126" s="39" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="127" spans="1:37" ht="15" customHeight="1">
       <c r="B127" s="39" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="128" spans="1:37" ht="15" customHeight="1">
       <c r="B128" s="39" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="129" spans="2:2" ht="15" customHeight="1">
       <c r="B129" s="39" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="130" spans="2:2" ht="15" customHeight="1">
@@ -24905,12 +25215,12 @@
     </row>
     <row r="131" spans="2:2" ht="15" customHeight="1">
       <c r="B131" s="39" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="132" spans="2:2" ht="15" customHeight="1">
       <c r="B132" s="39" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
   </sheetData>
@@ -24935,13 +25245,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="45.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20.86328125" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="45.73046875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="15" customHeight="1" thickBot="1">
       <c r="B1" s="9" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="C1" s="8">
         <v>2017</v>
@@ -25063,7 +25373,7 @@
         <v>217</v>
       </c>
       <c r="D4" s="37" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="E4" s="37"/>
       <c r="F4" s="37"/>
@@ -25076,7 +25386,7 @@
         <v>215</v>
       </c>
       <c r="D5" s="37" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="E5" s="37"/>
       <c r="F5" s="37"/>
@@ -25088,7 +25398,7 @@
       </c>
       <c r="D6" s="37"/>
       <c r="E6" s="37" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="F6" s="37"/>
       <c r="G6" s="37"/>
@@ -25213,7 +25523,7 @@
         <v>211</v>
       </c>
       <c r="AK12" s="38" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="13" spans="1:37" ht="15" customHeight="1" thickBot="1">
@@ -29766,44 +30076,44 @@
     </row>
     <row r="66" spans="1:37" ht="15" customHeight="1" thickBot="1"/>
     <row r="67" spans="1:37" ht="15" customHeight="1">
-      <c r="B67" s="79" t="s">
+      <c r="B67" s="80" t="s">
         <v>585</v>
       </c>
-      <c r="C67" s="79"/>
-      <c r="D67" s="79"/>
-      <c r="E67" s="79"/>
-      <c r="F67" s="79"/>
-      <c r="G67" s="79"/>
-      <c r="H67" s="79"/>
-      <c r="I67" s="79"/>
-      <c r="J67" s="79"/>
-      <c r="K67" s="79"/>
-      <c r="L67" s="79"/>
-      <c r="M67" s="79"/>
-      <c r="N67" s="79"/>
-      <c r="O67" s="79"/>
-      <c r="P67" s="79"/>
-      <c r="Q67" s="79"/>
-      <c r="R67" s="79"/>
-      <c r="S67" s="79"/>
-      <c r="T67" s="79"/>
-      <c r="U67" s="79"/>
-      <c r="V67" s="79"/>
-      <c r="W67" s="79"/>
-      <c r="X67" s="79"/>
-      <c r="Y67" s="79"/>
-      <c r="Z67" s="79"/>
-      <c r="AA67" s="79"/>
-      <c r="AB67" s="79"/>
-      <c r="AC67" s="79"/>
-      <c r="AD67" s="79"/>
-      <c r="AE67" s="79"/>
-      <c r="AF67" s="79"/>
-      <c r="AG67" s="79"/>
-      <c r="AH67" s="79"/>
-      <c r="AI67" s="79"/>
-      <c r="AJ67" s="79"/>
-      <c r="AK67" s="79"/>
+      <c r="C67" s="80"/>
+      <c r="D67" s="80"/>
+      <c r="E67" s="80"/>
+      <c r="F67" s="80"/>
+      <c r="G67" s="80"/>
+      <c r="H67" s="80"/>
+      <c r="I67" s="80"/>
+      <c r="J67" s="80"/>
+      <c r="K67" s="80"/>
+      <c r="L67" s="80"/>
+      <c r="M67" s="80"/>
+      <c r="N67" s="80"/>
+      <c r="O67" s="80"/>
+      <c r="P67" s="80"/>
+      <c r="Q67" s="80"/>
+      <c r="R67" s="80"/>
+      <c r="S67" s="80"/>
+      <c r="T67" s="80"/>
+      <c r="U67" s="80"/>
+      <c r="V67" s="80"/>
+      <c r="W67" s="80"/>
+      <c r="X67" s="80"/>
+      <c r="Y67" s="80"/>
+      <c r="Z67" s="80"/>
+      <c r="AA67" s="80"/>
+      <c r="AB67" s="80"/>
+      <c r="AC67" s="80"/>
+      <c r="AD67" s="80"/>
+      <c r="AE67" s="80"/>
+      <c r="AF67" s="80"/>
+      <c r="AG67" s="80"/>
+      <c r="AH67" s="80"/>
+      <c r="AI67" s="80"/>
+      <c r="AJ67" s="80"/>
+      <c r="AK67" s="80"/>
     </row>
     <row r="68" spans="1:37" ht="15" customHeight="1">
       <c r="B68" s="39" t="s">
@@ -29822,32 +30132,32 @@
     </row>
     <row r="71" spans="1:37" ht="15" customHeight="1">
       <c r="B71" s="39" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="72" spans="1:37" ht="15" customHeight="1">
       <c r="B72" s="39" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="73" spans="1:37" ht="15" customHeight="1">
       <c r="B73" s="39" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="74" spans="1:37" ht="15" customHeight="1">
       <c r="B74" s="39" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="75" spans="1:37" ht="15" customHeight="1">
       <c r="B75" s="39" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="76" spans="1:37" ht="15" customHeight="1">
       <c r="B76" s="39" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
   </sheetData>
@@ -29865,14 +30175,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="34.7109375" customWidth="1"/>
+    <col min="1" max="1" width="34.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="15.75" thickBot="1">
+    <row r="1" spans="1:36" ht="14.65" thickBot="1">
       <c r="A1" s="9" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B1" s="8">
         <v>2017</v>
@@ -29977,7 +30287,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" ht="15.75" thickTop="1"/>
+    <row r="2" spans="1:36" ht="14.65" thickTop="1"/>
     <row r="3" spans="1:36">
       <c r="B3" s="37" t="s">
         <v>218</v>
@@ -29994,7 +30304,7 @@
         <v>217</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="D4" s="37"/>
       <c r="E4" s="37"/>
@@ -30007,7 +30317,7 @@
         <v>215</v>
       </c>
       <c r="C5" s="37" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="D5" s="37"/>
       <c r="E5" s="37"/>
@@ -30019,19 +30329,19 @@
       </c>
       <c r="C6" s="37"/>
       <c r="D6" s="37" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E6" s="37"/>
       <c r="F6" s="37"/>
     </row>
     <row r="10" spans="1:36" ht="15.75">
       <c r="A10" s="10" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="11" spans="1:36">
       <c r="A11" s="9" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="12" spans="1:36">
@@ -30141,10 +30451,10 @@
         <v>211</v>
       </c>
       <c r="AJ12" s="38" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="13" spans="1:36" ht="15.75" thickBot="1">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" ht="14.65" thickBot="1">
       <c r="A13" s="8" t="s">
         <v>653</v>
       </c>
@@ -30254,7 +30564,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="14" spans="1:36" ht="15.75" thickTop="1"/>
+    <row r="14" spans="1:36" ht="14.65" thickTop="1"/>
     <row r="15" spans="1:36">
       <c r="A15" s="4" t="s">
         <v>652</v>
@@ -32252,7 +32562,7 @@
     </row>
     <row r="38" spans="1:36">
       <c r="A38" s="7" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B38" s="14">
         <v>8366.6914059999999</v>
@@ -34357,7 +34667,7 @@
     </row>
     <row r="63" spans="1:36">
       <c r="A63" s="7" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B63" s="14">
         <v>9336.8300780000009</v>
@@ -34467,7 +34777,7 @@
     </row>
     <row r="65" spans="1:36">
       <c r="A65" s="4" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B65" s="15">
         <v>17703.521484000001</v>
@@ -34577,12 +34887,12 @@
     </row>
     <row r="67" spans="1:36">
       <c r="A67" s="4" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="68" spans="1:36">
       <c r="A68" s="7" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B68" s="14">
         <v>7719.5703119999998</v>
@@ -34692,7 +35002,7 @@
     </row>
     <row r="69" spans="1:36">
       <c r="A69" s="7" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="B69" s="14">
         <v>4734.8305659999996</v>
@@ -34802,7 +35112,7 @@
     </row>
     <row r="70" spans="1:36">
       <c r="A70" s="7" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="B70" s="74">
         <v>4.1408E-2</v>
@@ -34912,7 +35222,7 @@
     </row>
     <row r="71" spans="1:36">
       <c r="A71" s="7" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="B71" s="14">
         <v>11.380197000000001</v>
@@ -35022,7 +35332,7 @@
     </row>
     <row r="72" spans="1:36">
       <c r="A72" s="7" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B72" s="14">
         <v>1302.9929199999999</v>
@@ -35132,7 +35442,7 @@
     </row>
     <row r="73" spans="1:36">
       <c r="A73" s="7" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="B73" s="14">
         <v>0</v>
@@ -35242,7 +35552,7 @@
     </row>
     <row r="74" spans="1:36">
       <c r="A74" s="7" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B74" s="14">
         <v>0</v>
@@ -35352,7 +35662,7 @@
     </row>
     <row r="75" spans="1:36">
       <c r="A75" s="7" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="B75" s="14">
         <v>0</v>
@@ -35462,7 +35772,7 @@
     </row>
     <row r="76" spans="1:36">
       <c r="A76" s="7" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B76" s="14">
         <v>0</v>
@@ -35572,7 +35882,7 @@
     </row>
     <row r="77" spans="1:36">
       <c r="A77" s="4" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="B77" s="15">
         <v>13768.814453000001</v>
@@ -35680,46 +35990,46 @@
         <v>1.0678999999999999E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:36" ht="15.75" thickBot="1"/>
+    <row r="78" spans="1:36" ht="14.65" thickBot="1"/>
     <row r="79" spans="1:36">
-      <c r="A79" s="79" t="s">
-        <v>1036</v>
-      </c>
-      <c r="B79" s="79"/>
-      <c r="C79" s="79"/>
-      <c r="D79" s="79"/>
-      <c r="E79" s="79"/>
-      <c r="F79" s="79"/>
-      <c r="G79" s="79"/>
-      <c r="H79" s="79"/>
-      <c r="I79" s="79"/>
-      <c r="J79" s="79"/>
-      <c r="K79" s="79"/>
-      <c r="L79" s="79"/>
-      <c r="M79" s="79"/>
-      <c r="N79" s="79"/>
-      <c r="O79" s="79"/>
-      <c r="P79" s="79"/>
-      <c r="Q79" s="79"/>
-      <c r="R79" s="79"/>
-      <c r="S79" s="79"/>
-      <c r="T79" s="79"/>
-      <c r="U79" s="79"/>
-      <c r="V79" s="79"/>
-      <c r="W79" s="79"/>
-      <c r="X79" s="79"/>
-      <c r="Y79" s="79"/>
-      <c r="Z79" s="79"/>
-      <c r="AA79" s="79"/>
-      <c r="AB79" s="79"/>
-      <c r="AC79" s="79"/>
-      <c r="AD79" s="79"/>
-      <c r="AE79" s="79"/>
-      <c r="AF79" s="79"/>
-      <c r="AG79" s="79"/>
-      <c r="AH79" s="79"/>
-      <c r="AI79" s="79"/>
-      <c r="AJ79" s="79"/>
+      <c r="A79" s="80" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B79" s="80"/>
+      <c r="C79" s="80"/>
+      <c r="D79" s="80"/>
+      <c r="E79" s="80"/>
+      <c r="F79" s="80"/>
+      <c r="G79" s="80"/>
+      <c r="H79" s="80"/>
+      <c r="I79" s="80"/>
+      <c r="J79" s="80"/>
+      <c r="K79" s="80"/>
+      <c r="L79" s="80"/>
+      <c r="M79" s="80"/>
+      <c r="N79" s="80"/>
+      <c r="O79" s="80"/>
+      <c r="P79" s="80"/>
+      <c r="Q79" s="80"/>
+      <c r="R79" s="80"/>
+      <c r="S79" s="80"/>
+      <c r="T79" s="80"/>
+      <c r="U79" s="80"/>
+      <c r="V79" s="80"/>
+      <c r="W79" s="80"/>
+      <c r="X79" s="80"/>
+      <c r="Y79" s="80"/>
+      <c r="Z79" s="80"/>
+      <c r="AA79" s="80"/>
+      <c r="AB79" s="80"/>
+      <c r="AC79" s="80"/>
+      <c r="AD79" s="80"/>
+      <c r="AE79" s="80"/>
+      <c r="AF79" s="80"/>
+      <c r="AG79" s="80"/>
+      <c r="AH79" s="80"/>
+      <c r="AI79" s="80"/>
+      <c r="AJ79" s="80"/>
     </row>
     <row r="80" spans="1:36">
       <c r="A80" s="39" t="s">
@@ -35743,22 +36053,22 @@
     </row>
     <row r="84" spans="1:1">
       <c r="A84" s="39" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="39" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="39" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="39" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
   </sheetData>
@@ -35782,13 +36092,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="45.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20.86328125" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="45.73046875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="15" customHeight="1" thickBot="1">
       <c r="B1" s="9" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="C1" s="8">
         <v>2017</v>
@@ -35910,7 +36220,7 @@
         <v>217</v>
       </c>
       <c r="D4" s="37" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="E4" s="37"/>
       <c r="F4" s="37"/>
@@ -35923,7 +36233,7 @@
         <v>215</v>
       </c>
       <c r="D5" s="37" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="E5" s="37"/>
       <c r="F5" s="37"/>
@@ -35935,7 +36245,7 @@
       </c>
       <c r="D6" s="37"/>
       <c r="E6" s="37" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="F6" s="37"/>
       <c r="G6" s="37"/>
@@ -36060,7 +36370,7 @@
         <v>211</v>
       </c>
       <c r="AK12" s="38" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="13" spans="1:37" ht="15" customHeight="1" thickBot="1">
@@ -55744,44 +56054,44 @@
       </c>
     </row>
     <row r="198" spans="1:37" ht="15" customHeight="1">
-      <c r="B198" s="79" t="s">
-        <v>1011</v>
-      </c>
-      <c r="C198" s="79"/>
-      <c r="D198" s="79"/>
-      <c r="E198" s="79"/>
-      <c r="F198" s="79"/>
-      <c r="G198" s="79"/>
-      <c r="H198" s="79"/>
-      <c r="I198" s="79"/>
-      <c r="J198" s="79"/>
-      <c r="K198" s="79"/>
-      <c r="L198" s="79"/>
-      <c r="M198" s="79"/>
-      <c r="N198" s="79"/>
-      <c r="O198" s="79"/>
-      <c r="P198" s="79"/>
-      <c r="Q198" s="79"/>
-      <c r="R198" s="79"/>
-      <c r="S198" s="79"/>
-      <c r="T198" s="79"/>
-      <c r="U198" s="79"/>
-      <c r="V198" s="79"/>
-      <c r="W198" s="79"/>
-      <c r="X198" s="79"/>
-      <c r="Y198" s="79"/>
-      <c r="Z198" s="79"/>
-      <c r="AA198" s="79"/>
-      <c r="AB198" s="79"/>
-      <c r="AC198" s="79"/>
-      <c r="AD198" s="79"/>
-      <c r="AE198" s="79"/>
-      <c r="AF198" s="79"/>
-      <c r="AG198" s="79"/>
-      <c r="AH198" s="79"/>
-      <c r="AI198" s="79"/>
-      <c r="AJ198" s="79"/>
-      <c r="AK198" s="79"/>
+      <c r="B198" s="80" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C198" s="80"/>
+      <c r="D198" s="80"/>
+      <c r="E198" s="80"/>
+      <c r="F198" s="80"/>
+      <c r="G198" s="80"/>
+      <c r="H198" s="80"/>
+      <c r="I198" s="80"/>
+      <c r="J198" s="80"/>
+      <c r="K198" s="80"/>
+      <c r="L198" s="80"/>
+      <c r="M198" s="80"/>
+      <c r="N198" s="80"/>
+      <c r="O198" s="80"/>
+      <c r="P198" s="80"/>
+      <c r="Q198" s="80"/>
+      <c r="R198" s="80"/>
+      <c r="S198" s="80"/>
+      <c r="T198" s="80"/>
+      <c r="U198" s="80"/>
+      <c r="V198" s="80"/>
+      <c r="W198" s="80"/>
+      <c r="X198" s="80"/>
+      <c r="Y198" s="80"/>
+      <c r="Z198" s="80"/>
+      <c r="AA198" s="80"/>
+      <c r="AB198" s="80"/>
+      <c r="AC198" s="80"/>
+      <c r="AD198" s="80"/>
+      <c r="AE198" s="80"/>
+      <c r="AF198" s="80"/>
+      <c r="AG198" s="80"/>
+      <c r="AH198" s="80"/>
+      <c r="AI198" s="80"/>
+      <c r="AJ198" s="80"/>
+      <c r="AK198" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -55805,13 +56115,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="45.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20.86328125" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="45.73046875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="15" customHeight="1" thickBot="1">
       <c r="B1" s="9" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="C1" s="8">
         <v>2017</v>
@@ -55933,7 +56243,7 @@
         <v>217</v>
       </c>
       <c r="D4" s="37" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="E4" s="37"/>
       <c r="F4" s="37"/>
@@ -55946,7 +56256,7 @@
         <v>215</v>
       </c>
       <c r="D5" s="37" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="E5" s="37"/>
       <c r="F5" s="37"/>
@@ -55958,7 +56268,7 @@
       </c>
       <c r="D6" s="37"/>
       <c r="E6" s="37" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="F6" s="37"/>
       <c r="G6" s="37"/>
@@ -56083,7 +56393,7 @@
         <v>211</v>
       </c>
       <c r="AK12" s="38" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="13" spans="1:37" ht="15" customHeight="1" thickBot="1">
@@ -80546,44 +80856,44 @@
     </row>
     <row r="274" spans="1:37" ht="15" customHeight="1" thickBot="1"/>
     <row r="275" spans="1:37" ht="15" customHeight="1">
-      <c r="B275" s="79" t="s">
+      <c r="B275" s="80" t="s">
         <v>226</v>
       </c>
-      <c r="C275" s="79"/>
-      <c r="D275" s="79"/>
-      <c r="E275" s="79"/>
-      <c r="F275" s="79"/>
-      <c r="G275" s="79"/>
-      <c r="H275" s="79"/>
-      <c r="I275" s="79"/>
-      <c r="J275" s="79"/>
-      <c r="K275" s="79"/>
-      <c r="L275" s="79"/>
-      <c r="M275" s="79"/>
-      <c r="N275" s="79"/>
-      <c r="O275" s="79"/>
-      <c r="P275" s="79"/>
-      <c r="Q275" s="79"/>
-      <c r="R275" s="79"/>
-      <c r="S275" s="79"/>
-      <c r="T275" s="79"/>
-      <c r="U275" s="79"/>
-      <c r="V275" s="79"/>
-      <c r="W275" s="79"/>
-      <c r="X275" s="79"/>
-      <c r="Y275" s="79"/>
-      <c r="Z275" s="79"/>
-      <c r="AA275" s="79"/>
-      <c r="AB275" s="79"/>
-      <c r="AC275" s="79"/>
-      <c r="AD275" s="79"/>
-      <c r="AE275" s="79"/>
-      <c r="AF275" s="79"/>
-      <c r="AG275" s="79"/>
-      <c r="AH275" s="79"/>
-      <c r="AI275" s="79"/>
-      <c r="AJ275" s="79"/>
-      <c r="AK275" s="79"/>
+      <c r="C275" s="80"/>
+      <c r="D275" s="80"/>
+      <c r="E275" s="80"/>
+      <c r="F275" s="80"/>
+      <c r="G275" s="80"/>
+      <c r="H275" s="80"/>
+      <c r="I275" s="80"/>
+      <c r="J275" s="80"/>
+      <c r="K275" s="80"/>
+      <c r="L275" s="80"/>
+      <c r="M275" s="80"/>
+      <c r="N275" s="80"/>
+      <c r="O275" s="80"/>
+      <c r="P275" s="80"/>
+      <c r="Q275" s="80"/>
+      <c r="R275" s="80"/>
+      <c r="S275" s="80"/>
+      <c r="T275" s="80"/>
+      <c r="U275" s="80"/>
+      <c r="V275" s="80"/>
+      <c r="W275" s="80"/>
+      <c r="X275" s="80"/>
+      <c r="Y275" s="80"/>
+      <c r="Z275" s="80"/>
+      <c r="AA275" s="80"/>
+      <c r="AB275" s="80"/>
+      <c r="AC275" s="80"/>
+      <c r="AD275" s="80"/>
+      <c r="AE275" s="80"/>
+      <c r="AF275" s="80"/>
+      <c r="AG275" s="80"/>
+      <c r="AH275" s="80"/>
+      <c r="AI275" s="80"/>
+      <c r="AJ275" s="80"/>
+      <c r="AK275" s="80"/>
     </row>
     <row r="276" spans="1:37" ht="15" customHeight="1">
       <c r="B276" s="39" t="s">
@@ -80602,7 +80912,7 @@
     </row>
     <row r="279" spans="1:37" ht="15" customHeight="1">
       <c r="B279" s="39" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="280" spans="1:37" ht="15" customHeight="1">
@@ -80612,7 +80922,7 @@
     </row>
     <row r="281" spans="1:37" ht="15" customHeight="1">
       <c r="B281" s="39" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="282" spans="1:37" ht="15" customHeight="1">
@@ -80627,17 +80937,17 @@
     </row>
     <row r="284" spans="1:37" ht="15" customHeight="1">
       <c r="B284" s="39" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="285" spans="1:37" ht="15" customHeight="1">
       <c r="B285" s="39" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="286" spans="1:37" ht="15" customHeight="1">
       <c r="B286" s="39" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
   </sheetData>
@@ -80657,58 +80967,58 @@
   <dimension ref="A1:AK121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:AI1"/>
+      <selection activeCell="AK31" sqref="AK31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="35" style="21" customWidth="1"/>
-    <col min="2" max="3" width="9.85546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="19" width="10.85546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.85546875" style="36" bestFit="1" customWidth="1"/>
-    <col min="21" max="34" width="10.85546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="9.42578125" style="21" bestFit="1" customWidth="1"/>
-    <col min="36" max="16384" width="9.140625" style="21"/>
+    <col min="2" max="3" width="9.86328125" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="19" width="10.86328125" style="21" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.86328125" style="36" bestFit="1" customWidth="1"/>
+    <col min="21" max="34" width="10.86328125" style="21" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="9.3984375" style="21" bestFit="1" customWidth="1"/>
+    <col min="36" max="16384" width="9.1328125" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="90" t="s">
         <v>581</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="89"/>
-      <c r="S1" s="89"/>
-      <c r="T1" s="89"/>
-      <c r="U1" s="89"/>
-      <c r="V1" s="89"/>
-      <c r="W1" s="89"/>
-      <c r="X1" s="89"/>
-      <c r="Y1" s="89"/>
-      <c r="Z1" s="89"/>
-      <c r="AA1" s="89"/>
-      <c r="AB1" s="89"/>
-      <c r="AC1" s="89"/>
-      <c r="AD1" s="89"/>
-      <c r="AE1" s="89"/>
-      <c r="AF1" s="89"/>
-      <c r="AG1" s="89"/>
-      <c r="AH1" s="89"/>
-      <c r="AI1" s="89"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="90"/>
+      <c r="N1" s="90"/>
+      <c r="O1" s="90"/>
+      <c r="P1" s="90"/>
+      <c r="Q1" s="90"/>
+      <c r="R1" s="90"/>
+      <c r="S1" s="90"/>
+      <c r="T1" s="90"/>
+      <c r="U1" s="90"/>
+      <c r="V1" s="90"/>
+      <c r="W1" s="90"/>
+      <c r="X1" s="90"/>
+      <c r="Y1" s="90"/>
+      <c r="Z1" s="90"/>
+      <c r="AA1" s="90"/>
+      <c r="AB1" s="90"/>
+      <c r="AC1" s="90"/>
+      <c r="AD1" s="90"/>
+      <c r="AE1" s="90"/>
+      <c r="AF1" s="90"/>
+      <c r="AG1" s="90"/>
+      <c r="AH1" s="90"/>
+      <c r="AI1" s="90"/>
     </row>
     <row r="2" spans="1:37" s="22" customFormat="1" ht="16.5" customHeight="1">
       <c r="A2" s="40"/>
@@ -80813,6 +81123,9 @@
       </c>
       <c r="AI2" s="43">
         <v>2017</v>
+      </c>
+      <c r="AJ2" s="43">
+        <v>2018</v>
       </c>
     </row>
     <row r="3" spans="1:37" s="23" customFormat="1" ht="16.5" customHeight="1">
@@ -80960,6 +81273,10 @@
       <c r="AI4" s="49">
         <v>7141</v>
       </c>
+      <c r="AJ4" s="79">
+        <f>TREND(AE4:AI4,AE2:AI2,AJ2)</f>
+        <v>7235.3999999999942</v>
+      </c>
     </row>
     <row r="5" spans="1:37" s="25" customFormat="1" ht="16.5" customHeight="1">
       <c r="A5" s="48" t="s">
@@ -82030,6 +82347,10 @@
       <c r="AI14" s="73">
         <f>TREND(AD14:AH14,AD2:AH2,AI2)</f>
         <v>1007529.2743062526</v>
+      </c>
+      <c r="AJ14" s="73">
+        <f>TREND(AE14:AI14,AE2:AI2,AJ2)</f>
+        <v>1038863.0302522928</v>
       </c>
       <c r="AK14" s="24"/>
     </row>
@@ -82178,8 +82499,12 @@
       <c r="AI16" s="60">
         <v>63759</v>
       </c>
-    </row>
-    <row r="17" spans="1:35" s="25" customFormat="1" ht="16.5" customHeight="1">
+      <c r="AJ16" s="25">
+        <f>TREND(AE16:AI16,$AE$2:$AI$2,$AJ$2)</f>
+        <v>62382.699999999953</v>
+      </c>
+    </row>
+    <row r="17" spans="1:36" s="25" customFormat="1" ht="16.5" customHeight="1">
       <c r="A17" s="48" t="s">
         <v>566</v>
       </c>
@@ -82285,8 +82610,12 @@
       <c r="AI17" s="60">
         <v>2557</v>
       </c>
-    </row>
-    <row r="18" spans="1:35" s="25" customFormat="1" ht="16.5" customHeight="1">
+      <c r="AJ17" s="25">
+        <f t="shared" ref="AJ17:AJ34" si="0">TREND(AE17:AI17,$AE$2:$AI$2,$AJ$2)</f>
+        <v>2436.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:36" s="25" customFormat="1" ht="16.5" customHeight="1">
       <c r="A18" s="61" t="s">
         <v>565</v>
       </c>
@@ -82392,8 +82721,12 @@
       <c r="AI18" s="60">
         <v>10705</v>
       </c>
-    </row>
-    <row r="19" spans="1:35" s="25" customFormat="1" ht="16.5" customHeight="1">
+      <c r="AJ18" s="25">
+        <f t="shared" si="0"/>
+        <v>10891.800000000017</v>
+      </c>
+    </row>
+    <row r="19" spans="1:36" s="25" customFormat="1" ht="16.5" customHeight="1">
       <c r="A19" s="48" t="s">
         <v>564</v>
       </c>
@@ -82499,8 +82832,12 @@
       <c r="AI19" s="60">
         <v>539</v>
       </c>
-    </row>
-    <row r="20" spans="1:35" s="25" customFormat="1" ht="16.5" customHeight="1">
+      <c r="AJ19" s="25">
+        <f t="shared" si="0"/>
+        <v>576.20000000000027</v>
+      </c>
+    </row>
+    <row r="20" spans="1:36" s="25" customFormat="1" ht="16.5" customHeight="1">
       <c r="A20" s="48" t="s">
         <v>563</v>
       </c>
@@ -82606,8 +82943,12 @@
       <c r="AI20" s="60">
         <v>7129</v>
       </c>
-    </row>
-    <row r="21" spans="1:35" s="25" customFormat="1" ht="16.5" customHeight="1">
+      <c r="AJ20" s="25">
+        <f t="shared" si="0"/>
+        <v>7150.7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:36" s="25" customFormat="1" ht="16.5" customHeight="1">
       <c r="A21" s="48" t="s">
         <v>562</v>
       </c>
@@ -82713,8 +83054,12 @@
       <c r="AI21" s="60">
         <v>33012</v>
       </c>
-    </row>
-    <row r="22" spans="1:35" s="25" customFormat="1" ht="16.5" customHeight="1">
+      <c r="AJ21" s="25">
+        <f t="shared" si="0"/>
+        <v>33811</v>
+      </c>
+    </row>
+    <row r="22" spans="1:36" s="25" customFormat="1" ht="16.5" customHeight="1">
       <c r="A22" s="48" t="s">
         <v>561</v>
       </c>
@@ -82820,8 +83165,12 @@
       <c r="AI22" s="60">
         <v>18104</v>
       </c>
-    </row>
-    <row r="23" spans="1:35" s="23" customFormat="1" ht="16.5" customHeight="1">
+      <c r="AJ22" s="25">
+        <f t="shared" si="0"/>
+        <v>17807.800000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:36" s="23" customFormat="1" ht="16.5" customHeight="1">
       <c r="A23" s="44" t="s">
         <v>560</v>
       </c>
@@ -82859,8 +83208,9 @@
       <c r="AG23" s="59"/>
       <c r="AH23" s="59"/>
       <c r="AI23" s="59"/>
-    </row>
-    <row r="24" spans="1:35" s="25" customFormat="1" ht="16.5" customHeight="1">
+      <c r="AJ23" s="25"/>
+    </row>
+    <row r="24" spans="1:36" s="25" customFormat="1" ht="16.5" customHeight="1">
       <c r="A24" s="48" t="s">
         <v>559</v>
       </c>
@@ -82966,8 +83316,12 @@
       <c r="AI24" s="56">
         <v>306268</v>
       </c>
-    </row>
-    <row r="25" spans="1:35" s="25" customFormat="1" ht="16.5" customHeight="1">
+      <c r="AJ24" s="25">
+        <f t="shared" si="0"/>
+        <v>282127.70000000298</v>
+      </c>
+    </row>
+    <row r="25" spans="1:36" s="25" customFormat="1" ht="16.5" customHeight="1">
       <c r="A25" s="48" t="s">
         <v>501</v>
       </c>
@@ -83073,8 +83427,12 @@
       <c r="AI25" s="56">
         <v>26547</v>
       </c>
-    </row>
-    <row r="26" spans="1:35" s="25" customFormat="1" ht="16.5" customHeight="1">
+      <c r="AJ25" s="25">
+        <f t="shared" si="0"/>
+        <v>27305.599999999977</v>
+      </c>
+    </row>
+    <row r="26" spans="1:36" s="25" customFormat="1" ht="16.5" customHeight="1">
       <c r="A26" s="48" t="s">
         <v>558</v>
       </c>
@@ -83181,7 +83539,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="27" spans="1:35" s="25" customFormat="1" ht="16.5" customHeight="1">
+    <row r="27" spans="1:36" s="25" customFormat="1" ht="16.5" customHeight="1">
       <c r="A27" s="48" t="s">
         <v>557</v>
       </c>
@@ -83288,7 +83646,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="28" spans="1:35" s="25" customFormat="1" ht="16.5" customHeight="1">
+    <row r="28" spans="1:36" s="25" customFormat="1" ht="16.5" customHeight="1">
       <c r="A28" s="48" t="s">
         <v>555</v>
       </c>
@@ -83394,8 +83752,12 @@
       <c r="AI28" s="56">
         <v>1405</v>
       </c>
-    </row>
-    <row r="29" spans="1:35" s="25" customFormat="1" ht="16.5" customHeight="1">
+      <c r="AJ28" s="25">
+        <f t="shared" si="0"/>
+        <v>1389.9000000000015</v>
+      </c>
+    </row>
+    <row r="29" spans="1:36" s="25" customFormat="1" ht="16.5" customHeight="1">
       <c r="A29" s="48" t="s">
         <v>554</v>
       </c>
@@ -83501,8 +83863,12 @@
       <c r="AI29" s="56">
         <v>419</v>
       </c>
-    </row>
-    <row r="30" spans="1:35" s="23" customFormat="1" ht="16.5" customHeight="1">
+      <c r="AJ29" s="25">
+        <f t="shared" si="0"/>
+        <v>426.80000000000018</v>
+      </c>
+    </row>
+    <row r="30" spans="1:36" s="23" customFormat="1" ht="16.5" customHeight="1">
       <c r="A30" s="44" t="s">
         <v>553</v>
       </c>
@@ -83540,8 +83906,9 @@
       <c r="AG30" s="59"/>
       <c r="AH30" s="59"/>
       <c r="AI30" s="59"/>
-    </row>
-    <row r="31" spans="1:35" s="25" customFormat="1" ht="16.5" customHeight="1">
+      <c r="AJ30" s="25"/>
+    </row>
+    <row r="31" spans="1:36" s="25" customFormat="1" ht="16.5" customHeight="1">
       <c r="A31" s="48" t="s">
         <v>552</v>
       </c>
@@ -83647,8 +84014,12 @@
       <c r="AI31" s="56">
         <v>33128</v>
       </c>
-    </row>
-    <row r="32" spans="1:35" s="25" customFormat="1" ht="16.5" customHeight="1">
+      <c r="AJ31" s="25">
+        <f t="shared" si="0"/>
+        <v>33921.299999999814</v>
+      </c>
+    </row>
+    <row r="32" spans="1:36" s="25" customFormat="1" ht="16.5" customHeight="1">
       <c r="A32" s="48" t="s">
         <v>551</v>
       </c>
@@ -83754,10 +84125,14 @@
       <c r="AI32" s="56">
         <v>9411</v>
       </c>
-    </row>
-    <row r="33" spans="1:35" s="25" customFormat="1" ht="32.25" customHeight="1">
+      <c r="AJ32" s="25">
+        <f t="shared" si="0"/>
+        <v>9597.2999999999884</v>
+      </c>
+    </row>
+    <row r="33" spans="1:36" s="25" customFormat="1" ht="32.25" customHeight="1">
       <c r="A33" s="63" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B33" s="54">
         <v>2926</v>
@@ -83861,8 +84236,12 @@
       <c r="AI33" s="49">
         <v>176</v>
       </c>
-    </row>
-    <row r="34" spans="1:35" s="25" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
+      <c r="AJ33" s="25">
+        <f t="shared" si="0"/>
+        <v>166.59999999999945</v>
+      </c>
+    </row>
+    <row r="34" spans="1:36" s="25" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
       <c r="A34" s="64" t="s">
         <v>549</v>
       </c>
@@ -83968,28 +84347,32 @@
       <c r="AI34" s="66">
         <v>11961568</v>
       </c>
-    </row>
-    <row r="35" spans="1:35" s="26" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A35" s="90" t="s">
+      <c r="AJ34" s="25">
+        <f t="shared" si="0"/>
+        <v>11887771.099999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:36" s="26" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A35" s="91" t="s">
         <v>940</v>
       </c>
-      <c r="B35" s="90"/>
-      <c r="C35" s="90"/>
-      <c r="D35" s="90"/>
-      <c r="E35" s="90"/>
-      <c r="F35" s="90"/>
-      <c r="G35" s="90"/>
-      <c r="H35" s="90"/>
-      <c r="I35" s="90"/>
-      <c r="J35" s="90"/>
-      <c r="K35" s="90"/>
-      <c r="L35" s="90"/>
-      <c r="M35" s="90"/>
-      <c r="N35" s="90"/>
-      <c r="O35" s="90"/>
-      <c r="P35" s="90"/>
-      <c r="Q35" s="90"/>
-      <c r="R35" s="90"/>
+      <c r="B35" s="91"/>
+      <c r="C35" s="91"/>
+      <c r="D35" s="91"/>
+      <c r="E35" s="91"/>
+      <c r="F35" s="91"/>
+      <c r="G35" s="91"/>
+      <c r="H35" s="91"/>
+      <c r="I35" s="91"/>
+      <c r="J35" s="91"/>
+      <c r="K35" s="91"/>
+      <c r="L35" s="91"/>
+      <c r="M35" s="91"/>
+      <c r="N35" s="91"/>
+      <c r="O35" s="91"/>
+      <c r="P35" s="91"/>
+      <c r="Q35" s="91"/>
+      <c r="R35" s="91"/>
       <c r="S35" s="67"/>
       <c r="T35" s="67"/>
       <c r="U35" s="67"/>
@@ -84008,25 +84391,25 @@
       <c r="AH35" s="68"/>
       <c r="AI35" s="68"/>
     </row>
-    <row r="36" spans="1:35" s="26" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A36" s="91"/>
-      <c r="B36" s="91"/>
-      <c r="C36" s="91"/>
-      <c r="D36" s="91"/>
-      <c r="E36" s="91"/>
-      <c r="F36" s="91"/>
-      <c r="G36" s="91"/>
-      <c r="H36" s="91"/>
-      <c r="I36" s="91"/>
-      <c r="J36" s="91"/>
-      <c r="K36" s="91"/>
-      <c r="L36" s="91"/>
-      <c r="M36" s="91"/>
-      <c r="N36" s="91"/>
-      <c r="O36" s="91"/>
-      <c r="P36" s="91"/>
-      <c r="Q36" s="91"/>
-      <c r="R36" s="91"/>
+    <row r="36" spans="1:36" s="26" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A36" s="92"/>
+      <c r="B36" s="92"/>
+      <c r="C36" s="92"/>
+      <c r="D36" s="92"/>
+      <c r="E36" s="92"/>
+      <c r="F36" s="92"/>
+      <c r="G36" s="92"/>
+      <c r="H36" s="92"/>
+      <c r="I36" s="92"/>
+      <c r="J36" s="92"/>
+      <c r="K36" s="92"/>
+      <c r="L36" s="92"/>
+      <c r="M36" s="92"/>
+      <c r="N36" s="92"/>
+      <c r="O36" s="92"/>
+      <c r="P36" s="92"/>
+      <c r="Q36" s="92"/>
+      <c r="R36" s="92"/>
       <c r="S36" s="70"/>
       <c r="T36" s="68"/>
       <c r="U36" s="68"/>
@@ -84045,27 +84428,27 @@
       <c r="AH36" s="68"/>
       <c r="AI36" s="68"/>
     </row>
-    <row r="37" spans="1:35" s="28" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A37" s="92" t="s">
+    <row r="37" spans="1:36" s="28" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A37" s="93" t="s">
         <v>548</v>
       </c>
-      <c r="B37" s="92"/>
-      <c r="C37" s="92"/>
-      <c r="D37" s="92"/>
-      <c r="E37" s="92"/>
-      <c r="F37" s="92"/>
-      <c r="G37" s="92"/>
-      <c r="H37" s="92"/>
-      <c r="I37" s="92"/>
-      <c r="J37" s="92"/>
-      <c r="K37" s="92"/>
-      <c r="L37" s="92"/>
-      <c r="M37" s="92"/>
-      <c r="N37" s="92"/>
-      <c r="O37" s="92"/>
-      <c r="P37" s="92"/>
-      <c r="Q37" s="92"/>
-      <c r="R37" s="92"/>
+      <c r="B37" s="93"/>
+      <c r="C37" s="93"/>
+      <c r="D37" s="93"/>
+      <c r="E37" s="93"/>
+      <c r="F37" s="93"/>
+      <c r="G37" s="93"/>
+      <c r="H37" s="93"/>
+      <c r="I37" s="93"/>
+      <c r="J37" s="93"/>
+      <c r="K37" s="93"/>
+      <c r="L37" s="93"/>
+      <c r="M37" s="93"/>
+      <c r="N37" s="93"/>
+      <c r="O37" s="93"/>
+      <c r="P37" s="93"/>
+      <c r="Q37" s="93"/>
+      <c r="R37" s="93"/>
       <c r="S37" s="71"/>
       <c r="T37" s="72"/>
       <c r="U37" s="72"/>
@@ -84084,27 +84467,27 @@
       <c r="AH37" s="72"/>
       <c r="AI37" s="72"/>
     </row>
-    <row r="38" spans="1:35" s="28" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A38" s="93" t="s">
+    <row r="38" spans="1:36" s="28" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A38" s="94" t="s">
         <v>547</v>
       </c>
-      <c r="B38" s="93"/>
-      <c r="C38" s="93"/>
-      <c r="D38" s="93"/>
-      <c r="E38" s="93"/>
-      <c r="F38" s="93"/>
-      <c r="G38" s="93"/>
-      <c r="H38" s="93"/>
-      <c r="I38" s="93"/>
-      <c r="J38" s="93"/>
-      <c r="K38" s="93"/>
-      <c r="L38" s="93"/>
-      <c r="M38" s="93"/>
-      <c r="N38" s="93"/>
-      <c r="O38" s="93"/>
-      <c r="P38" s="93"/>
-      <c r="Q38" s="93"/>
-      <c r="R38" s="93"/>
+      <c r="B38" s="94"/>
+      <c r="C38" s="94"/>
+      <c r="D38" s="94"/>
+      <c r="E38" s="94"/>
+      <c r="F38" s="94"/>
+      <c r="G38" s="94"/>
+      <c r="H38" s="94"/>
+      <c r="I38" s="94"/>
+      <c r="J38" s="94"/>
+      <c r="K38" s="94"/>
+      <c r="L38" s="94"/>
+      <c r="M38" s="94"/>
+      <c r="N38" s="94"/>
+      <c r="O38" s="94"/>
+      <c r="P38" s="94"/>
+      <c r="Q38" s="94"/>
+      <c r="R38" s="94"/>
       <c r="S38" s="71"/>
       <c r="T38" s="72"/>
       <c r="U38" s="72"/>
@@ -84123,27 +84506,27 @@
       <c r="AH38" s="72"/>
       <c r="AI38" s="72"/>
     </row>
-    <row r="39" spans="1:35" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A39" s="80" t="s">
+    <row r="39" spans="1:36" s="28" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A39" s="81" t="s">
         <v>941</v>
       </c>
-      <c r="B39" s="80"/>
-      <c r="C39" s="80"/>
-      <c r="D39" s="80"/>
-      <c r="E39" s="80"/>
-      <c r="F39" s="80"/>
-      <c r="G39" s="80"/>
-      <c r="H39" s="80"/>
-      <c r="I39" s="80"/>
-      <c r="J39" s="80"/>
-      <c r="K39" s="80"/>
-      <c r="L39" s="80"/>
-      <c r="M39" s="80"/>
-      <c r="N39" s="80"/>
-      <c r="O39" s="80"/>
-      <c r="P39" s="80"/>
-      <c r="Q39" s="80"/>
-      <c r="R39" s="80"/>
+      <c r="B39" s="81"/>
+      <c r="C39" s="81"/>
+      <c r="D39" s="81"/>
+      <c r="E39" s="81"/>
+      <c r="F39" s="81"/>
+      <c r="G39" s="81"/>
+      <c r="H39" s="81"/>
+      <c r="I39" s="81"/>
+      <c r="J39" s="81"/>
+      <c r="K39" s="81"/>
+      <c r="L39" s="81"/>
+      <c r="M39" s="81"/>
+      <c r="N39" s="81"/>
+      <c r="O39" s="81"/>
+      <c r="P39" s="81"/>
+      <c r="Q39" s="81"/>
+      <c r="R39" s="81"/>
       <c r="S39" s="71"/>
       <c r="T39" s="72"/>
       <c r="U39" s="72"/>
@@ -84162,27 +84545,27 @@
       <c r="AH39" s="72"/>
       <c r="AI39" s="72"/>
     </row>
-    <row r="40" spans="1:35" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A40" s="88" t="s">
+    <row r="40" spans="1:36" s="28" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A40" s="89" t="s">
         <v>546</v>
       </c>
-      <c r="B40" s="88"/>
-      <c r="C40" s="88"/>
-      <c r="D40" s="88"/>
-      <c r="E40" s="88"/>
-      <c r="F40" s="88"/>
-      <c r="G40" s="88"/>
-      <c r="H40" s="88"/>
-      <c r="I40" s="88"/>
-      <c r="J40" s="88"/>
-      <c r="K40" s="88"/>
-      <c r="L40" s="88"/>
-      <c r="M40" s="88"/>
-      <c r="N40" s="88"/>
-      <c r="O40" s="88"/>
-      <c r="P40" s="88"/>
-      <c r="Q40" s="88"/>
-      <c r="R40" s="88"/>
+      <c r="B40" s="89"/>
+      <c r="C40" s="89"/>
+      <c r="D40" s="89"/>
+      <c r="E40" s="89"/>
+      <c r="F40" s="89"/>
+      <c r="G40" s="89"/>
+      <c r="H40" s="89"/>
+      <c r="I40" s="89"/>
+      <c r="J40" s="89"/>
+      <c r="K40" s="89"/>
+      <c r="L40" s="89"/>
+      <c r="M40" s="89"/>
+      <c r="N40" s="89"/>
+      <c r="O40" s="89"/>
+      <c r="P40" s="89"/>
+      <c r="Q40" s="89"/>
+      <c r="R40" s="89"/>
       <c r="S40" s="71"/>
       <c r="T40" s="72"/>
       <c r="U40" s="72"/>
@@ -84201,27 +84584,27 @@
       <c r="AH40" s="72"/>
       <c r="AI40" s="72"/>
     </row>
-    <row r="41" spans="1:35" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A41" s="88" t="s">
+    <row r="41" spans="1:36" s="28" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A41" s="89" t="s">
         <v>545</v>
       </c>
-      <c r="B41" s="88"/>
-      <c r="C41" s="88"/>
-      <c r="D41" s="88"/>
-      <c r="E41" s="88"/>
-      <c r="F41" s="88"/>
-      <c r="G41" s="88"/>
-      <c r="H41" s="88"/>
-      <c r="I41" s="88"/>
-      <c r="J41" s="88"/>
-      <c r="K41" s="88"/>
-      <c r="L41" s="88"/>
-      <c r="M41" s="88"/>
-      <c r="N41" s="88"/>
-      <c r="O41" s="88"/>
-      <c r="P41" s="88"/>
-      <c r="Q41" s="88"/>
-      <c r="R41" s="88"/>
+      <c r="B41" s="89"/>
+      <c r="C41" s="89"/>
+      <c r="D41" s="89"/>
+      <c r="E41" s="89"/>
+      <c r="F41" s="89"/>
+      <c r="G41" s="89"/>
+      <c r="H41" s="89"/>
+      <c r="I41" s="89"/>
+      <c r="J41" s="89"/>
+      <c r="K41" s="89"/>
+      <c r="L41" s="89"/>
+      <c r="M41" s="89"/>
+      <c r="N41" s="89"/>
+      <c r="O41" s="89"/>
+      <c r="P41" s="89"/>
+      <c r="Q41" s="89"/>
+      <c r="R41" s="89"/>
       <c r="S41" s="71"/>
       <c r="T41" s="72"/>
       <c r="U41" s="72"/>
@@ -84240,27 +84623,27 @@
       <c r="AH41" s="72"/>
       <c r="AI41" s="72"/>
     </row>
-    <row r="42" spans="1:35" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A42" s="93" t="s">
+    <row r="42" spans="1:36" s="28" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A42" s="94" t="s">
         <v>544</v>
       </c>
-      <c r="B42" s="93"/>
-      <c r="C42" s="93"/>
-      <c r="D42" s="93"/>
-      <c r="E42" s="93"/>
-      <c r="F42" s="93"/>
-      <c r="G42" s="93"/>
-      <c r="H42" s="93"/>
-      <c r="I42" s="93"/>
-      <c r="J42" s="93"/>
-      <c r="K42" s="93"/>
-      <c r="L42" s="93"/>
-      <c r="M42" s="93"/>
-      <c r="N42" s="93"/>
-      <c r="O42" s="93"/>
-      <c r="P42" s="93"/>
-      <c r="Q42" s="93"/>
-      <c r="R42" s="93"/>
+      <c r="B42" s="94"/>
+      <c r="C42" s="94"/>
+      <c r="D42" s="94"/>
+      <c r="E42" s="94"/>
+      <c r="F42" s="94"/>
+      <c r="G42" s="94"/>
+      <c r="H42" s="94"/>
+      <c r="I42" s="94"/>
+      <c r="J42" s="94"/>
+      <c r="K42" s="94"/>
+      <c r="L42" s="94"/>
+      <c r="M42" s="94"/>
+      <c r="N42" s="94"/>
+      <c r="O42" s="94"/>
+      <c r="P42" s="94"/>
+      <c r="Q42" s="94"/>
+      <c r="R42" s="94"/>
       <c r="S42" s="72"/>
       <c r="T42" s="72"/>
       <c r="U42" s="72"/>
@@ -84279,27 +84662,27 @@
       <c r="AH42" s="72"/>
       <c r="AI42" s="72"/>
     </row>
-    <row r="43" spans="1:35" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A43" s="80" t="s">
+    <row r="43" spans="1:36" s="28" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A43" s="81" t="s">
         <v>543</v>
       </c>
-      <c r="B43" s="80"/>
-      <c r="C43" s="80"/>
-      <c r="D43" s="80"/>
-      <c r="E43" s="80"/>
-      <c r="F43" s="80"/>
-      <c r="G43" s="80"/>
-      <c r="H43" s="80"/>
-      <c r="I43" s="80"/>
-      <c r="J43" s="80"/>
-      <c r="K43" s="80"/>
-      <c r="L43" s="80"/>
-      <c r="M43" s="80"/>
-      <c r="N43" s="80"/>
-      <c r="O43" s="80"/>
-      <c r="P43" s="80"/>
-      <c r="Q43" s="80"/>
-      <c r="R43" s="80"/>
+      <c r="B43" s="81"/>
+      <c r="C43" s="81"/>
+      <c r="D43" s="81"/>
+      <c r="E43" s="81"/>
+      <c r="F43" s="81"/>
+      <c r="G43" s="81"/>
+      <c r="H43" s="81"/>
+      <c r="I43" s="81"/>
+      <c r="J43" s="81"/>
+      <c r="K43" s="81"/>
+      <c r="L43" s="81"/>
+      <c r="M43" s="81"/>
+      <c r="N43" s="81"/>
+      <c r="O43" s="81"/>
+      <c r="P43" s="81"/>
+      <c r="Q43" s="81"/>
+      <c r="R43" s="81"/>
       <c r="S43" s="72"/>
       <c r="T43" s="72"/>
       <c r="U43" s="72"/>
@@ -84318,27 +84701,27 @@
       <c r="AH43" s="72"/>
       <c r="AI43" s="72"/>
     </row>
-    <row r="44" spans="1:35" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A44" s="80" t="s">
+    <row r="44" spans="1:36" s="28" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A44" s="81" t="s">
         <v>542</v>
       </c>
-      <c r="B44" s="80"/>
-      <c r="C44" s="80"/>
-      <c r="D44" s="80"/>
-      <c r="E44" s="80"/>
-      <c r="F44" s="80"/>
-      <c r="G44" s="80"/>
-      <c r="H44" s="80"/>
-      <c r="I44" s="80"/>
-      <c r="J44" s="80"/>
-      <c r="K44" s="80"/>
-      <c r="L44" s="80"/>
-      <c r="M44" s="80"/>
-      <c r="N44" s="80"/>
-      <c r="O44" s="80"/>
-      <c r="P44" s="80"/>
-      <c r="Q44" s="80"/>
-      <c r="R44" s="80"/>
+      <c r="B44" s="81"/>
+      <c r="C44" s="81"/>
+      <c r="D44" s="81"/>
+      <c r="E44" s="81"/>
+      <c r="F44" s="81"/>
+      <c r="G44" s="81"/>
+      <c r="H44" s="81"/>
+      <c r="I44" s="81"/>
+      <c r="J44" s="81"/>
+      <c r="K44" s="81"/>
+      <c r="L44" s="81"/>
+      <c r="M44" s="81"/>
+      <c r="N44" s="81"/>
+      <c r="O44" s="81"/>
+      <c r="P44" s="81"/>
+      <c r="Q44" s="81"/>
+      <c r="R44" s="81"/>
       <c r="S44" s="72"/>
       <c r="T44" s="72"/>
       <c r="U44" s="72"/>
@@ -84357,27 +84740,27 @@
       <c r="AH44" s="72"/>
       <c r="AI44" s="72"/>
     </row>
-    <row r="45" spans="1:35" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A45" s="104" t="s">
+    <row r="45" spans="1:36" s="28" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A45" s="105" t="s">
         <v>541</v>
       </c>
-      <c r="B45" s="104"/>
-      <c r="C45" s="104"/>
-      <c r="D45" s="104"/>
-      <c r="E45" s="104"/>
-      <c r="F45" s="104"/>
-      <c r="G45" s="104"/>
-      <c r="H45" s="104"/>
-      <c r="I45" s="104"/>
-      <c r="J45" s="104"/>
-      <c r="K45" s="104"/>
-      <c r="L45" s="104"/>
-      <c r="M45" s="104"/>
-      <c r="N45" s="104"/>
-      <c r="O45" s="104"/>
-      <c r="P45" s="104"/>
-      <c r="Q45" s="104"/>
-      <c r="R45" s="104"/>
+      <c r="B45" s="105"/>
+      <c r="C45" s="105"/>
+      <c r="D45" s="105"/>
+      <c r="E45" s="105"/>
+      <c r="F45" s="105"/>
+      <c r="G45" s="105"/>
+      <c r="H45" s="105"/>
+      <c r="I45" s="105"/>
+      <c r="J45" s="105"/>
+      <c r="K45" s="105"/>
+      <c r="L45" s="105"/>
+      <c r="M45" s="105"/>
+      <c r="N45" s="105"/>
+      <c r="O45" s="105"/>
+      <c r="P45" s="105"/>
+      <c r="Q45" s="105"/>
+      <c r="R45" s="105"/>
       <c r="S45" s="72"/>
       <c r="T45" s="72"/>
       <c r="U45" s="72"/>
@@ -84396,27 +84779,27 @@
       <c r="AH45" s="72"/>
       <c r="AI45" s="72"/>
     </row>
-    <row r="46" spans="1:35" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A46" s="88" t="s">
+    <row r="46" spans="1:36" s="28" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A46" s="89" t="s">
         <v>540</v>
       </c>
-      <c r="B46" s="88"/>
-      <c r="C46" s="88"/>
-      <c r="D46" s="88"/>
-      <c r="E46" s="88"/>
-      <c r="F46" s="88"/>
-      <c r="G46" s="88"/>
-      <c r="H46" s="88"/>
-      <c r="I46" s="88"/>
-      <c r="J46" s="88"/>
-      <c r="K46" s="88"/>
-      <c r="L46" s="88"/>
-      <c r="M46" s="88"/>
-      <c r="N46" s="88"/>
-      <c r="O46" s="88"/>
-      <c r="P46" s="88"/>
-      <c r="Q46" s="88"/>
-      <c r="R46" s="88"/>
+      <c r="B46" s="89"/>
+      <c r="C46" s="89"/>
+      <c r="D46" s="89"/>
+      <c r="E46" s="89"/>
+      <c r="F46" s="89"/>
+      <c r="G46" s="89"/>
+      <c r="H46" s="89"/>
+      <c r="I46" s="89"/>
+      <c r="J46" s="89"/>
+      <c r="K46" s="89"/>
+      <c r="L46" s="89"/>
+      <c r="M46" s="89"/>
+      <c r="N46" s="89"/>
+      <c r="O46" s="89"/>
+      <c r="P46" s="89"/>
+      <c r="Q46" s="89"/>
+      <c r="R46" s="89"/>
       <c r="S46" s="72"/>
       <c r="T46" s="72"/>
       <c r="U46" s="72"/>
@@ -84435,27 +84818,27 @@
       <c r="AH46" s="72"/>
       <c r="AI46" s="72"/>
     </row>
-    <row r="47" spans="1:35" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A47" s="88" t="s">
+    <row r="47" spans="1:36" s="28" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A47" s="89" t="s">
         <v>539</v>
       </c>
-      <c r="B47" s="88"/>
-      <c r="C47" s="88"/>
-      <c r="D47" s="88"/>
-      <c r="E47" s="88"/>
-      <c r="F47" s="88"/>
-      <c r="G47" s="88"/>
-      <c r="H47" s="88"/>
-      <c r="I47" s="88"/>
-      <c r="J47" s="88"/>
-      <c r="K47" s="88"/>
-      <c r="L47" s="88"/>
-      <c r="M47" s="88"/>
-      <c r="N47" s="88"/>
-      <c r="O47" s="88"/>
-      <c r="P47" s="88"/>
-      <c r="Q47" s="88"/>
-      <c r="R47" s="88"/>
+      <c r="B47" s="89"/>
+      <c r="C47" s="89"/>
+      <c r="D47" s="89"/>
+      <c r="E47" s="89"/>
+      <c r="F47" s="89"/>
+      <c r="G47" s="89"/>
+      <c r="H47" s="89"/>
+      <c r="I47" s="89"/>
+      <c r="J47" s="89"/>
+      <c r="K47" s="89"/>
+      <c r="L47" s="89"/>
+      <c r="M47" s="89"/>
+      <c r="N47" s="89"/>
+      <c r="O47" s="89"/>
+      <c r="P47" s="89"/>
+      <c r="Q47" s="89"/>
+      <c r="R47" s="89"/>
       <c r="S47" s="72"/>
       <c r="T47" s="72"/>
       <c r="U47" s="72"/>
@@ -84474,27 +84857,27 @@
       <c r="AH47" s="72"/>
       <c r="AI47" s="72"/>
     </row>
-    <row r="48" spans="1:35" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A48" s="88" t="s">
+    <row r="48" spans="1:36" s="28" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A48" s="89" t="s">
         <v>538</v>
       </c>
-      <c r="B48" s="88"/>
-      <c r="C48" s="88"/>
-      <c r="D48" s="88"/>
-      <c r="E48" s="88"/>
-      <c r="F48" s="88"/>
-      <c r="G48" s="88"/>
-      <c r="H48" s="88"/>
-      <c r="I48" s="88"/>
-      <c r="J48" s="88"/>
-      <c r="K48" s="88"/>
-      <c r="L48" s="88"/>
-      <c r="M48" s="88"/>
-      <c r="N48" s="88"/>
-      <c r="O48" s="88"/>
-      <c r="P48" s="88"/>
-      <c r="Q48" s="88"/>
-      <c r="R48" s="88"/>
+      <c r="B48" s="89"/>
+      <c r="C48" s="89"/>
+      <c r="D48" s="89"/>
+      <c r="E48" s="89"/>
+      <c r="F48" s="89"/>
+      <c r="G48" s="89"/>
+      <c r="H48" s="89"/>
+      <c r="I48" s="89"/>
+      <c r="J48" s="89"/>
+      <c r="K48" s="89"/>
+      <c r="L48" s="89"/>
+      <c r="M48" s="89"/>
+      <c r="N48" s="89"/>
+      <c r="O48" s="89"/>
+      <c r="P48" s="89"/>
+      <c r="Q48" s="89"/>
+      <c r="R48" s="89"/>
       <c r="S48" s="72"/>
       <c r="T48" s="72"/>
       <c r="U48" s="72"/>
@@ -84514,26 +84897,26 @@
       <c r="AI48" s="72"/>
     </row>
     <row r="49" spans="1:35" s="28" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A49" s="88" t="s">
+      <c r="A49" s="89" t="s">
         <v>537</v>
       </c>
-      <c r="B49" s="88"/>
-      <c r="C49" s="88"/>
-      <c r="D49" s="88"/>
-      <c r="E49" s="88"/>
-      <c r="F49" s="88"/>
-      <c r="G49" s="88"/>
-      <c r="H49" s="88"/>
-      <c r="I49" s="88"/>
-      <c r="J49" s="88"/>
-      <c r="K49" s="88"/>
-      <c r="L49" s="88"/>
-      <c r="M49" s="88"/>
-      <c r="N49" s="88"/>
-      <c r="O49" s="88"/>
-      <c r="P49" s="88"/>
-      <c r="Q49" s="88"/>
-      <c r="R49" s="88"/>
+      <c r="B49" s="89"/>
+      <c r="C49" s="89"/>
+      <c r="D49" s="89"/>
+      <c r="E49" s="89"/>
+      <c r="F49" s="89"/>
+      <c r="G49" s="89"/>
+      <c r="H49" s="89"/>
+      <c r="I49" s="89"/>
+      <c r="J49" s="89"/>
+      <c r="K49" s="89"/>
+      <c r="L49" s="89"/>
+      <c r="M49" s="89"/>
+      <c r="N49" s="89"/>
+      <c r="O49" s="89"/>
+      <c r="P49" s="89"/>
+      <c r="Q49" s="89"/>
+      <c r="R49" s="89"/>
       <c r="S49" s="72"/>
       <c r="T49" s="72"/>
       <c r="U49" s="72"/>
@@ -84553,1240 +84936,1240 @@
       <c r="AI49" s="72"/>
     </row>
     <row r="50" spans="1:35" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A50" s="101" t="s">
+      <c r="A50" s="102" t="s">
         <v>536</v>
       </c>
-      <c r="B50" s="101"/>
-      <c r="C50" s="101"/>
-      <c r="D50" s="101"/>
-      <c r="E50" s="101"/>
-      <c r="F50" s="101"/>
-      <c r="G50" s="101"/>
-      <c r="H50" s="101"/>
-      <c r="I50" s="101"/>
-      <c r="J50" s="101"/>
-      <c r="K50" s="101"/>
-      <c r="L50" s="101"/>
-      <c r="M50" s="101"/>
-      <c r="N50" s="101"/>
-      <c r="O50" s="101"/>
-      <c r="P50" s="101"/>
+      <c r="B50" s="102"/>
+      <c r="C50" s="102"/>
+      <c r="D50" s="102"/>
+      <c r="E50" s="102"/>
+      <c r="F50" s="102"/>
+      <c r="G50" s="102"/>
+      <c r="H50" s="102"/>
+      <c r="I50" s="102"/>
+      <c r="J50" s="102"/>
+      <c r="K50" s="102"/>
+      <c r="L50" s="102"/>
+      <c r="M50" s="102"/>
+      <c r="N50" s="102"/>
+      <c r="O50" s="102"/>
+      <c r="P50" s="102"/>
     </row>
     <row r="51" spans="1:35" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A51" s="81"/>
-      <c r="B51" s="81"/>
-      <c r="C51" s="81"/>
-      <c r="D51" s="81"/>
-      <c r="E51" s="81"/>
-      <c r="F51" s="81"/>
-      <c r="G51" s="81"/>
-      <c r="H51" s="81"/>
-      <c r="I51" s="81"/>
-      <c r="J51" s="81"/>
-      <c r="K51" s="81"/>
-      <c r="L51" s="81"/>
-      <c r="M51" s="81"/>
-      <c r="N51" s="81"/>
-      <c r="O51" s="81"/>
-      <c r="P51" s="81"/>
+      <c r="A51" s="82"/>
+      <c r="B51" s="82"/>
+      <c r="C51" s="82"/>
+      <c r="D51" s="82"/>
+      <c r="E51" s="82"/>
+      <c r="F51" s="82"/>
+      <c r="G51" s="82"/>
+      <c r="H51" s="82"/>
+      <c r="I51" s="82"/>
+      <c r="J51" s="82"/>
+      <c r="K51" s="82"/>
+      <c r="L51" s="82"/>
+      <c r="M51" s="82"/>
+      <c r="N51" s="82"/>
+      <c r="O51" s="82"/>
+      <c r="P51" s="82"/>
     </row>
     <row r="52" spans="1:35" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A52" s="96" t="s">
+      <c r="A52" s="97" t="s">
         <v>535</v>
       </c>
-      <c r="B52" s="96"/>
-      <c r="C52" s="96"/>
-      <c r="D52" s="96"/>
-      <c r="E52" s="96"/>
-      <c r="F52" s="96"/>
-      <c r="G52" s="96"/>
-      <c r="H52" s="96"/>
-      <c r="I52" s="96"/>
-      <c r="J52" s="96"/>
-      <c r="K52" s="96"/>
-      <c r="L52" s="96"/>
-      <c r="M52" s="96"/>
-      <c r="N52" s="96"/>
-      <c r="O52" s="96"/>
-      <c r="P52" s="96"/>
+      <c r="B52" s="97"/>
+      <c r="C52" s="97"/>
+      <c r="D52" s="97"/>
+      <c r="E52" s="97"/>
+      <c r="F52" s="97"/>
+      <c r="G52" s="97"/>
+      <c r="H52" s="97"/>
+      <c r="I52" s="97"/>
+      <c r="J52" s="97"/>
+      <c r="K52" s="97"/>
+      <c r="L52" s="97"/>
+      <c r="M52" s="97"/>
+      <c r="N52" s="97"/>
+      <c r="O52" s="97"/>
+      <c r="P52" s="97"/>
     </row>
     <row r="53" spans="1:35" s="28" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A53" s="97" t="s">
+      <c r="A53" s="98" t="s">
         <v>942</v>
       </c>
-      <c r="B53" s="97"/>
-      <c r="C53" s="97"/>
-      <c r="D53" s="97"/>
-      <c r="E53" s="97"/>
-      <c r="F53" s="97"/>
-      <c r="G53" s="97"/>
-      <c r="H53" s="97"/>
-      <c r="I53" s="97"/>
-      <c r="J53" s="97"/>
-      <c r="K53" s="97"/>
-      <c r="L53" s="97"/>
-      <c r="M53" s="97"/>
-      <c r="N53" s="97"/>
-      <c r="O53" s="97"/>
-      <c r="P53" s="97"/>
+      <c r="B53" s="98"/>
+      <c r="C53" s="98"/>
+      <c r="D53" s="98"/>
+      <c r="E53" s="98"/>
+      <c r="F53" s="98"/>
+      <c r="G53" s="98"/>
+      <c r="H53" s="98"/>
+      <c r="I53" s="98"/>
+      <c r="J53" s="98"/>
+      <c r="K53" s="98"/>
+      <c r="L53" s="98"/>
+      <c r="M53" s="98"/>
+      <c r="N53" s="98"/>
+      <c r="O53" s="98"/>
+      <c r="P53" s="98"/>
     </row>
     <row r="54" spans="1:35" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A54" s="82" t="s">
+      <c r="A54" s="83" t="s">
         <v>534</v>
       </c>
-      <c r="B54" s="82"/>
-      <c r="C54" s="82"/>
-      <c r="D54" s="82"/>
-      <c r="E54" s="82"/>
-      <c r="F54" s="82"/>
-      <c r="G54" s="82"/>
-      <c r="H54" s="82"/>
-      <c r="I54" s="82"/>
-      <c r="J54" s="82"/>
-      <c r="K54" s="82"/>
-      <c r="L54" s="82"/>
-      <c r="M54" s="82"/>
-      <c r="N54" s="82"/>
-      <c r="O54" s="82"/>
-      <c r="P54" s="82"/>
+      <c r="B54" s="83"/>
+      <c r="C54" s="83"/>
+      <c r="D54" s="83"/>
+      <c r="E54" s="83"/>
+      <c r="F54" s="83"/>
+      <c r="G54" s="83"/>
+      <c r="H54" s="83"/>
+      <c r="I54" s="83"/>
+      <c r="J54" s="83"/>
+      <c r="K54" s="83"/>
+      <c r="L54" s="83"/>
+      <c r="M54" s="83"/>
+      <c r="N54" s="83"/>
+      <c r="O54" s="83"/>
+      <c r="P54" s="83"/>
     </row>
     <row r="55" spans="1:35" s="28" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A55" s="84" t="s">
+      <c r="A55" s="85" t="s">
         <v>533</v>
       </c>
-      <c r="B55" s="84"/>
-      <c r="C55" s="84"/>
-      <c r="D55" s="84"/>
-      <c r="E55" s="84"/>
-      <c r="F55" s="84"/>
-      <c r="G55" s="84"/>
-      <c r="H55" s="84"/>
-      <c r="I55" s="84"/>
-      <c r="J55" s="84"/>
-      <c r="K55" s="84"/>
-      <c r="L55" s="84"/>
-      <c r="M55" s="84"/>
-      <c r="N55" s="84"/>
-      <c r="O55" s="84"/>
-      <c r="P55" s="84"/>
+      <c r="B55" s="85"/>
+      <c r="C55" s="85"/>
+      <c r="D55" s="85"/>
+      <c r="E55" s="85"/>
+      <c r="F55" s="85"/>
+      <c r="G55" s="85"/>
+      <c r="H55" s="85"/>
+      <c r="I55" s="85"/>
+      <c r="J55" s="85"/>
+      <c r="K55" s="85"/>
+      <c r="L55" s="85"/>
+      <c r="M55" s="85"/>
+      <c r="N55" s="85"/>
+      <c r="O55" s="85"/>
+      <c r="P55" s="85"/>
     </row>
     <row r="56" spans="1:35" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A56" s="82" t="s">
+      <c r="A56" s="83" t="s">
         <v>532</v>
       </c>
-      <c r="B56" s="82"/>
-      <c r="C56" s="82"/>
-      <c r="D56" s="82"/>
-      <c r="E56" s="82"/>
-      <c r="F56" s="82"/>
-      <c r="G56" s="82"/>
-      <c r="H56" s="82"/>
-      <c r="I56" s="82"/>
-      <c r="J56" s="82"/>
-      <c r="K56" s="82"/>
-      <c r="L56" s="82"/>
-      <c r="M56" s="82"/>
-      <c r="N56" s="82"/>
-      <c r="O56" s="82"/>
-      <c r="P56" s="82"/>
+      <c r="B56" s="83"/>
+      <c r="C56" s="83"/>
+      <c r="D56" s="83"/>
+      <c r="E56" s="83"/>
+      <c r="F56" s="83"/>
+      <c r="G56" s="83"/>
+      <c r="H56" s="83"/>
+      <c r="I56" s="83"/>
+      <c r="J56" s="83"/>
+      <c r="K56" s="83"/>
+      <c r="L56" s="83"/>
+      <c r="M56" s="83"/>
+      <c r="N56" s="83"/>
+      <c r="O56" s="83"/>
+      <c r="P56" s="83"/>
     </row>
     <row r="57" spans="1:35" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A57" s="82" t="s">
+      <c r="A57" s="83" t="s">
         <v>531</v>
       </c>
-      <c r="B57" s="82"/>
-      <c r="C57" s="82"/>
-      <c r="D57" s="82"/>
-      <c r="E57" s="82"/>
-      <c r="F57" s="82"/>
-      <c r="G57" s="82"/>
-      <c r="H57" s="82"/>
-      <c r="I57" s="82"/>
-      <c r="J57" s="82"/>
-      <c r="K57" s="82"/>
-      <c r="L57" s="82"/>
-      <c r="M57" s="82"/>
-      <c r="N57" s="82"/>
-      <c r="O57" s="82"/>
-      <c r="P57" s="82"/>
+      <c r="B57" s="83"/>
+      <c r="C57" s="83"/>
+      <c r="D57" s="83"/>
+      <c r="E57" s="83"/>
+      <c r="F57" s="83"/>
+      <c r="G57" s="83"/>
+      <c r="H57" s="83"/>
+      <c r="I57" s="83"/>
+      <c r="J57" s="83"/>
+      <c r="K57" s="83"/>
+      <c r="L57" s="83"/>
+      <c r="M57" s="83"/>
+      <c r="N57" s="83"/>
+      <c r="O57" s="83"/>
+      <c r="P57" s="83"/>
     </row>
     <row r="58" spans="1:35" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A58" s="98" t="s">
+      <c r="A58" s="99" t="s">
         <v>530</v>
       </c>
-      <c r="B58" s="98"/>
-      <c r="C58" s="98"/>
-      <c r="D58" s="98"/>
-      <c r="E58" s="98"/>
-      <c r="F58" s="98"/>
-      <c r="G58" s="98"/>
-      <c r="H58" s="98"/>
-      <c r="I58" s="98"/>
-      <c r="J58" s="98"/>
-      <c r="K58" s="98"/>
-      <c r="L58" s="98"/>
-      <c r="M58" s="98"/>
-      <c r="N58" s="98"/>
-      <c r="O58" s="98"/>
-      <c r="P58" s="98"/>
+      <c r="B58" s="99"/>
+      <c r="C58" s="99"/>
+      <c r="D58" s="99"/>
+      <c r="E58" s="99"/>
+      <c r="F58" s="99"/>
+      <c r="G58" s="99"/>
+      <c r="H58" s="99"/>
+      <c r="I58" s="99"/>
+      <c r="J58" s="99"/>
+      <c r="K58" s="99"/>
+      <c r="L58" s="99"/>
+      <c r="M58" s="99"/>
+      <c r="N58" s="99"/>
+      <c r="O58" s="99"/>
+      <c r="P58" s="99"/>
     </row>
     <row r="59" spans="1:35" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A59" s="86"/>
-      <c r="B59" s="86"/>
-      <c r="C59" s="86"/>
-      <c r="D59" s="86"/>
-      <c r="E59" s="86"/>
-      <c r="F59" s="86"/>
-      <c r="G59" s="86"/>
-      <c r="H59" s="86"/>
-      <c r="I59" s="86"/>
-      <c r="J59" s="86"/>
-      <c r="K59" s="86"/>
-      <c r="L59" s="86"/>
-      <c r="M59" s="86"/>
-      <c r="N59" s="86"/>
-      <c r="O59" s="86"/>
-      <c r="P59" s="86"/>
+      <c r="A59" s="87"/>
+      <c r="B59" s="87"/>
+      <c r="C59" s="87"/>
+      <c r="D59" s="87"/>
+      <c r="E59" s="87"/>
+      <c r="F59" s="87"/>
+      <c r="G59" s="87"/>
+      <c r="H59" s="87"/>
+      <c r="I59" s="87"/>
+      <c r="J59" s="87"/>
+      <c r="K59" s="87"/>
+      <c r="L59" s="87"/>
+      <c r="M59" s="87"/>
+      <c r="N59" s="87"/>
+      <c r="O59" s="87"/>
+      <c r="P59" s="87"/>
     </row>
     <row r="60" spans="1:35" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A60" s="99" t="s">
+      <c r="A60" s="100" t="s">
         <v>529</v>
       </c>
-      <c r="B60" s="99"/>
-      <c r="C60" s="99"/>
-      <c r="D60" s="99"/>
-      <c r="E60" s="99"/>
-      <c r="F60" s="99"/>
-      <c r="G60" s="99"/>
-      <c r="H60" s="99"/>
-      <c r="I60" s="99"/>
-      <c r="J60" s="99"/>
-      <c r="K60" s="99"/>
-      <c r="L60" s="99"/>
-      <c r="M60" s="99"/>
-      <c r="N60" s="99"/>
-      <c r="O60" s="99"/>
-      <c r="P60" s="99"/>
+      <c r="B60" s="100"/>
+      <c r="C60" s="100"/>
+      <c r="D60" s="100"/>
+      <c r="E60" s="100"/>
+      <c r="F60" s="100"/>
+      <c r="G60" s="100"/>
+      <c r="H60" s="100"/>
+      <c r="I60" s="100"/>
+      <c r="J60" s="100"/>
+      <c r="K60" s="100"/>
+      <c r="L60" s="100"/>
+      <c r="M60" s="100"/>
+      <c r="N60" s="100"/>
+      <c r="O60" s="100"/>
+      <c r="P60" s="100"/>
     </row>
     <row r="61" spans="1:35" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A61" s="99" t="s">
+      <c r="A61" s="100" t="s">
         <v>528</v>
       </c>
-      <c r="B61" s="99"/>
-      <c r="C61" s="99"/>
-      <c r="D61" s="99"/>
-      <c r="E61" s="99"/>
-      <c r="F61" s="99"/>
-      <c r="G61" s="99"/>
-      <c r="H61" s="99"/>
-      <c r="I61" s="99"/>
-      <c r="J61" s="99"/>
-      <c r="K61" s="99"/>
-      <c r="L61" s="99"/>
-      <c r="M61" s="99"/>
-      <c r="N61" s="99"/>
-      <c r="O61" s="99"/>
-      <c r="P61" s="99"/>
+      <c r="B61" s="100"/>
+      <c r="C61" s="100"/>
+      <c r="D61" s="100"/>
+      <c r="E61" s="100"/>
+      <c r="F61" s="100"/>
+      <c r="G61" s="100"/>
+      <c r="H61" s="100"/>
+      <c r="I61" s="100"/>
+      <c r="J61" s="100"/>
+      <c r="K61" s="100"/>
+      <c r="L61" s="100"/>
+      <c r="M61" s="100"/>
+      <c r="N61" s="100"/>
+      <c r="O61" s="100"/>
+      <c r="P61" s="100"/>
     </row>
     <row r="62" spans="1:35" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A62" s="87" t="s">
+      <c r="A62" s="88" t="s">
         <v>527</v>
       </c>
-      <c r="B62" s="87"/>
-      <c r="C62" s="87"/>
-      <c r="D62" s="87"/>
-      <c r="E62" s="87"/>
-      <c r="F62" s="87"/>
-      <c r="G62" s="87"/>
-      <c r="H62" s="87"/>
-      <c r="I62" s="87"/>
-      <c r="J62" s="87"/>
-      <c r="K62" s="87"/>
-      <c r="L62" s="87"/>
-      <c r="M62" s="87"/>
-      <c r="N62" s="87"/>
-      <c r="O62" s="87"/>
-      <c r="P62" s="87"/>
+      <c r="B62" s="88"/>
+      <c r="C62" s="88"/>
+      <c r="D62" s="88"/>
+      <c r="E62" s="88"/>
+      <c r="F62" s="88"/>
+      <c r="G62" s="88"/>
+      <c r="H62" s="88"/>
+      <c r="I62" s="88"/>
+      <c r="J62" s="88"/>
+      <c r="K62" s="88"/>
+      <c r="L62" s="88"/>
+      <c r="M62" s="88"/>
+      <c r="N62" s="88"/>
+      <c r="O62" s="88"/>
+      <c r="P62" s="88"/>
     </row>
     <row r="63" spans="1:35" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A63" s="100" t="s">
+      <c r="A63" s="101" t="s">
         <v>526</v>
       </c>
-      <c r="B63" s="100"/>
-      <c r="C63" s="100"/>
-      <c r="D63" s="100"/>
-      <c r="E63" s="100"/>
-      <c r="F63" s="100"/>
-      <c r="G63" s="100"/>
-      <c r="H63" s="100"/>
-      <c r="I63" s="100"/>
-      <c r="J63" s="100"/>
-      <c r="K63" s="100"/>
-      <c r="L63" s="100"/>
-      <c r="M63" s="100"/>
-      <c r="N63" s="100"/>
-      <c r="O63" s="100"/>
-      <c r="P63" s="100"/>
+      <c r="B63" s="101"/>
+      <c r="C63" s="101"/>
+      <c r="D63" s="101"/>
+      <c r="E63" s="101"/>
+      <c r="F63" s="101"/>
+      <c r="G63" s="101"/>
+      <c r="H63" s="101"/>
+      <c r="I63" s="101"/>
+      <c r="J63" s="101"/>
+      <c r="K63" s="101"/>
+      <c r="L63" s="101"/>
+      <c r="M63" s="101"/>
+      <c r="N63" s="101"/>
+      <c r="O63" s="101"/>
+      <c r="P63" s="101"/>
     </row>
     <row r="64" spans="1:35" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A64" s="83" t="s">
+      <c r="A64" s="84" t="s">
         <v>525</v>
       </c>
-      <c r="B64" s="83"/>
-      <c r="C64" s="83"/>
-      <c r="D64" s="83"/>
-      <c r="E64" s="83"/>
-      <c r="F64" s="83"/>
-      <c r="G64" s="83"/>
-      <c r="H64" s="83"/>
-      <c r="I64" s="83"/>
-      <c r="J64" s="83"/>
-      <c r="K64" s="83"/>
-      <c r="L64" s="83"/>
-      <c r="M64" s="83"/>
-      <c r="N64" s="83"/>
-      <c r="O64" s="83"/>
-      <c r="P64" s="83"/>
+      <c r="B64" s="84"/>
+      <c r="C64" s="84"/>
+      <c r="D64" s="84"/>
+      <c r="E64" s="84"/>
+      <c r="F64" s="84"/>
+      <c r="G64" s="84"/>
+      <c r="H64" s="84"/>
+      <c r="I64" s="84"/>
+      <c r="J64" s="84"/>
+      <c r="K64" s="84"/>
+      <c r="L64" s="84"/>
+      <c r="M64" s="84"/>
+      <c r="N64" s="84"/>
+      <c r="O64" s="84"/>
+      <c r="P64" s="84"/>
     </row>
     <row r="65" spans="1:16" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A65" s="83" t="s">
+      <c r="A65" s="84" t="s">
         <v>524</v>
       </c>
-      <c r="B65" s="83"/>
-      <c r="C65" s="83"/>
-      <c r="D65" s="83"/>
-      <c r="E65" s="83"/>
-      <c r="F65" s="83"/>
-      <c r="G65" s="83"/>
-      <c r="H65" s="83"/>
-      <c r="I65" s="83"/>
-      <c r="J65" s="83"/>
-      <c r="K65" s="83"/>
-      <c r="L65" s="83"/>
-      <c r="M65" s="83"/>
-      <c r="N65" s="83"/>
-      <c r="O65" s="83"/>
-      <c r="P65" s="83"/>
+      <c r="B65" s="84"/>
+      <c r="C65" s="84"/>
+      <c r="D65" s="84"/>
+      <c r="E65" s="84"/>
+      <c r="F65" s="84"/>
+      <c r="G65" s="84"/>
+      <c r="H65" s="84"/>
+      <c r="I65" s="84"/>
+      <c r="J65" s="84"/>
+      <c r="K65" s="84"/>
+      <c r="L65" s="84"/>
+      <c r="M65" s="84"/>
+      <c r="N65" s="84"/>
+      <c r="O65" s="84"/>
+      <c r="P65" s="84"/>
     </row>
     <row r="66" spans="1:16" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A66" s="83" t="s">
+      <c r="A66" s="84" t="s">
         <v>523</v>
       </c>
-      <c r="B66" s="83"/>
-      <c r="C66" s="83"/>
-      <c r="D66" s="83"/>
-      <c r="E66" s="83"/>
-      <c r="F66" s="83"/>
-      <c r="G66" s="83"/>
-      <c r="H66" s="83"/>
-      <c r="I66" s="83"/>
-      <c r="J66" s="83"/>
-      <c r="K66" s="83"/>
-      <c r="L66" s="83"/>
-      <c r="M66" s="83"/>
-      <c r="N66" s="83"/>
-      <c r="O66" s="83"/>
-      <c r="P66" s="83"/>
+      <c r="B66" s="84"/>
+      <c r="C66" s="84"/>
+      <c r="D66" s="84"/>
+      <c r="E66" s="84"/>
+      <c r="F66" s="84"/>
+      <c r="G66" s="84"/>
+      <c r="H66" s="84"/>
+      <c r="I66" s="84"/>
+      <c r="J66" s="84"/>
+      <c r="K66" s="84"/>
+      <c r="L66" s="84"/>
+      <c r="M66" s="84"/>
+      <c r="N66" s="84"/>
+      <c r="O66" s="84"/>
+      <c r="P66" s="84"/>
     </row>
     <row r="67" spans="1:16" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A67" s="83" t="s">
+      <c r="A67" s="84" t="s">
         <v>943</v>
       </c>
-      <c r="B67" s="83"/>
-      <c r="C67" s="83"/>
-      <c r="D67" s="83"/>
-      <c r="E67" s="83"/>
-      <c r="F67" s="83"/>
-      <c r="G67" s="83"/>
-      <c r="H67" s="83"/>
-      <c r="I67" s="83"/>
-      <c r="J67" s="83"/>
-      <c r="K67" s="83"/>
-      <c r="L67" s="83"/>
-      <c r="M67" s="83"/>
-      <c r="N67" s="83"/>
-      <c r="O67" s="83"/>
-      <c r="P67" s="83"/>
+      <c r="B67" s="84"/>
+      <c r="C67" s="84"/>
+      <c r="D67" s="84"/>
+      <c r="E67" s="84"/>
+      <c r="F67" s="84"/>
+      <c r="G67" s="84"/>
+      <c r="H67" s="84"/>
+      <c r="I67" s="84"/>
+      <c r="J67" s="84"/>
+      <c r="K67" s="84"/>
+      <c r="L67" s="84"/>
+      <c r="M67" s="84"/>
+      <c r="N67" s="84"/>
+      <c r="O67" s="84"/>
+      <c r="P67" s="84"/>
     </row>
     <row r="68" spans="1:16" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A68" s="87" t="s">
+      <c r="A68" s="88" t="s">
         <v>522</v>
       </c>
-      <c r="B68" s="87"/>
-      <c r="C68" s="87"/>
-      <c r="D68" s="87"/>
-      <c r="E68" s="87"/>
-      <c r="F68" s="87"/>
-      <c r="G68" s="87"/>
-      <c r="H68" s="87"/>
-      <c r="I68" s="87"/>
-      <c r="J68" s="87"/>
-      <c r="K68" s="87"/>
-      <c r="L68" s="87"/>
-      <c r="M68" s="87"/>
-      <c r="N68" s="87"/>
-      <c r="O68" s="87"/>
-      <c r="P68" s="87"/>
+      <c r="B68" s="88"/>
+      <c r="C68" s="88"/>
+      <c r="D68" s="88"/>
+      <c r="E68" s="88"/>
+      <c r="F68" s="88"/>
+      <c r="G68" s="88"/>
+      <c r="H68" s="88"/>
+      <c r="I68" s="88"/>
+      <c r="J68" s="88"/>
+      <c r="K68" s="88"/>
+      <c r="L68" s="88"/>
+      <c r="M68" s="88"/>
+      <c r="N68" s="88"/>
+      <c r="O68" s="88"/>
+      <c r="P68" s="88"/>
     </row>
     <row r="69" spans="1:16" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A69" s="83" t="s">
+      <c r="A69" s="84" t="s">
         <v>521</v>
       </c>
-      <c r="B69" s="83"/>
-      <c r="C69" s="83"/>
-      <c r="D69" s="83"/>
-      <c r="E69" s="83"/>
-      <c r="F69" s="83"/>
-      <c r="G69" s="83"/>
-      <c r="H69" s="83"/>
-      <c r="I69" s="83"/>
-      <c r="J69" s="83"/>
-      <c r="K69" s="83"/>
-      <c r="L69" s="83"/>
-      <c r="M69" s="83"/>
-      <c r="N69" s="83"/>
-      <c r="O69" s="83"/>
-      <c r="P69" s="83"/>
+      <c r="B69" s="84"/>
+      <c r="C69" s="84"/>
+      <c r="D69" s="84"/>
+      <c r="E69" s="84"/>
+      <c r="F69" s="84"/>
+      <c r="G69" s="84"/>
+      <c r="H69" s="84"/>
+      <c r="I69" s="84"/>
+      <c r="J69" s="84"/>
+      <c r="K69" s="84"/>
+      <c r="L69" s="84"/>
+      <c r="M69" s="84"/>
+      <c r="N69" s="84"/>
+      <c r="O69" s="84"/>
+      <c r="P69" s="84"/>
     </row>
     <row r="70" spans="1:16" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A70" s="83" t="s">
+      <c r="A70" s="84" t="s">
         <v>520</v>
       </c>
-      <c r="B70" s="83"/>
-      <c r="C70" s="83"/>
-      <c r="D70" s="83"/>
-      <c r="E70" s="83"/>
-      <c r="F70" s="83"/>
-      <c r="G70" s="83"/>
-      <c r="H70" s="83"/>
-      <c r="I70" s="83"/>
-      <c r="J70" s="83"/>
-      <c r="K70" s="83"/>
-      <c r="L70" s="83"/>
-      <c r="M70" s="83"/>
-      <c r="N70" s="83"/>
-      <c r="O70" s="83"/>
-      <c r="P70" s="83"/>
+      <c r="B70" s="84"/>
+      <c r="C70" s="84"/>
+      <c r="D70" s="84"/>
+      <c r="E70" s="84"/>
+      <c r="F70" s="84"/>
+      <c r="G70" s="84"/>
+      <c r="H70" s="84"/>
+      <c r="I70" s="84"/>
+      <c r="J70" s="84"/>
+      <c r="K70" s="84"/>
+      <c r="L70" s="84"/>
+      <c r="M70" s="84"/>
+      <c r="N70" s="84"/>
+      <c r="O70" s="84"/>
+      <c r="P70" s="84"/>
     </row>
     <row r="71" spans="1:16" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A71" s="83" t="s">
+      <c r="A71" s="84" t="s">
         <v>519</v>
       </c>
-      <c r="B71" s="83"/>
-      <c r="C71" s="83"/>
-      <c r="D71" s="83"/>
-      <c r="E71" s="83"/>
-      <c r="F71" s="83"/>
-      <c r="G71" s="83"/>
-      <c r="H71" s="83"/>
-      <c r="I71" s="83"/>
-      <c r="J71" s="83"/>
-      <c r="K71" s="83"/>
-      <c r="L71" s="83"/>
-      <c r="M71" s="83"/>
-      <c r="N71" s="83"/>
-      <c r="O71" s="83"/>
-      <c r="P71" s="83"/>
+      <c r="B71" s="84"/>
+      <c r="C71" s="84"/>
+      <c r="D71" s="84"/>
+      <c r="E71" s="84"/>
+      <c r="F71" s="84"/>
+      <c r="G71" s="84"/>
+      <c r="H71" s="84"/>
+      <c r="I71" s="84"/>
+      <c r="J71" s="84"/>
+      <c r="K71" s="84"/>
+      <c r="L71" s="84"/>
+      <c r="M71" s="84"/>
+      <c r="N71" s="84"/>
+      <c r="O71" s="84"/>
+      <c r="P71" s="84"/>
     </row>
     <row r="72" spans="1:16" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A72" s="83" t="s">
+      <c r="A72" s="84" t="s">
         <v>518</v>
       </c>
-      <c r="B72" s="83"/>
-      <c r="C72" s="83"/>
-      <c r="D72" s="83"/>
-      <c r="E72" s="83"/>
-      <c r="F72" s="83"/>
-      <c r="G72" s="83"/>
-      <c r="H72" s="83"/>
-      <c r="I72" s="83"/>
-      <c r="J72" s="83"/>
-      <c r="K72" s="83"/>
-      <c r="L72" s="83"/>
-      <c r="M72" s="83"/>
-      <c r="N72" s="83"/>
-      <c r="O72" s="83"/>
-      <c r="P72" s="83"/>
+      <c r="B72" s="84"/>
+      <c r="C72" s="84"/>
+      <c r="D72" s="84"/>
+      <c r="E72" s="84"/>
+      <c r="F72" s="84"/>
+      <c r="G72" s="84"/>
+      <c r="H72" s="84"/>
+      <c r="I72" s="84"/>
+      <c r="J72" s="84"/>
+      <c r="K72" s="84"/>
+      <c r="L72" s="84"/>
+      <c r="M72" s="84"/>
+      <c r="N72" s="84"/>
+      <c r="O72" s="84"/>
+      <c r="P72" s="84"/>
     </row>
     <row r="73" spans="1:16" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A73" s="83" t="s">
+      <c r="A73" s="84" t="s">
         <v>944</v>
       </c>
-      <c r="B73" s="83"/>
-      <c r="C73" s="83"/>
-      <c r="D73" s="83"/>
-      <c r="E73" s="83"/>
-      <c r="F73" s="83"/>
-      <c r="G73" s="83"/>
-      <c r="H73" s="83"/>
-      <c r="I73" s="83"/>
-      <c r="J73" s="83"/>
-      <c r="K73" s="83"/>
-      <c r="L73" s="83"/>
-      <c r="M73" s="83"/>
-      <c r="N73" s="83"/>
-      <c r="O73" s="83"/>
-      <c r="P73" s="83"/>
+      <c r="B73" s="84"/>
+      <c r="C73" s="84"/>
+      <c r="D73" s="84"/>
+      <c r="E73" s="84"/>
+      <c r="F73" s="84"/>
+      <c r="G73" s="84"/>
+      <c r="H73" s="84"/>
+      <c r="I73" s="84"/>
+      <c r="J73" s="84"/>
+      <c r="K73" s="84"/>
+      <c r="L73" s="84"/>
+      <c r="M73" s="84"/>
+      <c r="N73" s="84"/>
+      <c r="O73" s="84"/>
+      <c r="P73" s="84"/>
     </row>
     <row r="74" spans="1:16" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A74" s="85" t="s">
+      <c r="A74" s="86" t="s">
         <v>517</v>
       </c>
-      <c r="B74" s="85"/>
-      <c r="C74" s="85"/>
-      <c r="D74" s="85"/>
-      <c r="E74" s="85"/>
-      <c r="F74" s="85"/>
-      <c r="G74" s="85"/>
-      <c r="H74" s="85"/>
-      <c r="I74" s="85"/>
-      <c r="J74" s="85"/>
-      <c r="K74" s="85"/>
-      <c r="L74" s="85"/>
-      <c r="M74" s="85"/>
-      <c r="N74" s="85"/>
-      <c r="O74" s="85"/>
-      <c r="P74" s="85"/>
+      <c r="B74" s="86"/>
+      <c r="C74" s="86"/>
+      <c r="D74" s="86"/>
+      <c r="E74" s="86"/>
+      <c r="F74" s="86"/>
+      <c r="G74" s="86"/>
+      <c r="H74" s="86"/>
+      <c r="I74" s="86"/>
+      <c r="J74" s="86"/>
+      <c r="K74" s="86"/>
+      <c r="L74" s="86"/>
+      <c r="M74" s="86"/>
+      <c r="N74" s="86"/>
+      <c r="O74" s="86"/>
+      <c r="P74" s="86"/>
     </row>
     <row r="75" spans="1:16" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A75" s="87" t="s">
+      <c r="A75" s="88" t="s">
         <v>516</v>
       </c>
-      <c r="B75" s="87"/>
-      <c r="C75" s="87"/>
-      <c r="D75" s="87"/>
-      <c r="E75" s="87"/>
-      <c r="F75" s="87"/>
-      <c r="G75" s="87"/>
-      <c r="H75" s="87"/>
-      <c r="I75" s="87"/>
-      <c r="J75" s="87"/>
-      <c r="K75" s="87"/>
-      <c r="L75" s="87"/>
-      <c r="M75" s="87"/>
-      <c r="N75" s="87"/>
-      <c r="O75" s="87"/>
-      <c r="P75" s="87"/>
+      <c r="B75" s="88"/>
+      <c r="C75" s="88"/>
+      <c r="D75" s="88"/>
+      <c r="E75" s="88"/>
+      <c r="F75" s="88"/>
+      <c r="G75" s="88"/>
+      <c r="H75" s="88"/>
+      <c r="I75" s="88"/>
+      <c r="J75" s="88"/>
+      <c r="K75" s="88"/>
+      <c r="L75" s="88"/>
+      <c r="M75" s="88"/>
+      <c r="N75" s="88"/>
+      <c r="O75" s="88"/>
+      <c r="P75" s="88"/>
     </row>
     <row r="76" spans="1:16" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A76" s="82" t="s">
+      <c r="A76" s="83" t="s">
         <v>515</v>
       </c>
-      <c r="B76" s="82"/>
-      <c r="C76" s="82"/>
-      <c r="D76" s="82"/>
-      <c r="E76" s="82"/>
-      <c r="F76" s="82"/>
-      <c r="G76" s="82"/>
-      <c r="H76" s="82"/>
-      <c r="I76" s="82"/>
-      <c r="J76" s="82"/>
-      <c r="K76" s="82"/>
-      <c r="L76" s="82"/>
-      <c r="M76" s="82"/>
-      <c r="N76" s="82"/>
-      <c r="O76" s="82"/>
-      <c r="P76" s="82"/>
+      <c r="B76" s="83"/>
+      <c r="C76" s="83"/>
+      <c r="D76" s="83"/>
+      <c r="E76" s="83"/>
+      <c r="F76" s="83"/>
+      <c r="G76" s="83"/>
+      <c r="H76" s="83"/>
+      <c r="I76" s="83"/>
+      <c r="J76" s="83"/>
+      <c r="K76" s="83"/>
+      <c r="L76" s="83"/>
+      <c r="M76" s="83"/>
+      <c r="N76" s="83"/>
+      <c r="O76" s="83"/>
+      <c r="P76" s="83"/>
     </row>
     <row r="77" spans="1:16" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A77" s="95" t="s">
+      <c r="A77" s="96" t="s">
         <v>509</v>
       </c>
-      <c r="B77" s="95"/>
-      <c r="C77" s="95"/>
-      <c r="D77" s="95"/>
-      <c r="E77" s="95"/>
-      <c r="F77" s="95"/>
-      <c r="G77" s="95"/>
-      <c r="H77" s="95"/>
-      <c r="I77" s="95"/>
-      <c r="J77" s="95"/>
-      <c r="K77" s="95"/>
-      <c r="L77" s="95"/>
-      <c r="M77" s="95"/>
-      <c r="N77" s="95"/>
-      <c r="O77" s="95"/>
-      <c r="P77" s="95"/>
+      <c r="B77" s="96"/>
+      <c r="C77" s="96"/>
+      <c r="D77" s="96"/>
+      <c r="E77" s="96"/>
+      <c r="F77" s="96"/>
+      <c r="G77" s="96"/>
+      <c r="H77" s="96"/>
+      <c r="I77" s="96"/>
+      <c r="J77" s="96"/>
+      <c r="K77" s="96"/>
+      <c r="L77" s="96"/>
+      <c r="M77" s="96"/>
+      <c r="N77" s="96"/>
+      <c r="O77" s="96"/>
+      <c r="P77" s="96"/>
     </row>
     <row r="78" spans="1:16" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A78" s="94" t="s">
+      <c r="A78" s="95" t="s">
         <v>514</v>
       </c>
-      <c r="B78" s="94"/>
-      <c r="C78" s="94"/>
-      <c r="D78" s="94"/>
-      <c r="E78" s="94"/>
-      <c r="F78" s="94"/>
-      <c r="G78" s="94"/>
-      <c r="H78" s="94"/>
-      <c r="I78" s="94"/>
-      <c r="J78" s="94"/>
-      <c r="K78" s="94"/>
-      <c r="L78" s="94"/>
-      <c r="M78" s="94"/>
-      <c r="N78" s="94"/>
-      <c r="O78" s="94"/>
-      <c r="P78" s="94"/>
+      <c r="B78" s="95"/>
+      <c r="C78" s="95"/>
+      <c r="D78" s="95"/>
+      <c r="E78" s="95"/>
+      <c r="F78" s="95"/>
+      <c r="G78" s="95"/>
+      <c r="H78" s="95"/>
+      <c r="I78" s="95"/>
+      <c r="J78" s="95"/>
+      <c r="K78" s="95"/>
+      <c r="L78" s="95"/>
+      <c r="M78" s="95"/>
+      <c r="N78" s="95"/>
+      <c r="O78" s="95"/>
+      <c r="P78" s="95"/>
     </row>
     <row r="79" spans="1:16" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A79" s="95" t="s">
+      <c r="A79" s="96" t="s">
         <v>945</v>
       </c>
-      <c r="B79" s="95"/>
-      <c r="C79" s="95"/>
-      <c r="D79" s="95"/>
-      <c r="E79" s="95"/>
-      <c r="F79" s="95"/>
-      <c r="G79" s="95"/>
-      <c r="H79" s="95"/>
-      <c r="I79" s="95"/>
-      <c r="J79" s="95"/>
-      <c r="K79" s="95"/>
-      <c r="L79" s="95"/>
-      <c r="M79" s="95"/>
-      <c r="N79" s="95"/>
-      <c r="O79" s="95"/>
-      <c r="P79" s="95"/>
+      <c r="B79" s="96"/>
+      <c r="C79" s="96"/>
+      <c r="D79" s="96"/>
+      <c r="E79" s="96"/>
+      <c r="F79" s="96"/>
+      <c r="G79" s="96"/>
+      <c r="H79" s="96"/>
+      <c r="I79" s="96"/>
+      <c r="J79" s="96"/>
+      <c r="K79" s="96"/>
+      <c r="L79" s="96"/>
+      <c r="M79" s="96"/>
+      <c r="N79" s="96"/>
+      <c r="O79" s="96"/>
+      <c r="P79" s="96"/>
     </row>
     <row r="80" spans="1:16" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A80" s="87" t="s">
+      <c r="A80" s="88" t="s">
         <v>513</v>
       </c>
-      <c r="B80" s="87"/>
-      <c r="C80" s="87"/>
-      <c r="D80" s="87"/>
-      <c r="E80" s="87"/>
-      <c r="F80" s="87"/>
-      <c r="G80" s="87"/>
-      <c r="H80" s="87"/>
-      <c r="I80" s="87"/>
-      <c r="J80" s="87"/>
-      <c r="K80" s="87"/>
-      <c r="L80" s="87"/>
-      <c r="M80" s="87"/>
-      <c r="N80" s="87"/>
-      <c r="O80" s="87"/>
-      <c r="P80" s="87"/>
+      <c r="B80" s="88"/>
+      <c r="C80" s="88"/>
+      <c r="D80" s="88"/>
+      <c r="E80" s="88"/>
+      <c r="F80" s="88"/>
+      <c r="G80" s="88"/>
+      <c r="H80" s="88"/>
+      <c r="I80" s="88"/>
+      <c r="J80" s="88"/>
+      <c r="K80" s="88"/>
+      <c r="L80" s="88"/>
+      <c r="M80" s="88"/>
+      <c r="N80" s="88"/>
+      <c r="O80" s="88"/>
+      <c r="P80" s="88"/>
     </row>
     <row r="81" spans="1:16" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A81" s="82" t="s">
+      <c r="A81" s="83" t="s">
         <v>512</v>
       </c>
-      <c r="B81" s="82"/>
-      <c r="C81" s="82"/>
-      <c r="D81" s="82"/>
-      <c r="E81" s="82"/>
-      <c r="F81" s="82"/>
-      <c r="G81" s="82"/>
-      <c r="H81" s="82"/>
-      <c r="I81" s="82"/>
-      <c r="J81" s="82"/>
-      <c r="K81" s="82"/>
-      <c r="L81" s="82"/>
-      <c r="M81" s="82"/>
-      <c r="N81" s="82"/>
-      <c r="O81" s="82"/>
-      <c r="P81" s="82"/>
+      <c r="B81" s="83"/>
+      <c r="C81" s="83"/>
+      <c r="D81" s="83"/>
+      <c r="E81" s="83"/>
+      <c r="F81" s="83"/>
+      <c r="G81" s="83"/>
+      <c r="H81" s="83"/>
+      <c r="I81" s="83"/>
+      <c r="J81" s="83"/>
+      <c r="K81" s="83"/>
+      <c r="L81" s="83"/>
+      <c r="M81" s="83"/>
+      <c r="N81" s="83"/>
+      <c r="O81" s="83"/>
+      <c r="P81" s="83"/>
     </row>
     <row r="82" spans="1:16" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A82" s="95" t="s">
+      <c r="A82" s="96" t="s">
         <v>946</v>
       </c>
-      <c r="B82" s="95"/>
-      <c r="C82" s="95"/>
-      <c r="D82" s="95"/>
-      <c r="E82" s="95"/>
-      <c r="F82" s="95"/>
-      <c r="G82" s="95"/>
-      <c r="H82" s="95"/>
-      <c r="I82" s="95"/>
-      <c r="J82" s="95"/>
-      <c r="K82" s="95"/>
-      <c r="L82" s="95"/>
-      <c r="M82" s="95"/>
-      <c r="N82" s="95"/>
-      <c r="O82" s="95"/>
-      <c r="P82" s="95"/>
+      <c r="B82" s="96"/>
+      <c r="C82" s="96"/>
+      <c r="D82" s="96"/>
+      <c r="E82" s="96"/>
+      <c r="F82" s="96"/>
+      <c r="G82" s="96"/>
+      <c r="H82" s="96"/>
+      <c r="I82" s="96"/>
+      <c r="J82" s="96"/>
+      <c r="K82" s="96"/>
+      <c r="L82" s="96"/>
+      <c r="M82" s="96"/>
+      <c r="N82" s="96"/>
+      <c r="O82" s="96"/>
+      <c r="P82" s="96"/>
     </row>
     <row r="83" spans="1:16" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A83" s="87" t="s">
+      <c r="A83" s="88" t="s">
         <v>511</v>
       </c>
-      <c r="B83" s="87"/>
-      <c r="C83" s="87"/>
-      <c r="D83" s="87"/>
-      <c r="E83" s="87"/>
-      <c r="F83" s="87"/>
-      <c r="G83" s="87"/>
-      <c r="H83" s="87"/>
-      <c r="I83" s="87"/>
-      <c r="J83" s="87"/>
-      <c r="K83" s="87"/>
-      <c r="L83" s="87"/>
-      <c r="M83" s="87"/>
-      <c r="N83" s="87"/>
-      <c r="O83" s="87"/>
-      <c r="P83" s="87"/>
+      <c r="B83" s="88"/>
+      <c r="C83" s="88"/>
+      <c r="D83" s="88"/>
+      <c r="E83" s="88"/>
+      <c r="F83" s="88"/>
+      <c r="G83" s="88"/>
+      <c r="H83" s="88"/>
+      <c r="I83" s="88"/>
+      <c r="J83" s="88"/>
+      <c r="K83" s="88"/>
+      <c r="L83" s="88"/>
+      <c r="M83" s="88"/>
+      <c r="N83" s="88"/>
+      <c r="O83" s="88"/>
+      <c r="P83" s="88"/>
     </row>
     <row r="84" spans="1:16" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A84" s="82" t="s">
+      <c r="A84" s="83" t="s">
         <v>510</v>
       </c>
-      <c r="B84" s="82"/>
-      <c r="C84" s="82"/>
-      <c r="D84" s="82"/>
-      <c r="E84" s="82"/>
-      <c r="F84" s="82"/>
-      <c r="G84" s="82"/>
-      <c r="H84" s="82"/>
-      <c r="I84" s="82"/>
-      <c r="J84" s="82"/>
-      <c r="K84" s="82"/>
-      <c r="L84" s="82"/>
-      <c r="M84" s="82"/>
-      <c r="N84" s="82"/>
-      <c r="O84" s="82"/>
-      <c r="P84" s="82"/>
+      <c r="B84" s="83"/>
+      <c r="C84" s="83"/>
+      <c r="D84" s="83"/>
+      <c r="E84" s="83"/>
+      <c r="F84" s="83"/>
+      <c r="G84" s="83"/>
+      <c r="H84" s="83"/>
+      <c r="I84" s="83"/>
+      <c r="J84" s="83"/>
+      <c r="K84" s="83"/>
+      <c r="L84" s="83"/>
+      <c r="M84" s="83"/>
+      <c r="N84" s="83"/>
+      <c r="O84" s="83"/>
+      <c r="P84" s="83"/>
     </row>
     <row r="85" spans="1:16" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A85" s="95" t="s">
+      <c r="A85" s="96" t="s">
         <v>509</v>
       </c>
-      <c r="B85" s="95"/>
-      <c r="C85" s="95"/>
-      <c r="D85" s="95"/>
-      <c r="E85" s="95"/>
-      <c r="F85" s="95"/>
-      <c r="G85" s="95"/>
-      <c r="H85" s="95"/>
-      <c r="I85" s="95"/>
-      <c r="J85" s="95"/>
-      <c r="K85" s="95"/>
-      <c r="L85" s="95"/>
-      <c r="M85" s="95"/>
-      <c r="N85" s="95"/>
-      <c r="O85" s="95"/>
-      <c r="P85" s="95"/>
+      <c r="B85" s="96"/>
+      <c r="C85" s="96"/>
+      <c r="D85" s="96"/>
+      <c r="E85" s="96"/>
+      <c r="F85" s="96"/>
+      <c r="G85" s="96"/>
+      <c r="H85" s="96"/>
+      <c r="I85" s="96"/>
+      <c r="J85" s="96"/>
+      <c r="K85" s="96"/>
+      <c r="L85" s="96"/>
+      <c r="M85" s="96"/>
+      <c r="N85" s="96"/>
+      <c r="O85" s="96"/>
+      <c r="P85" s="96"/>
     </row>
     <row r="86" spans="1:16" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A86" s="94" t="s">
+      <c r="A86" s="95" t="s">
         <v>508</v>
       </c>
-      <c r="B86" s="94"/>
-      <c r="C86" s="94"/>
-      <c r="D86" s="94"/>
-      <c r="E86" s="94"/>
-      <c r="F86" s="94"/>
-      <c r="G86" s="94"/>
-      <c r="H86" s="94"/>
-      <c r="I86" s="94"/>
-      <c r="J86" s="94"/>
-      <c r="K86" s="94"/>
-      <c r="L86" s="94"/>
-      <c r="M86" s="94"/>
-      <c r="N86" s="94"/>
-      <c r="O86" s="94"/>
-      <c r="P86" s="94"/>
+      <c r="B86" s="95"/>
+      <c r="C86" s="95"/>
+      <c r="D86" s="95"/>
+      <c r="E86" s="95"/>
+      <c r="F86" s="95"/>
+      <c r="G86" s="95"/>
+      <c r="H86" s="95"/>
+      <c r="I86" s="95"/>
+      <c r="J86" s="95"/>
+      <c r="K86" s="95"/>
+      <c r="L86" s="95"/>
+      <c r="M86" s="95"/>
+      <c r="N86" s="95"/>
+      <c r="O86" s="95"/>
+      <c r="P86" s="95"/>
     </row>
     <row r="87" spans="1:16" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A87" s="95" t="s">
+      <c r="A87" s="96" t="s">
         <v>947</v>
       </c>
-      <c r="B87" s="95"/>
-      <c r="C87" s="95"/>
-      <c r="D87" s="95"/>
-      <c r="E87" s="95"/>
-      <c r="F87" s="95"/>
-      <c r="G87" s="95"/>
-      <c r="H87" s="95"/>
-      <c r="I87" s="95"/>
-      <c r="J87" s="95"/>
-      <c r="K87" s="95"/>
-      <c r="L87" s="95"/>
-      <c r="M87" s="95"/>
-      <c r="N87" s="95"/>
-      <c r="O87" s="95"/>
-      <c r="P87" s="95"/>
+      <c r="B87" s="96"/>
+      <c r="C87" s="96"/>
+      <c r="D87" s="96"/>
+      <c r="E87" s="96"/>
+      <c r="F87" s="96"/>
+      <c r="G87" s="96"/>
+      <c r="H87" s="96"/>
+      <c r="I87" s="96"/>
+      <c r="J87" s="96"/>
+      <c r="K87" s="96"/>
+      <c r="L87" s="96"/>
+      <c r="M87" s="96"/>
+      <c r="N87" s="96"/>
+      <c r="O87" s="96"/>
+      <c r="P87" s="96"/>
     </row>
     <row r="88" spans="1:16" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A88" s="87" t="s">
+      <c r="A88" s="88" t="s">
         <v>507</v>
       </c>
-      <c r="B88" s="87"/>
-      <c r="C88" s="87"/>
-      <c r="D88" s="87"/>
-      <c r="E88" s="87"/>
-      <c r="F88" s="87"/>
-      <c r="G88" s="87"/>
-      <c r="H88" s="87"/>
-      <c r="I88" s="87"/>
-      <c r="J88" s="87"/>
-      <c r="K88" s="87"/>
-      <c r="L88" s="87"/>
-      <c r="M88" s="87"/>
-      <c r="N88" s="87"/>
-      <c r="O88" s="87"/>
-      <c r="P88" s="87"/>
+      <c r="B88" s="88"/>
+      <c r="C88" s="88"/>
+      <c r="D88" s="88"/>
+      <c r="E88" s="88"/>
+      <c r="F88" s="88"/>
+      <c r="G88" s="88"/>
+      <c r="H88" s="88"/>
+      <c r="I88" s="88"/>
+      <c r="J88" s="88"/>
+      <c r="K88" s="88"/>
+      <c r="L88" s="88"/>
+      <c r="M88" s="88"/>
+      <c r="N88" s="88"/>
+      <c r="O88" s="88"/>
+      <c r="P88" s="88"/>
     </row>
     <row r="89" spans="1:16" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A89" s="82" t="s">
+      <c r="A89" s="83" t="s">
         <v>506</v>
       </c>
-      <c r="B89" s="82"/>
-      <c r="C89" s="82"/>
-      <c r="D89" s="82"/>
-      <c r="E89" s="82"/>
-      <c r="F89" s="82"/>
-      <c r="G89" s="82"/>
-      <c r="H89" s="82"/>
-      <c r="I89" s="82"/>
-      <c r="J89" s="82"/>
-      <c r="K89" s="82"/>
-      <c r="L89" s="82"/>
-      <c r="M89" s="82"/>
-      <c r="N89" s="82"/>
-      <c r="O89" s="82"/>
-      <c r="P89" s="82"/>
+      <c r="B89" s="83"/>
+      <c r="C89" s="83"/>
+      <c r="D89" s="83"/>
+      <c r="E89" s="83"/>
+      <c r="F89" s="83"/>
+      <c r="G89" s="83"/>
+      <c r="H89" s="83"/>
+      <c r="I89" s="83"/>
+      <c r="J89" s="83"/>
+      <c r="K89" s="83"/>
+      <c r="L89" s="83"/>
+      <c r="M89" s="83"/>
+      <c r="N89" s="83"/>
+      <c r="O89" s="83"/>
+      <c r="P89" s="83"/>
     </row>
     <row r="90" spans="1:16" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A90" s="95" t="s">
+      <c r="A90" s="96" t="s">
         <v>946</v>
       </c>
-      <c r="B90" s="95"/>
-      <c r="C90" s="95"/>
-      <c r="D90" s="95"/>
-      <c r="E90" s="95"/>
-      <c r="F90" s="95"/>
-      <c r="G90" s="95"/>
-      <c r="H90" s="95"/>
-      <c r="I90" s="95"/>
-      <c r="J90" s="95"/>
-      <c r="K90" s="95"/>
-      <c r="L90" s="95"/>
-      <c r="M90" s="95"/>
-      <c r="N90" s="95"/>
-      <c r="O90" s="95"/>
-      <c r="P90" s="95"/>
+      <c r="B90" s="96"/>
+      <c r="C90" s="96"/>
+      <c r="D90" s="96"/>
+      <c r="E90" s="96"/>
+      <c r="F90" s="96"/>
+      <c r="G90" s="96"/>
+      <c r="H90" s="96"/>
+      <c r="I90" s="96"/>
+      <c r="J90" s="96"/>
+      <c r="K90" s="96"/>
+      <c r="L90" s="96"/>
+      <c r="M90" s="96"/>
+      <c r="N90" s="96"/>
+      <c r="O90" s="96"/>
+      <c r="P90" s="96"/>
     </row>
     <row r="91" spans="1:16" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A91" s="85" t="s">
+      <c r="A91" s="86" t="s">
         <v>505</v>
       </c>
-      <c r="B91" s="85"/>
-      <c r="C91" s="85"/>
-      <c r="D91" s="85"/>
-      <c r="E91" s="85"/>
-      <c r="F91" s="85"/>
-      <c r="G91" s="85"/>
-      <c r="H91" s="85"/>
-      <c r="I91" s="85"/>
-      <c r="J91" s="85"/>
-      <c r="K91" s="85"/>
-      <c r="L91" s="85"/>
-      <c r="M91" s="85"/>
-      <c r="N91" s="85"/>
-      <c r="O91" s="85"/>
-      <c r="P91" s="85"/>
+      <c r="B91" s="86"/>
+      <c r="C91" s="86"/>
+      <c r="D91" s="86"/>
+      <c r="E91" s="86"/>
+      <c r="F91" s="86"/>
+      <c r="G91" s="86"/>
+      <c r="H91" s="86"/>
+      <c r="I91" s="86"/>
+      <c r="J91" s="86"/>
+      <c r="K91" s="86"/>
+      <c r="L91" s="86"/>
+      <c r="M91" s="86"/>
+      <c r="N91" s="86"/>
+      <c r="O91" s="86"/>
+      <c r="P91" s="86"/>
     </row>
     <row r="92" spans="1:16" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A92" s="83" t="s">
+      <c r="A92" s="84" t="s">
         <v>504</v>
       </c>
-      <c r="B92" s="83"/>
-      <c r="C92" s="83"/>
-      <c r="D92" s="83"/>
-      <c r="E92" s="83"/>
-      <c r="F92" s="83"/>
-      <c r="G92" s="83"/>
-      <c r="H92" s="83"/>
-      <c r="I92" s="83"/>
-      <c r="J92" s="83"/>
-      <c r="K92" s="83"/>
-      <c r="L92" s="83"/>
-      <c r="M92" s="83"/>
-      <c r="N92" s="83"/>
-      <c r="O92" s="83"/>
-      <c r="P92" s="83"/>
+      <c r="B92" s="84"/>
+      <c r="C92" s="84"/>
+      <c r="D92" s="84"/>
+      <c r="E92" s="84"/>
+      <c r="F92" s="84"/>
+      <c r="G92" s="84"/>
+      <c r="H92" s="84"/>
+      <c r="I92" s="84"/>
+      <c r="J92" s="84"/>
+      <c r="K92" s="84"/>
+      <c r="L92" s="84"/>
+      <c r="M92" s="84"/>
+      <c r="N92" s="84"/>
+      <c r="O92" s="84"/>
+      <c r="P92" s="84"/>
     </row>
     <row r="93" spans="1:16" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A93" s="83" t="s">
+      <c r="A93" s="84" t="s">
         <v>503</v>
       </c>
-      <c r="B93" s="83"/>
-      <c r="C93" s="83"/>
-      <c r="D93" s="83"/>
-      <c r="E93" s="83"/>
-      <c r="F93" s="83"/>
-      <c r="G93" s="83"/>
-      <c r="H93" s="83"/>
-      <c r="I93" s="83"/>
-      <c r="J93" s="83"/>
-      <c r="K93" s="83"/>
-      <c r="L93" s="83"/>
-      <c r="M93" s="83"/>
-      <c r="N93" s="83"/>
-      <c r="O93" s="83"/>
-      <c r="P93" s="83"/>
+      <c r="B93" s="84"/>
+      <c r="C93" s="84"/>
+      <c r="D93" s="84"/>
+      <c r="E93" s="84"/>
+      <c r="F93" s="84"/>
+      <c r="G93" s="84"/>
+      <c r="H93" s="84"/>
+      <c r="I93" s="84"/>
+      <c r="J93" s="84"/>
+      <c r="K93" s="84"/>
+      <c r="L93" s="84"/>
+      <c r="M93" s="84"/>
+      <c r="N93" s="84"/>
+      <c r="O93" s="84"/>
+      <c r="P93" s="84"/>
     </row>
     <row r="94" spans="1:16" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A94" s="83" t="s">
+      <c r="A94" s="84" t="s">
         <v>948</v>
       </c>
-      <c r="B94" s="83"/>
-      <c r="C94" s="83"/>
-      <c r="D94" s="83"/>
-      <c r="E94" s="83"/>
-      <c r="F94" s="83"/>
-      <c r="G94" s="83"/>
-      <c r="H94" s="83"/>
-      <c r="I94" s="83"/>
-      <c r="J94" s="83"/>
-      <c r="K94" s="83"/>
-      <c r="L94" s="83"/>
-      <c r="M94" s="83"/>
-      <c r="N94" s="83"/>
-      <c r="O94" s="83"/>
-      <c r="P94" s="83"/>
+      <c r="B94" s="84"/>
+      <c r="C94" s="84"/>
+      <c r="D94" s="84"/>
+      <c r="E94" s="84"/>
+      <c r="F94" s="84"/>
+      <c r="G94" s="84"/>
+      <c r="H94" s="84"/>
+      <c r="I94" s="84"/>
+      <c r="J94" s="84"/>
+      <c r="K94" s="84"/>
+      <c r="L94" s="84"/>
+      <c r="M94" s="84"/>
+      <c r="N94" s="84"/>
+      <c r="O94" s="84"/>
+      <c r="P94" s="84"/>
     </row>
     <row r="95" spans="1:16" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A95" s="85" t="s">
+      <c r="A95" s="86" t="s">
         <v>502</v>
       </c>
-      <c r="B95" s="85"/>
-      <c r="C95" s="85"/>
-      <c r="D95" s="85"/>
-      <c r="E95" s="85"/>
-      <c r="F95" s="85"/>
-      <c r="G95" s="85"/>
-      <c r="H95" s="85"/>
-      <c r="I95" s="85"/>
-      <c r="J95" s="85"/>
-      <c r="K95" s="85"/>
-      <c r="L95" s="85"/>
-      <c r="M95" s="85"/>
-      <c r="N95" s="85"/>
-      <c r="O95" s="85"/>
-      <c r="P95" s="85"/>
+      <c r="B95" s="86"/>
+      <c r="C95" s="86"/>
+      <c r="D95" s="86"/>
+      <c r="E95" s="86"/>
+      <c r="F95" s="86"/>
+      <c r="G95" s="86"/>
+      <c r="H95" s="86"/>
+      <c r="I95" s="86"/>
+      <c r="J95" s="86"/>
+      <c r="K95" s="86"/>
+      <c r="L95" s="86"/>
+      <c r="M95" s="86"/>
+      <c r="N95" s="86"/>
+      <c r="O95" s="86"/>
+      <c r="P95" s="86"/>
     </row>
     <row r="96" spans="1:16" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A96" s="83" t="s">
+      <c r="A96" s="84" t="s">
         <v>949</v>
       </c>
-      <c r="B96" s="83"/>
-      <c r="C96" s="83"/>
-      <c r="D96" s="83"/>
-      <c r="E96" s="83"/>
-      <c r="F96" s="83"/>
-      <c r="G96" s="83"/>
-      <c r="H96" s="83"/>
-      <c r="I96" s="83"/>
-      <c r="J96" s="83"/>
-      <c r="K96" s="83"/>
-      <c r="L96" s="83"/>
-      <c r="M96" s="83"/>
-      <c r="N96" s="83"/>
-      <c r="O96" s="83"/>
-      <c r="P96" s="83"/>
+      <c r="B96" s="84"/>
+      <c r="C96" s="84"/>
+      <c r="D96" s="84"/>
+      <c r="E96" s="84"/>
+      <c r="F96" s="84"/>
+      <c r="G96" s="84"/>
+      <c r="H96" s="84"/>
+      <c r="I96" s="84"/>
+      <c r="J96" s="84"/>
+      <c r="K96" s="84"/>
+      <c r="L96" s="84"/>
+      <c r="M96" s="84"/>
+      <c r="N96" s="84"/>
+      <c r="O96" s="84"/>
+      <c r="P96" s="84"/>
     </row>
     <row r="97" spans="1:20" s="29" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A97" s="83" t="s">
+      <c r="A97" s="84" t="s">
         <v>949</v>
       </c>
-      <c r="B97" s="83"/>
-      <c r="C97" s="83"/>
-      <c r="D97" s="83"/>
-      <c r="E97" s="83"/>
-      <c r="F97" s="83"/>
-      <c r="G97" s="83"/>
-      <c r="H97" s="83"/>
-      <c r="I97" s="83"/>
-      <c r="J97" s="83"/>
-      <c r="K97" s="83"/>
-      <c r="L97" s="83"/>
-      <c r="M97" s="83"/>
-      <c r="N97" s="83"/>
-      <c r="O97" s="83"/>
-      <c r="P97" s="83"/>
+      <c r="B97" s="84"/>
+      <c r="C97" s="84"/>
+      <c r="D97" s="84"/>
+      <c r="E97" s="84"/>
+      <c r="F97" s="84"/>
+      <c r="G97" s="84"/>
+      <c r="H97" s="84"/>
+      <c r="I97" s="84"/>
+      <c r="J97" s="84"/>
+      <c r="K97" s="84"/>
+      <c r="L97" s="84"/>
+      <c r="M97" s="84"/>
+      <c r="N97" s="84"/>
+      <c r="O97" s="84"/>
+      <c r="P97" s="84"/>
     </row>
     <row r="98" spans="1:20" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A98" s="85" t="s">
+      <c r="A98" s="86" t="s">
         <v>500</v>
       </c>
-      <c r="B98" s="85"/>
-      <c r="C98" s="85"/>
-      <c r="D98" s="85"/>
-      <c r="E98" s="85"/>
-      <c r="F98" s="85"/>
-      <c r="G98" s="85"/>
-      <c r="H98" s="85"/>
-      <c r="I98" s="85"/>
-      <c r="J98" s="85"/>
-      <c r="K98" s="85"/>
-      <c r="L98" s="85"/>
-      <c r="M98" s="85"/>
-      <c r="N98" s="85"/>
-      <c r="O98" s="85"/>
-      <c r="P98" s="85"/>
+      <c r="B98" s="86"/>
+      <c r="C98" s="86"/>
+      <c r="D98" s="86"/>
+      <c r="E98" s="86"/>
+      <c r="F98" s="86"/>
+      <c r="G98" s="86"/>
+      <c r="H98" s="86"/>
+      <c r="I98" s="86"/>
+      <c r="J98" s="86"/>
+      <c r="K98" s="86"/>
+      <c r="L98" s="86"/>
+      <c r="M98" s="86"/>
+      <c r="N98" s="86"/>
+      <c r="O98" s="86"/>
+      <c r="P98" s="86"/>
     </row>
     <row r="99" spans="1:20" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A99" s="87" t="s">
+      <c r="A99" s="88" t="s">
         <v>499</v>
       </c>
-      <c r="B99" s="87"/>
-      <c r="C99" s="87"/>
-      <c r="D99" s="87"/>
-      <c r="E99" s="87"/>
-      <c r="F99" s="87"/>
-      <c r="G99" s="87"/>
-      <c r="H99" s="87"/>
-      <c r="I99" s="87"/>
-      <c r="J99" s="87"/>
-      <c r="K99" s="87"/>
-      <c r="L99" s="87"/>
-      <c r="M99" s="87"/>
-      <c r="N99" s="87"/>
-      <c r="O99" s="87"/>
-      <c r="P99" s="87"/>
+      <c r="B99" s="88"/>
+      <c r="C99" s="88"/>
+      <c r="D99" s="88"/>
+      <c r="E99" s="88"/>
+      <c r="F99" s="88"/>
+      <c r="G99" s="88"/>
+      <c r="H99" s="88"/>
+      <c r="I99" s="88"/>
+      <c r="J99" s="88"/>
+      <c r="K99" s="88"/>
+      <c r="L99" s="88"/>
+      <c r="M99" s="88"/>
+      <c r="N99" s="88"/>
+      <c r="O99" s="88"/>
+      <c r="P99" s="88"/>
     </row>
     <row r="100" spans="1:20" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A100" s="83" t="s">
+      <c r="A100" s="84" t="s">
         <v>498</v>
       </c>
-      <c r="B100" s="83"/>
-      <c r="C100" s="83"/>
-      <c r="D100" s="83"/>
-      <c r="E100" s="83"/>
-      <c r="F100" s="83"/>
-      <c r="G100" s="83"/>
-      <c r="H100" s="83"/>
-      <c r="I100" s="83"/>
-      <c r="J100" s="83"/>
-      <c r="K100" s="83"/>
-      <c r="L100" s="83"/>
-      <c r="M100" s="83"/>
-      <c r="N100" s="83"/>
-      <c r="O100" s="83"/>
-      <c r="P100" s="83"/>
+      <c r="B100" s="84"/>
+      <c r="C100" s="84"/>
+      <c r="D100" s="84"/>
+      <c r="E100" s="84"/>
+      <c r="F100" s="84"/>
+      <c r="G100" s="84"/>
+      <c r="H100" s="84"/>
+      <c r="I100" s="84"/>
+      <c r="J100" s="84"/>
+      <c r="K100" s="84"/>
+      <c r="L100" s="84"/>
+      <c r="M100" s="84"/>
+      <c r="N100" s="84"/>
+      <c r="O100" s="84"/>
+      <c r="P100" s="84"/>
     </row>
     <row r="101" spans="1:20" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A101" s="83" t="s">
+      <c r="A101" s="84" t="s">
         <v>497</v>
       </c>
-      <c r="B101" s="83"/>
-      <c r="C101" s="83"/>
-      <c r="D101" s="83"/>
-      <c r="E101" s="83"/>
-      <c r="F101" s="83"/>
-      <c r="G101" s="83"/>
-      <c r="H101" s="83"/>
-      <c r="I101" s="83"/>
-      <c r="J101" s="83"/>
-      <c r="K101" s="83"/>
-      <c r="L101" s="83"/>
-      <c r="M101" s="83"/>
-      <c r="N101" s="83"/>
-      <c r="O101" s="83"/>
-      <c r="P101" s="83"/>
+      <c r="B101" s="84"/>
+      <c r="C101" s="84"/>
+      <c r="D101" s="84"/>
+      <c r="E101" s="84"/>
+      <c r="F101" s="84"/>
+      <c r="G101" s="84"/>
+      <c r="H101" s="84"/>
+      <c r="I101" s="84"/>
+      <c r="J101" s="84"/>
+      <c r="K101" s="84"/>
+      <c r="L101" s="84"/>
+      <c r="M101" s="84"/>
+      <c r="N101" s="84"/>
+      <c r="O101" s="84"/>
+      <c r="P101" s="84"/>
     </row>
     <row r="102" spans="1:20" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A102" s="83" t="s">
+      <c r="A102" s="84" t="s">
         <v>950</v>
       </c>
-      <c r="B102" s="83"/>
-      <c r="C102" s="83"/>
-      <c r="D102" s="83"/>
-      <c r="E102" s="83"/>
-      <c r="F102" s="83"/>
-      <c r="G102" s="83"/>
-      <c r="H102" s="83"/>
-      <c r="I102" s="83"/>
-      <c r="J102" s="83"/>
-      <c r="K102" s="83"/>
-      <c r="L102" s="83"/>
-      <c r="M102" s="83"/>
-      <c r="N102" s="83"/>
-      <c r="O102" s="83"/>
-      <c r="P102" s="83"/>
+      <c r="B102" s="84"/>
+      <c r="C102" s="84"/>
+      <c r="D102" s="84"/>
+      <c r="E102" s="84"/>
+      <c r="F102" s="84"/>
+      <c r="G102" s="84"/>
+      <c r="H102" s="84"/>
+      <c r="I102" s="84"/>
+      <c r="J102" s="84"/>
+      <c r="K102" s="84"/>
+      <c r="L102" s="84"/>
+      <c r="M102" s="84"/>
+      <c r="N102" s="84"/>
+      <c r="O102" s="84"/>
+      <c r="P102" s="84"/>
     </row>
     <row r="103" spans="1:20" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A103" s="85" t="s">
+      <c r="A103" s="86" t="s">
         <v>496</v>
       </c>
-      <c r="B103" s="85"/>
-      <c r="C103" s="85"/>
-      <c r="D103" s="85"/>
-      <c r="E103" s="85"/>
-      <c r="F103" s="85"/>
-      <c r="G103" s="85"/>
-      <c r="H103" s="85"/>
-      <c r="I103" s="85"/>
-      <c r="J103" s="85"/>
-      <c r="K103" s="85"/>
-      <c r="L103" s="85"/>
-      <c r="M103" s="85"/>
-      <c r="N103" s="85"/>
-      <c r="O103" s="85"/>
-      <c r="P103" s="85"/>
+      <c r="B103" s="86"/>
+      <c r="C103" s="86"/>
+      <c r="D103" s="86"/>
+      <c r="E103" s="86"/>
+      <c r="F103" s="86"/>
+      <c r="G103" s="86"/>
+      <c r="H103" s="86"/>
+      <c r="I103" s="86"/>
+      <c r="J103" s="86"/>
+      <c r="K103" s="86"/>
+      <c r="L103" s="86"/>
+      <c r="M103" s="86"/>
+      <c r="N103" s="86"/>
+      <c r="O103" s="86"/>
+      <c r="P103" s="86"/>
     </row>
     <row r="104" spans="1:20" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A104" s="87" t="s">
+      <c r="A104" s="88" t="s">
         <v>495</v>
       </c>
-      <c r="B104" s="87"/>
-      <c r="C104" s="87"/>
-      <c r="D104" s="87"/>
-      <c r="E104" s="87"/>
-      <c r="F104" s="87"/>
-      <c r="G104" s="87"/>
-      <c r="H104" s="87"/>
-      <c r="I104" s="87"/>
-      <c r="J104" s="87"/>
-      <c r="K104" s="87"/>
-      <c r="L104" s="87"/>
-      <c r="M104" s="87"/>
-      <c r="N104" s="87"/>
-      <c r="O104" s="87"/>
-      <c r="P104" s="87"/>
+      <c r="B104" s="88"/>
+      <c r="C104" s="88"/>
+      <c r="D104" s="88"/>
+      <c r="E104" s="88"/>
+      <c r="F104" s="88"/>
+      <c r="G104" s="88"/>
+      <c r="H104" s="88"/>
+      <c r="I104" s="88"/>
+      <c r="J104" s="88"/>
+      <c r="K104" s="88"/>
+      <c r="L104" s="88"/>
+      <c r="M104" s="88"/>
+      <c r="N104" s="88"/>
+      <c r="O104" s="88"/>
+      <c r="P104" s="88"/>
     </row>
     <row r="105" spans="1:20" s="28" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A105" s="82" t="s">
+      <c r="A105" s="83" t="s">
         <v>951</v>
       </c>
-      <c r="B105" s="82"/>
-      <c r="C105" s="82"/>
-      <c r="D105" s="82"/>
-      <c r="E105" s="82"/>
-      <c r="F105" s="82"/>
-      <c r="G105" s="82"/>
-      <c r="H105" s="82"/>
-      <c r="I105" s="82"/>
-      <c r="J105" s="82"/>
-      <c r="K105" s="82"/>
-      <c r="L105" s="82"/>
-      <c r="M105" s="82"/>
-      <c r="N105" s="82"/>
-      <c r="O105" s="82"/>
-      <c r="P105" s="82"/>
+      <c r="B105" s="83"/>
+      <c r="C105" s="83"/>
+      <c r="D105" s="83"/>
+      <c r="E105" s="83"/>
+      <c r="F105" s="83"/>
+      <c r="G105" s="83"/>
+      <c r="H105" s="83"/>
+      <c r="I105" s="83"/>
+      <c r="J105" s="83"/>
+      <c r="K105" s="83"/>
+      <c r="L105" s="83"/>
+      <c r="M105" s="83"/>
+      <c r="N105" s="83"/>
+      <c r="O105" s="83"/>
+      <c r="P105" s="83"/>
     </row>
     <row r="106" spans="1:20" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A106" s="82" t="s">
+      <c r="A106" s="83" t="s">
         <v>952</v>
       </c>
-      <c r="B106" s="82"/>
-      <c r="C106" s="82"/>
-      <c r="D106" s="82"/>
-      <c r="E106" s="82"/>
-      <c r="F106" s="82"/>
-      <c r="G106" s="82"/>
-      <c r="H106" s="82"/>
-      <c r="I106" s="82"/>
-      <c r="J106" s="82"/>
-      <c r="K106" s="82"/>
-      <c r="L106" s="82"/>
-      <c r="M106" s="82"/>
-      <c r="N106" s="82"/>
-      <c r="O106" s="82"/>
-      <c r="P106" s="82"/>
+      <c r="B106" s="83"/>
+      <c r="C106" s="83"/>
+      <c r="D106" s="83"/>
+      <c r="E106" s="83"/>
+      <c r="F106" s="83"/>
+      <c r="G106" s="83"/>
+      <c r="H106" s="83"/>
+      <c r="I106" s="83"/>
+      <c r="J106" s="83"/>
+      <c r="K106" s="83"/>
+      <c r="L106" s="83"/>
+      <c r="M106" s="83"/>
+      <c r="N106" s="83"/>
+      <c r="O106" s="83"/>
+      <c r="P106" s="83"/>
     </row>
     <row r="107" spans="1:20" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A107" s="87" t="s">
+      <c r="A107" s="88" t="s">
         <v>494</v>
       </c>
-      <c r="B107" s="87"/>
-      <c r="C107" s="87"/>
-      <c r="D107" s="87"/>
-      <c r="E107" s="87"/>
-      <c r="F107" s="87"/>
-      <c r="G107" s="87"/>
-      <c r="H107" s="87"/>
-      <c r="I107" s="87"/>
-      <c r="J107" s="87"/>
-      <c r="K107" s="87"/>
-      <c r="L107" s="87"/>
-      <c r="M107" s="87"/>
-      <c r="N107" s="87"/>
-      <c r="O107" s="87"/>
-      <c r="P107" s="87"/>
+      <c r="B107" s="88"/>
+      <c r="C107" s="88"/>
+      <c r="D107" s="88"/>
+      <c r="E107" s="88"/>
+      <c r="F107" s="88"/>
+      <c r="G107" s="88"/>
+      <c r="H107" s="88"/>
+      <c r="I107" s="88"/>
+      <c r="J107" s="88"/>
+      <c r="K107" s="88"/>
+      <c r="L107" s="88"/>
+      <c r="M107" s="88"/>
+      <c r="N107" s="88"/>
+      <c r="O107" s="88"/>
+      <c r="P107" s="88"/>
     </row>
     <row r="108" spans="1:20" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A108" s="102" t="s">
+      <c r="A108" s="103" t="s">
         <v>493</v>
       </c>
-      <c r="B108" s="102"/>
-      <c r="C108" s="102"/>
-      <c r="D108" s="102"/>
-      <c r="E108" s="102"/>
-      <c r="F108" s="102"/>
-      <c r="G108" s="102"/>
-      <c r="H108" s="102"/>
-      <c r="I108" s="102"/>
-      <c r="J108" s="102"/>
-      <c r="K108" s="102"/>
-      <c r="L108" s="102"/>
-      <c r="M108" s="102"/>
-      <c r="N108" s="102"/>
-      <c r="O108" s="102"/>
-      <c r="P108" s="102"/>
+      <c r="B108" s="103"/>
+      <c r="C108" s="103"/>
+      <c r="D108" s="103"/>
+      <c r="E108" s="103"/>
+      <c r="F108" s="103"/>
+      <c r="G108" s="103"/>
+      <c r="H108" s="103"/>
+      <c r="I108" s="103"/>
+      <c r="J108" s="103"/>
+      <c r="K108" s="103"/>
+      <c r="L108" s="103"/>
+      <c r="M108" s="103"/>
+      <c r="N108" s="103"/>
+      <c r="O108" s="103"/>
+      <c r="P108" s="103"/>
     </row>
     <row r="109" spans="1:20" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A109" s="103" t="s">
+      <c r="A109" s="104" t="s">
         <v>953</v>
       </c>
-      <c r="B109" s="103"/>
-      <c r="C109" s="103"/>
-      <c r="D109" s="103"/>
-      <c r="E109" s="103"/>
-      <c r="F109" s="103"/>
-      <c r="G109" s="103"/>
-      <c r="H109" s="103"/>
-      <c r="I109" s="103"/>
-      <c r="J109" s="103"/>
-      <c r="K109" s="103"/>
-      <c r="L109" s="103"/>
-      <c r="M109" s="103"/>
-      <c r="N109" s="103"/>
-      <c r="O109" s="103"/>
-      <c r="P109" s="103"/>
+      <c r="B109" s="104"/>
+      <c r="C109" s="104"/>
+      <c r="D109" s="104"/>
+      <c r="E109" s="104"/>
+      <c r="F109" s="104"/>
+      <c r="G109" s="104"/>
+      <c r="H109" s="104"/>
+      <c r="I109" s="104"/>
+      <c r="J109" s="104"/>
+      <c r="K109" s="104"/>
+      <c r="L109" s="104"/>
+      <c r="M109" s="104"/>
+      <c r="N109" s="104"/>
+      <c r="O109" s="104"/>
+      <c r="P109" s="104"/>
     </row>
     <row r="110" spans="1:20" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A110" s="87" t="s">
+      <c r="A110" s="88" t="s">
         <v>492</v>
       </c>
-      <c r="B110" s="87"/>
-      <c r="C110" s="87"/>
-      <c r="D110" s="87"/>
-      <c r="E110" s="87"/>
-      <c r="F110" s="87"/>
-      <c r="G110" s="87"/>
-      <c r="H110" s="87"/>
-      <c r="I110" s="87"/>
-      <c r="J110" s="87"/>
-      <c r="K110" s="87"/>
-      <c r="L110" s="87"/>
-      <c r="M110" s="87"/>
-      <c r="N110" s="87"/>
-      <c r="O110" s="87"/>
-      <c r="P110" s="87"/>
+      <c r="B110" s="88"/>
+      <c r="C110" s="88"/>
+      <c r="D110" s="88"/>
+      <c r="E110" s="88"/>
+      <c r="F110" s="88"/>
+      <c r="G110" s="88"/>
+      <c r="H110" s="88"/>
+      <c r="I110" s="88"/>
+      <c r="J110" s="88"/>
+      <c r="K110" s="88"/>
+      <c r="L110" s="88"/>
+      <c r="M110" s="88"/>
+      <c r="N110" s="88"/>
+      <c r="O110" s="88"/>
+      <c r="P110" s="88"/>
     </row>
     <row r="111" spans="1:20" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A111" s="83" t="s">
+      <c r="A111" s="84" t="s">
         <v>954</v>
       </c>
-      <c r="B111" s="83"/>
-      <c r="C111" s="83"/>
-      <c r="D111" s="83"/>
-      <c r="E111" s="83"/>
-      <c r="F111" s="83"/>
-      <c r="G111" s="83"/>
-      <c r="H111" s="83"/>
-      <c r="I111" s="83"/>
-      <c r="J111" s="83"/>
-      <c r="K111" s="83"/>
-      <c r="L111" s="83"/>
-      <c r="M111" s="83"/>
-      <c r="N111" s="83"/>
-      <c r="O111" s="83"/>
-      <c r="P111" s="83"/>
+      <c r="B111" s="84"/>
+      <c r="C111" s="84"/>
+      <c r="D111" s="84"/>
+      <c r="E111" s="84"/>
+      <c r="F111" s="84"/>
+      <c r="G111" s="84"/>
+      <c r="H111" s="84"/>
+      <c r="I111" s="84"/>
+      <c r="J111" s="84"/>
+      <c r="K111" s="84"/>
+      <c r="L111" s="84"/>
+      <c r="M111" s="84"/>
+      <c r="N111" s="84"/>
+      <c r="O111" s="84"/>
+      <c r="P111" s="84"/>
     </row>
     <row r="112" spans="1:20" s="32" customFormat="1" ht="12.75" customHeight="1">
       <c r="A112" s="27"/>
@@ -85806,38 +86189,38 @@
       <c r="O112" s="31"/>
       <c r="T112" s="33"/>
     </row>
-    <row r="113" spans="1:20" s="34" customFormat="1">
+    <row r="113" spans="1:20" s="34" customFormat="1" ht="10.15">
       <c r="T113" s="35"/>
     </row>
-    <row r="114" spans="1:20" s="34" customFormat="1" ht="13.5">
+    <row r="114" spans="1:20" s="34" customFormat="1">
       <c r="A114" s="21"/>
       <c r="T114" s="35"/>
     </row>
-    <row r="115" spans="1:20" s="34" customFormat="1" ht="13.5">
+    <row r="115" spans="1:20" s="34" customFormat="1">
       <c r="A115" s="21"/>
       <c r="T115" s="35"/>
     </row>
-    <row r="116" spans="1:20" s="34" customFormat="1" ht="13.5">
+    <row r="116" spans="1:20" s="34" customFormat="1">
       <c r="A116" s="21"/>
       <c r="T116" s="35"/>
     </row>
-    <row r="117" spans="1:20" s="34" customFormat="1" ht="13.5">
+    <row r="117" spans="1:20" s="34" customFormat="1">
       <c r="A117" s="21"/>
       <c r="T117" s="35"/>
     </row>
-    <row r="118" spans="1:20" s="34" customFormat="1" ht="13.5">
+    <row r="118" spans="1:20" s="34" customFormat="1">
       <c r="A118" s="21"/>
       <c r="T118" s="35"/>
     </row>
-    <row r="119" spans="1:20" s="34" customFormat="1" ht="13.5">
+    <row r="119" spans="1:20" s="34" customFormat="1">
       <c r="A119" s="21"/>
       <c r="T119" s="35"/>
     </row>
-    <row r="120" spans="1:20" s="34" customFormat="1" ht="13.5">
+    <row r="120" spans="1:20" s="34" customFormat="1">
       <c r="A120" s="21"/>
       <c r="T120" s="35"/>
     </row>
-    <row r="121" spans="1:20" s="34" customFormat="1" ht="13.5">
+    <row r="121" spans="1:20" s="34" customFormat="1">
       <c r="A121" s="21"/>
       <c r="B121" s="21"/>
       <c r="C121" s="21"/>
@@ -85936,51 +86319,51 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="26.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" customWidth="1"/>
+    <col min="1" max="1" width="26.86328125" customWidth="1"/>
+    <col min="2" max="2" width="16.73046875" customWidth="1"/>
+    <col min="3" max="3" width="12.59765625" customWidth="1"/>
+    <col min="4" max="4" width="14.1328125" customWidth="1"/>
+    <col min="5" max="5" width="16.73046875" customWidth="1"/>
+    <col min="6" max="6" width="16.265625" customWidth="1"/>
+    <col min="7" max="7" width="15.86328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="45">
+    <row r="3" spans="1:7" ht="42.75">
       <c r="A3" s="76" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B3" s="76" t="s">
         <v>1045</v>
       </c>
-      <c r="B3" s="76" t="s">
+      <c r="C3" s="76" t="s">
         <v>1046</v>
       </c>
-      <c r="C3" s="76" t="s">
+      <c r="D3" s="76" t="s">
         <v>1047</v>
       </c>
-      <c r="D3" s="76" t="s">
+      <c r="E3" s="76" t="s">
         <v>1048</v>
       </c>
-      <c r="E3" s="76" t="s">
+      <c r="F3" s="76" t="s">
         <v>1049</v>
       </c>
-      <c r="F3" s="76" t="s">
+      <c r="G3" s="76" t="s">
         <v>1050</v>
-      </c>
-      <c r="G3" s="76" t="s">
-        <v>1051</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="B4" s="13">
         <v>21611</v>
@@ -86003,7 +86386,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="B5" s="13">
         <v>10147</v>
@@ -86026,7 +86409,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="B6">
         <v>735</v>
@@ -86049,7 +86432,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="B7">
         <v>854</v>
@@ -86072,7 +86455,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="B8" s="13">
         <v>1704</v>
@@ -86095,7 +86478,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="B9" s="13">
         <v>2508</v>
@@ -86118,7 +86501,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="B10" s="13">
         <v>3916</v>
@@ -86141,7 +86524,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="B11" s="13">
         <v>1747</v>

--- a/InputData/trans/SYVbT/Start Year Vehicles by Technology.xlsx
+++ b/InputData/trans/SYVbT/Start Year Vehicles by Technology.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-us\InputData\trans\SYVbT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganM\Documents\eps-us\InputData\trans\SYVbT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="18840" windowHeight="5550" firstSheet="2" activeTab="11"/>
+    <workbookView xWindow="360" yWindow="60" windowWidth="18840" windowHeight="5550"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
     <definedName name="ti_tbl_50">#REF!</definedName>
     <definedName name="ti_tbl_69">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" iterate="1" iterateDelta="1.0000000000000001E-5"/>
 </workbook>
 </file>
 
@@ -3429,9 +3429,6 @@
     <t>Table 1-11</t>
   </si>
   <si>
-    <t>light trucks (freight LDVs) and the much more common passenger LDVs (which includes SUVs).</t>
-  </si>
-  <si>
     <t xml:space="preserve">   4/ Does not include passenger rail.</t>
   </si>
   <si>
@@ -3915,16 +3912,7 @@
     <t>the non-electric buses.</t>
   </si>
   <si>
-    <t>Our source for light trucks by technology type (AEO 40) doesn't differentiate between commercial</t>
-  </si>
-  <si>
-    <t>We divide these up by vehicle miles traveled (AEO 7).  We assume all diesel and natural gas light trucks</t>
-  </si>
-  <si>
     <t>electric buses in the U.S.</t>
-  </si>
-  <si>
-    <t>are freight LDVs, and the remainder of the freight LDVs are conventional gasoline vehicles.</t>
   </si>
   <si>
     <t>For passenger rail, we have locomotives explicitly only for Amtrak, and cars for light, heavy,</t>
@@ -4698,6 +4686,18 @@
   </si>
   <si>
     <t>Diesel BTUs * efficiency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The average miles per vehicle for gasoline and diesel freight HDVs are significantly different, which can </t>
+  </si>
+  <si>
+    <t xml:space="preserve">skew the EPS fuel consumption calculations. Therefore, we assign gasoline freight HDVs (which are </t>
+  </si>
+  <si>
+    <t>largely local delivery vans) into the freight LDV category, and move the diesel commercial</t>
+  </si>
+  <si>
+    <t>LDVs into freight HDVs.</t>
   </si>
 </sst>
 </file>
@@ -5807,6 +5807,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="19" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="142" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -5885,7 +5886,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="142" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="143">
     <cellStyle name="20% - Accent1 2" xfId="17"/>
@@ -6415,8 +6415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B83"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53:A55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -6449,22 +6449,22 @@
     </row>
     <row r="6" spans="1:2">
       <c r="B6" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="B7" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="B8" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="B10" s="11" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -6479,12 +6479,12 @@
     </row>
     <row r="13" spans="1:2">
       <c r="B13" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="B14" t="s">
-        <v>1016</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -6494,12 +6494,12 @@
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="11" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="19" spans="2:2">
@@ -6509,22 +6509,22 @@
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>1061</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>1063</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="11" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="25" spans="2:2">
@@ -6539,17 +6539,17 @@
     </row>
     <row r="27" spans="2:2">
       <c r="B27" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="31" spans="2:2">
@@ -6569,7 +6569,7 @@
     </row>
     <row r="34" spans="2:2">
       <c r="B34" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
     </row>
     <row r="35" spans="2:2">
@@ -6584,12 +6584,12 @@
     </row>
     <row r="38" spans="2:2">
       <c r="B38" s="11" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="40" spans="2:2">
@@ -6599,17 +6599,17 @@
     </row>
     <row r="41" spans="2:2">
       <c r="B41" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="45" spans="2:2">
@@ -6629,7 +6629,7 @@
     </row>
     <row r="48" spans="2:2">
       <c r="B48" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -6654,117 +6654,117 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>1070</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>934</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>772</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>935</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>937</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="B83">
         <v>2018</v>
@@ -6791,24 +6791,24 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>912</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="C1" s="18" t="s">
         <v>913</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="D1" s="18" t="s">
         <v>914</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="E1" s="18" t="s">
         <v>915</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B2">
         <v>7</v>
@@ -6825,7 +6825,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B3">
         <v>21</v>
@@ -6842,7 +6842,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B4">
         <v>546</v>
@@ -6888,7 +6888,7 @@
         <v>300</v>
       </c>
       <c r="B3" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
     </row>
     <row r="5" spans="1:33">
@@ -6897,7 +6897,7 @@
         <v>0.75216927859794647</v>
       </c>
       <c r="B5" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -6906,7 +6906,7 @@
         <v>0.24783072140205353</v>
       </c>
       <c r="B6" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="8" spans="1:33">
@@ -6915,7 +6915,7 @@
         <v>0.78597113659666662</v>
       </c>
       <c r="B8" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="9" spans="1:33">
@@ -6924,7 +6924,7 @@
         <v>0.21402884692874577</v>
       </c>
       <c r="B9" t="s">
-        <v>1068</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="10" spans="1:33">
@@ -6932,85 +6932,85 @@
     </row>
     <row r="11" spans="1:33">
       <c r="A11" t="s">
-        <v>1072</v>
-      </c>
-      <c r="B11" s="106">
+        <v>1068</v>
+      </c>
+      <c r="B11" s="80">
         <v>0.32500000000000001</v>
       </c>
-      <c r="C11" s="106"/>
-      <c r="D11" s="106"/>
-      <c r="E11" s="106"/>
-      <c r="F11" s="106"/>
-      <c r="G11" s="106"/>
-      <c r="H11" s="106"/>
-      <c r="I11" s="106"/>
-      <c r="J11" s="106"/>
-      <c r="K11" s="106"/>
-      <c r="L11" s="106"/>
-      <c r="M11" s="106"/>
-      <c r="N11" s="106"/>
-      <c r="O11" s="106"/>
-      <c r="P11" s="106"/>
-      <c r="Q11" s="106"/>
-      <c r="R11" s="106"/>
-      <c r="S11" s="106"/>
-      <c r="T11" s="106"/>
-      <c r="U11" s="106"/>
-      <c r="V11" s="106"/>
-      <c r="W11" s="106"/>
-      <c r="X11" s="106"/>
-      <c r="Y11" s="106"/>
-      <c r="Z11" s="106"/>
-      <c r="AA11" s="106"/>
-      <c r="AB11" s="106"/>
-      <c r="AC11" s="106"/>
-      <c r="AD11" s="106"/>
-      <c r="AE11" s="106"/>
-      <c r="AF11" s="106"/>
-      <c r="AG11" s="106"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="80"/>
+      <c r="G11" s="80"/>
+      <c r="H11" s="80"/>
+      <c r="I11" s="80"/>
+      <c r="J11" s="80"/>
+      <c r="K11" s="80"/>
+      <c r="L11" s="80"/>
+      <c r="M11" s="80"/>
+      <c r="N11" s="80"/>
+      <c r="O11" s="80"/>
+      <c r="P11" s="80"/>
+      <c r="Q11" s="80"/>
+      <c r="R11" s="80"/>
+      <c r="S11" s="80"/>
+      <c r="T11" s="80"/>
+      <c r="U11" s="80"/>
+      <c r="V11" s="80"/>
+      <c r="W11" s="80"/>
+      <c r="X11" s="80"/>
+      <c r="Y11" s="80"/>
+      <c r="Z11" s="80"/>
+      <c r="AA11" s="80"/>
+      <c r="AB11" s="80"/>
+      <c r="AC11" s="80"/>
+      <c r="AD11" s="80"/>
+      <c r="AE11" s="80"/>
+      <c r="AF11" s="80"/>
+      <c r="AG11" s="80"/>
     </row>
     <row r="12" spans="1:33">
       <c r="A12" t="s">
-        <v>1073</v>
-      </c>
-      <c r="B12" s="106">
+        <v>1069</v>
+      </c>
+      <c r="B12" s="80">
         <v>0.95</v>
       </c>
-      <c r="C12" s="106"/>
-      <c r="D12" s="106"/>
-      <c r="E12" s="106"/>
-      <c r="F12" s="106"/>
-      <c r="G12" s="106"/>
-      <c r="H12" s="106"/>
-      <c r="I12" s="106"/>
-      <c r="J12" s="106"/>
-      <c r="K12" s="106"/>
-      <c r="L12" s="106"/>
-      <c r="M12" s="106"/>
-      <c r="N12" s="106"/>
-      <c r="O12" s="106"/>
-      <c r="P12" s="106"/>
-      <c r="Q12" s="106"/>
-      <c r="R12" s="106"/>
-      <c r="S12" s="106"/>
-      <c r="T12" s="106"/>
-      <c r="U12" s="106"/>
-      <c r="V12" s="106"/>
-      <c r="W12" s="106"/>
-      <c r="X12" s="106"/>
-      <c r="Y12" s="106"/>
-      <c r="Z12" s="106"/>
-      <c r="AA12" s="106"/>
-      <c r="AB12" s="106"/>
-      <c r="AC12" s="106"/>
-      <c r="AD12" s="106"/>
-      <c r="AE12" s="106"/>
-      <c r="AF12" s="106"/>
-      <c r="AG12" s="106"/>
+      <c r="C12" s="80"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="80"/>
+      <c r="G12" s="80"/>
+      <c r="H12" s="80"/>
+      <c r="I12" s="80"/>
+      <c r="J12" s="80"/>
+      <c r="K12" s="80"/>
+      <c r="L12" s="80"/>
+      <c r="M12" s="80"/>
+      <c r="N12" s="80"/>
+      <c r="O12" s="80"/>
+      <c r="P12" s="80"/>
+      <c r="Q12" s="80"/>
+      <c r="R12" s="80"/>
+      <c r="S12" s="80"/>
+      <c r="T12" s="80"/>
+      <c r="U12" s="80"/>
+      <c r="V12" s="80"/>
+      <c r="W12" s="80"/>
+      <c r="X12" s="80"/>
+      <c r="Y12" s="80"/>
+      <c r="Z12" s="80"/>
+      <c r="AA12" s="80"/>
+      <c r="AB12" s="80"/>
+      <c r="AC12" s="80"/>
+      <c r="AD12" s="80"/>
+      <c r="AE12" s="80"/>
+      <c r="AF12" s="80"/>
+      <c r="AG12" s="80"/>
     </row>
     <row r="14" spans="1:33">
       <c r="A14" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
       <c r="B14">
         <v>23772624250000</v>
@@ -7111,7 +7111,7 @@
     </row>
     <row r="15" spans="1:33">
       <c r="A15" t="s">
-        <v>1075</v>
+        <v>1071</v>
       </c>
       <c r="B15">
         <v>7832793475000</v>
@@ -7222,8 +7222,8 @@
   </sheetPr>
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -7239,7 +7239,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="76" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>10</v>
@@ -7257,10 +7257,10 @@
         <v>14</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -7470,7 +7470,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -7487,7 +7487,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="76" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>10</v>
@@ -7505,10 +7505,10 @@
         <v>14</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -7524,12 +7524,11 @@
         <v>11591.99</v>
       </c>
       <c r="D2" s="20">
-        <f>SUM(INDEX('AEO 46'!68:68,MATCH(About!$B$83,'AEO 46'!1:1,0)),INDEX('AEO 46'!72:72,MATCH(About!$B$83,'AEO 46'!1:1,0)))*1000</f>
-        <v>8971212.6459999997</v>
+        <f>SUM(INDEX('AEO 46'!68:68,MATCH(About!$B$83,'AEO 46'!1:1,0)),INDEX('AEO 46'!72:72,MATCH(About!$B$83,'AEO 46'!1:1,0)))*1000+SUM(INDEX('AEO 50'!$138:$138,MATCH(About!$B$83,'AEO 50'!$1:$1,0)),INDEX('AEO 50'!$141:$141,MATCH(About!$B$83,'AEO 50'!$1:$1,0)),INDEX('AEO 50'!$149:$149,MATCH(About!$B$83,'AEO 50'!$1:$1,0)),INDEX('AEO 50'!$152:$152,MATCH(About!$B$83,'AEO 50'!$1:$1,0)),INDEX('AEO 50'!$160:$160,MATCH(About!$B$83,'AEO 50'!$1:$1,0)),INDEX('AEO 50'!$163:$163,MATCH(About!$B$83,'AEO 50'!$1:$1,0)))*10^6</f>
+        <v>11557956.646</v>
       </c>
       <c r="E2" s="20">
-        <f>INDEX('AEO 46'!69:69,MATCH(About!$B$83,'AEO 46'!$1:$1,0))*1000</f>
-        <v>4869416.5039999997</v>
+        <v>0</v>
       </c>
       <c r="F2" s="20">
         <f>INDEX('AEO 46'!74:74,MATCH(About!$B$83,'AEO 46'!$1:$1,0))*10^6+INDEX('AEO 46'!75:75,MATCH(About!$B$83,'AEO 46'!$1:$1,0))*10^6</f>
@@ -7559,12 +7558,11 @@
         <v>37012</v>
       </c>
       <c r="D3" s="77">
-        <f>SUM(INDEX('AEO 50'!$138:$138,MATCH(About!$B$83,'AEO 50'!$1:$1,0)),INDEX('AEO 50'!$141:$141,MATCH(About!$B$83,'AEO 50'!$1:$1,0)),INDEX('AEO 50'!$149:$149,MATCH(About!$B$83,'AEO 50'!$1:$1,0)),INDEX('AEO 50'!$152:$152,MATCH(About!$B$83,'AEO 50'!$1:$1,0)),INDEX('AEO 50'!$160:$160,MATCH(About!$B$83,'AEO 50'!$1:$1,0)),INDEX('AEO 50'!$163:$163,MATCH(About!$B$83,'AEO 50'!$1:$1,0)))*10^6</f>
-        <v>2586744</v>
-      </c>
-      <c r="E3" s="77">
-        <f>SUM(INDEX('AEO 50'!$137:$137,MATCH(About!$B$83,'AEO 50'!$1:$1,0)),INDEX('AEO 50'!$148:$148,MATCH(About!$B$83,'AEO 50'!$1:$1,0)),INDEX('AEO 50'!$159:$159,MATCH(About!$B$83,'AEO 50'!$1:$1,0)))*10^6</f>
-        <v>9405890</v>
+        <v>0</v>
+      </c>
+      <c r="E3" s="20">
+        <f>SUM(INDEX('AEO 50'!$137:$137,MATCH(About!$B$83,'AEO 50'!$1:$1,0)),INDEX('AEO 50'!$148:$148,MATCH(About!$B$83,'AEO 50'!$1:$1,0)),INDEX('AEO 50'!$159:$159,MATCH(About!$B$83,'AEO 50'!$1:$1,0)))*10^6+INDEX('AEO 46'!69:69,MATCH(About!$B$83,'AEO 46'!$1:$1,0))*1000</f>
+        <v>14275306.504000001</v>
       </c>
       <c r="F3" s="77">
         <f>SUM(SUM(INDEX('AEO 50'!$143:$144,0,MATCH(About!$B$83,'AEO 50'!1:1,0))),SUM(INDEX('AEO 50'!$154:$155,0,MATCH(About!$B$83,'AEO 50'!1:1,0))),SUM(INDEX('AEO 50'!$165:$166,0,MATCH(About!$B$83,'AEO 50'!1:1,0))))*10^6</f>
@@ -7721,7 +7719,7 @@
   <sheetData>
     <row r="1" spans="1:37" ht="15" customHeight="1" thickBot="1">
       <c r="B1" s="9" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="C1" s="8">
         <v>2017</v>
@@ -7832,7 +7830,7 @@
         <v>218</v>
       </c>
       <c r="D3" s="37" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
       <c r="E3" s="37"/>
       <c r="F3" s="37"/>
@@ -7843,7 +7841,7 @@
         <v>217</v>
       </c>
       <c r="D4" s="37" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="E4" s="37"/>
       <c r="F4" s="37"/>
@@ -7856,7 +7854,7 @@
         <v>215</v>
       </c>
       <c r="D5" s="37" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="E5" s="37"/>
       <c r="F5" s="37"/>
@@ -7868,7 +7866,7 @@
       </c>
       <c r="D6" s="37"/>
       <c r="E6" s="37" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
       <c r="F6" s="37"/>
       <c r="G6" s="37"/>
@@ -7993,7 +7991,7 @@
         <v>211</v>
       </c>
       <c r="AK12" s="38" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
     </row>
     <row r="13" spans="1:37" ht="15" customHeight="1" thickBot="1">
@@ -8463,18 +8461,18 @@
     </row>
     <row r="21" spans="1:37" ht="15" customHeight="1">
       <c r="A21" s="34" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
     </row>
     <row r="22" spans="1:37" ht="15" customHeight="1">
       <c r="A22" s="34" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="C22" s="6">
         <v>205.31410199999999</v>
@@ -8584,7 +8582,7 @@
     </row>
     <row r="23" spans="1:37" ht="15" customHeight="1">
       <c r="B23" s="7" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="C23" s="6">
         <v>39.645065000000002</v>
@@ -12582,7 +12580,7 @@
         <v>694</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="C68" s="17">
         <v>0.67915400000000004</v>
@@ -14169,7 +14167,7 @@
         <v>667</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="C84" s="17">
         <v>0.32080900000000001</v>
@@ -14389,44 +14387,44 @@
     </row>
     <row r="86" spans="1:37" ht="15" customHeight="1" thickBot="1"/>
     <row r="87" spans="1:37" ht="15" customHeight="1">
-      <c r="B87" s="80" t="s">
+      <c r="B87" s="81" t="s">
         <v>665</v>
       </c>
-      <c r="C87" s="80"/>
-      <c r="D87" s="80"/>
-      <c r="E87" s="80"/>
-      <c r="F87" s="80"/>
-      <c r="G87" s="80"/>
-      <c r="H87" s="80"/>
-      <c r="I87" s="80"/>
-      <c r="J87" s="80"/>
-      <c r="K87" s="80"/>
-      <c r="L87" s="80"/>
-      <c r="M87" s="80"/>
-      <c r="N87" s="80"/>
-      <c r="O87" s="80"/>
-      <c r="P87" s="80"/>
-      <c r="Q87" s="80"/>
-      <c r="R87" s="80"/>
-      <c r="S87" s="80"/>
-      <c r="T87" s="80"/>
-      <c r="U87" s="80"/>
-      <c r="V87" s="80"/>
-      <c r="W87" s="80"/>
-      <c r="X87" s="80"/>
-      <c r="Y87" s="80"/>
-      <c r="Z87" s="80"/>
-      <c r="AA87" s="80"/>
-      <c r="AB87" s="80"/>
-      <c r="AC87" s="80"/>
-      <c r="AD87" s="80"/>
-      <c r="AE87" s="80"/>
-      <c r="AF87" s="80"/>
-      <c r="AG87" s="80"/>
-      <c r="AH87" s="80"/>
-      <c r="AI87" s="80"/>
-      <c r="AJ87" s="80"/>
-      <c r="AK87" s="80"/>
+      <c r="C87" s="81"/>
+      <c r="D87" s="81"/>
+      <c r="E87" s="81"/>
+      <c r="F87" s="81"/>
+      <c r="G87" s="81"/>
+      <c r="H87" s="81"/>
+      <c r="I87" s="81"/>
+      <c r="J87" s="81"/>
+      <c r="K87" s="81"/>
+      <c r="L87" s="81"/>
+      <c r="M87" s="81"/>
+      <c r="N87" s="81"/>
+      <c r="O87" s="81"/>
+      <c r="P87" s="81"/>
+      <c r="Q87" s="81"/>
+      <c r="R87" s="81"/>
+      <c r="S87" s="81"/>
+      <c r="T87" s="81"/>
+      <c r="U87" s="81"/>
+      <c r="V87" s="81"/>
+      <c r="W87" s="81"/>
+      <c r="X87" s="81"/>
+      <c r="Y87" s="81"/>
+      <c r="Z87" s="81"/>
+      <c r="AA87" s="81"/>
+      <c r="AB87" s="81"/>
+      <c r="AC87" s="81"/>
+      <c r="AD87" s="81"/>
+      <c r="AE87" s="81"/>
+      <c r="AF87" s="81"/>
+      <c r="AG87" s="81"/>
+      <c r="AH87" s="81"/>
+      <c r="AI87" s="81"/>
+      <c r="AJ87" s="81"/>
+      <c r="AK87" s="81"/>
     </row>
     <row r="88" spans="1:37" ht="15" customHeight="1">
       <c r="B88" s="39" t="s">
@@ -14440,7 +14438,7 @@
     </row>
     <row r="90" spans="1:37" ht="15" customHeight="1">
       <c r="B90" s="39" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
     </row>
     <row r="91" spans="1:37" ht="15" customHeight="1">
@@ -14465,7 +14463,7 @@
     </row>
     <row r="95" spans="1:37" ht="15" customHeight="1">
       <c r="B95" s="39" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
     </row>
     <row r="96" spans="1:37" ht="15" customHeight="1">
@@ -14475,22 +14473,22 @@
     </row>
     <row r="97" spans="2:2" ht="15" customHeight="1">
       <c r="B97" s="39" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
     </row>
     <row r="98" spans="2:2" ht="15" customHeight="1">
       <c r="B98" s="39" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
     </row>
     <row r="99" spans="2:2" ht="15" customHeight="1">
       <c r="B99" s="39" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
     </row>
     <row r="100" spans="2:2" ht="15" customHeight="1">
       <c r="B100" s="39" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
     </row>
     <row r="101" spans="2:2" ht="15" customHeight="1">
@@ -14500,12 +14498,12 @@
     </row>
     <row r="102" spans="2:2" ht="15" customHeight="1">
       <c r="B102" s="39" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
     </row>
     <row r="103" spans="2:2" ht="15" customHeight="1">
       <c r="B103" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
     </row>
     <row r="104" spans="2:2" ht="15" customHeight="1">
@@ -14515,17 +14513,17 @@
     </row>
     <row r="105" spans="2:2" ht="15" customHeight="1">
       <c r="B105" s="39" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
     </row>
     <row r="106" spans="2:2" ht="15" customHeight="1">
       <c r="B106" s="39" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
     </row>
     <row r="107" spans="2:2" ht="15" customHeight="1">
       <c r="B107" s="39" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
     </row>
   </sheetData>
@@ -14556,7 +14554,7 @@
   <sheetData>
     <row r="1" spans="1:37" ht="15" customHeight="1" thickBot="1">
       <c r="B1" s="9" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="C1" s="8">
         <v>2017</v>
@@ -14667,7 +14665,7 @@
         <v>218</v>
       </c>
       <c r="D3" s="37" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
       <c r="E3" s="37"/>
       <c r="F3" s="37"/>
@@ -14678,7 +14676,7 @@
         <v>217</v>
       </c>
       <c r="D4" s="37" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="E4" s="37"/>
       <c r="F4" s="37"/>
@@ -14691,7 +14689,7 @@
         <v>215</v>
       </c>
       <c r="D5" s="37" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="E5" s="37"/>
       <c r="F5" s="37"/>
@@ -14703,22 +14701,22 @@
       </c>
       <c r="D6" s="37"/>
       <c r="E6" s="37" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
       <c r="F6" s="37"/>
       <c r="G6" s="37"/>
     </row>
     <row r="10" spans="1:37" ht="15" customHeight="1">
       <c r="A10" s="34" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="11" spans="1:37" ht="15" customHeight="1">
       <c r="B11" s="9" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="12" spans="1:37" ht="15" customHeight="1">
@@ -14828,12 +14826,12 @@
         <v>211</v>
       </c>
       <c r="AK12" s="38" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
     </row>
     <row r="13" spans="1:37" ht="15" customHeight="1" thickBot="1">
       <c r="B13" s="8" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="C13" s="8">
         <v>2017</v>
@@ -14944,10 +14942,10 @@
     <row r="14" spans="1:37" ht="15" customHeight="1" thickTop="1"/>
     <row r="15" spans="1:37" ht="15" customHeight="1">
       <c r="A15" s="34" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="C15" s="3">
         <v>15428.980469</v>
@@ -15057,10 +15055,10 @@
     </row>
     <row r="16" spans="1:37" ht="15" customHeight="1">
       <c r="A16" s="34" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="C16" s="6">
         <v>15335.150390999999</v>
@@ -15170,10 +15168,10 @@
     </row>
     <row r="17" spans="1:37" ht="15" customHeight="1">
       <c r="A17" s="34" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="C17" s="6">
         <v>9.1569839999999996</v>
@@ -15283,10 +15281,10 @@
     </row>
     <row r="18" spans="1:37" ht="15" customHeight="1">
       <c r="A18" s="34" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C18" s="6">
         <v>60.853920000000002</v>
@@ -15396,10 +15394,10 @@
     </row>
     <row r="19" spans="1:37" ht="15" customHeight="1">
       <c r="A19" s="34" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="C19" s="6">
         <v>8.0770090000000003</v>
@@ -15509,10 +15507,10 @@
     </row>
     <row r="20" spans="1:37" ht="15" customHeight="1">
       <c r="A20" s="34" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="C20" s="6">
         <v>3.931244</v>
@@ -15622,10 +15620,10 @@
     </row>
     <row r="21" spans="1:37" ht="15" customHeight="1">
       <c r="A21" s="34" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="C21" s="6">
         <v>11.537136</v>
@@ -15735,10 +15733,10 @@
     </row>
     <row r="22" spans="1:37" ht="15" customHeight="1">
       <c r="A22" s="34" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="C22" s="6">
         <v>0.27376</v>
@@ -15848,10 +15846,10 @@
     </row>
     <row r="24" spans="1:37" ht="15" customHeight="1">
       <c r="A24" s="34" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="C24" s="3">
         <v>886.89825399999995</v>
@@ -15961,10 +15959,10 @@
     </row>
     <row r="25" spans="1:37" ht="15" customHeight="1">
       <c r="A25" s="34" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="C25" s="6">
         <v>606.36535600000002</v>
@@ -16074,10 +16072,10 @@
     </row>
     <row r="26" spans="1:37" ht="15" customHeight="1">
       <c r="A26" s="34" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="C26" s="6">
         <v>1.2694559999999999</v>
@@ -16187,10 +16185,10 @@
     </row>
     <row r="27" spans="1:37" ht="15" customHeight="1">
       <c r="A27" s="34" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C27" s="6">
         <v>278.04269399999998</v>
@@ -16300,10 +16298,10 @@
     </row>
     <row r="28" spans="1:37" ht="15" customHeight="1">
       <c r="A28" s="34" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="C28" s="6">
         <v>1.609E-3</v>
@@ -16413,10 +16411,10 @@
     </row>
     <row r="29" spans="1:37" ht="15" customHeight="1">
       <c r="A29" s="34" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="C29" s="6">
         <v>1.2190970000000001</v>
@@ -16526,10 +16524,10 @@
     </row>
     <row r="30" spans="1:37" ht="15" customHeight="1">
       <c r="A30" s="34" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="C30" s="6">
         <v>0</v>
@@ -16639,10 +16637,10 @@
     </row>
     <row r="31" spans="1:37" ht="15" customHeight="1">
       <c r="A31" s="34" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="C31" s="6">
         <v>0</v>
@@ -16752,10 +16750,10 @@
     </row>
     <row r="33" spans="1:37" ht="15" customHeight="1">
       <c r="A33" s="34" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="C33" s="3">
         <v>5649.7138670000004</v>
@@ -16865,10 +16863,10 @@
     </row>
     <row r="34" spans="1:37" ht="15" customHeight="1">
       <c r="A34" s="34" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="C34" s="6">
         <v>524.60040300000003</v>
@@ -16978,10 +16976,10 @@
     </row>
     <row r="35" spans="1:37" ht="15" customHeight="1">
       <c r="A35" s="34" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C35" s="6">
         <v>5085.1342770000001</v>
@@ -17091,10 +17089,10 @@
     </row>
     <row r="36" spans="1:37" ht="15" customHeight="1">
       <c r="A36" s="34" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="C36" s="6">
         <v>38.148581999999998</v>
@@ -17204,10 +17202,10 @@
     </row>
     <row r="37" spans="1:37" ht="15" customHeight="1">
       <c r="A37" s="34" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="C37" s="6">
         <v>1.498156</v>
@@ -17317,10 +17315,10 @@
     </row>
     <row r="38" spans="1:37" ht="15" customHeight="1">
       <c r="A38" s="34" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="C38" s="6">
         <v>0.3246</v>
@@ -17430,10 +17428,10 @@
     </row>
     <row r="39" spans="1:37" ht="15" customHeight="1">
       <c r="A39" s="34" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="C39" s="6">
         <v>8.0459999999999993E-3</v>
@@ -17543,10 +17541,10 @@
     </row>
     <row r="40" spans="1:37" ht="15" customHeight="1">
       <c r="A40" s="34" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="C40" s="6">
         <v>0</v>
@@ -17656,10 +17654,10 @@
     </row>
     <row r="43" spans="1:37" ht="15" customHeight="1">
       <c r="A43" s="34" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="C43" s="3">
         <v>522.31347700000003</v>
@@ -17769,10 +17767,10 @@
     </row>
     <row r="44" spans="1:37" ht="15" customHeight="1">
       <c r="A44" s="34" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C44" s="6">
         <v>522.31347700000003</v>
@@ -17882,10 +17880,10 @@
     </row>
     <row r="45" spans="1:37" ht="15" customHeight="1">
       <c r="A45" s="34" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C45" s="6">
         <v>0</v>
@@ -17995,10 +17993,10 @@
     </row>
     <row r="46" spans="1:37" ht="15" customHeight="1">
       <c r="A46" s="34" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="C46" s="6">
         <v>0</v>
@@ -18108,10 +18106,10 @@
     </row>
     <row r="47" spans="1:37" ht="15" customHeight="1">
       <c r="A47" s="34" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C47" s="6">
         <v>0</v>
@@ -18221,7 +18219,7 @@
     </row>
     <row r="49" spans="1:37" ht="15" customHeight="1">
       <c r="A49" s="34" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>251</v>
@@ -18334,10 +18332,10 @@
     </row>
     <row r="50" spans="1:37" ht="15" customHeight="1">
       <c r="A50" s="34" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C50" s="6">
         <v>91.653205999999997</v>
@@ -18447,10 +18445,10 @@
     </row>
     <row r="51" spans="1:37" ht="15" customHeight="1">
       <c r="A51" s="34" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="C51" s="6">
         <v>2.5443410000000002</v>
@@ -18560,10 +18558,10 @@
     </row>
     <row r="52" spans="1:37" ht="15" customHeight="1">
       <c r="A52" s="34" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="C52" s="6">
         <v>0</v>
@@ -18673,10 +18671,10 @@
     </row>
     <row r="53" spans="1:37" ht="15" customHeight="1">
       <c r="A53" s="34" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C53" s="6">
         <v>0.30710300000000001</v>
@@ -18786,7 +18784,7 @@
     </row>
     <row r="55" spans="1:37" ht="15" customHeight="1">
       <c r="A55" s="34" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>242</v>
@@ -18899,10 +18897,10 @@
     </row>
     <row r="56" spans="1:37" ht="15" customHeight="1">
       <c r="A56" s="34" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C56" s="6">
         <v>285.263306</v>
@@ -19012,10 +19010,10 @@
     </row>
     <row r="57" spans="1:37" ht="15" customHeight="1">
       <c r="A57" s="34" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="C57" s="6">
         <v>674.88354500000003</v>
@@ -19125,10 +19123,10 @@
     </row>
     <row r="58" spans="1:37" ht="15" customHeight="1">
       <c r="A58" s="34" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="C58" s="6">
         <v>0</v>
@@ -19238,10 +19236,10 @@
     </row>
     <row r="59" spans="1:37" ht="15" customHeight="1">
       <c r="A59" s="34" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C59" s="6">
         <v>0</v>
@@ -19351,10 +19349,10 @@
     </row>
     <row r="61" spans="1:37" ht="15" customHeight="1">
       <c r="A61" s="34" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C61" s="3">
         <v>2523.8835450000001</v>
@@ -19464,10 +19462,10 @@
     </row>
     <row r="62" spans="1:37" ht="15" customHeight="1">
       <c r="A62" s="34" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C62" s="6">
         <v>2501.3615719999998</v>
@@ -19577,10 +19575,10 @@
     </row>
     <row r="63" spans="1:37" ht="15" customHeight="1">
       <c r="A63" s="34" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="C63" s="6">
         <v>22.522085000000001</v>
@@ -19690,10 +19688,10 @@
     </row>
     <row r="65" spans="1:37" ht="15" customHeight="1">
       <c r="A65" s="34" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="C65" s="3">
         <v>535.69592299999999</v>
@@ -19803,10 +19801,10 @@
     </row>
     <row r="66" spans="1:37" ht="15" customHeight="1">
       <c r="A66" s="34" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C66" s="6">
         <v>411.78094499999997</v>
@@ -19916,10 +19914,10 @@
     </row>
     <row r="67" spans="1:37" ht="15" customHeight="1">
       <c r="A67" s="34" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C67" s="6">
         <v>19.091374999999999</v>
@@ -20029,10 +20027,10 @@
     </row>
     <row r="68" spans="1:37" ht="15" customHeight="1">
       <c r="A68" s="34" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C68" s="6">
         <v>104.823593</v>
@@ -20142,10 +20140,10 @@
     </row>
     <row r="70" spans="1:37" ht="15" customHeight="1">
       <c r="A70" s="34" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C70" s="3">
         <v>236.25900300000001</v>
@@ -20255,10 +20253,10 @@
     </row>
     <row r="71" spans="1:37" ht="15" customHeight="1">
       <c r="A71" s="34" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C71" s="6">
         <v>99.369827000000001</v>
@@ -20368,10 +20366,10 @@
     </row>
     <row r="72" spans="1:37" ht="15" customHeight="1">
       <c r="A72" s="34" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C72" s="6">
         <v>11.445287</v>
@@ -20481,10 +20479,10 @@
     </row>
     <row r="73" spans="1:37" ht="15" customHeight="1">
       <c r="A73" s="34" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="C73" s="6">
         <v>1.4615E-2</v>
@@ -20594,10 +20592,10 @@
     </row>
     <row r="74" spans="1:37" ht="15" customHeight="1">
       <c r="A74" s="34" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C74" s="6">
         <v>63.032871</v>
@@ -20707,10 +20705,10 @@
     </row>
     <row r="75" spans="1:37" ht="15" customHeight="1">
       <c r="A75" s="34" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C75" s="6">
         <v>22.909573000000002</v>
@@ -20820,10 +20818,10 @@
     </row>
     <row r="76" spans="1:37" ht="15" customHeight="1">
       <c r="A76" s="34" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C76" s="6">
         <v>1.462669</v>
@@ -20933,10 +20931,10 @@
     </row>
     <row r="77" spans="1:37" ht="15" customHeight="1">
       <c r="A77" s="34" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C77" s="6">
         <v>0.49046699999999999</v>
@@ -21046,10 +21044,10 @@
     </row>
     <row r="78" spans="1:37" ht="15" customHeight="1">
       <c r="A78" s="34" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="C78" s="6">
         <v>1.4345E-2</v>
@@ -21159,10 +21157,10 @@
     </row>
     <row r="79" spans="1:37" ht="15" customHeight="1">
       <c r="A79" s="34" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C79" s="6">
         <v>32.039715000000001</v>
@@ -21272,10 +21270,10 @@
     </row>
     <row r="80" spans="1:37" ht="15" customHeight="1">
       <c r="A80" s="34" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C80" s="6">
         <v>0</v>
@@ -21385,10 +21383,10 @@
     </row>
     <row r="81" spans="1:37" ht="15" customHeight="1">
       <c r="A81" s="34" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="C81" s="6">
         <v>0</v>
@@ -21498,10 +21496,10 @@
     </row>
     <row r="82" spans="1:37" ht="15" customHeight="1">
       <c r="A82" s="34" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C82" s="6">
         <v>32.039715000000001</v>
@@ -21611,10 +21609,10 @@
     </row>
     <row r="83" spans="1:37" ht="15" customHeight="1">
       <c r="A83" s="34" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C83" s="6">
         <v>0</v>
@@ -21724,10 +21722,10 @@
     </row>
     <row r="84" spans="1:37" ht="15" customHeight="1">
       <c r="A84" s="34" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C84" s="6">
         <v>0</v>
@@ -21837,10 +21835,10 @@
     </row>
     <row r="85" spans="1:37" ht="15" customHeight="1">
       <c r="A85" s="34" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C85" s="6">
         <v>0</v>
@@ -21950,10 +21948,10 @@
     </row>
     <row r="86" spans="1:37" ht="15" customHeight="1">
       <c r="A86" s="34" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="C86" s="6">
         <v>0</v>
@@ -22063,10 +22061,10 @@
     </row>
     <row r="87" spans="1:37" ht="15" customHeight="1">
       <c r="A87" s="34" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="C87" s="6">
         <v>105.36889600000001</v>
@@ -22176,10 +22174,10 @@
     </row>
     <row r="88" spans="1:37" ht="15" customHeight="1">
       <c r="A88" s="34" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C88" s="6">
         <v>11.694694</v>
@@ -22289,10 +22287,10 @@
     </row>
     <row r="89" spans="1:37" ht="15" customHeight="1">
       <c r="A89" s="34" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="C89" s="6">
         <v>0</v>
@@ -22402,10 +22400,10 @@
     </row>
     <row r="90" spans="1:37" ht="15" customHeight="1">
       <c r="A90" s="34" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C90" s="6">
         <v>92.708397000000005</v>
@@ -22515,10 +22513,10 @@
     </row>
     <row r="91" spans="1:37" ht="15" customHeight="1">
       <c r="A91" s="34" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C91" s="6">
         <v>0.875552</v>
@@ -22628,10 +22626,10 @@
     </row>
     <row r="92" spans="1:37" ht="15" customHeight="1">
       <c r="A92" s="34" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C92" s="6">
         <v>9.0253E-2</v>
@@ -22741,10 +22739,10 @@
     </row>
     <row r="93" spans="1:37" ht="15" customHeight="1">
       <c r="A93" s="34" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C93" s="6">
         <v>0</v>
@@ -22854,10 +22852,10 @@
     </row>
     <row r="94" spans="1:37" ht="15" customHeight="1">
       <c r="A94" s="34" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="C94" s="6">
         <v>0</v>
@@ -22967,10 +22965,10 @@
     </row>
     <row r="95" spans="1:37" ht="15" customHeight="1">
       <c r="A95" s="34" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C95" s="3">
         <v>46.543182000000002</v>
@@ -23080,10 +23078,10 @@
     </row>
     <row r="96" spans="1:37" ht="15" customHeight="1">
       <c r="A96" s="34" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C96" s="6">
         <v>10.186204</v>
@@ -23193,10 +23191,10 @@
     </row>
     <row r="97" spans="1:37" ht="15" customHeight="1">
       <c r="A97" s="34" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C97" s="6">
         <v>1.679244</v>
@@ -23306,10 +23304,10 @@
     </row>
     <row r="98" spans="1:37" ht="15" customHeight="1">
       <c r="A98" s="34" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C98" s="6">
         <v>8.5069599999999994</v>
@@ -23419,10 +23417,10 @@
     </row>
     <row r="99" spans="1:37" ht="15" customHeight="1">
       <c r="A99" s="34" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C99" s="6">
         <v>0</v>
@@ -23532,10 +23530,10 @@
     </row>
     <row r="100" spans="1:37" ht="15" customHeight="1">
       <c r="A100" s="34" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C100" s="6">
         <v>0</v>
@@ -23645,10 +23643,10 @@
     </row>
     <row r="101" spans="1:37" ht="15" customHeight="1">
       <c r="A101" s="34" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C101" s="6">
         <v>15.999097000000001</v>
@@ -23758,10 +23756,10 @@
     </row>
     <row r="102" spans="1:37" ht="15" customHeight="1">
       <c r="A102" s="34" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C102" s="6">
         <v>15.999097000000001</v>
@@ -23871,10 +23869,10 @@
     </row>
     <row r="103" spans="1:37" ht="15" customHeight="1">
       <c r="A103" s="34" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C103" s="6">
         <v>20.357882</v>
@@ -23984,10 +23982,10 @@
     </row>
     <row r="104" spans="1:37" ht="15" customHeight="1">
       <c r="A104" s="34" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C104" s="6">
         <v>6.1437689999999998</v>
@@ -24097,10 +24095,10 @@
     </row>
     <row r="105" spans="1:37" ht="15" customHeight="1">
       <c r="A105" s="34" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C105" s="6">
         <v>14.214112</v>
@@ -24210,10 +24208,10 @@
     </row>
     <row r="106" spans="1:37" ht="15" customHeight="1">
       <c r="A106" s="34" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C106" s="6">
         <v>0</v>
@@ -24323,10 +24321,10 @@
     </row>
     <row r="107" spans="1:37" ht="15" customHeight="1">
       <c r="A107" s="34" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C107" s="6">
         <v>0</v>
@@ -24436,10 +24434,10 @@
     </row>
     <row r="109" spans="1:37" ht="15" customHeight="1">
       <c r="A109" s="34" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C109" s="3">
         <v>242.86506700000001</v>
@@ -24549,10 +24547,10 @@
     </row>
     <row r="110" spans="1:37" ht="15" customHeight="1">
       <c r="A110" s="34" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C110" s="6">
         <v>191.36454800000001</v>
@@ -24662,10 +24660,10 @@
     </row>
     <row r="111" spans="1:37" ht="15" customHeight="1">
       <c r="A111" s="34" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C111" s="6">
         <v>51.500518999999997</v>
@@ -24775,10 +24773,10 @@
     </row>
     <row r="113" spans="1:37" ht="15" customHeight="1">
       <c r="A113" s="34" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C113" s="6">
         <v>135.31770299999999</v>
@@ -24888,10 +24886,10 @@
     </row>
     <row r="114" spans="1:37" ht="15" customHeight="1">
       <c r="A114" s="34" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C114" s="6">
         <v>679.153503</v>
@@ -25001,10 +24999,10 @@
     </row>
     <row r="116" spans="1:37" ht="15" customHeight="1">
       <c r="A116" s="34" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C116" s="3">
         <v>27942.273438</v>
@@ -25114,63 +25112,63 @@
     </row>
     <row r="117" spans="1:37" ht="15" customHeight="1" thickBot="1"/>
     <row r="118" spans="1:37" ht="15" customHeight="1">
-      <c r="B118" s="80" t="s">
-        <v>777</v>
-      </c>
-      <c r="C118" s="80"/>
-      <c r="D118" s="80"/>
-      <c r="E118" s="80"/>
-      <c r="F118" s="80"/>
-      <c r="G118" s="80"/>
-      <c r="H118" s="80"/>
-      <c r="I118" s="80"/>
-      <c r="J118" s="80"/>
-      <c r="K118" s="80"/>
-      <c r="L118" s="80"/>
-      <c r="M118" s="80"/>
-      <c r="N118" s="80"/>
-      <c r="O118" s="80"/>
-      <c r="P118" s="80"/>
-      <c r="Q118" s="80"/>
-      <c r="R118" s="80"/>
-      <c r="S118" s="80"/>
-      <c r="T118" s="80"/>
-      <c r="U118" s="80"/>
-      <c r="V118" s="80"/>
-      <c r="W118" s="80"/>
-      <c r="X118" s="80"/>
-      <c r="Y118" s="80"/>
-      <c r="Z118" s="80"/>
-      <c r="AA118" s="80"/>
-      <c r="AB118" s="80"/>
-      <c r="AC118" s="80"/>
-      <c r="AD118" s="80"/>
-      <c r="AE118" s="80"/>
-      <c r="AF118" s="80"/>
-      <c r="AG118" s="80"/>
-      <c r="AH118" s="80"/>
-      <c r="AI118" s="80"/>
-      <c r="AJ118" s="80"/>
-      <c r="AK118" s="80"/>
+      <c r="B118" s="81" t="s">
+        <v>776</v>
+      </c>
+      <c r="C118" s="81"/>
+      <c r="D118" s="81"/>
+      <c r="E118" s="81"/>
+      <c r="F118" s="81"/>
+      <c r="G118" s="81"/>
+      <c r="H118" s="81"/>
+      <c r="I118" s="81"/>
+      <c r="J118" s="81"/>
+      <c r="K118" s="81"/>
+      <c r="L118" s="81"/>
+      <c r="M118" s="81"/>
+      <c r="N118" s="81"/>
+      <c r="O118" s="81"/>
+      <c r="P118" s="81"/>
+      <c r="Q118" s="81"/>
+      <c r="R118" s="81"/>
+      <c r="S118" s="81"/>
+      <c r="T118" s="81"/>
+      <c r="U118" s="81"/>
+      <c r="V118" s="81"/>
+      <c r="W118" s="81"/>
+      <c r="X118" s="81"/>
+      <c r="Y118" s="81"/>
+      <c r="Z118" s="81"/>
+      <c r="AA118" s="81"/>
+      <c r="AB118" s="81"/>
+      <c r="AC118" s="81"/>
+      <c r="AD118" s="81"/>
+      <c r="AE118" s="81"/>
+      <c r="AF118" s="81"/>
+      <c r="AG118" s="81"/>
+      <c r="AH118" s="81"/>
+      <c r="AI118" s="81"/>
+      <c r="AJ118" s="81"/>
+      <c r="AK118" s="81"/>
     </row>
     <row r="119" spans="1:37" ht="15" customHeight="1">
       <c r="B119" s="39" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="120" spans="1:37" ht="15" customHeight="1">
       <c r="B120" s="39" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="121" spans="1:37" ht="15" customHeight="1">
       <c r="B121" s="39" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="122" spans="1:37" ht="15" customHeight="1">
       <c r="B122" s="39" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="123" spans="1:37" ht="15" customHeight="1">
@@ -25190,37 +25188,37 @@
     </row>
     <row r="126" spans="1:37" ht="15" customHeight="1">
       <c r="B126" s="39" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
     </row>
     <row r="127" spans="1:37" ht="15" customHeight="1">
       <c r="B127" s="39" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
     </row>
     <row r="128" spans="1:37" ht="15" customHeight="1">
       <c r="B128" s="39" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
     </row>
     <row r="129" spans="2:2" ht="15" customHeight="1">
       <c r="B129" s="39" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
     </row>
     <row r="130" spans="2:2" ht="15" customHeight="1">
       <c r="B130" s="39" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
     </row>
     <row r="131" spans="2:2" ht="15" customHeight="1">
       <c r="B131" s="39" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
     </row>
     <row r="132" spans="2:2" ht="15" customHeight="1">
       <c r="B132" s="39" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
     </row>
   </sheetData>
@@ -25251,7 +25249,7 @@
   <sheetData>
     <row r="1" spans="1:37" ht="15" customHeight="1" thickBot="1">
       <c r="B1" s="9" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="C1" s="8">
         <v>2017</v>
@@ -25362,7 +25360,7 @@
         <v>218</v>
       </c>
       <c r="D3" s="37" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
       <c r="E3" s="37"/>
       <c r="F3" s="37"/>
@@ -25373,7 +25371,7 @@
         <v>217</v>
       </c>
       <c r="D4" s="37" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="E4" s="37"/>
       <c r="F4" s="37"/>
@@ -25386,7 +25384,7 @@
         <v>215</v>
       </c>
       <c r="D5" s="37" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="E5" s="37"/>
       <c r="F5" s="37"/>
@@ -25398,7 +25396,7 @@
       </c>
       <c r="D6" s="37"/>
       <c r="E6" s="37" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
       <c r="F6" s="37"/>
       <c r="G6" s="37"/>
@@ -25523,7 +25521,7 @@
         <v>211</v>
       </c>
       <c r="AK12" s="38" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
     </row>
     <row r="13" spans="1:37" ht="15" customHeight="1" thickBot="1">
@@ -26335,7 +26333,7 @@
         <v>634</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
       <c r="C25" s="17">
         <v>3.0849999999999999E-2</v>
@@ -28497,7 +28495,7 @@
         <v>596</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
       <c r="C50" s="17">
         <v>1.3519999999999999E-3</v>
@@ -30076,44 +30074,44 @@
     </row>
     <row r="66" spans="1:37" ht="15" customHeight="1" thickBot="1"/>
     <row r="67" spans="1:37" ht="15" customHeight="1">
-      <c r="B67" s="80" t="s">
+      <c r="B67" s="81" t="s">
         <v>585</v>
       </c>
-      <c r="C67" s="80"/>
-      <c r="D67" s="80"/>
-      <c r="E67" s="80"/>
-      <c r="F67" s="80"/>
-      <c r="G67" s="80"/>
-      <c r="H67" s="80"/>
-      <c r="I67" s="80"/>
-      <c r="J67" s="80"/>
-      <c r="K67" s="80"/>
-      <c r="L67" s="80"/>
-      <c r="M67" s="80"/>
-      <c r="N67" s="80"/>
-      <c r="O67" s="80"/>
-      <c r="P67" s="80"/>
-      <c r="Q67" s="80"/>
-      <c r="R67" s="80"/>
-      <c r="S67" s="80"/>
-      <c r="T67" s="80"/>
-      <c r="U67" s="80"/>
-      <c r="V67" s="80"/>
-      <c r="W67" s="80"/>
-      <c r="X67" s="80"/>
-      <c r="Y67" s="80"/>
-      <c r="Z67" s="80"/>
-      <c r="AA67" s="80"/>
-      <c r="AB67" s="80"/>
-      <c r="AC67" s="80"/>
-      <c r="AD67" s="80"/>
-      <c r="AE67" s="80"/>
-      <c r="AF67" s="80"/>
-      <c r="AG67" s="80"/>
-      <c r="AH67" s="80"/>
-      <c r="AI67" s="80"/>
-      <c r="AJ67" s="80"/>
-      <c r="AK67" s="80"/>
+      <c r="C67" s="81"/>
+      <c r="D67" s="81"/>
+      <c r="E67" s="81"/>
+      <c r="F67" s="81"/>
+      <c r="G67" s="81"/>
+      <c r="H67" s="81"/>
+      <c r="I67" s="81"/>
+      <c r="J67" s="81"/>
+      <c r="K67" s="81"/>
+      <c r="L67" s="81"/>
+      <c r="M67" s="81"/>
+      <c r="N67" s="81"/>
+      <c r="O67" s="81"/>
+      <c r="P67" s="81"/>
+      <c r="Q67" s="81"/>
+      <c r="R67" s="81"/>
+      <c r="S67" s="81"/>
+      <c r="T67" s="81"/>
+      <c r="U67" s="81"/>
+      <c r="V67" s="81"/>
+      <c r="W67" s="81"/>
+      <c r="X67" s="81"/>
+      <c r="Y67" s="81"/>
+      <c r="Z67" s="81"/>
+      <c r="AA67" s="81"/>
+      <c r="AB67" s="81"/>
+      <c r="AC67" s="81"/>
+      <c r="AD67" s="81"/>
+      <c r="AE67" s="81"/>
+      <c r="AF67" s="81"/>
+      <c r="AG67" s="81"/>
+      <c r="AH67" s="81"/>
+      <c r="AI67" s="81"/>
+      <c r="AJ67" s="81"/>
+      <c r="AK67" s="81"/>
     </row>
     <row r="68" spans="1:37" ht="15" customHeight="1">
       <c r="B68" s="39" t="s">
@@ -30132,32 +30130,32 @@
     </row>
     <row r="71" spans="1:37" ht="15" customHeight="1">
       <c r="B71" s="39" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="72" spans="1:37" ht="15" customHeight="1">
       <c r="B72" s="39" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="73" spans="1:37" ht="15" customHeight="1">
       <c r="B73" s="39" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="74" spans="1:37" ht="15" customHeight="1">
       <c r="B74" s="39" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="75" spans="1:37" ht="15" customHeight="1">
       <c r="B75" s="39" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="76" spans="1:37" ht="15" customHeight="1">
       <c r="B76" s="39" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
     </row>
   </sheetData>
@@ -30173,7 +30171,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ87"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A49" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
@@ -30182,7 +30180,7 @@
   <sheetData>
     <row r="1" spans="1:36" ht="14.65" thickBot="1">
       <c r="A1" s="9" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="B1" s="8">
         <v>2017</v>
@@ -30293,7 +30291,7 @@
         <v>218</v>
       </c>
       <c r="C3" s="37" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
       <c r="D3" s="37"/>
       <c r="E3" s="37"/>
@@ -30304,7 +30302,7 @@
         <v>217</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="D4" s="37"/>
       <c r="E4" s="37"/>
@@ -30317,7 +30315,7 @@
         <v>215</v>
       </c>
       <c r="C5" s="37" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="D5" s="37"/>
       <c r="E5" s="37"/>
@@ -30329,19 +30327,19 @@
       </c>
       <c r="C6" s="37"/>
       <c r="D6" s="37" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
       <c r="E6" s="37"/>
       <c r="F6" s="37"/>
     </row>
     <row r="10" spans="1:36" ht="15.75">
       <c r="A10" s="10" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="11" spans="1:36">
       <c r="A11" s="9" t="s">
-        <v>1020</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="12" spans="1:36">
@@ -30451,7 +30449,7 @@
         <v>211</v>
       </c>
       <c r="AJ12" s="38" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
     </row>
     <row r="13" spans="1:36" ht="14.65" thickBot="1">
@@ -31242,7 +31240,7 @@
     </row>
     <row r="25" spans="1:36">
       <c r="A25" s="7" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
       <c r="B25" s="14">
         <v>2.0203380000000002</v>
@@ -32562,7 +32560,7 @@
     </row>
     <row r="38" spans="1:36">
       <c r="A38" s="7" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
       <c r="B38" s="14">
         <v>8366.6914059999999</v>
@@ -33347,7 +33345,7 @@
     </row>
     <row r="50" spans="1:36">
       <c r="A50" s="7" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
       <c r="B50" s="14">
         <v>1.3523719999999999</v>
@@ -34667,7 +34665,7 @@
     </row>
     <row r="63" spans="1:36">
       <c r="A63" s="7" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="B63" s="14">
         <v>9336.8300780000009</v>
@@ -34777,7 +34775,7 @@
     </row>
     <row r="65" spans="1:36">
       <c r="A65" s="4" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
       <c r="B65" s="15">
         <v>17703.521484000001</v>
@@ -34887,12 +34885,12 @@
     </row>
     <row r="67" spans="1:36">
       <c r="A67" s="4" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="68" spans="1:36">
       <c r="A68" s="7" t="s">
-        <v>1025</v>
+        <v>1021</v>
       </c>
       <c r="B68" s="14">
         <v>7719.5703119999998</v>
@@ -35002,7 +35000,7 @@
     </row>
     <row r="69" spans="1:36">
       <c r="A69" s="7" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
       <c r="B69" s="14">
         <v>4734.8305659999996</v>
@@ -35112,7 +35110,7 @@
     </row>
     <row r="70" spans="1:36">
       <c r="A70" s="7" t="s">
-        <v>1027</v>
+        <v>1023</v>
       </c>
       <c r="B70" s="74">
         <v>4.1408E-2</v>
@@ -35222,7 +35220,7 @@
     </row>
     <row r="71" spans="1:36">
       <c r="A71" s="7" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
       <c r="B71" s="14">
         <v>11.380197000000001</v>
@@ -35332,7 +35330,7 @@
     </row>
     <row r="72" spans="1:36">
       <c r="A72" s="7" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="B72" s="14">
         <v>1302.9929199999999</v>
@@ -35442,7 +35440,7 @@
     </row>
     <row r="73" spans="1:36">
       <c r="A73" s="7" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="B73" s="14">
         <v>0</v>
@@ -35552,7 +35550,7 @@
     </row>
     <row r="74" spans="1:36">
       <c r="A74" s="7" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="B74" s="14">
         <v>0</v>
@@ -35662,7 +35660,7 @@
     </row>
     <row r="75" spans="1:36">
       <c r="A75" s="7" t="s">
-        <v>1032</v>
+        <v>1028</v>
       </c>
       <c r="B75" s="14">
         <v>0</v>
@@ -35772,7 +35770,7 @@
     </row>
     <row r="76" spans="1:36">
       <c r="A76" s="7" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
       <c r="B76" s="14">
         <v>0</v>
@@ -35882,7 +35880,7 @@
     </row>
     <row r="77" spans="1:36">
       <c r="A77" s="4" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="B77" s="15">
         <v>13768.814453000001</v>
@@ -35992,48 +35990,48 @@
     </row>
     <row r="78" spans="1:36" ht="14.65" thickBot="1"/>
     <row r="79" spans="1:36">
-      <c r="A79" s="80" t="s">
-        <v>1035</v>
-      </c>
-      <c r="B79" s="80"/>
-      <c r="C79" s="80"/>
-      <c r="D79" s="80"/>
-      <c r="E79" s="80"/>
-      <c r="F79" s="80"/>
-      <c r="G79" s="80"/>
-      <c r="H79" s="80"/>
-      <c r="I79" s="80"/>
-      <c r="J79" s="80"/>
-      <c r="K79" s="80"/>
-      <c r="L79" s="80"/>
-      <c r="M79" s="80"/>
-      <c r="N79" s="80"/>
-      <c r="O79" s="80"/>
-      <c r="P79" s="80"/>
-      <c r="Q79" s="80"/>
-      <c r="R79" s="80"/>
-      <c r="S79" s="80"/>
-      <c r="T79" s="80"/>
-      <c r="U79" s="80"/>
-      <c r="V79" s="80"/>
-      <c r="W79" s="80"/>
-      <c r="X79" s="80"/>
-      <c r="Y79" s="80"/>
-      <c r="Z79" s="80"/>
-      <c r="AA79" s="80"/>
-      <c r="AB79" s="80"/>
-      <c r="AC79" s="80"/>
-      <c r="AD79" s="80"/>
-      <c r="AE79" s="80"/>
-      <c r="AF79" s="80"/>
-      <c r="AG79" s="80"/>
-      <c r="AH79" s="80"/>
-      <c r="AI79" s="80"/>
-      <c r="AJ79" s="80"/>
+      <c r="A79" s="81" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B79" s="81"/>
+      <c r="C79" s="81"/>
+      <c r="D79" s="81"/>
+      <c r="E79" s="81"/>
+      <c r="F79" s="81"/>
+      <c r="G79" s="81"/>
+      <c r="H79" s="81"/>
+      <c r="I79" s="81"/>
+      <c r="J79" s="81"/>
+      <c r="K79" s="81"/>
+      <c r="L79" s="81"/>
+      <c r="M79" s="81"/>
+      <c r="N79" s="81"/>
+      <c r="O79" s="81"/>
+      <c r="P79" s="81"/>
+      <c r="Q79" s="81"/>
+      <c r="R79" s="81"/>
+      <c r="S79" s="81"/>
+      <c r="T79" s="81"/>
+      <c r="U79" s="81"/>
+      <c r="V79" s="81"/>
+      <c r="W79" s="81"/>
+      <c r="X79" s="81"/>
+      <c r="Y79" s="81"/>
+      <c r="Z79" s="81"/>
+      <c r="AA79" s="81"/>
+      <c r="AB79" s="81"/>
+      <c r="AC79" s="81"/>
+      <c r="AD79" s="81"/>
+      <c r="AE79" s="81"/>
+      <c r="AF79" s="81"/>
+      <c r="AG79" s="81"/>
+      <c r="AH79" s="81"/>
+      <c r="AI79" s="81"/>
+      <c r="AJ79" s="81"/>
     </row>
     <row r="80" spans="1:36">
       <c r="A80" s="39" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="81" spans="1:1">
@@ -36053,22 +36051,22 @@
     </row>
     <row r="84" spans="1:1">
       <c r="A84" s="39" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="39" t="s">
-        <v>1037</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="39" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="39" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
     </row>
   </sheetData>
@@ -36098,7 +36096,7 @@
   <sheetData>
     <row r="1" spans="1:37" ht="15" customHeight="1" thickBot="1">
       <c r="B1" s="9" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="C1" s="8">
         <v>2017</v>
@@ -36209,7 +36207,7 @@
         <v>218</v>
       </c>
       <c r="D3" s="37" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
       <c r="E3" s="37"/>
       <c r="F3" s="37"/>
@@ -36220,7 +36218,7 @@
         <v>217</v>
       </c>
       <c r="D4" s="37" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="E4" s="37"/>
       <c r="F4" s="37"/>
@@ -36233,7 +36231,7 @@
         <v>215</v>
       </c>
       <c r="D5" s="37" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="E5" s="37"/>
       <c r="F5" s="37"/>
@@ -36245,7 +36243,7 @@
       </c>
       <c r="D6" s="37"/>
       <c r="E6" s="37" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
       <c r="F6" s="37"/>
       <c r="G6" s="37"/>
@@ -36370,7 +36368,7 @@
         <v>211</v>
       </c>
       <c r="AK12" s="38" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
     </row>
     <row r="13" spans="1:37" ht="15" customHeight="1" thickBot="1">
@@ -56054,44 +56052,44 @@
       </c>
     </row>
     <row r="198" spans="1:37" ht="15" customHeight="1">
-      <c r="B198" s="80" t="s">
-        <v>1010</v>
-      </c>
-      <c r="C198" s="80"/>
-      <c r="D198" s="80"/>
-      <c r="E198" s="80"/>
-      <c r="F198" s="80"/>
-      <c r="G198" s="80"/>
-      <c r="H198" s="80"/>
-      <c r="I198" s="80"/>
-      <c r="J198" s="80"/>
-      <c r="K198" s="80"/>
-      <c r="L198" s="80"/>
-      <c r="M198" s="80"/>
-      <c r="N198" s="80"/>
-      <c r="O198" s="80"/>
-      <c r="P198" s="80"/>
-      <c r="Q198" s="80"/>
-      <c r="R198" s="80"/>
-      <c r="S198" s="80"/>
-      <c r="T198" s="80"/>
-      <c r="U198" s="80"/>
-      <c r="V198" s="80"/>
-      <c r="W198" s="80"/>
-      <c r="X198" s="80"/>
-      <c r="Y198" s="80"/>
-      <c r="Z198" s="80"/>
-      <c r="AA198" s="80"/>
-      <c r="AB198" s="80"/>
-      <c r="AC198" s="80"/>
-      <c r="AD198" s="80"/>
-      <c r="AE198" s="80"/>
-      <c r="AF198" s="80"/>
-      <c r="AG198" s="80"/>
-      <c r="AH198" s="80"/>
-      <c r="AI198" s="80"/>
-      <c r="AJ198" s="80"/>
-      <c r="AK198" s="80"/>
+      <c r="B198" s="81" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C198" s="81"/>
+      <c r="D198" s="81"/>
+      <c r="E198" s="81"/>
+      <c r="F198" s="81"/>
+      <c r="G198" s="81"/>
+      <c r="H198" s="81"/>
+      <c r="I198" s="81"/>
+      <c r="J198" s="81"/>
+      <c r="K198" s="81"/>
+      <c r="L198" s="81"/>
+      <c r="M198" s="81"/>
+      <c r="N198" s="81"/>
+      <c r="O198" s="81"/>
+      <c r="P198" s="81"/>
+      <c r="Q198" s="81"/>
+      <c r="R198" s="81"/>
+      <c r="S198" s="81"/>
+      <c r="T198" s="81"/>
+      <c r="U198" s="81"/>
+      <c r="V198" s="81"/>
+      <c r="W198" s="81"/>
+      <c r="X198" s="81"/>
+      <c r="Y198" s="81"/>
+      <c r="Z198" s="81"/>
+      <c r="AA198" s="81"/>
+      <c r="AB198" s="81"/>
+      <c r="AC198" s="81"/>
+      <c r="AD198" s="81"/>
+      <c r="AE198" s="81"/>
+      <c r="AF198" s="81"/>
+      <c r="AG198" s="81"/>
+      <c r="AH198" s="81"/>
+      <c r="AI198" s="81"/>
+      <c r="AJ198" s="81"/>
+      <c r="AK198" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -56121,7 +56119,7 @@
   <sheetData>
     <row r="1" spans="1:37" ht="15" customHeight="1" thickBot="1">
       <c r="B1" s="9" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="C1" s="8">
         <v>2017</v>
@@ -56232,7 +56230,7 @@
         <v>218</v>
       </c>
       <c r="D3" s="37" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
       <c r="E3" s="37"/>
       <c r="F3" s="37"/>
@@ -56243,7 +56241,7 @@
         <v>217</v>
       </c>
       <c r="D4" s="37" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="E4" s="37"/>
       <c r="F4" s="37"/>
@@ -56256,7 +56254,7 @@
         <v>215</v>
       </c>
       <c r="D5" s="37" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="E5" s="37"/>
       <c r="F5" s="37"/>
@@ -56268,7 +56266,7 @@
       </c>
       <c r="D6" s="37"/>
       <c r="E6" s="37" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
       <c r="F6" s="37"/>
       <c r="G6" s="37"/>
@@ -56393,7 +56391,7 @@
         <v>211</v>
       </c>
       <c r="AK12" s="38" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
     </row>
     <row r="13" spans="1:37" ht="15" customHeight="1" thickBot="1">
@@ -80856,44 +80854,44 @@
     </row>
     <row r="274" spans="1:37" ht="15" customHeight="1" thickBot="1"/>
     <row r="275" spans="1:37" ht="15" customHeight="1">
-      <c r="B275" s="80" t="s">
+      <c r="B275" s="81" t="s">
         <v>226</v>
       </c>
-      <c r="C275" s="80"/>
-      <c r="D275" s="80"/>
-      <c r="E275" s="80"/>
-      <c r="F275" s="80"/>
-      <c r="G275" s="80"/>
-      <c r="H275" s="80"/>
-      <c r="I275" s="80"/>
-      <c r="J275" s="80"/>
-      <c r="K275" s="80"/>
-      <c r="L275" s="80"/>
-      <c r="M275" s="80"/>
-      <c r="N275" s="80"/>
-      <c r="O275" s="80"/>
-      <c r="P275" s="80"/>
-      <c r="Q275" s="80"/>
-      <c r="R275" s="80"/>
-      <c r="S275" s="80"/>
-      <c r="T275" s="80"/>
-      <c r="U275" s="80"/>
-      <c r="V275" s="80"/>
-      <c r="W275" s="80"/>
-      <c r="X275" s="80"/>
-      <c r="Y275" s="80"/>
-      <c r="Z275" s="80"/>
-      <c r="AA275" s="80"/>
-      <c r="AB275" s="80"/>
-      <c r="AC275" s="80"/>
-      <c r="AD275" s="80"/>
-      <c r="AE275" s="80"/>
-      <c r="AF275" s="80"/>
-      <c r="AG275" s="80"/>
-      <c r="AH275" s="80"/>
-      <c r="AI275" s="80"/>
-      <c r="AJ275" s="80"/>
-      <c r="AK275" s="80"/>
+      <c r="C275" s="81"/>
+      <c r="D275" s="81"/>
+      <c r="E275" s="81"/>
+      <c r="F275" s="81"/>
+      <c r="G275" s="81"/>
+      <c r="H275" s="81"/>
+      <c r="I275" s="81"/>
+      <c r="J275" s="81"/>
+      <c r="K275" s="81"/>
+      <c r="L275" s="81"/>
+      <c r="M275" s="81"/>
+      <c r="N275" s="81"/>
+      <c r="O275" s="81"/>
+      <c r="P275" s="81"/>
+      <c r="Q275" s="81"/>
+      <c r="R275" s="81"/>
+      <c r="S275" s="81"/>
+      <c r="T275" s="81"/>
+      <c r="U275" s="81"/>
+      <c r="V275" s="81"/>
+      <c r="W275" s="81"/>
+      <c r="X275" s="81"/>
+      <c r="Y275" s="81"/>
+      <c r="Z275" s="81"/>
+      <c r="AA275" s="81"/>
+      <c r="AB275" s="81"/>
+      <c r="AC275" s="81"/>
+      <c r="AD275" s="81"/>
+      <c r="AE275" s="81"/>
+      <c r="AF275" s="81"/>
+      <c r="AG275" s="81"/>
+      <c r="AH275" s="81"/>
+      <c r="AI275" s="81"/>
+      <c r="AJ275" s="81"/>
+      <c r="AK275" s="81"/>
     </row>
     <row r="276" spans="1:37" ht="15" customHeight="1">
       <c r="B276" s="39" t="s">
@@ -80912,17 +80910,17 @@
     </row>
     <row r="279" spans="1:37" ht="15" customHeight="1">
       <c r="B279" s="39" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="280" spans="1:37" ht="15" customHeight="1">
       <c r="B280" s="39" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
     </row>
     <row r="281" spans="1:37" ht="15" customHeight="1">
       <c r="B281" s="39" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="282" spans="1:37" ht="15" customHeight="1">
@@ -80932,22 +80930,22 @@
     </row>
     <row r="283" spans="1:37" ht="15" customHeight="1">
       <c r="B283" s="39" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="284" spans="1:37" ht="15" customHeight="1">
       <c r="B284" s="39" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="285" spans="1:37" ht="15" customHeight="1">
       <c r="B285" s="39" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="286" spans="1:37" ht="15" customHeight="1">
       <c r="B286" s="39" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
     </row>
   </sheetData>
@@ -80982,43 +80980,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="91" t="s">
         <v>581</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90"/>
-      <c r="R1" s="90"/>
-      <c r="S1" s="90"/>
-      <c r="T1" s="90"/>
-      <c r="U1" s="90"/>
-      <c r="V1" s="90"/>
-      <c r="W1" s="90"/>
-      <c r="X1" s="90"/>
-      <c r="Y1" s="90"/>
-      <c r="Z1" s="90"/>
-      <c r="AA1" s="90"/>
-      <c r="AB1" s="90"/>
-      <c r="AC1" s="90"/>
-      <c r="AD1" s="90"/>
-      <c r="AE1" s="90"/>
-      <c r="AF1" s="90"/>
-      <c r="AG1" s="90"/>
-      <c r="AH1" s="90"/>
-      <c r="AI1" s="90"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="91"/>
+      <c r="Q1" s="91"/>
+      <c r="R1" s="91"/>
+      <c r="S1" s="91"/>
+      <c r="T1" s="91"/>
+      <c r="U1" s="91"/>
+      <c r="V1" s="91"/>
+      <c r="W1" s="91"/>
+      <c r="X1" s="91"/>
+      <c r="Y1" s="91"/>
+      <c r="Z1" s="91"/>
+      <c r="AA1" s="91"/>
+      <c r="AB1" s="91"/>
+      <c r="AC1" s="91"/>
+      <c r="AD1" s="91"/>
+      <c r="AE1" s="91"/>
+      <c r="AF1" s="91"/>
+      <c r="AG1" s="91"/>
+      <c r="AH1" s="91"/>
+      <c r="AI1" s="91"/>
     </row>
     <row r="2" spans="1:37" s="22" customFormat="1" ht="16.5" customHeight="1">
       <c r="A2" s="40"/>
@@ -84132,7 +84130,7 @@
     </row>
     <row r="33" spans="1:36" s="25" customFormat="1" ht="32.25" customHeight="1">
       <c r="A33" s="63" t="s">
-        <v>1015</v>
+        <v>1011</v>
       </c>
       <c r="B33" s="54">
         <v>2926</v>
@@ -84353,26 +84351,26 @@
       </c>
     </row>
     <row r="35" spans="1:36" s="26" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A35" s="91" t="s">
-        <v>940</v>
-      </c>
-      <c r="B35" s="91"/>
-      <c r="C35" s="91"/>
-      <c r="D35" s="91"/>
-      <c r="E35" s="91"/>
-      <c r="F35" s="91"/>
-      <c r="G35" s="91"/>
-      <c r="H35" s="91"/>
-      <c r="I35" s="91"/>
-      <c r="J35" s="91"/>
-      <c r="K35" s="91"/>
-      <c r="L35" s="91"/>
-      <c r="M35" s="91"/>
-      <c r="N35" s="91"/>
-      <c r="O35" s="91"/>
-      <c r="P35" s="91"/>
-      <c r="Q35" s="91"/>
-      <c r="R35" s="91"/>
+      <c r="A35" s="92" t="s">
+        <v>936</v>
+      </c>
+      <c r="B35" s="92"/>
+      <c r="C35" s="92"/>
+      <c r="D35" s="92"/>
+      <c r="E35" s="92"/>
+      <c r="F35" s="92"/>
+      <c r="G35" s="92"/>
+      <c r="H35" s="92"/>
+      <c r="I35" s="92"/>
+      <c r="J35" s="92"/>
+      <c r="K35" s="92"/>
+      <c r="L35" s="92"/>
+      <c r="M35" s="92"/>
+      <c r="N35" s="92"/>
+      <c r="O35" s="92"/>
+      <c r="P35" s="92"/>
+      <c r="Q35" s="92"/>
+      <c r="R35" s="92"/>
       <c r="S35" s="67"/>
       <c r="T35" s="67"/>
       <c r="U35" s="67"/>
@@ -84392,24 +84390,24 @@
       <c r="AI35" s="68"/>
     </row>
     <row r="36" spans="1:36" s="26" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A36" s="92"/>
-      <c r="B36" s="92"/>
-      <c r="C36" s="92"/>
-      <c r="D36" s="92"/>
-      <c r="E36" s="92"/>
-      <c r="F36" s="92"/>
-      <c r="G36" s="92"/>
-      <c r="H36" s="92"/>
-      <c r="I36" s="92"/>
-      <c r="J36" s="92"/>
-      <c r="K36" s="92"/>
-      <c r="L36" s="92"/>
-      <c r="M36" s="92"/>
-      <c r="N36" s="92"/>
-      <c r="O36" s="92"/>
-      <c r="P36" s="92"/>
-      <c r="Q36" s="92"/>
-      <c r="R36" s="92"/>
+      <c r="A36" s="93"/>
+      <c r="B36" s="93"/>
+      <c r="C36" s="93"/>
+      <c r="D36" s="93"/>
+      <c r="E36" s="93"/>
+      <c r="F36" s="93"/>
+      <c r="G36" s="93"/>
+      <c r="H36" s="93"/>
+      <c r="I36" s="93"/>
+      <c r="J36" s="93"/>
+      <c r="K36" s="93"/>
+      <c r="L36" s="93"/>
+      <c r="M36" s="93"/>
+      <c r="N36" s="93"/>
+      <c r="O36" s="93"/>
+      <c r="P36" s="93"/>
+      <c r="Q36" s="93"/>
+      <c r="R36" s="93"/>
       <c r="S36" s="70"/>
       <c r="T36" s="68"/>
       <c r="U36" s="68"/>
@@ -84429,26 +84427,26 @@
       <c r="AI36" s="68"/>
     </row>
     <row r="37" spans="1:36" s="28" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A37" s="93" t="s">
+      <c r="A37" s="94" t="s">
         <v>548</v>
       </c>
-      <c r="B37" s="93"/>
-      <c r="C37" s="93"/>
-      <c r="D37" s="93"/>
-      <c r="E37" s="93"/>
-      <c r="F37" s="93"/>
-      <c r="G37" s="93"/>
-      <c r="H37" s="93"/>
-      <c r="I37" s="93"/>
-      <c r="J37" s="93"/>
-      <c r="K37" s="93"/>
-      <c r="L37" s="93"/>
-      <c r="M37" s="93"/>
-      <c r="N37" s="93"/>
-      <c r="O37" s="93"/>
-      <c r="P37" s="93"/>
-      <c r="Q37" s="93"/>
-      <c r="R37" s="93"/>
+      <c r="B37" s="94"/>
+      <c r="C37" s="94"/>
+      <c r="D37" s="94"/>
+      <c r="E37" s="94"/>
+      <c r="F37" s="94"/>
+      <c r="G37" s="94"/>
+      <c r="H37" s="94"/>
+      <c r="I37" s="94"/>
+      <c r="J37" s="94"/>
+      <c r="K37" s="94"/>
+      <c r="L37" s="94"/>
+      <c r="M37" s="94"/>
+      <c r="N37" s="94"/>
+      <c r="O37" s="94"/>
+      <c r="P37" s="94"/>
+      <c r="Q37" s="94"/>
+      <c r="R37" s="94"/>
       <c r="S37" s="71"/>
       <c r="T37" s="72"/>
       <c r="U37" s="72"/>
@@ -84468,26 +84466,26 @@
       <c r="AI37" s="72"/>
     </row>
     <row r="38" spans="1:36" s="28" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A38" s="94" t="s">
+      <c r="A38" s="95" t="s">
         <v>547</v>
       </c>
-      <c r="B38" s="94"/>
-      <c r="C38" s="94"/>
-      <c r="D38" s="94"/>
-      <c r="E38" s="94"/>
-      <c r="F38" s="94"/>
-      <c r="G38" s="94"/>
-      <c r="H38" s="94"/>
-      <c r="I38" s="94"/>
-      <c r="J38" s="94"/>
-      <c r="K38" s="94"/>
-      <c r="L38" s="94"/>
-      <c r="M38" s="94"/>
-      <c r="N38" s="94"/>
-      <c r="O38" s="94"/>
-      <c r="P38" s="94"/>
-      <c r="Q38" s="94"/>
-      <c r="R38" s="94"/>
+      <c r="B38" s="95"/>
+      <c r="C38" s="95"/>
+      <c r="D38" s="95"/>
+      <c r="E38" s="95"/>
+      <c r="F38" s="95"/>
+      <c r="G38" s="95"/>
+      <c r="H38" s="95"/>
+      <c r="I38" s="95"/>
+      <c r="J38" s="95"/>
+      <c r="K38" s="95"/>
+      <c r="L38" s="95"/>
+      <c r="M38" s="95"/>
+      <c r="N38" s="95"/>
+      <c r="O38" s="95"/>
+      <c r="P38" s="95"/>
+      <c r="Q38" s="95"/>
+      <c r="R38" s="95"/>
       <c r="S38" s="71"/>
       <c r="T38" s="72"/>
       <c r="U38" s="72"/>
@@ -84507,26 +84505,26 @@
       <c r="AI38" s="72"/>
     </row>
     <row r="39" spans="1:36" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A39" s="81" t="s">
-        <v>941</v>
-      </c>
-      <c r="B39" s="81"/>
-      <c r="C39" s="81"/>
-      <c r="D39" s="81"/>
-      <c r="E39" s="81"/>
-      <c r="F39" s="81"/>
-      <c r="G39" s="81"/>
-      <c r="H39" s="81"/>
-      <c r="I39" s="81"/>
-      <c r="J39" s="81"/>
-      <c r="K39" s="81"/>
-      <c r="L39" s="81"/>
-      <c r="M39" s="81"/>
-      <c r="N39" s="81"/>
-      <c r="O39" s="81"/>
-      <c r="P39" s="81"/>
-      <c r="Q39" s="81"/>
-      <c r="R39" s="81"/>
+      <c r="A39" s="82" t="s">
+        <v>937</v>
+      </c>
+      <c r="B39" s="82"/>
+      <c r="C39" s="82"/>
+      <c r="D39" s="82"/>
+      <c r="E39" s="82"/>
+      <c r="F39" s="82"/>
+      <c r="G39" s="82"/>
+      <c r="H39" s="82"/>
+      <c r="I39" s="82"/>
+      <c r="J39" s="82"/>
+      <c r="K39" s="82"/>
+      <c r="L39" s="82"/>
+      <c r="M39" s="82"/>
+      <c r="N39" s="82"/>
+      <c r="O39" s="82"/>
+      <c r="P39" s="82"/>
+      <c r="Q39" s="82"/>
+      <c r="R39" s="82"/>
       <c r="S39" s="71"/>
       <c r="T39" s="72"/>
       <c r="U39" s="72"/>
@@ -84546,26 +84544,26 @@
       <c r="AI39" s="72"/>
     </row>
     <row r="40" spans="1:36" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A40" s="89" t="s">
+      <c r="A40" s="90" t="s">
         <v>546</v>
       </c>
-      <c r="B40" s="89"/>
-      <c r="C40" s="89"/>
-      <c r="D40" s="89"/>
-      <c r="E40" s="89"/>
-      <c r="F40" s="89"/>
-      <c r="G40" s="89"/>
-      <c r="H40" s="89"/>
-      <c r="I40" s="89"/>
-      <c r="J40" s="89"/>
-      <c r="K40" s="89"/>
-      <c r="L40" s="89"/>
-      <c r="M40" s="89"/>
-      <c r="N40" s="89"/>
-      <c r="O40" s="89"/>
-      <c r="P40" s="89"/>
-      <c r="Q40" s="89"/>
-      <c r="R40" s="89"/>
+      <c r="B40" s="90"/>
+      <c r="C40" s="90"/>
+      <c r="D40" s="90"/>
+      <c r="E40" s="90"/>
+      <c r="F40" s="90"/>
+      <c r="G40" s="90"/>
+      <c r="H40" s="90"/>
+      <c r="I40" s="90"/>
+      <c r="J40" s="90"/>
+      <c r="K40" s="90"/>
+      <c r="L40" s="90"/>
+      <c r="M40" s="90"/>
+      <c r="N40" s="90"/>
+      <c r="O40" s="90"/>
+      <c r="P40" s="90"/>
+      <c r="Q40" s="90"/>
+      <c r="R40" s="90"/>
       <c r="S40" s="71"/>
       <c r="T40" s="72"/>
       <c r="U40" s="72"/>
@@ -84585,26 +84583,26 @@
       <c r="AI40" s="72"/>
     </row>
     <row r="41" spans="1:36" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A41" s="89" t="s">
+      <c r="A41" s="90" t="s">
         <v>545</v>
       </c>
-      <c r="B41" s="89"/>
-      <c r="C41" s="89"/>
-      <c r="D41" s="89"/>
-      <c r="E41" s="89"/>
-      <c r="F41" s="89"/>
-      <c r="G41" s="89"/>
-      <c r="H41" s="89"/>
-      <c r="I41" s="89"/>
-      <c r="J41" s="89"/>
-      <c r="K41" s="89"/>
-      <c r="L41" s="89"/>
-      <c r="M41" s="89"/>
-      <c r="N41" s="89"/>
-      <c r="O41" s="89"/>
-      <c r="P41" s="89"/>
-      <c r="Q41" s="89"/>
-      <c r="R41" s="89"/>
+      <c r="B41" s="90"/>
+      <c r="C41" s="90"/>
+      <c r="D41" s="90"/>
+      <c r="E41" s="90"/>
+      <c r="F41" s="90"/>
+      <c r="G41" s="90"/>
+      <c r="H41" s="90"/>
+      <c r="I41" s="90"/>
+      <c r="J41" s="90"/>
+      <c r="K41" s="90"/>
+      <c r="L41" s="90"/>
+      <c r="M41" s="90"/>
+      <c r="N41" s="90"/>
+      <c r="O41" s="90"/>
+      <c r="P41" s="90"/>
+      <c r="Q41" s="90"/>
+      <c r="R41" s="90"/>
       <c r="S41" s="71"/>
       <c r="T41" s="72"/>
       <c r="U41" s="72"/>
@@ -84624,26 +84622,26 @@
       <c r="AI41" s="72"/>
     </row>
     <row r="42" spans="1:36" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A42" s="94" t="s">
+      <c r="A42" s="95" t="s">
         <v>544</v>
       </c>
-      <c r="B42" s="94"/>
-      <c r="C42" s="94"/>
-      <c r="D42" s="94"/>
-      <c r="E42" s="94"/>
-      <c r="F42" s="94"/>
-      <c r="G42" s="94"/>
-      <c r="H42" s="94"/>
-      <c r="I42" s="94"/>
-      <c r="J42" s="94"/>
-      <c r="K42" s="94"/>
-      <c r="L42" s="94"/>
-      <c r="M42" s="94"/>
-      <c r="N42" s="94"/>
-      <c r="O42" s="94"/>
-      <c r="P42" s="94"/>
-      <c r="Q42" s="94"/>
-      <c r="R42" s="94"/>
+      <c r="B42" s="95"/>
+      <c r="C42" s="95"/>
+      <c r="D42" s="95"/>
+      <c r="E42" s="95"/>
+      <c r="F42" s="95"/>
+      <c r="G42" s="95"/>
+      <c r="H42" s="95"/>
+      <c r="I42" s="95"/>
+      <c r="J42" s="95"/>
+      <c r="K42" s="95"/>
+      <c r="L42" s="95"/>
+      <c r="M42" s="95"/>
+      <c r="N42" s="95"/>
+      <c r="O42" s="95"/>
+      <c r="P42" s="95"/>
+      <c r="Q42" s="95"/>
+      <c r="R42" s="95"/>
       <c r="S42" s="72"/>
       <c r="T42" s="72"/>
       <c r="U42" s="72"/>
@@ -84663,26 +84661,26 @@
       <c r="AI42" s="72"/>
     </row>
     <row r="43" spans="1:36" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A43" s="81" t="s">
+      <c r="A43" s="82" t="s">
         <v>543</v>
       </c>
-      <c r="B43" s="81"/>
-      <c r="C43" s="81"/>
-      <c r="D43" s="81"/>
-      <c r="E43" s="81"/>
-      <c r="F43" s="81"/>
-      <c r="G43" s="81"/>
-      <c r="H43" s="81"/>
-      <c r="I43" s="81"/>
-      <c r="J43" s="81"/>
-      <c r="K43" s="81"/>
-      <c r="L43" s="81"/>
-      <c r="M43" s="81"/>
-      <c r="N43" s="81"/>
-      <c r="O43" s="81"/>
-      <c r="P43" s="81"/>
-      <c r="Q43" s="81"/>
-      <c r="R43" s="81"/>
+      <c r="B43" s="82"/>
+      <c r="C43" s="82"/>
+      <c r="D43" s="82"/>
+      <c r="E43" s="82"/>
+      <c r="F43" s="82"/>
+      <c r="G43" s="82"/>
+      <c r="H43" s="82"/>
+      <c r="I43" s="82"/>
+      <c r="J43" s="82"/>
+      <c r="K43" s="82"/>
+      <c r="L43" s="82"/>
+      <c r="M43" s="82"/>
+      <c r="N43" s="82"/>
+      <c r="O43" s="82"/>
+      <c r="P43" s="82"/>
+      <c r="Q43" s="82"/>
+      <c r="R43" s="82"/>
       <c r="S43" s="72"/>
       <c r="T43" s="72"/>
       <c r="U43" s="72"/>
@@ -84702,26 +84700,26 @@
       <c r="AI43" s="72"/>
     </row>
     <row r="44" spans="1:36" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A44" s="81" t="s">
+      <c r="A44" s="82" t="s">
         <v>542</v>
       </c>
-      <c r="B44" s="81"/>
-      <c r="C44" s="81"/>
-      <c r="D44" s="81"/>
-      <c r="E44" s="81"/>
-      <c r="F44" s="81"/>
-      <c r="G44" s="81"/>
-      <c r="H44" s="81"/>
-      <c r="I44" s="81"/>
-      <c r="J44" s="81"/>
-      <c r="K44" s="81"/>
-      <c r="L44" s="81"/>
-      <c r="M44" s="81"/>
-      <c r="N44" s="81"/>
-      <c r="O44" s="81"/>
-      <c r="P44" s="81"/>
-      <c r="Q44" s="81"/>
-      <c r="R44" s="81"/>
+      <c r="B44" s="82"/>
+      <c r="C44" s="82"/>
+      <c r="D44" s="82"/>
+      <c r="E44" s="82"/>
+      <c r="F44" s="82"/>
+      <c r="G44" s="82"/>
+      <c r="H44" s="82"/>
+      <c r="I44" s="82"/>
+      <c r="J44" s="82"/>
+      <c r="K44" s="82"/>
+      <c r="L44" s="82"/>
+      <c r="M44" s="82"/>
+      <c r="N44" s="82"/>
+      <c r="O44" s="82"/>
+      <c r="P44" s="82"/>
+      <c r="Q44" s="82"/>
+      <c r="R44" s="82"/>
       <c r="S44" s="72"/>
       <c r="T44" s="72"/>
       <c r="U44" s="72"/>
@@ -84741,26 +84739,26 @@
       <c r="AI44" s="72"/>
     </row>
     <row r="45" spans="1:36" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A45" s="105" t="s">
+      <c r="A45" s="106" t="s">
         <v>541</v>
       </c>
-      <c r="B45" s="105"/>
-      <c r="C45" s="105"/>
-      <c r="D45" s="105"/>
-      <c r="E45" s="105"/>
-      <c r="F45" s="105"/>
-      <c r="G45" s="105"/>
-      <c r="H45" s="105"/>
-      <c r="I45" s="105"/>
-      <c r="J45" s="105"/>
-      <c r="K45" s="105"/>
-      <c r="L45" s="105"/>
-      <c r="M45" s="105"/>
-      <c r="N45" s="105"/>
-      <c r="O45" s="105"/>
-      <c r="P45" s="105"/>
-      <c r="Q45" s="105"/>
-      <c r="R45" s="105"/>
+      <c r="B45" s="106"/>
+      <c r="C45" s="106"/>
+      <c r="D45" s="106"/>
+      <c r="E45" s="106"/>
+      <c r="F45" s="106"/>
+      <c r="G45" s="106"/>
+      <c r="H45" s="106"/>
+      <c r="I45" s="106"/>
+      <c r="J45" s="106"/>
+      <c r="K45" s="106"/>
+      <c r="L45" s="106"/>
+      <c r="M45" s="106"/>
+      <c r="N45" s="106"/>
+      <c r="O45" s="106"/>
+      <c r="P45" s="106"/>
+      <c r="Q45" s="106"/>
+      <c r="R45" s="106"/>
       <c r="S45" s="72"/>
       <c r="T45" s="72"/>
       <c r="U45" s="72"/>
@@ -84780,26 +84778,26 @@
       <c r="AI45" s="72"/>
     </row>
     <row r="46" spans="1:36" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A46" s="89" t="s">
+      <c r="A46" s="90" t="s">
         <v>540</v>
       </c>
-      <c r="B46" s="89"/>
-      <c r="C46" s="89"/>
-      <c r="D46" s="89"/>
-      <c r="E46" s="89"/>
-      <c r="F46" s="89"/>
-      <c r="G46" s="89"/>
-      <c r="H46" s="89"/>
-      <c r="I46" s="89"/>
-      <c r="J46" s="89"/>
-      <c r="K46" s="89"/>
-      <c r="L46" s="89"/>
-      <c r="M46" s="89"/>
-      <c r="N46" s="89"/>
-      <c r="O46" s="89"/>
-      <c r="P46" s="89"/>
-      <c r="Q46" s="89"/>
-      <c r="R46" s="89"/>
+      <c r="B46" s="90"/>
+      <c r="C46" s="90"/>
+      <c r="D46" s="90"/>
+      <c r="E46" s="90"/>
+      <c r="F46" s="90"/>
+      <c r="G46" s="90"/>
+      <c r="H46" s="90"/>
+      <c r="I46" s="90"/>
+      <c r="J46" s="90"/>
+      <c r="K46" s="90"/>
+      <c r="L46" s="90"/>
+      <c r="M46" s="90"/>
+      <c r="N46" s="90"/>
+      <c r="O46" s="90"/>
+      <c r="P46" s="90"/>
+      <c r="Q46" s="90"/>
+      <c r="R46" s="90"/>
       <c r="S46" s="72"/>
       <c r="T46" s="72"/>
       <c r="U46" s="72"/>
@@ -84819,26 +84817,26 @@
       <c r="AI46" s="72"/>
     </row>
     <row r="47" spans="1:36" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A47" s="89" t="s">
+      <c r="A47" s="90" t="s">
         <v>539</v>
       </c>
-      <c r="B47" s="89"/>
-      <c r="C47" s="89"/>
-      <c r="D47" s="89"/>
-      <c r="E47" s="89"/>
-      <c r="F47" s="89"/>
-      <c r="G47" s="89"/>
-      <c r="H47" s="89"/>
-      <c r="I47" s="89"/>
-      <c r="J47" s="89"/>
-      <c r="K47" s="89"/>
-      <c r="L47" s="89"/>
-      <c r="M47" s="89"/>
-      <c r="N47" s="89"/>
-      <c r="O47" s="89"/>
-      <c r="P47" s="89"/>
-      <c r="Q47" s="89"/>
-      <c r="R47" s="89"/>
+      <c r="B47" s="90"/>
+      <c r="C47" s="90"/>
+      <c r="D47" s="90"/>
+      <c r="E47" s="90"/>
+      <c r="F47" s="90"/>
+      <c r="G47" s="90"/>
+      <c r="H47" s="90"/>
+      <c r="I47" s="90"/>
+      <c r="J47" s="90"/>
+      <c r="K47" s="90"/>
+      <c r="L47" s="90"/>
+      <c r="M47" s="90"/>
+      <c r="N47" s="90"/>
+      <c r="O47" s="90"/>
+      <c r="P47" s="90"/>
+      <c r="Q47" s="90"/>
+      <c r="R47" s="90"/>
       <c r="S47" s="72"/>
       <c r="T47" s="72"/>
       <c r="U47" s="72"/>
@@ -84858,26 +84856,26 @@
       <c r="AI47" s="72"/>
     </row>
     <row r="48" spans="1:36" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A48" s="89" t="s">
+      <c r="A48" s="90" t="s">
         <v>538</v>
       </c>
-      <c r="B48" s="89"/>
-      <c r="C48" s="89"/>
-      <c r="D48" s="89"/>
-      <c r="E48" s="89"/>
-      <c r="F48" s="89"/>
-      <c r="G48" s="89"/>
-      <c r="H48" s="89"/>
-      <c r="I48" s="89"/>
-      <c r="J48" s="89"/>
-      <c r="K48" s="89"/>
-      <c r="L48" s="89"/>
-      <c r="M48" s="89"/>
-      <c r="N48" s="89"/>
-      <c r="O48" s="89"/>
-      <c r="P48" s="89"/>
-      <c r="Q48" s="89"/>
-      <c r="R48" s="89"/>
+      <c r="B48" s="90"/>
+      <c r="C48" s="90"/>
+      <c r="D48" s="90"/>
+      <c r="E48" s="90"/>
+      <c r="F48" s="90"/>
+      <c r="G48" s="90"/>
+      <c r="H48" s="90"/>
+      <c r="I48" s="90"/>
+      <c r="J48" s="90"/>
+      <c r="K48" s="90"/>
+      <c r="L48" s="90"/>
+      <c r="M48" s="90"/>
+      <c r="N48" s="90"/>
+      <c r="O48" s="90"/>
+      <c r="P48" s="90"/>
+      <c r="Q48" s="90"/>
+      <c r="R48" s="90"/>
       <c r="S48" s="72"/>
       <c r="T48" s="72"/>
       <c r="U48" s="72"/>
@@ -84897,26 +84895,26 @@
       <c r="AI48" s="72"/>
     </row>
     <row r="49" spans="1:35" s="28" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A49" s="89" t="s">
+      <c r="A49" s="90" t="s">
         <v>537</v>
       </c>
-      <c r="B49" s="89"/>
-      <c r="C49" s="89"/>
-      <c r="D49" s="89"/>
-      <c r="E49" s="89"/>
-      <c r="F49" s="89"/>
-      <c r="G49" s="89"/>
-      <c r="H49" s="89"/>
-      <c r="I49" s="89"/>
-      <c r="J49" s="89"/>
-      <c r="K49" s="89"/>
-      <c r="L49" s="89"/>
-      <c r="M49" s="89"/>
-      <c r="N49" s="89"/>
-      <c r="O49" s="89"/>
-      <c r="P49" s="89"/>
-      <c r="Q49" s="89"/>
-      <c r="R49" s="89"/>
+      <c r="B49" s="90"/>
+      <c r="C49" s="90"/>
+      <c r="D49" s="90"/>
+      <c r="E49" s="90"/>
+      <c r="F49" s="90"/>
+      <c r="G49" s="90"/>
+      <c r="H49" s="90"/>
+      <c r="I49" s="90"/>
+      <c r="J49" s="90"/>
+      <c r="K49" s="90"/>
+      <c r="L49" s="90"/>
+      <c r="M49" s="90"/>
+      <c r="N49" s="90"/>
+      <c r="O49" s="90"/>
+      <c r="P49" s="90"/>
+      <c r="Q49" s="90"/>
+      <c r="R49" s="90"/>
       <c r="S49" s="72"/>
       <c r="T49" s="72"/>
       <c r="U49" s="72"/>
@@ -84936,1240 +84934,1240 @@
       <c r="AI49" s="72"/>
     </row>
     <row r="50" spans="1:35" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A50" s="102" t="s">
+      <c r="A50" s="103" t="s">
         <v>536</v>
       </c>
-      <c r="B50" s="102"/>
-      <c r="C50" s="102"/>
-      <c r="D50" s="102"/>
-      <c r="E50" s="102"/>
-      <c r="F50" s="102"/>
-      <c r="G50" s="102"/>
-      <c r="H50" s="102"/>
-      <c r="I50" s="102"/>
-      <c r="J50" s="102"/>
-      <c r="K50" s="102"/>
-      <c r="L50" s="102"/>
-      <c r="M50" s="102"/>
-      <c r="N50" s="102"/>
-      <c r="O50" s="102"/>
-      <c r="P50" s="102"/>
+      <c r="B50" s="103"/>
+      <c r="C50" s="103"/>
+      <c r="D50" s="103"/>
+      <c r="E50" s="103"/>
+      <c r="F50" s="103"/>
+      <c r="G50" s="103"/>
+      <c r="H50" s="103"/>
+      <c r="I50" s="103"/>
+      <c r="J50" s="103"/>
+      <c r="K50" s="103"/>
+      <c r="L50" s="103"/>
+      <c r="M50" s="103"/>
+      <c r="N50" s="103"/>
+      <c r="O50" s="103"/>
+      <c r="P50" s="103"/>
     </row>
     <row r="51" spans="1:35" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A51" s="82"/>
-      <c r="B51" s="82"/>
-      <c r="C51" s="82"/>
-      <c r="D51" s="82"/>
-      <c r="E51" s="82"/>
-      <c r="F51" s="82"/>
-      <c r="G51" s="82"/>
-      <c r="H51" s="82"/>
-      <c r="I51" s="82"/>
-      <c r="J51" s="82"/>
-      <c r="K51" s="82"/>
-      <c r="L51" s="82"/>
-      <c r="M51" s="82"/>
-      <c r="N51" s="82"/>
-      <c r="O51" s="82"/>
-      <c r="P51" s="82"/>
+      <c r="A51" s="83"/>
+      <c r="B51" s="83"/>
+      <c r="C51" s="83"/>
+      <c r="D51" s="83"/>
+      <c r="E51" s="83"/>
+      <c r="F51" s="83"/>
+      <c r="G51" s="83"/>
+      <c r="H51" s="83"/>
+      <c r="I51" s="83"/>
+      <c r="J51" s="83"/>
+      <c r="K51" s="83"/>
+      <c r="L51" s="83"/>
+      <c r="M51" s="83"/>
+      <c r="N51" s="83"/>
+      <c r="O51" s="83"/>
+      <c r="P51" s="83"/>
     </row>
     <row r="52" spans="1:35" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A52" s="97" t="s">
+      <c r="A52" s="98" t="s">
         <v>535</v>
       </c>
-      <c r="B52" s="97"/>
-      <c r="C52" s="97"/>
-      <c r="D52" s="97"/>
-      <c r="E52" s="97"/>
-      <c r="F52" s="97"/>
-      <c r="G52" s="97"/>
-      <c r="H52" s="97"/>
-      <c r="I52" s="97"/>
-      <c r="J52" s="97"/>
-      <c r="K52" s="97"/>
-      <c r="L52" s="97"/>
-      <c r="M52" s="97"/>
-      <c r="N52" s="97"/>
-      <c r="O52" s="97"/>
-      <c r="P52" s="97"/>
+      <c r="B52" s="98"/>
+      <c r="C52" s="98"/>
+      <c r="D52" s="98"/>
+      <c r="E52" s="98"/>
+      <c r="F52" s="98"/>
+      <c r="G52" s="98"/>
+      <c r="H52" s="98"/>
+      <c r="I52" s="98"/>
+      <c r="J52" s="98"/>
+      <c r="K52" s="98"/>
+      <c r="L52" s="98"/>
+      <c r="M52" s="98"/>
+      <c r="N52" s="98"/>
+      <c r="O52" s="98"/>
+      <c r="P52" s="98"/>
     </row>
     <row r="53" spans="1:35" s="28" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A53" s="98" t="s">
+      <c r="A53" s="99" t="s">
+        <v>938</v>
+      </c>
+      <c r="B53" s="99"/>
+      <c r="C53" s="99"/>
+      <c r="D53" s="99"/>
+      <c r="E53" s="99"/>
+      <c r="F53" s="99"/>
+      <c r="G53" s="99"/>
+      <c r="H53" s="99"/>
+      <c r="I53" s="99"/>
+      <c r="J53" s="99"/>
+      <c r="K53" s="99"/>
+      <c r="L53" s="99"/>
+      <c r="M53" s="99"/>
+      <c r="N53" s="99"/>
+      <c r="O53" s="99"/>
+      <c r="P53" s="99"/>
+    </row>
+    <row r="54" spans="1:35" s="28" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A54" s="84" t="s">
+        <v>534</v>
+      </c>
+      <c r="B54" s="84"/>
+      <c r="C54" s="84"/>
+      <c r="D54" s="84"/>
+      <c r="E54" s="84"/>
+      <c r="F54" s="84"/>
+      <c r="G54" s="84"/>
+      <c r="H54" s="84"/>
+      <c r="I54" s="84"/>
+      <c r="J54" s="84"/>
+      <c r="K54" s="84"/>
+      <c r="L54" s="84"/>
+      <c r="M54" s="84"/>
+      <c r="N54" s="84"/>
+      <c r="O54" s="84"/>
+      <c r="P54" s="84"/>
+    </row>
+    <row r="55" spans="1:35" s="28" customFormat="1" ht="38.25" customHeight="1">
+      <c r="A55" s="86" t="s">
+        <v>533</v>
+      </c>
+      <c r="B55" s="86"/>
+      <c r="C55" s="86"/>
+      <c r="D55" s="86"/>
+      <c r="E55" s="86"/>
+      <c r="F55" s="86"/>
+      <c r="G55" s="86"/>
+      <c r="H55" s="86"/>
+      <c r="I55" s="86"/>
+      <c r="J55" s="86"/>
+      <c r="K55" s="86"/>
+      <c r="L55" s="86"/>
+      <c r="M55" s="86"/>
+      <c r="N55" s="86"/>
+      <c r="O55" s="86"/>
+      <c r="P55" s="86"/>
+    </row>
+    <row r="56" spans="1:35" s="28" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A56" s="84" t="s">
+        <v>532</v>
+      </c>
+      <c r="B56" s="84"/>
+      <c r="C56" s="84"/>
+      <c r="D56" s="84"/>
+      <c r="E56" s="84"/>
+      <c r="F56" s="84"/>
+      <c r="G56" s="84"/>
+      <c r="H56" s="84"/>
+      <c r="I56" s="84"/>
+      <c r="J56" s="84"/>
+      <c r="K56" s="84"/>
+      <c r="L56" s="84"/>
+      <c r="M56" s="84"/>
+      <c r="N56" s="84"/>
+      <c r="O56" s="84"/>
+      <c r="P56" s="84"/>
+    </row>
+    <row r="57" spans="1:35" s="28" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A57" s="84" t="s">
+        <v>531</v>
+      </c>
+      <c r="B57" s="84"/>
+      <c r="C57" s="84"/>
+      <c r="D57" s="84"/>
+      <c r="E57" s="84"/>
+      <c r="F57" s="84"/>
+      <c r="G57" s="84"/>
+      <c r="H57" s="84"/>
+      <c r="I57" s="84"/>
+      <c r="J57" s="84"/>
+      <c r="K57" s="84"/>
+      <c r="L57" s="84"/>
+      <c r="M57" s="84"/>
+      <c r="N57" s="84"/>
+      <c r="O57" s="84"/>
+      <c r="P57" s="84"/>
+    </row>
+    <row r="58" spans="1:35" s="28" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A58" s="100" t="s">
+        <v>530</v>
+      </c>
+      <c r="B58" s="100"/>
+      <c r="C58" s="100"/>
+      <c r="D58" s="100"/>
+      <c r="E58" s="100"/>
+      <c r="F58" s="100"/>
+      <c r="G58" s="100"/>
+      <c r="H58" s="100"/>
+      <c r="I58" s="100"/>
+      <c r="J58" s="100"/>
+      <c r="K58" s="100"/>
+      <c r="L58" s="100"/>
+      <c r="M58" s="100"/>
+      <c r="N58" s="100"/>
+      <c r="O58" s="100"/>
+      <c r="P58" s="100"/>
+    </row>
+    <row r="59" spans="1:35" s="28" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A59" s="88"/>
+      <c r="B59" s="88"/>
+      <c r="C59" s="88"/>
+      <c r="D59" s="88"/>
+      <c r="E59" s="88"/>
+      <c r="F59" s="88"/>
+      <c r="G59" s="88"/>
+      <c r="H59" s="88"/>
+      <c r="I59" s="88"/>
+      <c r="J59" s="88"/>
+      <c r="K59" s="88"/>
+      <c r="L59" s="88"/>
+      <c r="M59" s="88"/>
+      <c r="N59" s="88"/>
+      <c r="O59" s="88"/>
+      <c r="P59" s="88"/>
+    </row>
+    <row r="60" spans="1:35" s="28" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A60" s="101" t="s">
+        <v>529</v>
+      </c>
+      <c r="B60" s="101"/>
+      <c r="C60" s="101"/>
+      <c r="D60" s="101"/>
+      <c r="E60" s="101"/>
+      <c r="F60" s="101"/>
+      <c r="G60" s="101"/>
+      <c r="H60" s="101"/>
+      <c r="I60" s="101"/>
+      <c r="J60" s="101"/>
+      <c r="K60" s="101"/>
+      <c r="L60" s="101"/>
+      <c r="M60" s="101"/>
+      <c r="N60" s="101"/>
+      <c r="O60" s="101"/>
+      <c r="P60" s="101"/>
+    </row>
+    <row r="61" spans="1:35" s="28" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A61" s="101" t="s">
+        <v>528</v>
+      </c>
+      <c r="B61" s="101"/>
+      <c r="C61" s="101"/>
+      <c r="D61" s="101"/>
+      <c r="E61" s="101"/>
+      <c r="F61" s="101"/>
+      <c r="G61" s="101"/>
+      <c r="H61" s="101"/>
+      <c r="I61" s="101"/>
+      <c r="J61" s="101"/>
+      <c r="K61" s="101"/>
+      <c r="L61" s="101"/>
+      <c r="M61" s="101"/>
+      <c r="N61" s="101"/>
+      <c r="O61" s="101"/>
+      <c r="P61" s="101"/>
+    </row>
+    <row r="62" spans="1:35" s="28" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A62" s="89" t="s">
+        <v>527</v>
+      </c>
+      <c r="B62" s="89"/>
+      <c r="C62" s="89"/>
+      <c r="D62" s="89"/>
+      <c r="E62" s="89"/>
+      <c r="F62" s="89"/>
+      <c r="G62" s="89"/>
+      <c r="H62" s="89"/>
+      <c r="I62" s="89"/>
+      <c r="J62" s="89"/>
+      <c r="K62" s="89"/>
+      <c r="L62" s="89"/>
+      <c r="M62" s="89"/>
+      <c r="N62" s="89"/>
+      <c r="O62" s="89"/>
+      <c r="P62" s="89"/>
+    </row>
+    <row r="63" spans="1:35" s="28" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A63" s="102" t="s">
+        <v>526</v>
+      </c>
+      <c r="B63" s="102"/>
+      <c r="C63" s="102"/>
+      <c r="D63" s="102"/>
+      <c r="E63" s="102"/>
+      <c r="F63" s="102"/>
+      <c r="G63" s="102"/>
+      <c r="H63" s="102"/>
+      <c r="I63" s="102"/>
+      <c r="J63" s="102"/>
+      <c r="K63" s="102"/>
+      <c r="L63" s="102"/>
+      <c r="M63" s="102"/>
+      <c r="N63" s="102"/>
+      <c r="O63" s="102"/>
+      <c r="P63" s="102"/>
+    </row>
+    <row r="64" spans="1:35" s="28" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A64" s="85" t="s">
+        <v>525</v>
+      </c>
+      <c r="B64" s="85"/>
+      <c r="C64" s="85"/>
+      <c r="D64" s="85"/>
+      <c r="E64" s="85"/>
+      <c r="F64" s="85"/>
+      <c r="G64" s="85"/>
+      <c r="H64" s="85"/>
+      <c r="I64" s="85"/>
+      <c r="J64" s="85"/>
+      <c r="K64" s="85"/>
+      <c r="L64" s="85"/>
+      <c r="M64" s="85"/>
+      <c r="N64" s="85"/>
+      <c r="O64" s="85"/>
+      <c r="P64" s="85"/>
+    </row>
+    <row r="65" spans="1:16" s="28" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A65" s="85" t="s">
+        <v>524</v>
+      </c>
+      <c r="B65" s="85"/>
+      <c r="C65" s="85"/>
+      <c r="D65" s="85"/>
+      <c r="E65" s="85"/>
+      <c r="F65" s="85"/>
+      <c r="G65" s="85"/>
+      <c r="H65" s="85"/>
+      <c r="I65" s="85"/>
+      <c r="J65" s="85"/>
+      <c r="K65" s="85"/>
+      <c r="L65" s="85"/>
+      <c r="M65" s="85"/>
+      <c r="N65" s="85"/>
+      <c r="O65" s="85"/>
+      <c r="P65" s="85"/>
+    </row>
+    <row r="66" spans="1:16" s="28" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A66" s="85" t="s">
+        <v>523</v>
+      </c>
+      <c r="B66" s="85"/>
+      <c r="C66" s="85"/>
+      <c r="D66" s="85"/>
+      <c r="E66" s="85"/>
+      <c r="F66" s="85"/>
+      <c r="G66" s="85"/>
+      <c r="H66" s="85"/>
+      <c r="I66" s="85"/>
+      <c r="J66" s="85"/>
+      <c r="K66" s="85"/>
+      <c r="L66" s="85"/>
+      <c r="M66" s="85"/>
+      <c r="N66" s="85"/>
+      <c r="O66" s="85"/>
+      <c r="P66" s="85"/>
+    </row>
+    <row r="67" spans="1:16" s="28" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A67" s="85" t="s">
+        <v>939</v>
+      </c>
+      <c r="B67" s="85"/>
+      <c r="C67" s="85"/>
+      <c r="D67" s="85"/>
+      <c r="E67" s="85"/>
+      <c r="F67" s="85"/>
+      <c r="G67" s="85"/>
+      <c r="H67" s="85"/>
+      <c r="I67" s="85"/>
+      <c r="J67" s="85"/>
+      <c r="K67" s="85"/>
+      <c r="L67" s="85"/>
+      <c r="M67" s="85"/>
+      <c r="N67" s="85"/>
+      <c r="O67" s="85"/>
+      <c r="P67" s="85"/>
+    </row>
+    <row r="68" spans="1:16" s="28" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A68" s="89" t="s">
+        <v>522</v>
+      </c>
+      <c r="B68" s="89"/>
+      <c r="C68" s="89"/>
+      <c r="D68" s="89"/>
+      <c r="E68" s="89"/>
+      <c r="F68" s="89"/>
+      <c r="G68" s="89"/>
+      <c r="H68" s="89"/>
+      <c r="I68" s="89"/>
+      <c r="J68" s="89"/>
+      <c r="K68" s="89"/>
+      <c r="L68" s="89"/>
+      <c r="M68" s="89"/>
+      <c r="N68" s="89"/>
+      <c r="O68" s="89"/>
+      <c r="P68" s="89"/>
+    </row>
+    <row r="69" spans="1:16" s="28" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A69" s="85" t="s">
+        <v>521</v>
+      </c>
+      <c r="B69" s="85"/>
+      <c r="C69" s="85"/>
+      <c r="D69" s="85"/>
+      <c r="E69" s="85"/>
+      <c r="F69" s="85"/>
+      <c r="G69" s="85"/>
+      <c r="H69" s="85"/>
+      <c r="I69" s="85"/>
+      <c r="J69" s="85"/>
+      <c r="K69" s="85"/>
+      <c r="L69" s="85"/>
+      <c r="M69" s="85"/>
+      <c r="N69" s="85"/>
+      <c r="O69" s="85"/>
+      <c r="P69" s="85"/>
+    </row>
+    <row r="70" spans="1:16" s="28" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A70" s="85" t="s">
+        <v>520</v>
+      </c>
+      <c r="B70" s="85"/>
+      <c r="C70" s="85"/>
+      <c r="D70" s="85"/>
+      <c r="E70" s="85"/>
+      <c r="F70" s="85"/>
+      <c r="G70" s="85"/>
+      <c r="H70" s="85"/>
+      <c r="I70" s="85"/>
+      <c r="J70" s="85"/>
+      <c r="K70" s="85"/>
+      <c r="L70" s="85"/>
+      <c r="M70" s="85"/>
+      <c r="N70" s="85"/>
+      <c r="O70" s="85"/>
+      <c r="P70" s="85"/>
+    </row>
+    <row r="71" spans="1:16" s="28" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A71" s="85" t="s">
+        <v>519</v>
+      </c>
+      <c r="B71" s="85"/>
+      <c r="C71" s="85"/>
+      <c r="D71" s="85"/>
+      <c r="E71" s="85"/>
+      <c r="F71" s="85"/>
+      <c r="G71" s="85"/>
+      <c r="H71" s="85"/>
+      <c r="I71" s="85"/>
+      <c r="J71" s="85"/>
+      <c r="K71" s="85"/>
+      <c r="L71" s="85"/>
+      <c r="M71" s="85"/>
+      <c r="N71" s="85"/>
+      <c r="O71" s="85"/>
+      <c r="P71" s="85"/>
+    </row>
+    <row r="72" spans="1:16" s="28" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A72" s="85" t="s">
+        <v>518</v>
+      </c>
+      <c r="B72" s="85"/>
+      <c r="C72" s="85"/>
+      <c r="D72" s="85"/>
+      <c r="E72" s="85"/>
+      <c r="F72" s="85"/>
+      <c r="G72" s="85"/>
+      <c r="H72" s="85"/>
+      <c r="I72" s="85"/>
+      <c r="J72" s="85"/>
+      <c r="K72" s="85"/>
+      <c r="L72" s="85"/>
+      <c r="M72" s="85"/>
+      <c r="N72" s="85"/>
+      <c r="O72" s="85"/>
+      <c r="P72" s="85"/>
+    </row>
+    <row r="73" spans="1:16" s="28" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A73" s="85" t="s">
+        <v>940</v>
+      </c>
+      <c r="B73" s="85"/>
+      <c r="C73" s="85"/>
+      <c r="D73" s="85"/>
+      <c r="E73" s="85"/>
+      <c r="F73" s="85"/>
+      <c r="G73" s="85"/>
+      <c r="H73" s="85"/>
+      <c r="I73" s="85"/>
+      <c r="J73" s="85"/>
+      <c r="K73" s="85"/>
+      <c r="L73" s="85"/>
+      <c r="M73" s="85"/>
+      <c r="N73" s="85"/>
+      <c r="O73" s="85"/>
+      <c r="P73" s="85"/>
+    </row>
+    <row r="74" spans="1:16" s="28" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A74" s="87" t="s">
+        <v>517</v>
+      </c>
+      <c r="B74" s="87"/>
+      <c r="C74" s="87"/>
+      <c r="D74" s="87"/>
+      <c r="E74" s="87"/>
+      <c r="F74" s="87"/>
+      <c r="G74" s="87"/>
+      <c r="H74" s="87"/>
+      <c r="I74" s="87"/>
+      <c r="J74" s="87"/>
+      <c r="K74" s="87"/>
+      <c r="L74" s="87"/>
+      <c r="M74" s="87"/>
+      <c r="N74" s="87"/>
+      <c r="O74" s="87"/>
+      <c r="P74" s="87"/>
+    </row>
+    <row r="75" spans="1:16" s="28" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A75" s="89" t="s">
+        <v>516</v>
+      </c>
+      <c r="B75" s="89"/>
+      <c r="C75" s="89"/>
+      <c r="D75" s="89"/>
+      <c r="E75" s="89"/>
+      <c r="F75" s="89"/>
+      <c r="G75" s="89"/>
+      <c r="H75" s="89"/>
+      <c r="I75" s="89"/>
+      <c r="J75" s="89"/>
+      <c r="K75" s="89"/>
+      <c r="L75" s="89"/>
+      <c r="M75" s="89"/>
+      <c r="N75" s="89"/>
+      <c r="O75" s="89"/>
+      <c r="P75" s="89"/>
+    </row>
+    <row r="76" spans="1:16" s="28" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A76" s="84" t="s">
+        <v>515</v>
+      </c>
+      <c r="B76" s="84"/>
+      <c r="C76" s="84"/>
+      <c r="D76" s="84"/>
+      <c r="E76" s="84"/>
+      <c r="F76" s="84"/>
+      <c r="G76" s="84"/>
+      <c r="H76" s="84"/>
+      <c r="I76" s="84"/>
+      <c r="J76" s="84"/>
+      <c r="K76" s="84"/>
+      <c r="L76" s="84"/>
+      <c r="M76" s="84"/>
+      <c r="N76" s="84"/>
+      <c r="O76" s="84"/>
+      <c r="P76" s="84"/>
+    </row>
+    <row r="77" spans="1:16" s="28" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A77" s="97" t="s">
+        <v>509</v>
+      </c>
+      <c r="B77" s="97"/>
+      <c r="C77" s="97"/>
+      <c r="D77" s="97"/>
+      <c r="E77" s="97"/>
+      <c r="F77" s="97"/>
+      <c r="G77" s="97"/>
+      <c r="H77" s="97"/>
+      <c r="I77" s="97"/>
+      <c r="J77" s="97"/>
+      <c r="K77" s="97"/>
+      <c r="L77" s="97"/>
+      <c r="M77" s="97"/>
+      <c r="N77" s="97"/>
+      <c r="O77" s="97"/>
+      <c r="P77" s="97"/>
+    </row>
+    <row r="78" spans="1:16" s="28" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A78" s="96" t="s">
+        <v>514</v>
+      </c>
+      <c r="B78" s="96"/>
+      <c r="C78" s="96"/>
+      <c r="D78" s="96"/>
+      <c r="E78" s="96"/>
+      <c r="F78" s="96"/>
+      <c r="G78" s="96"/>
+      <c r="H78" s="96"/>
+      <c r="I78" s="96"/>
+      <c r="J78" s="96"/>
+      <c r="K78" s="96"/>
+      <c r="L78" s="96"/>
+      <c r="M78" s="96"/>
+      <c r="N78" s="96"/>
+      <c r="O78" s="96"/>
+      <c r="P78" s="96"/>
+    </row>
+    <row r="79" spans="1:16" s="28" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A79" s="97" t="s">
+        <v>941</v>
+      </c>
+      <c r="B79" s="97"/>
+      <c r="C79" s="97"/>
+      <c r="D79" s="97"/>
+      <c r="E79" s="97"/>
+      <c r="F79" s="97"/>
+      <c r="G79" s="97"/>
+      <c r="H79" s="97"/>
+      <c r="I79" s="97"/>
+      <c r="J79" s="97"/>
+      <c r="K79" s="97"/>
+      <c r="L79" s="97"/>
+      <c r="M79" s="97"/>
+      <c r="N79" s="97"/>
+      <c r="O79" s="97"/>
+      <c r="P79" s="97"/>
+    </row>
+    <row r="80" spans="1:16" s="28" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A80" s="89" t="s">
+        <v>513</v>
+      </c>
+      <c r="B80" s="89"/>
+      <c r="C80" s="89"/>
+      <c r="D80" s="89"/>
+      <c r="E80" s="89"/>
+      <c r="F80" s="89"/>
+      <c r="G80" s="89"/>
+      <c r="H80" s="89"/>
+      <c r="I80" s="89"/>
+      <c r="J80" s="89"/>
+      <c r="K80" s="89"/>
+      <c r="L80" s="89"/>
+      <c r="M80" s="89"/>
+      <c r="N80" s="89"/>
+      <c r="O80" s="89"/>
+      <c r="P80" s="89"/>
+    </row>
+    <row r="81" spans="1:16" s="28" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A81" s="84" t="s">
+        <v>512</v>
+      </c>
+      <c r="B81" s="84"/>
+      <c r="C81" s="84"/>
+      <c r="D81" s="84"/>
+      <c r="E81" s="84"/>
+      <c r="F81" s="84"/>
+      <c r="G81" s="84"/>
+      <c r="H81" s="84"/>
+      <c r="I81" s="84"/>
+      <c r="J81" s="84"/>
+      <c r="K81" s="84"/>
+      <c r="L81" s="84"/>
+      <c r="M81" s="84"/>
+      <c r="N81" s="84"/>
+      <c r="O81" s="84"/>
+      <c r="P81" s="84"/>
+    </row>
+    <row r="82" spans="1:16" s="28" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A82" s="97" t="s">
         <v>942</v>
       </c>
-      <c r="B53" s="98"/>
-      <c r="C53" s="98"/>
-      <c r="D53" s="98"/>
-      <c r="E53" s="98"/>
-      <c r="F53" s="98"/>
-      <c r="G53" s="98"/>
-      <c r="H53" s="98"/>
-      <c r="I53" s="98"/>
-      <c r="J53" s="98"/>
-      <c r="K53" s="98"/>
-      <c r="L53" s="98"/>
-      <c r="M53" s="98"/>
-      <c r="N53" s="98"/>
-      <c r="O53" s="98"/>
-      <c r="P53" s="98"/>
-    </row>
-    <row r="54" spans="1:35" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A54" s="83" t="s">
-        <v>534</v>
-      </c>
-      <c r="B54" s="83"/>
-      <c r="C54" s="83"/>
-      <c r="D54" s="83"/>
-      <c r="E54" s="83"/>
-      <c r="F54" s="83"/>
-      <c r="G54" s="83"/>
-      <c r="H54" s="83"/>
-      <c r="I54" s="83"/>
-      <c r="J54" s="83"/>
-      <c r="K54" s="83"/>
-      <c r="L54" s="83"/>
-      <c r="M54" s="83"/>
-      <c r="N54" s="83"/>
-      <c r="O54" s="83"/>
-      <c r="P54" s="83"/>
-    </row>
-    <row r="55" spans="1:35" s="28" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A55" s="85" t="s">
-        <v>533</v>
-      </c>
-      <c r="B55" s="85"/>
-      <c r="C55" s="85"/>
-      <c r="D55" s="85"/>
-      <c r="E55" s="85"/>
-      <c r="F55" s="85"/>
-      <c r="G55" s="85"/>
-      <c r="H55" s="85"/>
-      <c r="I55" s="85"/>
-      <c r="J55" s="85"/>
-      <c r="K55" s="85"/>
-      <c r="L55" s="85"/>
-      <c r="M55" s="85"/>
-      <c r="N55" s="85"/>
-      <c r="O55" s="85"/>
-      <c r="P55" s="85"/>
-    </row>
-    <row r="56" spans="1:35" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A56" s="83" t="s">
-        <v>532</v>
-      </c>
-      <c r="B56" s="83"/>
-      <c r="C56" s="83"/>
-      <c r="D56" s="83"/>
-      <c r="E56" s="83"/>
-      <c r="F56" s="83"/>
-      <c r="G56" s="83"/>
-      <c r="H56" s="83"/>
-      <c r="I56" s="83"/>
-      <c r="J56" s="83"/>
-      <c r="K56" s="83"/>
-      <c r="L56" s="83"/>
-      <c r="M56" s="83"/>
-      <c r="N56" s="83"/>
-      <c r="O56" s="83"/>
-      <c r="P56" s="83"/>
-    </row>
-    <row r="57" spans="1:35" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A57" s="83" t="s">
-        <v>531</v>
-      </c>
-      <c r="B57" s="83"/>
-      <c r="C57" s="83"/>
-      <c r="D57" s="83"/>
-      <c r="E57" s="83"/>
-      <c r="F57" s="83"/>
-      <c r="G57" s="83"/>
-      <c r="H57" s="83"/>
-      <c r="I57" s="83"/>
-      <c r="J57" s="83"/>
-      <c r="K57" s="83"/>
-      <c r="L57" s="83"/>
-      <c r="M57" s="83"/>
-      <c r="N57" s="83"/>
-      <c r="O57" s="83"/>
-      <c r="P57" s="83"/>
-    </row>
-    <row r="58" spans="1:35" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A58" s="99" t="s">
-        <v>530</v>
-      </c>
-      <c r="B58" s="99"/>
-      <c r="C58" s="99"/>
-      <c r="D58" s="99"/>
-      <c r="E58" s="99"/>
-      <c r="F58" s="99"/>
-      <c r="G58" s="99"/>
-      <c r="H58" s="99"/>
-      <c r="I58" s="99"/>
-      <c r="J58" s="99"/>
-      <c r="K58" s="99"/>
-      <c r="L58" s="99"/>
-      <c r="M58" s="99"/>
-      <c r="N58" s="99"/>
-      <c r="O58" s="99"/>
-      <c r="P58" s="99"/>
-    </row>
-    <row r="59" spans="1:35" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A59" s="87"/>
-      <c r="B59" s="87"/>
-      <c r="C59" s="87"/>
-      <c r="D59" s="87"/>
-      <c r="E59" s="87"/>
-      <c r="F59" s="87"/>
-      <c r="G59" s="87"/>
-      <c r="H59" s="87"/>
-      <c r="I59" s="87"/>
-      <c r="J59" s="87"/>
-      <c r="K59" s="87"/>
-      <c r="L59" s="87"/>
-      <c r="M59" s="87"/>
-      <c r="N59" s="87"/>
-      <c r="O59" s="87"/>
-      <c r="P59" s="87"/>
-    </row>
-    <row r="60" spans="1:35" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A60" s="100" t="s">
-        <v>529</v>
-      </c>
-      <c r="B60" s="100"/>
-      <c r="C60" s="100"/>
-      <c r="D60" s="100"/>
-      <c r="E60" s="100"/>
-      <c r="F60" s="100"/>
-      <c r="G60" s="100"/>
-      <c r="H60" s="100"/>
-      <c r="I60" s="100"/>
-      <c r="J60" s="100"/>
-      <c r="K60" s="100"/>
-      <c r="L60" s="100"/>
-      <c r="M60" s="100"/>
-      <c r="N60" s="100"/>
-      <c r="O60" s="100"/>
-      <c r="P60" s="100"/>
-    </row>
-    <row r="61" spans="1:35" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A61" s="100" t="s">
-        <v>528</v>
-      </c>
-      <c r="B61" s="100"/>
-      <c r="C61" s="100"/>
-      <c r="D61" s="100"/>
-      <c r="E61" s="100"/>
-      <c r="F61" s="100"/>
-      <c r="G61" s="100"/>
-      <c r="H61" s="100"/>
-      <c r="I61" s="100"/>
-      <c r="J61" s="100"/>
-      <c r="K61" s="100"/>
-      <c r="L61" s="100"/>
-      <c r="M61" s="100"/>
-      <c r="N61" s="100"/>
-      <c r="O61" s="100"/>
-      <c r="P61" s="100"/>
-    </row>
-    <row r="62" spans="1:35" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A62" s="88" t="s">
-        <v>527</v>
-      </c>
-      <c r="B62" s="88"/>
-      <c r="C62" s="88"/>
-      <c r="D62" s="88"/>
-      <c r="E62" s="88"/>
-      <c r="F62" s="88"/>
-      <c r="G62" s="88"/>
-      <c r="H62" s="88"/>
-      <c r="I62" s="88"/>
-      <c r="J62" s="88"/>
-      <c r="K62" s="88"/>
-      <c r="L62" s="88"/>
-      <c r="M62" s="88"/>
-      <c r="N62" s="88"/>
-      <c r="O62" s="88"/>
-      <c r="P62" s="88"/>
-    </row>
-    <row r="63" spans="1:35" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A63" s="101" t="s">
-        <v>526</v>
-      </c>
-      <c r="B63" s="101"/>
-      <c r="C63" s="101"/>
-      <c r="D63" s="101"/>
-      <c r="E63" s="101"/>
-      <c r="F63" s="101"/>
-      <c r="G63" s="101"/>
-      <c r="H63" s="101"/>
-      <c r="I63" s="101"/>
-      <c r="J63" s="101"/>
-      <c r="K63" s="101"/>
-      <c r="L63" s="101"/>
-      <c r="M63" s="101"/>
-      <c r="N63" s="101"/>
-      <c r="O63" s="101"/>
-      <c r="P63" s="101"/>
-    </row>
-    <row r="64" spans="1:35" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A64" s="84" t="s">
-        <v>525</v>
-      </c>
-      <c r="B64" s="84"/>
-      <c r="C64" s="84"/>
-      <c r="D64" s="84"/>
-      <c r="E64" s="84"/>
-      <c r="F64" s="84"/>
-      <c r="G64" s="84"/>
-      <c r="H64" s="84"/>
-      <c r="I64" s="84"/>
-      <c r="J64" s="84"/>
-      <c r="K64" s="84"/>
-      <c r="L64" s="84"/>
-      <c r="M64" s="84"/>
-      <c r="N64" s="84"/>
-      <c r="O64" s="84"/>
-      <c r="P64" s="84"/>
-    </row>
-    <row r="65" spans="1:16" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A65" s="84" t="s">
-        <v>524</v>
-      </c>
-      <c r="B65" s="84"/>
-      <c r="C65" s="84"/>
-      <c r="D65" s="84"/>
-      <c r="E65" s="84"/>
-      <c r="F65" s="84"/>
-      <c r="G65" s="84"/>
-      <c r="H65" s="84"/>
-      <c r="I65" s="84"/>
-      <c r="J65" s="84"/>
-      <c r="K65" s="84"/>
-      <c r="L65" s="84"/>
-      <c r="M65" s="84"/>
-      <c r="N65" s="84"/>
-      <c r="O65" s="84"/>
-      <c r="P65" s="84"/>
-    </row>
-    <row r="66" spans="1:16" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A66" s="84" t="s">
-        <v>523</v>
-      </c>
-      <c r="B66" s="84"/>
-      <c r="C66" s="84"/>
-      <c r="D66" s="84"/>
-      <c r="E66" s="84"/>
-      <c r="F66" s="84"/>
-      <c r="G66" s="84"/>
-      <c r="H66" s="84"/>
-      <c r="I66" s="84"/>
-      <c r="J66" s="84"/>
-      <c r="K66" s="84"/>
-      <c r="L66" s="84"/>
-      <c r="M66" s="84"/>
-      <c r="N66" s="84"/>
-      <c r="O66" s="84"/>
-      <c r="P66" s="84"/>
-    </row>
-    <row r="67" spans="1:16" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A67" s="84" t="s">
+      <c r="B82" s="97"/>
+      <c r="C82" s="97"/>
+      <c r="D82" s="97"/>
+      <c r="E82" s="97"/>
+      <c r="F82" s="97"/>
+      <c r="G82" s="97"/>
+      <c r="H82" s="97"/>
+      <c r="I82" s="97"/>
+      <c r="J82" s="97"/>
+      <c r="K82" s="97"/>
+      <c r="L82" s="97"/>
+      <c r="M82" s="97"/>
+      <c r="N82" s="97"/>
+      <c r="O82" s="97"/>
+      <c r="P82" s="97"/>
+    </row>
+    <row r="83" spans="1:16" s="28" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A83" s="89" t="s">
+        <v>511</v>
+      </c>
+      <c r="B83" s="89"/>
+      <c r="C83" s="89"/>
+      <c r="D83" s="89"/>
+      <c r="E83" s="89"/>
+      <c r="F83" s="89"/>
+      <c r="G83" s="89"/>
+      <c r="H83" s="89"/>
+      <c r="I83" s="89"/>
+      <c r="J83" s="89"/>
+      <c r="K83" s="89"/>
+      <c r="L83" s="89"/>
+      <c r="M83" s="89"/>
+      <c r="N83" s="89"/>
+      <c r="O83" s="89"/>
+      <c r="P83" s="89"/>
+    </row>
+    <row r="84" spans="1:16" s="28" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A84" s="84" t="s">
+        <v>510</v>
+      </c>
+      <c r="B84" s="84"/>
+      <c r="C84" s="84"/>
+      <c r="D84" s="84"/>
+      <c r="E84" s="84"/>
+      <c r="F84" s="84"/>
+      <c r="G84" s="84"/>
+      <c r="H84" s="84"/>
+      <c r="I84" s="84"/>
+      <c r="J84" s="84"/>
+      <c r="K84" s="84"/>
+      <c r="L84" s="84"/>
+      <c r="M84" s="84"/>
+      <c r="N84" s="84"/>
+      <c r="O84" s="84"/>
+      <c r="P84" s="84"/>
+    </row>
+    <row r="85" spans="1:16" s="28" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A85" s="97" t="s">
+        <v>509</v>
+      </c>
+      <c r="B85" s="97"/>
+      <c r="C85" s="97"/>
+      <c r="D85" s="97"/>
+      <c r="E85" s="97"/>
+      <c r="F85" s="97"/>
+      <c r="G85" s="97"/>
+      <c r="H85" s="97"/>
+      <c r="I85" s="97"/>
+      <c r="J85" s="97"/>
+      <c r="K85" s="97"/>
+      <c r="L85" s="97"/>
+      <c r="M85" s="97"/>
+      <c r="N85" s="97"/>
+      <c r="O85" s="97"/>
+      <c r="P85" s="97"/>
+    </row>
+    <row r="86" spans="1:16" s="28" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A86" s="96" t="s">
+        <v>508</v>
+      </c>
+      <c r="B86" s="96"/>
+      <c r="C86" s="96"/>
+      <c r="D86" s="96"/>
+      <c r="E86" s="96"/>
+      <c r="F86" s="96"/>
+      <c r="G86" s="96"/>
+      <c r="H86" s="96"/>
+      <c r="I86" s="96"/>
+      <c r="J86" s="96"/>
+      <c r="K86" s="96"/>
+      <c r="L86" s="96"/>
+      <c r="M86" s="96"/>
+      <c r="N86" s="96"/>
+      <c r="O86" s="96"/>
+      <c r="P86" s="96"/>
+    </row>
+    <row r="87" spans="1:16" s="28" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A87" s="97" t="s">
         <v>943</v>
       </c>
-      <c r="B67" s="84"/>
-      <c r="C67" s="84"/>
-      <c r="D67" s="84"/>
-      <c r="E67" s="84"/>
-      <c r="F67" s="84"/>
-      <c r="G67" s="84"/>
-      <c r="H67" s="84"/>
-      <c r="I67" s="84"/>
-      <c r="J67" s="84"/>
-      <c r="K67" s="84"/>
-      <c r="L67" s="84"/>
-      <c r="M67" s="84"/>
-      <c r="N67" s="84"/>
-      <c r="O67" s="84"/>
-      <c r="P67" s="84"/>
-    </row>
-    <row r="68" spans="1:16" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A68" s="88" t="s">
-        <v>522</v>
-      </c>
-      <c r="B68" s="88"/>
-      <c r="C68" s="88"/>
-      <c r="D68" s="88"/>
-      <c r="E68" s="88"/>
-      <c r="F68" s="88"/>
-      <c r="G68" s="88"/>
-      <c r="H68" s="88"/>
-      <c r="I68" s="88"/>
-      <c r="J68" s="88"/>
-      <c r="K68" s="88"/>
-      <c r="L68" s="88"/>
-      <c r="M68" s="88"/>
-      <c r="N68" s="88"/>
-      <c r="O68" s="88"/>
-      <c r="P68" s="88"/>
-    </row>
-    <row r="69" spans="1:16" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A69" s="84" t="s">
-        <v>521</v>
-      </c>
-      <c r="B69" s="84"/>
-      <c r="C69" s="84"/>
-      <c r="D69" s="84"/>
-      <c r="E69" s="84"/>
-      <c r="F69" s="84"/>
-      <c r="G69" s="84"/>
-      <c r="H69" s="84"/>
-      <c r="I69" s="84"/>
-      <c r="J69" s="84"/>
-      <c r="K69" s="84"/>
-      <c r="L69" s="84"/>
-      <c r="M69" s="84"/>
-      <c r="N69" s="84"/>
-      <c r="O69" s="84"/>
-      <c r="P69" s="84"/>
-    </row>
-    <row r="70" spans="1:16" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A70" s="84" t="s">
-        <v>520</v>
-      </c>
-      <c r="B70" s="84"/>
-      <c r="C70" s="84"/>
-      <c r="D70" s="84"/>
-      <c r="E70" s="84"/>
-      <c r="F70" s="84"/>
-      <c r="G70" s="84"/>
-      <c r="H70" s="84"/>
-      <c r="I70" s="84"/>
-      <c r="J70" s="84"/>
-      <c r="K70" s="84"/>
-      <c r="L70" s="84"/>
-      <c r="M70" s="84"/>
-      <c r="N70" s="84"/>
-      <c r="O70" s="84"/>
-      <c r="P70" s="84"/>
-    </row>
-    <row r="71" spans="1:16" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A71" s="84" t="s">
-        <v>519</v>
-      </c>
-      <c r="B71" s="84"/>
-      <c r="C71" s="84"/>
-      <c r="D71" s="84"/>
-      <c r="E71" s="84"/>
-      <c r="F71" s="84"/>
-      <c r="G71" s="84"/>
-      <c r="H71" s="84"/>
-      <c r="I71" s="84"/>
-      <c r="J71" s="84"/>
-      <c r="K71" s="84"/>
-      <c r="L71" s="84"/>
-      <c r="M71" s="84"/>
-      <c r="N71" s="84"/>
-      <c r="O71" s="84"/>
-      <c r="P71" s="84"/>
-    </row>
-    <row r="72" spans="1:16" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A72" s="84" t="s">
-        <v>518</v>
-      </c>
-      <c r="B72" s="84"/>
-      <c r="C72" s="84"/>
-      <c r="D72" s="84"/>
-      <c r="E72" s="84"/>
-      <c r="F72" s="84"/>
-      <c r="G72" s="84"/>
-      <c r="H72" s="84"/>
-      <c r="I72" s="84"/>
-      <c r="J72" s="84"/>
-      <c r="K72" s="84"/>
-      <c r="L72" s="84"/>
-      <c r="M72" s="84"/>
-      <c r="N72" s="84"/>
-      <c r="O72" s="84"/>
-      <c r="P72" s="84"/>
-    </row>
-    <row r="73" spans="1:16" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A73" s="84" t="s">
+      <c r="B87" s="97"/>
+      <c r="C87" s="97"/>
+      <c r="D87" s="97"/>
+      <c r="E87" s="97"/>
+      <c r="F87" s="97"/>
+      <c r="G87" s="97"/>
+      <c r="H87" s="97"/>
+      <c r="I87" s="97"/>
+      <c r="J87" s="97"/>
+      <c r="K87" s="97"/>
+      <c r="L87" s="97"/>
+      <c r="M87" s="97"/>
+      <c r="N87" s="97"/>
+      <c r="O87" s="97"/>
+      <c r="P87" s="97"/>
+    </row>
+    <row r="88" spans="1:16" s="28" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A88" s="89" t="s">
+        <v>507</v>
+      </c>
+      <c r="B88" s="89"/>
+      <c r="C88" s="89"/>
+      <c r="D88" s="89"/>
+      <c r="E88" s="89"/>
+      <c r="F88" s="89"/>
+      <c r="G88" s="89"/>
+      <c r="H88" s="89"/>
+      <c r="I88" s="89"/>
+      <c r="J88" s="89"/>
+      <c r="K88" s="89"/>
+      <c r="L88" s="89"/>
+      <c r="M88" s="89"/>
+      <c r="N88" s="89"/>
+      <c r="O88" s="89"/>
+      <c r="P88" s="89"/>
+    </row>
+    <row r="89" spans="1:16" s="28" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A89" s="84" t="s">
+        <v>506</v>
+      </c>
+      <c r="B89" s="84"/>
+      <c r="C89" s="84"/>
+      <c r="D89" s="84"/>
+      <c r="E89" s="84"/>
+      <c r="F89" s="84"/>
+      <c r="G89" s="84"/>
+      <c r="H89" s="84"/>
+      <c r="I89" s="84"/>
+      <c r="J89" s="84"/>
+      <c r="K89" s="84"/>
+      <c r="L89" s="84"/>
+      <c r="M89" s="84"/>
+      <c r="N89" s="84"/>
+      <c r="O89" s="84"/>
+      <c r="P89" s="84"/>
+    </row>
+    <row r="90" spans="1:16" s="28" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A90" s="97" t="s">
+        <v>942</v>
+      </c>
+      <c r="B90" s="97"/>
+      <c r="C90" s="97"/>
+      <c r="D90" s="97"/>
+      <c r="E90" s="97"/>
+      <c r="F90" s="97"/>
+      <c r="G90" s="97"/>
+      <c r="H90" s="97"/>
+      <c r="I90" s="97"/>
+      <c r="J90" s="97"/>
+      <c r="K90" s="97"/>
+      <c r="L90" s="97"/>
+      <c r="M90" s="97"/>
+      <c r="N90" s="97"/>
+      <c r="O90" s="97"/>
+      <c r="P90" s="97"/>
+    </row>
+    <row r="91" spans="1:16" s="28" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A91" s="87" t="s">
+        <v>505</v>
+      </c>
+      <c r="B91" s="87"/>
+      <c r="C91" s="87"/>
+      <c r="D91" s="87"/>
+      <c r="E91" s="87"/>
+      <c r="F91" s="87"/>
+      <c r="G91" s="87"/>
+      <c r="H91" s="87"/>
+      <c r="I91" s="87"/>
+      <c r="J91" s="87"/>
+      <c r="K91" s="87"/>
+      <c r="L91" s="87"/>
+      <c r="M91" s="87"/>
+      <c r="N91" s="87"/>
+      <c r="O91" s="87"/>
+      <c r="P91" s="87"/>
+    </row>
+    <row r="92" spans="1:16" s="28" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A92" s="85" t="s">
+        <v>504</v>
+      </c>
+      <c r="B92" s="85"/>
+      <c r="C92" s="85"/>
+      <c r="D92" s="85"/>
+      <c r="E92" s="85"/>
+      <c r="F92" s="85"/>
+      <c r="G92" s="85"/>
+      <c r="H92" s="85"/>
+      <c r="I92" s="85"/>
+      <c r="J92" s="85"/>
+      <c r="K92" s="85"/>
+      <c r="L92" s="85"/>
+      <c r="M92" s="85"/>
+      <c r="N92" s="85"/>
+      <c r="O92" s="85"/>
+      <c r="P92" s="85"/>
+    </row>
+    <row r="93" spans="1:16" s="28" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A93" s="85" t="s">
+        <v>503</v>
+      </c>
+      <c r="B93" s="85"/>
+      <c r="C93" s="85"/>
+      <c r="D93" s="85"/>
+      <c r="E93" s="85"/>
+      <c r="F93" s="85"/>
+      <c r="G93" s="85"/>
+      <c r="H93" s="85"/>
+      <c r="I93" s="85"/>
+      <c r="J93" s="85"/>
+      <c r="K93" s="85"/>
+      <c r="L93" s="85"/>
+      <c r="M93" s="85"/>
+      <c r="N93" s="85"/>
+      <c r="O93" s="85"/>
+      <c r="P93" s="85"/>
+    </row>
+    <row r="94" spans="1:16" s="28" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A94" s="85" t="s">
         <v>944</v>
       </c>
-      <c r="B73" s="84"/>
-      <c r="C73" s="84"/>
-      <c r="D73" s="84"/>
-      <c r="E73" s="84"/>
-      <c r="F73" s="84"/>
-      <c r="G73" s="84"/>
-      <c r="H73" s="84"/>
-      <c r="I73" s="84"/>
-      <c r="J73" s="84"/>
-      <c r="K73" s="84"/>
-      <c r="L73" s="84"/>
-      <c r="M73" s="84"/>
-      <c r="N73" s="84"/>
-      <c r="O73" s="84"/>
-      <c r="P73" s="84"/>
-    </row>
-    <row r="74" spans="1:16" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A74" s="86" t="s">
-        <v>517</v>
-      </c>
-      <c r="B74" s="86"/>
-      <c r="C74" s="86"/>
-      <c r="D74" s="86"/>
-      <c r="E74" s="86"/>
-      <c r="F74" s="86"/>
-      <c r="G74" s="86"/>
-      <c r="H74" s="86"/>
-      <c r="I74" s="86"/>
-      <c r="J74" s="86"/>
-      <c r="K74" s="86"/>
-      <c r="L74" s="86"/>
-      <c r="M74" s="86"/>
-      <c r="N74" s="86"/>
-      <c r="O74" s="86"/>
-      <c r="P74" s="86"/>
-    </row>
-    <row r="75" spans="1:16" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A75" s="88" t="s">
-        <v>516</v>
-      </c>
-      <c r="B75" s="88"/>
-      <c r="C75" s="88"/>
-      <c r="D75" s="88"/>
-      <c r="E75" s="88"/>
-      <c r="F75" s="88"/>
-      <c r="G75" s="88"/>
-      <c r="H75" s="88"/>
-      <c r="I75" s="88"/>
-      <c r="J75" s="88"/>
-      <c r="K75" s="88"/>
-      <c r="L75" s="88"/>
-      <c r="M75" s="88"/>
-      <c r="N75" s="88"/>
-      <c r="O75" s="88"/>
-      <c r="P75" s="88"/>
-    </row>
-    <row r="76" spans="1:16" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A76" s="83" t="s">
-        <v>515</v>
-      </c>
-      <c r="B76" s="83"/>
-      <c r="C76" s="83"/>
-      <c r="D76" s="83"/>
-      <c r="E76" s="83"/>
-      <c r="F76" s="83"/>
-      <c r="G76" s="83"/>
-      <c r="H76" s="83"/>
-      <c r="I76" s="83"/>
-      <c r="J76" s="83"/>
-      <c r="K76" s="83"/>
-      <c r="L76" s="83"/>
-      <c r="M76" s="83"/>
-      <c r="N76" s="83"/>
-      <c r="O76" s="83"/>
-      <c r="P76" s="83"/>
-    </row>
-    <row r="77" spans="1:16" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A77" s="96" t="s">
-        <v>509</v>
-      </c>
-      <c r="B77" s="96"/>
-      <c r="C77" s="96"/>
-      <c r="D77" s="96"/>
-      <c r="E77" s="96"/>
-      <c r="F77" s="96"/>
-      <c r="G77" s="96"/>
-      <c r="H77" s="96"/>
-      <c r="I77" s="96"/>
-      <c r="J77" s="96"/>
-      <c r="K77" s="96"/>
-      <c r="L77" s="96"/>
-      <c r="M77" s="96"/>
-      <c r="N77" s="96"/>
-      <c r="O77" s="96"/>
-      <c r="P77" s="96"/>
-    </row>
-    <row r="78" spans="1:16" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A78" s="95" t="s">
-        <v>514</v>
-      </c>
-      <c r="B78" s="95"/>
-      <c r="C78" s="95"/>
-      <c r="D78" s="95"/>
-      <c r="E78" s="95"/>
-      <c r="F78" s="95"/>
-      <c r="G78" s="95"/>
-      <c r="H78" s="95"/>
-      <c r="I78" s="95"/>
-      <c r="J78" s="95"/>
-      <c r="K78" s="95"/>
-      <c r="L78" s="95"/>
-      <c r="M78" s="95"/>
-      <c r="N78" s="95"/>
-      <c r="O78" s="95"/>
-      <c r="P78" s="95"/>
-    </row>
-    <row r="79" spans="1:16" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A79" s="96" t="s">
+      <c r="B94" s="85"/>
+      <c r="C94" s="85"/>
+      <c r="D94" s="85"/>
+      <c r="E94" s="85"/>
+      <c r="F94" s="85"/>
+      <c r="G94" s="85"/>
+      <c r="H94" s="85"/>
+      <c r="I94" s="85"/>
+      <c r="J94" s="85"/>
+      <c r="K94" s="85"/>
+      <c r="L94" s="85"/>
+      <c r="M94" s="85"/>
+      <c r="N94" s="85"/>
+      <c r="O94" s="85"/>
+      <c r="P94" s="85"/>
+    </row>
+    <row r="95" spans="1:16" s="28" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A95" s="87" t="s">
+        <v>502</v>
+      </c>
+      <c r="B95" s="87"/>
+      <c r="C95" s="87"/>
+      <c r="D95" s="87"/>
+      <c r="E95" s="87"/>
+      <c r="F95" s="87"/>
+      <c r="G95" s="87"/>
+      <c r="H95" s="87"/>
+      <c r="I95" s="87"/>
+      <c r="J95" s="87"/>
+      <c r="K95" s="87"/>
+      <c r="L95" s="87"/>
+      <c r="M95" s="87"/>
+      <c r="N95" s="87"/>
+      <c r="O95" s="87"/>
+      <c r="P95" s="87"/>
+    </row>
+    <row r="96" spans="1:16" s="28" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A96" s="85" t="s">
         <v>945</v>
       </c>
-      <c r="B79" s="96"/>
-      <c r="C79" s="96"/>
-      <c r="D79" s="96"/>
-      <c r="E79" s="96"/>
-      <c r="F79" s="96"/>
-      <c r="G79" s="96"/>
-      <c r="H79" s="96"/>
-      <c r="I79" s="96"/>
-      <c r="J79" s="96"/>
-      <c r="K79" s="96"/>
-      <c r="L79" s="96"/>
-      <c r="M79" s="96"/>
-      <c r="N79" s="96"/>
-      <c r="O79" s="96"/>
-      <c r="P79" s="96"/>
-    </row>
-    <row r="80" spans="1:16" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A80" s="88" t="s">
-        <v>513</v>
-      </c>
-      <c r="B80" s="88"/>
-      <c r="C80" s="88"/>
-      <c r="D80" s="88"/>
-      <c r="E80" s="88"/>
-      <c r="F80" s="88"/>
-      <c r="G80" s="88"/>
-      <c r="H80" s="88"/>
-      <c r="I80" s="88"/>
-      <c r="J80" s="88"/>
-      <c r="K80" s="88"/>
-      <c r="L80" s="88"/>
-      <c r="M80" s="88"/>
-      <c r="N80" s="88"/>
-      <c r="O80" s="88"/>
-      <c r="P80" s="88"/>
-    </row>
-    <row r="81" spans="1:16" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A81" s="83" t="s">
-        <v>512</v>
-      </c>
-      <c r="B81" s="83"/>
-      <c r="C81" s="83"/>
-      <c r="D81" s="83"/>
-      <c r="E81" s="83"/>
-      <c r="F81" s="83"/>
-      <c r="G81" s="83"/>
-      <c r="H81" s="83"/>
-      <c r="I81" s="83"/>
-      <c r="J81" s="83"/>
-      <c r="K81" s="83"/>
-      <c r="L81" s="83"/>
-      <c r="M81" s="83"/>
-      <c r="N81" s="83"/>
-      <c r="O81" s="83"/>
-      <c r="P81" s="83"/>
-    </row>
-    <row r="82" spans="1:16" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A82" s="96" t="s">
+      <c r="B96" s="85"/>
+      <c r="C96" s="85"/>
+      <c r="D96" s="85"/>
+      <c r="E96" s="85"/>
+      <c r="F96" s="85"/>
+      <c r="G96" s="85"/>
+      <c r="H96" s="85"/>
+      <c r="I96" s="85"/>
+      <c r="J96" s="85"/>
+      <c r="K96" s="85"/>
+      <c r="L96" s="85"/>
+      <c r="M96" s="85"/>
+      <c r="N96" s="85"/>
+      <c r="O96" s="85"/>
+      <c r="P96" s="85"/>
+    </row>
+    <row r="97" spans="1:20" s="29" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A97" s="85" t="s">
+        <v>945</v>
+      </c>
+      <c r="B97" s="85"/>
+      <c r="C97" s="85"/>
+      <c r="D97" s="85"/>
+      <c r="E97" s="85"/>
+      <c r="F97" s="85"/>
+      <c r="G97" s="85"/>
+      <c r="H97" s="85"/>
+      <c r="I97" s="85"/>
+      <c r="J97" s="85"/>
+      <c r="K97" s="85"/>
+      <c r="L97" s="85"/>
+      <c r="M97" s="85"/>
+      <c r="N97" s="85"/>
+      <c r="O97" s="85"/>
+      <c r="P97" s="85"/>
+    </row>
+    <row r="98" spans="1:20" s="28" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A98" s="87" t="s">
+        <v>500</v>
+      </c>
+      <c r="B98" s="87"/>
+      <c r="C98" s="87"/>
+      <c r="D98" s="87"/>
+      <c r="E98" s="87"/>
+      <c r="F98" s="87"/>
+      <c r="G98" s="87"/>
+      <c r="H98" s="87"/>
+      <c r="I98" s="87"/>
+      <c r="J98" s="87"/>
+      <c r="K98" s="87"/>
+      <c r="L98" s="87"/>
+      <c r="M98" s="87"/>
+      <c r="N98" s="87"/>
+      <c r="O98" s="87"/>
+      <c r="P98" s="87"/>
+    </row>
+    <row r="99" spans="1:20" s="28" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A99" s="89" t="s">
+        <v>499</v>
+      </c>
+      <c r="B99" s="89"/>
+      <c r="C99" s="89"/>
+      <c r="D99" s="89"/>
+      <c r="E99" s="89"/>
+      <c r="F99" s="89"/>
+      <c r="G99" s="89"/>
+      <c r="H99" s="89"/>
+      <c r="I99" s="89"/>
+      <c r="J99" s="89"/>
+      <c r="K99" s="89"/>
+      <c r="L99" s="89"/>
+      <c r="M99" s="89"/>
+      <c r="N99" s="89"/>
+      <c r="O99" s="89"/>
+      <c r="P99" s="89"/>
+    </row>
+    <row r="100" spans="1:20" s="28" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A100" s="85" t="s">
+        <v>498</v>
+      </c>
+      <c r="B100" s="85"/>
+      <c r="C100" s="85"/>
+      <c r="D100" s="85"/>
+      <c r="E100" s="85"/>
+      <c r="F100" s="85"/>
+      <c r="G100" s="85"/>
+      <c r="H100" s="85"/>
+      <c r="I100" s="85"/>
+      <c r="J100" s="85"/>
+      <c r="K100" s="85"/>
+      <c r="L100" s="85"/>
+      <c r="M100" s="85"/>
+      <c r="N100" s="85"/>
+      <c r="O100" s="85"/>
+      <c r="P100" s="85"/>
+    </row>
+    <row r="101" spans="1:20" s="28" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A101" s="85" t="s">
+        <v>497</v>
+      </c>
+      <c r="B101" s="85"/>
+      <c r="C101" s="85"/>
+      <c r="D101" s="85"/>
+      <c r="E101" s="85"/>
+      <c r="F101" s="85"/>
+      <c r="G101" s="85"/>
+      <c r="H101" s="85"/>
+      <c r="I101" s="85"/>
+      <c r="J101" s="85"/>
+      <c r="K101" s="85"/>
+      <c r="L101" s="85"/>
+      <c r="M101" s="85"/>
+      <c r="N101" s="85"/>
+      <c r="O101" s="85"/>
+      <c r="P101" s="85"/>
+    </row>
+    <row r="102" spans="1:20" s="28" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A102" s="85" t="s">
         <v>946</v>
       </c>
-      <c r="B82" s="96"/>
-      <c r="C82" s="96"/>
-      <c r="D82" s="96"/>
-      <c r="E82" s="96"/>
-      <c r="F82" s="96"/>
-      <c r="G82" s="96"/>
-      <c r="H82" s="96"/>
-      <c r="I82" s="96"/>
-      <c r="J82" s="96"/>
-      <c r="K82" s="96"/>
-      <c r="L82" s="96"/>
-      <c r="M82" s="96"/>
-      <c r="N82" s="96"/>
-      <c r="O82" s="96"/>
-      <c r="P82" s="96"/>
-    </row>
-    <row r="83" spans="1:16" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A83" s="88" t="s">
-        <v>511</v>
-      </c>
-      <c r="B83" s="88"/>
-      <c r="C83" s="88"/>
-      <c r="D83" s="88"/>
-      <c r="E83" s="88"/>
-      <c r="F83" s="88"/>
-      <c r="G83" s="88"/>
-      <c r="H83" s="88"/>
-      <c r="I83" s="88"/>
-      <c r="J83" s="88"/>
-      <c r="K83" s="88"/>
-      <c r="L83" s="88"/>
-      <c r="M83" s="88"/>
-      <c r="N83" s="88"/>
-      <c r="O83" s="88"/>
-      <c r="P83" s="88"/>
-    </row>
-    <row r="84" spans="1:16" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A84" s="83" t="s">
-        <v>510</v>
-      </c>
-      <c r="B84" s="83"/>
-      <c r="C84" s="83"/>
-      <c r="D84" s="83"/>
-      <c r="E84" s="83"/>
-      <c r="F84" s="83"/>
-      <c r="G84" s="83"/>
-      <c r="H84" s="83"/>
-      <c r="I84" s="83"/>
-      <c r="J84" s="83"/>
-      <c r="K84" s="83"/>
-      <c r="L84" s="83"/>
-      <c r="M84" s="83"/>
-      <c r="N84" s="83"/>
-      <c r="O84" s="83"/>
-      <c r="P84" s="83"/>
-    </row>
-    <row r="85" spans="1:16" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A85" s="96" t="s">
-        <v>509</v>
-      </c>
-      <c r="B85" s="96"/>
-      <c r="C85" s="96"/>
-      <c r="D85" s="96"/>
-      <c r="E85" s="96"/>
-      <c r="F85" s="96"/>
-      <c r="G85" s="96"/>
-      <c r="H85" s="96"/>
-      <c r="I85" s="96"/>
-      <c r="J85" s="96"/>
-      <c r="K85" s="96"/>
-      <c r="L85" s="96"/>
-      <c r="M85" s="96"/>
-      <c r="N85" s="96"/>
-      <c r="O85" s="96"/>
-      <c r="P85" s="96"/>
-    </row>
-    <row r="86" spans="1:16" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A86" s="95" t="s">
-        <v>508</v>
-      </c>
-      <c r="B86" s="95"/>
-      <c r="C86" s="95"/>
-      <c r="D86" s="95"/>
-      <c r="E86" s="95"/>
-      <c r="F86" s="95"/>
-      <c r="G86" s="95"/>
-      <c r="H86" s="95"/>
-      <c r="I86" s="95"/>
-      <c r="J86" s="95"/>
-      <c r="K86" s="95"/>
-      <c r="L86" s="95"/>
-      <c r="M86" s="95"/>
-      <c r="N86" s="95"/>
-      <c r="O86" s="95"/>
-      <c r="P86" s="95"/>
-    </row>
-    <row r="87" spans="1:16" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A87" s="96" t="s">
+      <c r="B102" s="85"/>
+      <c r="C102" s="85"/>
+      <c r="D102" s="85"/>
+      <c r="E102" s="85"/>
+      <c r="F102" s="85"/>
+      <c r="G102" s="85"/>
+      <c r="H102" s="85"/>
+      <c r="I102" s="85"/>
+      <c r="J102" s="85"/>
+      <c r="K102" s="85"/>
+      <c r="L102" s="85"/>
+      <c r="M102" s="85"/>
+      <c r="N102" s="85"/>
+      <c r="O102" s="85"/>
+      <c r="P102" s="85"/>
+    </row>
+    <row r="103" spans="1:20" s="28" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A103" s="87" t="s">
+        <v>496</v>
+      </c>
+      <c r="B103" s="87"/>
+      <c r="C103" s="87"/>
+      <c r="D103" s="87"/>
+      <c r="E103" s="87"/>
+      <c r="F103" s="87"/>
+      <c r="G103" s="87"/>
+      <c r="H103" s="87"/>
+      <c r="I103" s="87"/>
+      <c r="J103" s="87"/>
+      <c r="K103" s="87"/>
+      <c r="L103" s="87"/>
+      <c r="M103" s="87"/>
+      <c r="N103" s="87"/>
+      <c r="O103" s="87"/>
+      <c r="P103" s="87"/>
+    </row>
+    <row r="104" spans="1:20" s="28" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A104" s="89" t="s">
+        <v>495</v>
+      </c>
+      <c r="B104" s="89"/>
+      <c r="C104" s="89"/>
+      <c r="D104" s="89"/>
+      <c r="E104" s="89"/>
+      <c r="F104" s="89"/>
+      <c r="G104" s="89"/>
+      <c r="H104" s="89"/>
+      <c r="I104" s="89"/>
+      <c r="J104" s="89"/>
+      <c r="K104" s="89"/>
+      <c r="L104" s="89"/>
+      <c r="M104" s="89"/>
+      <c r="N104" s="89"/>
+      <c r="O104" s="89"/>
+      <c r="P104" s="89"/>
+    </row>
+    <row r="105" spans="1:20" s="28" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A105" s="84" t="s">
         <v>947</v>
       </c>
-      <c r="B87" s="96"/>
-      <c r="C87" s="96"/>
-      <c r="D87" s="96"/>
-      <c r="E87" s="96"/>
-      <c r="F87" s="96"/>
-      <c r="G87" s="96"/>
-      <c r="H87" s="96"/>
-      <c r="I87" s="96"/>
-      <c r="J87" s="96"/>
-      <c r="K87" s="96"/>
-      <c r="L87" s="96"/>
-      <c r="M87" s="96"/>
-      <c r="N87" s="96"/>
-      <c r="O87" s="96"/>
-      <c r="P87" s="96"/>
-    </row>
-    <row r="88" spans="1:16" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A88" s="88" t="s">
-        <v>507</v>
-      </c>
-      <c r="B88" s="88"/>
-      <c r="C88" s="88"/>
-      <c r="D88" s="88"/>
-      <c r="E88" s="88"/>
-      <c r="F88" s="88"/>
-      <c r="G88" s="88"/>
-      <c r="H88" s="88"/>
-      <c r="I88" s="88"/>
-      <c r="J88" s="88"/>
-      <c r="K88" s="88"/>
-      <c r="L88" s="88"/>
-      <c r="M88" s="88"/>
-      <c r="N88" s="88"/>
-      <c r="O88" s="88"/>
-      <c r="P88" s="88"/>
-    </row>
-    <row r="89" spans="1:16" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A89" s="83" t="s">
-        <v>506</v>
-      </c>
-      <c r="B89" s="83"/>
-      <c r="C89" s="83"/>
-      <c r="D89" s="83"/>
-      <c r="E89" s="83"/>
-      <c r="F89" s="83"/>
-      <c r="G89" s="83"/>
-      <c r="H89" s="83"/>
-      <c r="I89" s="83"/>
-      <c r="J89" s="83"/>
-      <c r="K89" s="83"/>
-      <c r="L89" s="83"/>
-      <c r="M89" s="83"/>
-      <c r="N89" s="83"/>
-      <c r="O89" s="83"/>
-      <c r="P89" s="83"/>
-    </row>
-    <row r="90" spans="1:16" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A90" s="96" t="s">
-        <v>946</v>
-      </c>
-      <c r="B90" s="96"/>
-      <c r="C90" s="96"/>
-      <c r="D90" s="96"/>
-      <c r="E90" s="96"/>
-      <c r="F90" s="96"/>
-      <c r="G90" s="96"/>
-      <c r="H90" s="96"/>
-      <c r="I90" s="96"/>
-      <c r="J90" s="96"/>
-      <c r="K90" s="96"/>
-      <c r="L90" s="96"/>
-      <c r="M90" s="96"/>
-      <c r="N90" s="96"/>
-      <c r="O90" s="96"/>
-      <c r="P90" s="96"/>
-    </row>
-    <row r="91" spans="1:16" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A91" s="86" t="s">
-        <v>505</v>
-      </c>
-      <c r="B91" s="86"/>
-      <c r="C91" s="86"/>
-      <c r="D91" s="86"/>
-      <c r="E91" s="86"/>
-      <c r="F91" s="86"/>
-      <c r="G91" s="86"/>
-      <c r="H91" s="86"/>
-      <c r="I91" s="86"/>
-      <c r="J91" s="86"/>
-      <c r="K91" s="86"/>
-      <c r="L91" s="86"/>
-      <c r="M91" s="86"/>
-      <c r="N91" s="86"/>
-      <c r="O91" s="86"/>
-      <c r="P91" s="86"/>
-    </row>
-    <row r="92" spans="1:16" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A92" s="84" t="s">
-        <v>504</v>
-      </c>
-      <c r="B92" s="84"/>
-      <c r="C92" s="84"/>
-      <c r="D92" s="84"/>
-      <c r="E92" s="84"/>
-      <c r="F92" s="84"/>
-      <c r="G92" s="84"/>
-      <c r="H92" s="84"/>
-      <c r="I92" s="84"/>
-      <c r="J92" s="84"/>
-      <c r="K92" s="84"/>
-      <c r="L92" s="84"/>
-      <c r="M92" s="84"/>
-      <c r="N92" s="84"/>
-      <c r="O92" s="84"/>
-      <c r="P92" s="84"/>
-    </row>
-    <row r="93" spans="1:16" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A93" s="84" t="s">
-        <v>503</v>
-      </c>
-      <c r="B93" s="84"/>
-      <c r="C93" s="84"/>
-      <c r="D93" s="84"/>
-      <c r="E93" s="84"/>
-      <c r="F93" s="84"/>
-      <c r="G93" s="84"/>
-      <c r="H93" s="84"/>
-      <c r="I93" s="84"/>
-      <c r="J93" s="84"/>
-      <c r="K93" s="84"/>
-      <c r="L93" s="84"/>
-      <c r="M93" s="84"/>
-      <c r="N93" s="84"/>
-      <c r="O93" s="84"/>
-      <c r="P93" s="84"/>
-    </row>
-    <row r="94" spans="1:16" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A94" s="84" t="s">
+      <c r="B105" s="84"/>
+      <c r="C105" s="84"/>
+      <c r="D105" s="84"/>
+      <c r="E105" s="84"/>
+      <c r="F105" s="84"/>
+      <c r="G105" s="84"/>
+      <c r="H105" s="84"/>
+      <c r="I105" s="84"/>
+      <c r="J105" s="84"/>
+      <c r="K105" s="84"/>
+      <c r="L105" s="84"/>
+      <c r="M105" s="84"/>
+      <c r="N105" s="84"/>
+      <c r="O105" s="84"/>
+      <c r="P105" s="84"/>
+    </row>
+    <row r="106" spans="1:20" s="28" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A106" s="84" t="s">
         <v>948</v>
       </c>
-      <c r="B94" s="84"/>
-      <c r="C94" s="84"/>
-      <c r="D94" s="84"/>
-      <c r="E94" s="84"/>
-      <c r="F94" s="84"/>
-      <c r="G94" s="84"/>
-      <c r="H94" s="84"/>
-      <c r="I94" s="84"/>
-      <c r="J94" s="84"/>
-      <c r="K94" s="84"/>
-      <c r="L94" s="84"/>
-      <c r="M94" s="84"/>
-      <c r="N94" s="84"/>
-      <c r="O94" s="84"/>
-      <c r="P94" s="84"/>
-    </row>
-    <row r="95" spans="1:16" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A95" s="86" t="s">
-        <v>502</v>
-      </c>
-      <c r="B95" s="86"/>
-      <c r="C95" s="86"/>
-      <c r="D95" s="86"/>
-      <c r="E95" s="86"/>
-      <c r="F95" s="86"/>
-      <c r="G95" s="86"/>
-      <c r="H95" s="86"/>
-      <c r="I95" s="86"/>
-      <c r="J95" s="86"/>
-      <c r="K95" s="86"/>
-      <c r="L95" s="86"/>
-      <c r="M95" s="86"/>
-      <c r="N95" s="86"/>
-      <c r="O95" s="86"/>
-      <c r="P95" s="86"/>
-    </row>
-    <row r="96" spans="1:16" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A96" s="84" t="s">
+      <c r="B106" s="84"/>
+      <c r="C106" s="84"/>
+      <c r="D106" s="84"/>
+      <c r="E106" s="84"/>
+      <c r="F106" s="84"/>
+      <c r="G106" s="84"/>
+      <c r="H106" s="84"/>
+      <c r="I106" s="84"/>
+      <c r="J106" s="84"/>
+      <c r="K106" s="84"/>
+      <c r="L106" s="84"/>
+      <c r="M106" s="84"/>
+      <c r="N106" s="84"/>
+      <c r="O106" s="84"/>
+      <c r="P106" s="84"/>
+    </row>
+    <row r="107" spans="1:20" s="28" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A107" s="89" t="s">
+        <v>494</v>
+      </c>
+      <c r="B107" s="89"/>
+      <c r="C107" s="89"/>
+      <c r="D107" s="89"/>
+      <c r="E107" s="89"/>
+      <c r="F107" s="89"/>
+      <c r="G107" s="89"/>
+      <c r="H107" s="89"/>
+      <c r="I107" s="89"/>
+      <c r="J107" s="89"/>
+      <c r="K107" s="89"/>
+      <c r="L107" s="89"/>
+      <c r="M107" s="89"/>
+      <c r="N107" s="89"/>
+      <c r="O107" s="89"/>
+      <c r="P107" s="89"/>
+    </row>
+    <row r="108" spans="1:20" s="28" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A108" s="104" t="s">
+        <v>493</v>
+      </c>
+      <c r="B108" s="104"/>
+      <c r="C108" s="104"/>
+      <c r="D108" s="104"/>
+      <c r="E108" s="104"/>
+      <c r="F108" s="104"/>
+      <c r="G108" s="104"/>
+      <c r="H108" s="104"/>
+      <c r="I108" s="104"/>
+      <c r="J108" s="104"/>
+      <c r="K108" s="104"/>
+      <c r="L108" s="104"/>
+      <c r="M108" s="104"/>
+      <c r="N108" s="104"/>
+      <c r="O108" s="104"/>
+      <c r="P108" s="104"/>
+    </row>
+    <row r="109" spans="1:20" s="28" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A109" s="105" t="s">
         <v>949</v>
       </c>
-      <c r="B96" s="84"/>
-      <c r="C96" s="84"/>
-      <c r="D96" s="84"/>
-      <c r="E96" s="84"/>
-      <c r="F96" s="84"/>
-      <c r="G96" s="84"/>
-      <c r="H96" s="84"/>
-      <c r="I96" s="84"/>
-      <c r="J96" s="84"/>
-      <c r="K96" s="84"/>
-      <c r="L96" s="84"/>
-      <c r="M96" s="84"/>
-      <c r="N96" s="84"/>
-      <c r="O96" s="84"/>
-      <c r="P96" s="84"/>
-    </row>
-    <row r="97" spans="1:20" s="29" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A97" s="84" t="s">
-        <v>949</v>
-      </c>
-      <c r="B97" s="84"/>
-      <c r="C97" s="84"/>
-      <c r="D97" s="84"/>
-      <c r="E97" s="84"/>
-      <c r="F97" s="84"/>
-      <c r="G97" s="84"/>
-      <c r="H97" s="84"/>
-      <c r="I97" s="84"/>
-      <c r="J97" s="84"/>
-      <c r="K97" s="84"/>
-      <c r="L97" s="84"/>
-      <c r="M97" s="84"/>
-      <c r="N97" s="84"/>
-      <c r="O97" s="84"/>
-      <c r="P97" s="84"/>
-    </row>
-    <row r="98" spans="1:20" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A98" s="86" t="s">
-        <v>500</v>
-      </c>
-      <c r="B98" s="86"/>
-      <c r="C98" s="86"/>
-      <c r="D98" s="86"/>
-      <c r="E98" s="86"/>
-      <c r="F98" s="86"/>
-      <c r="G98" s="86"/>
-      <c r="H98" s="86"/>
-      <c r="I98" s="86"/>
-      <c r="J98" s="86"/>
-      <c r="K98" s="86"/>
-      <c r="L98" s="86"/>
-      <c r="M98" s="86"/>
-      <c r="N98" s="86"/>
-      <c r="O98" s="86"/>
-      <c r="P98" s="86"/>
-    </row>
-    <row r="99" spans="1:20" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A99" s="88" t="s">
-        <v>499</v>
-      </c>
-      <c r="B99" s="88"/>
-      <c r="C99" s="88"/>
-      <c r="D99" s="88"/>
-      <c r="E99" s="88"/>
-      <c r="F99" s="88"/>
-      <c r="G99" s="88"/>
-      <c r="H99" s="88"/>
-      <c r="I99" s="88"/>
-      <c r="J99" s="88"/>
-      <c r="K99" s="88"/>
-      <c r="L99" s="88"/>
-      <c r="M99" s="88"/>
-      <c r="N99" s="88"/>
-      <c r="O99" s="88"/>
-      <c r="P99" s="88"/>
-    </row>
-    <row r="100" spans="1:20" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A100" s="84" t="s">
-        <v>498</v>
-      </c>
-      <c r="B100" s="84"/>
-      <c r="C100" s="84"/>
-      <c r="D100" s="84"/>
-      <c r="E100" s="84"/>
-      <c r="F100" s="84"/>
-      <c r="G100" s="84"/>
-      <c r="H100" s="84"/>
-      <c r="I100" s="84"/>
-      <c r="J100" s="84"/>
-      <c r="K100" s="84"/>
-      <c r="L100" s="84"/>
-      <c r="M100" s="84"/>
-      <c r="N100" s="84"/>
-      <c r="O100" s="84"/>
-      <c r="P100" s="84"/>
-    </row>
-    <row r="101" spans="1:20" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A101" s="84" t="s">
-        <v>497</v>
-      </c>
-      <c r="B101" s="84"/>
-      <c r="C101" s="84"/>
-      <c r="D101" s="84"/>
-      <c r="E101" s="84"/>
-      <c r="F101" s="84"/>
-      <c r="G101" s="84"/>
-      <c r="H101" s="84"/>
-      <c r="I101" s="84"/>
-      <c r="J101" s="84"/>
-      <c r="K101" s="84"/>
-      <c r="L101" s="84"/>
-      <c r="M101" s="84"/>
-      <c r="N101" s="84"/>
-      <c r="O101" s="84"/>
-      <c r="P101" s="84"/>
-    </row>
-    <row r="102" spans="1:20" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A102" s="84" t="s">
+      <c r="B109" s="105"/>
+      <c r="C109" s="105"/>
+      <c r="D109" s="105"/>
+      <c r="E109" s="105"/>
+      <c r="F109" s="105"/>
+      <c r="G109" s="105"/>
+      <c r="H109" s="105"/>
+      <c r="I109" s="105"/>
+      <c r="J109" s="105"/>
+      <c r="K109" s="105"/>
+      <c r="L109" s="105"/>
+      <c r="M109" s="105"/>
+      <c r="N109" s="105"/>
+      <c r="O109" s="105"/>
+      <c r="P109" s="105"/>
+    </row>
+    <row r="110" spans="1:20" s="28" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A110" s="89" t="s">
+        <v>492</v>
+      </c>
+      <c r="B110" s="89"/>
+      <c r="C110" s="89"/>
+      <c r="D110" s="89"/>
+      <c r="E110" s="89"/>
+      <c r="F110" s="89"/>
+      <c r="G110" s="89"/>
+      <c r="H110" s="89"/>
+      <c r="I110" s="89"/>
+      <c r="J110" s="89"/>
+      <c r="K110" s="89"/>
+      <c r="L110" s="89"/>
+      <c r="M110" s="89"/>
+      <c r="N110" s="89"/>
+      <c r="O110" s="89"/>
+      <c r="P110" s="89"/>
+    </row>
+    <row r="111" spans="1:20" s="28" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A111" s="85" t="s">
         <v>950</v>
       </c>
-      <c r="B102" s="84"/>
-      <c r="C102" s="84"/>
-      <c r="D102" s="84"/>
-      <c r="E102" s="84"/>
-      <c r="F102" s="84"/>
-      <c r="G102" s="84"/>
-      <c r="H102" s="84"/>
-      <c r="I102" s="84"/>
-      <c r="J102" s="84"/>
-      <c r="K102" s="84"/>
-      <c r="L102" s="84"/>
-      <c r="M102" s="84"/>
-      <c r="N102" s="84"/>
-      <c r="O102" s="84"/>
-      <c r="P102" s="84"/>
-    </row>
-    <row r="103" spans="1:20" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A103" s="86" t="s">
-        <v>496</v>
-      </c>
-      <c r="B103" s="86"/>
-      <c r="C103" s="86"/>
-      <c r="D103" s="86"/>
-      <c r="E103" s="86"/>
-      <c r="F103" s="86"/>
-      <c r="G103" s="86"/>
-      <c r="H103" s="86"/>
-      <c r="I103" s="86"/>
-      <c r="J103" s="86"/>
-      <c r="K103" s="86"/>
-      <c r="L103" s="86"/>
-      <c r="M103" s="86"/>
-      <c r="N103" s="86"/>
-      <c r="O103" s="86"/>
-      <c r="P103" s="86"/>
-    </row>
-    <row r="104" spans="1:20" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A104" s="88" t="s">
-        <v>495</v>
-      </c>
-      <c r="B104" s="88"/>
-      <c r="C104" s="88"/>
-      <c r="D104" s="88"/>
-      <c r="E104" s="88"/>
-      <c r="F104" s="88"/>
-      <c r="G104" s="88"/>
-      <c r="H104" s="88"/>
-      <c r="I104" s="88"/>
-      <c r="J104" s="88"/>
-      <c r="K104" s="88"/>
-      <c r="L104" s="88"/>
-      <c r="M104" s="88"/>
-      <c r="N104" s="88"/>
-      <c r="O104" s="88"/>
-      <c r="P104" s="88"/>
-    </row>
-    <row r="105" spans="1:20" s="28" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A105" s="83" t="s">
-        <v>951</v>
-      </c>
-      <c r="B105" s="83"/>
-      <c r="C105" s="83"/>
-      <c r="D105" s="83"/>
-      <c r="E105" s="83"/>
-      <c r="F105" s="83"/>
-      <c r="G105" s="83"/>
-      <c r="H105" s="83"/>
-      <c r="I105" s="83"/>
-      <c r="J105" s="83"/>
-      <c r="K105" s="83"/>
-      <c r="L105" s="83"/>
-      <c r="M105" s="83"/>
-      <c r="N105" s="83"/>
-      <c r="O105" s="83"/>
-      <c r="P105" s="83"/>
-    </row>
-    <row r="106" spans="1:20" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A106" s="83" t="s">
-        <v>952</v>
-      </c>
-      <c r="B106" s="83"/>
-      <c r="C106" s="83"/>
-      <c r="D106" s="83"/>
-      <c r="E106" s="83"/>
-      <c r="F106" s="83"/>
-      <c r="G106" s="83"/>
-      <c r="H106" s="83"/>
-      <c r="I106" s="83"/>
-      <c r="J106" s="83"/>
-      <c r="K106" s="83"/>
-      <c r="L106" s="83"/>
-      <c r="M106" s="83"/>
-      <c r="N106" s="83"/>
-      <c r="O106" s="83"/>
-      <c r="P106" s="83"/>
-    </row>
-    <row r="107" spans="1:20" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A107" s="88" t="s">
-        <v>494</v>
-      </c>
-      <c r="B107" s="88"/>
-      <c r="C107" s="88"/>
-      <c r="D107" s="88"/>
-      <c r="E107" s="88"/>
-      <c r="F107" s="88"/>
-      <c r="G107" s="88"/>
-      <c r="H107" s="88"/>
-      <c r="I107" s="88"/>
-      <c r="J107" s="88"/>
-      <c r="K107" s="88"/>
-      <c r="L107" s="88"/>
-      <c r="M107" s="88"/>
-      <c r="N107" s="88"/>
-      <c r="O107" s="88"/>
-      <c r="P107" s="88"/>
-    </row>
-    <row r="108" spans="1:20" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A108" s="103" t="s">
-        <v>493</v>
-      </c>
-      <c r="B108" s="103"/>
-      <c r="C108" s="103"/>
-      <c r="D108" s="103"/>
-      <c r="E108" s="103"/>
-      <c r="F108" s="103"/>
-      <c r="G108" s="103"/>
-      <c r="H108" s="103"/>
-      <c r="I108" s="103"/>
-      <c r="J108" s="103"/>
-      <c r="K108" s="103"/>
-      <c r="L108" s="103"/>
-      <c r="M108" s="103"/>
-      <c r="N108" s="103"/>
-      <c r="O108" s="103"/>
-      <c r="P108" s="103"/>
-    </row>
-    <row r="109" spans="1:20" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A109" s="104" t="s">
-        <v>953</v>
-      </c>
-      <c r="B109" s="104"/>
-      <c r="C109" s="104"/>
-      <c r="D109" s="104"/>
-      <c r="E109" s="104"/>
-      <c r="F109" s="104"/>
-      <c r="G109" s="104"/>
-      <c r="H109" s="104"/>
-      <c r="I109" s="104"/>
-      <c r="J109" s="104"/>
-      <c r="K109" s="104"/>
-      <c r="L109" s="104"/>
-      <c r="M109" s="104"/>
-      <c r="N109" s="104"/>
-      <c r="O109" s="104"/>
-      <c r="P109" s="104"/>
-    </row>
-    <row r="110" spans="1:20" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A110" s="88" t="s">
-        <v>492</v>
-      </c>
-      <c r="B110" s="88"/>
-      <c r="C110" s="88"/>
-      <c r="D110" s="88"/>
-      <c r="E110" s="88"/>
-      <c r="F110" s="88"/>
-      <c r="G110" s="88"/>
-      <c r="H110" s="88"/>
-      <c r="I110" s="88"/>
-      <c r="J110" s="88"/>
-      <c r="K110" s="88"/>
-      <c r="L110" s="88"/>
-      <c r="M110" s="88"/>
-      <c r="N110" s="88"/>
-      <c r="O110" s="88"/>
-      <c r="P110" s="88"/>
-    </row>
-    <row r="111" spans="1:20" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A111" s="84" t="s">
-        <v>954</v>
-      </c>
-      <c r="B111" s="84"/>
-      <c r="C111" s="84"/>
-      <c r="D111" s="84"/>
-      <c r="E111" s="84"/>
-      <c r="F111" s="84"/>
-      <c r="G111" s="84"/>
-      <c r="H111" s="84"/>
-      <c r="I111" s="84"/>
-      <c r="J111" s="84"/>
-      <c r="K111" s="84"/>
-      <c r="L111" s="84"/>
-      <c r="M111" s="84"/>
-      <c r="N111" s="84"/>
-      <c r="O111" s="84"/>
-      <c r="P111" s="84"/>
+      <c r="B111" s="85"/>
+      <c r="C111" s="85"/>
+      <c r="D111" s="85"/>
+      <c r="E111" s="85"/>
+      <c r="F111" s="85"/>
+      <c r="G111" s="85"/>
+      <c r="H111" s="85"/>
+      <c r="I111" s="85"/>
+      <c r="J111" s="85"/>
+      <c r="K111" s="85"/>
+      <c r="L111" s="85"/>
+      <c r="M111" s="85"/>
+      <c r="N111" s="85"/>
+      <c r="O111" s="85"/>
+      <c r="P111" s="85"/>
     </row>
     <row r="112" spans="1:20" s="32" customFormat="1" ht="12.75" customHeight="1">
       <c r="A112" s="27"/>
@@ -86332,7 +86330,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -86340,30 +86338,30 @@
     </row>
     <row r="3" spans="1:7" ht="42.75">
       <c r="A3" s="76" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B3" s="76" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C3" s="76" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D3" s="76" t="s">
+        <v>1043</v>
+      </c>
+      <c r="E3" s="76" t="s">
         <v>1044</v>
       </c>
-      <c r="B3" s="76" t="s">
+      <c r="F3" s="76" t="s">
         <v>1045</v>
       </c>
-      <c r="C3" s="76" t="s">
+      <c r="G3" s="76" t="s">
         <v>1046</v>
-      </c>
-      <c r="D3" s="76" t="s">
-        <v>1047</v>
-      </c>
-      <c r="E3" s="76" t="s">
-        <v>1048</v>
-      </c>
-      <c r="F3" s="76" t="s">
-        <v>1049</v>
-      </c>
-      <c r="G3" s="76" t="s">
-        <v>1050</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="B4" s="13">
         <v>21611</v>
@@ -86386,7 +86384,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>1052</v>
+        <v>1048</v>
       </c>
       <c r="B5" s="13">
         <v>10147</v>
@@ -86409,7 +86407,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>1053</v>
+        <v>1049</v>
       </c>
       <c r="B6">
         <v>735</v>
@@ -86432,7 +86430,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
       <c r="B7">
         <v>854</v>
@@ -86455,7 +86453,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
       <c r="B8" s="13">
         <v>1704</v>
@@ -86478,7 +86476,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
       <c r="B9" s="13">
         <v>2508</v>
@@ -86501,7 +86499,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>1057</v>
+        <v>1053</v>
       </c>
       <c r="B10" s="13">
         <v>3916</v>
@@ -86524,7 +86522,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>1058</v>
+        <v>1054</v>
       </c>
       <c r="B11" s="13">
         <v>1747</v>

--- a/InputData/trans/SYVbT/Start Year Vehicles by Technology.xlsx
+++ b/InputData/trans/SYVbT/Start Year Vehicles by Technology.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\swenzel\Dropbox (Energy Innovation)\My PC (energy044)\Documents\GitHub_Repositories\eps-eu\InputData\trans\SYVbT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganM\Documents\eps-eu\InputData\trans\SYVbT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0D933C4-0A6D-420D-98EC-51C4E8D409F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="9765" tabRatio="923" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="9765" tabRatio="923" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -99,7 +98,7 @@
     <definedName name="ti_tbl_50">#REF!</definedName>
     <definedName name="ti_tbl_69">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029" calcMode="manual" iterate="1" iterateDelta="1.0000000000000001E-5"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -843,23 +842,23 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="13">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="#,##0.0"/>
-    <numFmt numFmtId="166" formatCode="###0.00_)"/>
-    <numFmt numFmtId="167" formatCode="#,##0_)"/>
-    <numFmt numFmtId="168" formatCode="#,##0;\-#,##0;&quot;-&quot;"/>
-    <numFmt numFmtId="170" formatCode="#,##0.000;\-#,##0.000;&quot;-&quot;"/>
-    <numFmt numFmtId="172" formatCode="#,##0.0;\-#,##0.0;&quot;-&quot;"/>
-    <numFmt numFmtId="173" formatCode="0.000%"/>
-    <numFmt numFmtId="174" formatCode="0.0%;\-0.0%;&quot;-&quot;"/>
-    <numFmt numFmtId="175" formatCode="0.00%;\-0.00%;&quot;-&quot;"/>
-    <numFmt numFmtId="176" formatCode="dd\.mm\.yy"/>
-    <numFmt numFmtId="180" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    <numFmt numFmtId="165" formatCode="###0.00_)"/>
+    <numFmt numFmtId="166" formatCode="#,##0_)"/>
+    <numFmt numFmtId="167" formatCode="#,##0;\-#,##0;&quot;-&quot;"/>
+    <numFmt numFmtId="168" formatCode="#,##0.000;\-#,##0.000;&quot;-&quot;"/>
+    <numFmt numFmtId="169" formatCode="#,##0.0;\-#,##0.0;&quot;-&quot;"/>
+    <numFmt numFmtId="170" formatCode="0.000%"/>
+    <numFmt numFmtId="171" formatCode="0.0%;\-0.0%;&quot;-&quot;"/>
+    <numFmt numFmtId="172" formatCode="0.00%;\-0.00%;&quot;-&quot;"/>
+    <numFmt numFmtId="173" formatCode="dd\.mm\.yy"/>
+    <numFmt numFmtId="174" formatCode="0.0"/>
   </numFmts>
-  <fonts count="57">
+  <fonts count="56">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1176,10 +1175,6 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial "/>
     </font>
     <font>
       <b/>
@@ -1757,16 +1752,16 @@
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0">
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="18" fillId="0" borderId="6">
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="6">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="6">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0">
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1855,7 +1850,7 @@
     <xf numFmtId="49" fontId="19" fillId="0" borderId="6">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" applyNumberFormat="0">
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" applyNumberFormat="0">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="27" borderId="0">
@@ -1929,28 +1924,28 @@
     <xf numFmtId="0" fontId="41" fillId="30" borderId="19" xfId="142" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="42" fillId="30" borderId="19" xfId="142" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="42" fillId="30" borderId="19" xfId="142" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="31" borderId="19" xfId="142" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="168" fontId="43" fillId="31" borderId="19" xfId="142" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="43" fillId="31" borderId="19" xfId="142" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="29" borderId="21" xfId="142" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="168" fontId="40" fillId="0" borderId="21" xfId="142" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="40" fillId="0" borderId="21" xfId="142" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="29" borderId="0" xfId="142" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
-    <xf numFmtId="168" fontId="40" fillId="0" borderId="0" xfId="142" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" xfId="142" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="40" fillId="0" borderId="7" xfId="142" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="40" fillId="0" borderId="7" xfId="142" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="142" applyFont="1" applyAlignment="1">
@@ -1959,13 +1954,82 @@
     <xf numFmtId="0" fontId="44" fillId="2" borderId="19" xfId="142" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="42" fillId="30" borderId="19" xfId="142" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="42" fillId="30" borderId="19" xfId="142" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="40" fillId="0" borderId="0" xfId="142" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="40" fillId="0" borderId="0" xfId="142" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="40" fillId="0" borderId="7" xfId="142" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="40" fillId="0" borderId="7" xfId="142" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="42" fillId="30" borderId="19" xfId="142" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="43" fillId="31" borderId="19" xfId="142" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="40" fillId="0" borderId="21" xfId="142" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="40" fillId="0" borderId="0" xfId="142" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="40" fillId="0" borderId="7" xfId="142" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="143"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="140" applyFont="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="141" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="40" fillId="29" borderId="22" xfId="142" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="167" fontId="40" fillId="0" borderId="22" xfId="142" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="29" borderId="23" xfId="142" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="167" fontId="40" fillId="0" borderId="23" xfId="142" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="29" borderId="0" xfId="142" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="29" borderId="7" xfId="142" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="169" fontId="40" fillId="0" borderId="22" xfId="142" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="40" fillId="0" borderId="23" xfId="142" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="46" fillId="2" borderId="19" xfId="142" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="42" fillId="30" borderId="19" xfId="142" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="43" fillId="31" borderId="19" xfId="142" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="40" fillId="0" borderId="22" xfId="142" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="40" fillId="0" borderId="21" xfId="142" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="40" fillId="0" borderId="0" xfId="142" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="40" fillId="0" borderId="23" xfId="142" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="40" fillId="0" borderId="7" xfId="142" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="172" fontId="42" fillId="30" borderId="19" xfId="142" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1974,127 +2038,58 @@
     <xf numFmtId="172" fontId="43" fillId="31" borderId="19" xfId="142" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="172" fontId="40" fillId="0" borderId="22" xfId="142" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="172" fontId="40" fillId="0" borderId="21" xfId="142" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="172" fontId="40" fillId="0" borderId="0" xfId="142" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="40" fillId="0" borderId="7" xfId="142" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="143"/>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="140" applyFont="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="141" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="40" fillId="29" borderId="22" xfId="142" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="168" fontId="40" fillId="0" borderId="22" xfId="142" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="29" borderId="23" xfId="142" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="168" fontId="40" fillId="0" borderId="23" xfId="142" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="29" borderId="0" xfId="142" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="29" borderId="7" xfId="142" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="172" fontId="40" fillId="0" borderId="22" xfId="142" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="172" fontId="40" fillId="0" borderId="23" xfId="142" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="46" fillId="2" borderId="19" xfId="142" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="174" fontId="42" fillId="30" borderId="19" xfId="142" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="174" fontId="43" fillId="31" borderId="19" xfId="142" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="174" fontId="40" fillId="0" borderId="22" xfId="142" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="174" fontId="40" fillId="0" borderId="21" xfId="142" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="174" fontId="40" fillId="0" borderId="0" xfId="142" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="174" fontId="40" fillId="0" borderId="23" xfId="142" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="174" fontId="40" fillId="0" borderId="7" xfId="142" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="42" fillId="30" borderId="19" xfId="142" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="43" fillId="31" borderId="19" xfId="142" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="40" fillId="0" borderId="22" xfId="142" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="40" fillId="0" borderId="21" xfId="142" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="40" fillId="0" borderId="0" xfId="142" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="40" fillId="0" borderId="23" xfId="142" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="40" fillId="0" borderId="7" xfId="142" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="40" fillId="0" borderId="7" xfId="142" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="31" borderId="20" xfId="142" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="168" fontId="43" fillId="31" borderId="20" xfId="142" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="43" fillId="31" borderId="20" xfId="142" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="31" borderId="21" xfId="142" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="168" fontId="43" fillId="31" borderId="21" xfId="142" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="43" fillId="31" borderId="21" xfId="142" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="43" fillId="31" borderId="20" xfId="142" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="43" fillId="31" borderId="20" xfId="142" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="40" fillId="29" borderId="0" xfId="142" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="40" fillId="29" borderId="0" xfId="142" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="43" fillId="31" borderId="21" xfId="142" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="43" fillId="31" borderId="21" xfId="142" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="42" fillId="30" borderId="19" xfId="141" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="42" fillId="30" borderId="19" xfId="141" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="43" fillId="31" borderId="20" xfId="141" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="43" fillId="31" borderId="20" xfId="141" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="40" fillId="0" borderId="0" xfId="141" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="40" fillId="0" borderId="0" xfId="141" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="43" fillId="31" borderId="21" xfId="141" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="43" fillId="31" borderId="21" xfId="141" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="40" fillId="0" borderId="0" xfId="141" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="40" fillId="0" borderId="0" xfId="141" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="40" fillId="0" borderId="7" xfId="141" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="40" fillId="0" borderId="7" xfId="141" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="47" fillId="29" borderId="0" xfId="142" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2104,7 +2099,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="144" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="32" borderId="24" xfId="144" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="48" fillId="0" borderId="0" xfId="144" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="144" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="173" fontId="7" fillId="0" borderId="0" xfId="144" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="39" fillId="28" borderId="19" xfId="142" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2125,16 +2120,16 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="52" fillId="28" borderId="25" xfId="142" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="28" borderId="25" xfId="142" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="53" fillId="28" borderId="25" xfId="142" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="52" fillId="28" borderId="25" xfId="142" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="54" fillId="0" borderId="26" xfId="142" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="53" fillId="0" borderId="26" xfId="142" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="29" borderId="0" xfId="142" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="29" borderId="0" xfId="142" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="42" fillId="30" borderId="19" xfId="142" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2143,248 +2138,248 @@
     <xf numFmtId="3" fontId="43" fillId="31" borderId="19" xfId="142" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="29" borderId="19" xfId="142" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="29" borderId="19" xfId="142" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="3" fontId="55" fillId="0" borderId="19" xfId="142" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="54" fillId="0" borderId="19" xfId="142" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="29" borderId="22" xfId="142" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="29" borderId="22" xfId="142" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
-    <xf numFmtId="3" fontId="55" fillId="0" borderId="22" xfId="142" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="54" fillId="0" borderId="22" xfId="142" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="29" borderId="0" xfId="142" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="29" borderId="0" xfId="142" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
-    <xf numFmtId="3" fontId="55" fillId="0" borderId="0" xfId="142" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="54" fillId="0" borderId="0" xfId="142" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="29" borderId="7" xfId="142" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="29" borderId="7" xfId="142" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
-    <xf numFmtId="3" fontId="55" fillId="0" borderId="7" xfId="142" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="54" fillId="0" borderId="7" xfId="142" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="55" fillId="0" borderId="19" xfId="142" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="54" fillId="0" borderId="19" xfId="142" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="55" fillId="0" borderId="0" xfId="142" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="54" fillId="0" borderId="0" xfId="142" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="55" fillId="0" borderId="7" xfId="142" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="54" fillId="0" borderId="7" xfId="142" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="54" fillId="0" borderId="0" xfId="142" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="53" fillId="0" borderId="0" xfId="142" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="54" fillId="33" borderId="19" xfId="142" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="53" fillId="33" borderId="19" xfId="142" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="55" fillId="33" borderId="19" xfId="142" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="54" fillId="33" borderId="19" xfId="142" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="41" fillId="30" borderId="19" xfId="142" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="30" borderId="19" xfId="142" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="55" fillId="30" borderId="19" xfId="142" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="3" fontId="56" fillId="30" borderId="19" xfId="142" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="55" fillId="30" borderId="19" xfId="142" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="30" borderId="19" xfId="142" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="30" borderId="19" xfId="142" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="3" fontId="53" fillId="30" borderId="19" xfId="142" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="52" fillId="30" borderId="19" xfId="142" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="31" borderId="19" xfId="142" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="31" borderId="19" xfId="142" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
-    <xf numFmtId="3" fontId="55" fillId="31" borderId="19" xfId="142" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="54" fillId="31" borderId="19" xfId="142" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="29" borderId="0" xfId="142" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="29" borderId="0" xfId="142" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="4"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="29" borderId="7" xfId="142" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="29" borderId="7" xfId="142" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="4"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="33" borderId="0" xfId="142" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="33" borderId="0" xfId="142" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="31" borderId="19" xfId="142" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="31" borderId="19" xfId="142" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="29" borderId="0" xfId="142" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="29" borderId="0" xfId="142" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="29" borderId="7" xfId="142" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="29" borderId="7" xfId="142" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="165" fontId="41" fillId="30" borderId="19" xfId="142" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="41" fillId="30" borderId="19" xfId="142" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="31" borderId="19" xfId="142" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="31" borderId="19" xfId="142" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="40" fillId="29" borderId="0" xfId="142" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="40" fillId="29" borderId="0" xfId="142" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="149">
-    <cellStyle name="20% - Accent1 2" xfId="15" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="20% - Accent2 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="20% - Accent3 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="20% - Accent4 2" xfId="18" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="20% - Accent5 2" xfId="19" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="20% - Accent6 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="40% - Accent1 2" xfId="21" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="40% - Accent2 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="40% - Accent3 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="40% - Accent4 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="40% - Accent5 2" xfId="25" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="40% - Accent6 2" xfId="26" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="60% - Accent1 2" xfId="27" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="60% - Accent2 2" xfId="28" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="60% - Accent3 2" xfId="29" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="60% - Accent4 2" xfId="30" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
-    <cellStyle name="60% - Accent5 2" xfId="31" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
-    <cellStyle name="60% - Accent6 2" xfId="32" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
-    <cellStyle name="Accent1 2" xfId="33" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
-    <cellStyle name="Accent2 2" xfId="34" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
-    <cellStyle name="Accent3 2" xfId="35" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
-    <cellStyle name="Accent4 2" xfId="36" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
-    <cellStyle name="Accent5 2" xfId="37" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
-    <cellStyle name="Accent6 2" xfId="38" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
-    <cellStyle name="Bad 2" xfId="39" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
-    <cellStyle name="Body: normal cell" xfId="4" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
-    <cellStyle name="Calculation 2" xfId="40" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
-    <cellStyle name="Check Cell 2" xfId="41" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="20% - Accent1 2" xfId="15"/>
+    <cellStyle name="20% - Accent2 2" xfId="16"/>
+    <cellStyle name="20% - Accent3 2" xfId="17"/>
+    <cellStyle name="20% - Accent4 2" xfId="18"/>
+    <cellStyle name="20% - Accent5 2" xfId="19"/>
+    <cellStyle name="20% - Accent6 2" xfId="20"/>
+    <cellStyle name="40% - Accent1 2" xfId="21"/>
+    <cellStyle name="40% - Accent2 2" xfId="22"/>
+    <cellStyle name="40% - Accent3 2" xfId="23"/>
+    <cellStyle name="40% - Accent4 2" xfId="24"/>
+    <cellStyle name="40% - Accent5 2" xfId="25"/>
+    <cellStyle name="40% - Accent6 2" xfId="26"/>
+    <cellStyle name="60% - Accent1 2" xfId="27"/>
+    <cellStyle name="60% - Accent2 2" xfId="28"/>
+    <cellStyle name="60% - Accent3 2" xfId="29"/>
+    <cellStyle name="60% - Accent4 2" xfId="30"/>
+    <cellStyle name="60% - Accent5 2" xfId="31"/>
+    <cellStyle name="60% - Accent6 2" xfId="32"/>
+    <cellStyle name="Accent1 2" xfId="33"/>
+    <cellStyle name="Accent2 2" xfId="34"/>
+    <cellStyle name="Accent3 2" xfId="35"/>
+    <cellStyle name="Accent4 2" xfId="36"/>
+    <cellStyle name="Accent5 2" xfId="37"/>
+    <cellStyle name="Accent6 2" xfId="38"/>
+    <cellStyle name="Bad 2" xfId="39"/>
+    <cellStyle name="Body: normal cell" xfId="4"/>
+    <cellStyle name="Calculation 2" xfId="40"/>
+    <cellStyle name="Check Cell 2" xfId="41"/>
     <cellStyle name="Comma" xfId="140" builtinId="3"/>
-    <cellStyle name="Comma 2" xfId="42" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
-    <cellStyle name="Comma 2 2" xfId="11" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
-    <cellStyle name="Comma 2 2 2" xfId="43" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
-    <cellStyle name="Comma 2 2 3" xfId="44" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
-    <cellStyle name="Comma 2 3" xfId="45" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
-    <cellStyle name="Comma 3" xfId="46" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
-    <cellStyle name="Comma 4" xfId="47" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
-    <cellStyle name="Comma 5" xfId="48" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
-    <cellStyle name="Comma 6" xfId="49" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
-    <cellStyle name="Comma 7" xfId="50" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
-    <cellStyle name="Currency 2" xfId="51" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
-    <cellStyle name="Currency 3" xfId="52" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
-    <cellStyle name="Currency 3 2" xfId="53" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
-    <cellStyle name="Data" xfId="54" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
-    <cellStyle name="Data no deci" xfId="55" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
-    <cellStyle name="Data Superscript" xfId="56" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
-    <cellStyle name="Data_1-1A-Regular" xfId="57" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
-    <cellStyle name="Explanatory Text 2" xfId="58" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="6" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
-    <cellStyle name="Footnotes: top row" xfId="2" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
-    <cellStyle name="Good 2" xfId="59" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
-    <cellStyle name="Header: bottom row" xfId="5" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
-    <cellStyle name="Heading 1 2" xfId="60" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
-    <cellStyle name="Heading 2 2" xfId="61" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
-    <cellStyle name="Heading 3 2" xfId="62" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
-    <cellStyle name="Heading 4 2" xfId="63" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
-    <cellStyle name="Hed Side" xfId="13" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
-    <cellStyle name="Hed Side bold" xfId="64" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
-    <cellStyle name="Hed Side Indent" xfId="65" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
-    <cellStyle name="Hed Side Regular" xfId="66" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
-    <cellStyle name="Hed Side_1-1A-Regular" xfId="67" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
-    <cellStyle name="Hed Top" xfId="68" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
+    <cellStyle name="Comma 2" xfId="42"/>
+    <cellStyle name="Comma 2 2" xfId="11"/>
+    <cellStyle name="Comma 2 2 2" xfId="43"/>
+    <cellStyle name="Comma 2 2 3" xfId="44"/>
+    <cellStyle name="Comma 2 3" xfId="45"/>
+    <cellStyle name="Comma 3" xfId="46"/>
+    <cellStyle name="Comma 4" xfId="47"/>
+    <cellStyle name="Comma 5" xfId="48"/>
+    <cellStyle name="Comma 6" xfId="49"/>
+    <cellStyle name="Comma 7" xfId="50"/>
+    <cellStyle name="Currency 2" xfId="51"/>
+    <cellStyle name="Currency 3" xfId="52"/>
+    <cellStyle name="Currency 3 2" xfId="53"/>
+    <cellStyle name="Data" xfId="54"/>
+    <cellStyle name="Data no deci" xfId="55"/>
+    <cellStyle name="Data Superscript" xfId="56"/>
+    <cellStyle name="Data_1-1A-Regular" xfId="57"/>
+    <cellStyle name="Explanatory Text 2" xfId="58"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="6"/>
+    <cellStyle name="Footnotes: top row" xfId="2"/>
+    <cellStyle name="Good 2" xfId="59"/>
+    <cellStyle name="Header: bottom row" xfId="5"/>
+    <cellStyle name="Heading 1 2" xfId="60"/>
+    <cellStyle name="Heading 2 2" xfId="61"/>
+    <cellStyle name="Heading 3 2" xfId="62"/>
+    <cellStyle name="Heading 4 2" xfId="63"/>
+    <cellStyle name="Hed Side" xfId="13"/>
+    <cellStyle name="Hed Side bold" xfId="64"/>
+    <cellStyle name="Hed Side Indent" xfId="65"/>
+    <cellStyle name="Hed Side Regular" xfId="66"/>
+    <cellStyle name="Hed Side_1-1A-Regular" xfId="67"/>
+    <cellStyle name="Hed Top" xfId="68"/>
     <cellStyle name="Hyperlink" xfId="143" builtinId="8"/>
-    <cellStyle name="Input 2" xfId="69" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
-    <cellStyle name="Linked Cell 2" xfId="70" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
-    <cellStyle name="Neutral 2" xfId="71" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
+    <cellStyle name="Input 2" xfId="69"/>
+    <cellStyle name="Linked Cell 2" xfId="70"/>
+    <cellStyle name="Neutral 2" xfId="71"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="72" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
-    <cellStyle name="Normal 11" xfId="10" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
-    <cellStyle name="Normal 2 2" xfId="73" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
-    <cellStyle name="Normal 2 2 2" xfId="74" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
-    <cellStyle name="Normal 2 2 3" xfId="75" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
-    <cellStyle name="Normal 2 3" xfId="76" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
-    <cellStyle name="Normal 2 4" xfId="77" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
-    <cellStyle name="Normal 2 5" xfId="142" xr:uid="{1BD59478-1179-44CD-AB5B-99ECC9626B09}"/>
-    <cellStyle name="Normal 3" xfId="8" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
-    <cellStyle name="Normal 3 2" xfId="78" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
-    <cellStyle name="Normal 3 2 2" xfId="79" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
-    <cellStyle name="Normal 3 2 2 2" xfId="80" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
-    <cellStyle name="Normal 3 2 3" xfId="81" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
-    <cellStyle name="Normal 3 3" xfId="82" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
-    <cellStyle name="Normal 3 3 2" xfId="83" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
-    <cellStyle name="Normal 3 3 2 2" xfId="84" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
-    <cellStyle name="Normal 3 3 3" xfId="85" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
-    <cellStyle name="Normal 3 4" xfId="86" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
-    <cellStyle name="Normal 3 4 2" xfId="87" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
-    <cellStyle name="Normal 3 5" xfId="88" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
-    <cellStyle name="Normal 3 6" xfId="89" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
-    <cellStyle name="Normal 3 7" xfId="90" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
-    <cellStyle name="Normal 3 8" xfId="91" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
-    <cellStyle name="Normal 3 9" xfId="12" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
-    <cellStyle name="Normal 4" xfId="92" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
-    <cellStyle name="Normal 4 2" xfId="93" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
-    <cellStyle name="Normal 4 2 2" xfId="94" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
-    <cellStyle name="Normal 4 2 2 2" xfId="95" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
-    <cellStyle name="Normal 4 2 3" xfId="96" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
-    <cellStyle name="Normal 4 3" xfId="97" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
-    <cellStyle name="Normal 4 3 2" xfId="98" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
-    <cellStyle name="Normal 4 3 2 2" xfId="99" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
-    <cellStyle name="Normal 4 3 3" xfId="100" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
-    <cellStyle name="Normal 4 4" xfId="101" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
-    <cellStyle name="Normal 4 4 2" xfId="102" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
-    <cellStyle name="Normal 4 5" xfId="103" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
-    <cellStyle name="Normal 4 6" xfId="104" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
-    <cellStyle name="Normal 4 7" xfId="105" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
-    <cellStyle name="Normal 4 8" xfId="106" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
-    <cellStyle name="Normal 5" xfId="107" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
-    <cellStyle name="Normal 5 2" xfId="108" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
-    <cellStyle name="Normal 5 3" xfId="109" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
-    <cellStyle name="Normal 6" xfId="110" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
-    <cellStyle name="Normal 6 2" xfId="111" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
-    <cellStyle name="Normal 7" xfId="112" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
-    <cellStyle name="Normal 8" xfId="113" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
-    <cellStyle name="Normal 9" xfId="114" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
-    <cellStyle name="Note 2" xfId="115" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
-    <cellStyle name="Note 2 2" xfId="116" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
-    <cellStyle name="Output 2" xfId="117" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
-    <cellStyle name="Parent row" xfId="3" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
+    <cellStyle name="Normal 10" xfId="72"/>
+    <cellStyle name="Normal 11" xfId="10"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2 2" xfId="73"/>
+    <cellStyle name="Normal 2 2 2" xfId="74"/>
+    <cellStyle name="Normal 2 2 3" xfId="75"/>
+    <cellStyle name="Normal 2 3" xfId="76"/>
+    <cellStyle name="Normal 2 4" xfId="77"/>
+    <cellStyle name="Normal 2 5" xfId="142"/>
+    <cellStyle name="Normal 3" xfId="8"/>
+    <cellStyle name="Normal 3 2" xfId="78"/>
+    <cellStyle name="Normal 3 2 2" xfId="79"/>
+    <cellStyle name="Normal 3 2 2 2" xfId="80"/>
+    <cellStyle name="Normal 3 2 3" xfId="81"/>
+    <cellStyle name="Normal 3 3" xfId="82"/>
+    <cellStyle name="Normal 3 3 2" xfId="83"/>
+    <cellStyle name="Normal 3 3 2 2" xfId="84"/>
+    <cellStyle name="Normal 3 3 3" xfId="85"/>
+    <cellStyle name="Normal 3 4" xfId="86"/>
+    <cellStyle name="Normal 3 4 2" xfId="87"/>
+    <cellStyle name="Normal 3 5" xfId="88"/>
+    <cellStyle name="Normal 3 6" xfId="89"/>
+    <cellStyle name="Normal 3 7" xfId="90"/>
+    <cellStyle name="Normal 3 8" xfId="91"/>
+    <cellStyle name="Normal 3 9" xfId="12"/>
+    <cellStyle name="Normal 4" xfId="92"/>
+    <cellStyle name="Normal 4 2" xfId="93"/>
+    <cellStyle name="Normal 4 2 2" xfId="94"/>
+    <cellStyle name="Normal 4 2 2 2" xfId="95"/>
+    <cellStyle name="Normal 4 2 3" xfId="96"/>
+    <cellStyle name="Normal 4 3" xfId="97"/>
+    <cellStyle name="Normal 4 3 2" xfId="98"/>
+    <cellStyle name="Normal 4 3 2 2" xfId="99"/>
+    <cellStyle name="Normal 4 3 3" xfId="100"/>
+    <cellStyle name="Normal 4 4" xfId="101"/>
+    <cellStyle name="Normal 4 4 2" xfId="102"/>
+    <cellStyle name="Normal 4 5" xfId="103"/>
+    <cellStyle name="Normal 4 6" xfId="104"/>
+    <cellStyle name="Normal 4 7" xfId="105"/>
+    <cellStyle name="Normal 4 8" xfId="106"/>
+    <cellStyle name="Normal 5" xfId="107"/>
+    <cellStyle name="Normal 5 2" xfId="108"/>
+    <cellStyle name="Normal 5 3" xfId="109"/>
+    <cellStyle name="Normal 6" xfId="110"/>
+    <cellStyle name="Normal 6 2" xfId="111"/>
+    <cellStyle name="Normal 7" xfId="112"/>
+    <cellStyle name="Normal 8" xfId="113"/>
+    <cellStyle name="Normal 9" xfId="114"/>
+    <cellStyle name="Note 2" xfId="115"/>
+    <cellStyle name="Note 2 2" xfId="116"/>
+    <cellStyle name="Output 2" xfId="117"/>
+    <cellStyle name="Parent row" xfId="3"/>
     <cellStyle name="Percent" xfId="141" builtinId="5"/>
-    <cellStyle name="Percent 2" xfId="118" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
-    <cellStyle name="Percent 2 2" xfId="119" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
-    <cellStyle name="Percent 3" xfId="120" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
-    <cellStyle name="Percent 3 2" xfId="121" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
-    <cellStyle name="Prozent 2" xfId="148" xr:uid="{34DDAA79-0950-4E12-A733-1B81120079C7}"/>
-    <cellStyle name="Source Hed" xfId="122" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
-    <cellStyle name="Source Superscript" xfId="123" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
-    <cellStyle name="Source Text" xfId="9" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
-    <cellStyle name="Standard 2" xfId="144" xr:uid="{DAF255F9-941A-43FE-ABD4-6FCDF68F3B0A}"/>
-    <cellStyle name="Standard 3" xfId="145" xr:uid="{FD2AB7E4-9B4A-437F-B310-4BE6FCCF71A5}"/>
-    <cellStyle name="Standard 4" xfId="146" xr:uid="{00DB1AA1-CAF2-49EC-86B5-EC72264E2FD6}"/>
-    <cellStyle name="Standard 5" xfId="147" xr:uid="{26A0622A-7B3B-4B48-99C0-D38073ECB0F5}"/>
-    <cellStyle name="State" xfId="124" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
-    <cellStyle name="Superscript" xfId="125" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
-    <cellStyle name="Table Data" xfId="126" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
-    <cellStyle name="Table Head Top" xfId="127" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
-    <cellStyle name="Table Hed Side" xfId="128" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
-    <cellStyle name="Table title" xfId="7" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
-    <cellStyle name="Title 2" xfId="129" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
-    <cellStyle name="Title Text" xfId="130" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
-    <cellStyle name="Title Text 1" xfId="131" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
-    <cellStyle name="Title Text 2" xfId="132" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
-    <cellStyle name="Title-1" xfId="14" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
-    <cellStyle name="Title-2" xfId="133" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
-    <cellStyle name="Title-3" xfId="134" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
-    <cellStyle name="Total 2" xfId="135" xr:uid="{00000000-0005-0000-0000-00008A000000}"/>
-    <cellStyle name="Warning Text 2" xfId="136" xr:uid="{00000000-0005-0000-0000-00008B000000}"/>
-    <cellStyle name="Wrap" xfId="137" xr:uid="{00000000-0005-0000-0000-00008C000000}"/>
-    <cellStyle name="Wrap Bold" xfId="138" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
-    <cellStyle name="Wrap Title" xfId="139" xr:uid="{00000000-0005-0000-0000-00008E000000}"/>
+    <cellStyle name="Percent 2" xfId="118"/>
+    <cellStyle name="Percent 2 2" xfId="119"/>
+    <cellStyle name="Percent 3" xfId="120"/>
+    <cellStyle name="Percent 3 2" xfId="121"/>
+    <cellStyle name="Prozent 2" xfId="148"/>
+    <cellStyle name="Source Hed" xfId="122"/>
+    <cellStyle name="Source Superscript" xfId="123"/>
+    <cellStyle name="Source Text" xfId="9"/>
+    <cellStyle name="Standard 2" xfId="144"/>
+    <cellStyle name="Standard 3" xfId="145"/>
+    <cellStyle name="Standard 4" xfId="146"/>
+    <cellStyle name="Standard 5" xfId="147"/>
+    <cellStyle name="State" xfId="124"/>
+    <cellStyle name="Superscript" xfId="125"/>
+    <cellStyle name="Table Data" xfId="126"/>
+    <cellStyle name="Table Head Top" xfId="127"/>
+    <cellStyle name="Table Hed Side" xfId="128"/>
+    <cellStyle name="Table title" xfId="7"/>
+    <cellStyle name="Title 2" xfId="129"/>
+    <cellStyle name="Title Text" xfId="130"/>
+    <cellStyle name="Title Text 1" xfId="131"/>
+    <cellStyle name="Title Text 2" xfId="132"/>
+    <cellStyle name="Title-1" xfId="14"/>
+    <cellStyle name="Title-2" xfId="133"/>
+    <cellStyle name="Title-3" xfId="134"/>
+    <cellStyle name="Total 2" xfId="135"/>
+    <cellStyle name="Warning Text 2" xfId="136"/>
+    <cellStyle name="Wrap" xfId="137"/>
+    <cellStyle name="Wrap Bold" xfId="138"/>
+    <cellStyle name="Wrap Title" xfId="139"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2920,23 +2915,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2972,23 +2950,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3164,16 +3125,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A80" sqref="A80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.75"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="77.58984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="77.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3579,17 +3540,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B69" r:id="rId1" xr:uid="{57410C99-DBA1-45A0-A3FF-452AE1731FF0}"/>
-    <hyperlink ref="B62" r:id="rId2" xr:uid="{BCA42AD9-5992-44CD-9664-27674A1AC99D}"/>
-    <hyperlink ref="B49" r:id="rId3" xr:uid="{5B92F5FD-E8D4-41BC-BD9B-2FD1E8358EF7}"/>
-    <hyperlink ref="B7" r:id="rId4" xr:uid="{1B6A0A43-A054-4211-A622-24F7DD6581CE}"/>
-    <hyperlink ref="B21" r:id="rId5" xr:uid="{C8557EB3-9D98-4884-837E-D60B84311F35}"/>
-    <hyperlink ref="B28" r:id="rId6" xr:uid="{8D1C20C8-4702-4552-A612-A1A08D2C9721}"/>
-    <hyperlink ref="B14" r:id="rId7" xr:uid="{50E5846A-4DDA-49A2-BA1F-2980BE32DE5F}"/>
-    <hyperlink ref="B42" r:id="rId8" xr:uid="{77598C45-A77B-42EB-8F4F-391EAA572C06}"/>
-    <hyperlink ref="B35" r:id="rId9" xr:uid="{EE9A67DE-C38F-4801-9B1B-3EBE5E16A800}"/>
-    <hyperlink ref="A84" r:id="rId10" xr:uid="{5446C9BD-43B8-4A5B-A99B-229723C1715D}"/>
-    <hyperlink ref="B56" r:id="rId11" xr:uid="{AFA4FBF4-505E-444E-A397-3D050C25871C}"/>
+    <hyperlink ref="B69" r:id="rId1"/>
+    <hyperlink ref="B62" r:id="rId2"/>
+    <hyperlink ref="B49" r:id="rId3"/>
+    <hyperlink ref="B7" r:id="rId4"/>
+    <hyperlink ref="B21" r:id="rId5"/>
+    <hyperlink ref="B28" r:id="rId6"/>
+    <hyperlink ref="B14" r:id="rId7"/>
+    <hyperlink ref="B42" r:id="rId8"/>
+    <hyperlink ref="B35" r:id="rId9"/>
+    <hyperlink ref="A84" r:id="rId10"/>
+    <hyperlink ref="B56" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId12"/>
@@ -3597,13 +3558,13 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB616C29-F7FC-4EFF-9E75-476B4EFF7F2C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:S135"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
@@ -3613,8 +3574,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="11.45" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="50.7265625" style="11" customWidth="1"/>
-    <col min="2" max="17" width="10.7265625" style="21" customWidth="1"/>
+    <col min="1" max="1" width="50.73046875" style="11" customWidth="1"/>
+    <col min="2" max="17" width="10.73046875" style="21" customWidth="1"/>
     <col min="18" max="16384" width="9.1328125" style="11"/>
   </cols>
   <sheetData>
@@ -11052,7 +11013,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E10BA1A4-7D9B-4BED-AE12-6AA113D6E293}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -11068,10 +11029,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="11.45" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="50.7265625" style="11" customWidth="1"/>
-    <col min="2" max="10" width="10.7265625" style="21" customWidth="1"/>
+    <col min="1" max="1" width="50.73046875" style="11" customWidth="1"/>
+    <col min="2" max="10" width="10.73046875" style="21" customWidth="1"/>
     <col min="11" max="11" width="14.1328125" style="21" customWidth="1"/>
-    <col min="12" max="17" width="10.7265625" style="21" customWidth="1"/>
+    <col min="12" max="17" width="10.73046875" style="21" customWidth="1"/>
     <col min="18" max="16384" width="9.1328125" style="11"/>
   </cols>
   <sheetData>
@@ -12180,7 +12141,7 @@
       </c>
       <c r="M26" s="83"/>
     </row>
-    <row r="27" spans="1:18" ht="14.75">
+    <row r="27" spans="1:18" ht="14.25">
       <c r="A27" s="75" t="s">
         <v>157</v>
       </c>
@@ -13031,7 +12992,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19959718-0CD7-445B-9681-74AA6132390D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -13044,8 +13005,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="11.45" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="50.7265625" style="11" customWidth="1"/>
-    <col min="2" max="17" width="10.7265625" style="21" customWidth="1"/>
+    <col min="1" max="1" width="50.73046875" style="11" customWidth="1"/>
+    <col min="2" max="17" width="10.73046875" style="21" customWidth="1"/>
     <col min="18" max="16384" width="9.1328125" style="11"/>
   </cols>
   <sheetData>
@@ -15230,7 +15191,7 @@
         <f t="shared" si="18"/>
         <v>8346.0790641255444</v>
       </c>
-      <c r="S40" s="123">
+      <c r="S40" s="122">
         <f>AVERAGE(L40:Q40)</f>
         <v>8271.5546728681056</v>
       </c>
@@ -15462,7 +15423,7 @@
         <f t="shared" si="19"/>
         <v>507.99873350961605</v>
       </c>
-      <c r="S44" s="123">
+      <c r="S44" s="122">
         <f>AVERAGE(L44:Q44)</f>
         <v>499.94334089238419</v>
       </c>
@@ -19444,14 +19405,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EFC385B-2769-4081-AB3F-062F9A7FB117}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12:F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="14.75"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
@@ -19838,7 +19799,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A4" r:id="rId1" xr:uid="{B6FFE004-BD37-406B-B680-558CB33EE819}"/>
+    <hyperlink ref="A4" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>
@@ -19846,20 +19807,20 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4F8A45B-496F-4B4D-8B9D-B6C9BE580EE8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="14.75"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="46.7265625" customWidth="1"/>
+    <col min="1" max="1" width="46.73046875" customWidth="1"/>
     <col min="3" max="4" width="15.1328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.86328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="37.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.40625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.73046875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.3984375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -20607,8 +20568,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{D5350A30-2F48-4685-B726-B62FF0E20379}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{D625FC42-3AFF-46BA-9C32-A86DA6474159}"/>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -20616,7 +20577,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7F0CD08-F62A-46CA-AF75-3076583F1BDC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ251"/>
   <sheetViews>
     <sheetView topLeftCell="A196" workbookViewId="0">
@@ -20624,14 +20585,14 @@
       <selection pane="topRight" activeCell="Q111" sqref="Q111"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="46.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.04296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="52" width="9.04296875" customWidth="1"/>
+    <col min="1" max="1" width="46.53125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.06640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="52" width="9.06640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="15.5" thickBot="1">
+    <row r="1" spans="1:52" ht="14.65" thickBot="1">
       <c r="A1" s="87" t="s">
         <v>192</v>
       </c>
@@ -55625,7 +55586,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -55635,18 +55596,18 @@
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.75"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="16.86328125" customWidth="1"/>
-    <col min="2" max="2" width="24.58984375" customWidth="1"/>
+    <col min="2" max="2" width="24.59765625" customWidth="1"/>
     <col min="3" max="3" width="20.86328125" customWidth="1"/>
-    <col min="4" max="4" width="18.26953125" customWidth="1"/>
+    <col min="4" max="4" width="18.265625" customWidth="1"/>
     <col min="5" max="5" width="17.1328125" customWidth="1"/>
-    <col min="6" max="8" width="23.26953125" customWidth="1"/>
-    <col min="10" max="10" width="14.40625" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="23.265625" customWidth="1"/>
+    <col min="10" max="10" width="14.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="29.5">
+    <row r="1" spans="1:8">
       <c r="A1" s="84" t="s">
         <v>18</v>
       </c>
@@ -55852,29 +55813,29 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.75"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="16.86328125" customWidth="1"/>
-    <col min="2" max="2" width="24.58984375" customWidth="1"/>
+    <col min="2" max="2" width="24.59765625" customWidth="1"/>
     <col min="3" max="3" width="20.86328125" customWidth="1"/>
-    <col min="4" max="4" width="18.26953125" customWidth="1"/>
+    <col min="4" max="4" width="18.265625" customWidth="1"/>
     <col min="5" max="5" width="17.1328125" customWidth="1"/>
-    <col min="6" max="8" width="23.26953125" customWidth="1"/>
-    <col min="9" max="9" width="13.40625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.58984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="23.265625" customWidth="1"/>
+    <col min="9" max="9" width="13.3984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="29.5">
+    <row r="1" spans="1:8">
       <c r="A1" s="7" t="s">
         <v>18</v>
       </c>
@@ -55904,31 +55865,31 @@
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="122">
+      <c r="B2" s="123">
         <f>TRA_StockTot!U134</f>
         <v>94943</v>
       </c>
-      <c r="C2" s="122">
+      <c r="C2" s="123">
         <f>TRA_StockTot!U113</f>
         <v>159546</v>
       </c>
-      <c r="D2" s="122">
+      <c r="D2" s="123">
         <f>TRA_StockTot!U112</f>
         <v>2339955</v>
       </c>
-      <c r="E2" s="122">
+      <c r="E2" s="123">
         <f>TRA_StockTot!U115</f>
         <v>28855073</v>
       </c>
-      <c r="F2" s="122">
+      <c r="F2" s="123">
         <f>TRA_StockTot!U126</f>
         <v>65102</v>
       </c>
-      <c r="G2" s="122">
+      <c r="G2" s="123">
         <f>TRA_StockTot!U111</f>
         <v>292214</v>
       </c>
-      <c r="H2" s="8">
+      <c r="H2" s="123">
         <f>'Alternative Fuel Vehicles'!B28</f>
         <v>296</v>
       </c>
@@ -55937,30 +55898,30 @@
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="123">
         <f>'Alternative Fuel Vehicles'!C12</f>
         <v>284</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="123">
         <f>SUM('Alternative Fuel Vehicles'!E12:F12)</f>
         <v>21446</v>
       </c>
-      <c r="D3" s="122">
+      <c r="D3" s="123">
         <f>TRA_StockTot!U145+TRA_StockTot!U164</f>
         <v>33</v>
       </c>
-      <c r="E3" s="122">
+      <c r="E3" s="123">
         <f>TRA_StockTot!U144+TRA_StockTot!U163</f>
         <v>6794192</v>
       </c>
-      <c r="F3" s="8">
-        <v>0</v>
-      </c>
-      <c r="G3" s="8">
+      <c r="F3" s="123">
+        <v>0</v>
+      </c>
+      <c r="G3" s="123">
         <f>'Alternative Fuel Vehicles'!G12</f>
         <v>0</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="123">
         <f>'Alternative Fuel Vehicles'!B12</f>
         <v>6</v>
       </c>
@@ -55969,26 +55930,26 @@
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="8">
-        <v>0</v>
-      </c>
-      <c r="C4" s="8">
-        <v>0</v>
-      </c>
-      <c r="D4" s="8">
-        <v>0</v>
-      </c>
-      <c r="E4" s="8">
+      <c r="B4" s="123">
+        <v>0</v>
+      </c>
+      <c r="C4" s="123">
+        <v>0</v>
+      </c>
+      <c r="D4" s="123">
+        <v>0</v>
+      </c>
+      <c r="E4" s="123">
         <f>TrAvia_act!S44</f>
         <v>499.94334089238419</v>
       </c>
-      <c r="F4" s="8">
-        <v>0</v>
-      </c>
-      <c r="G4" s="8">
-        <v>0</v>
-      </c>
-      <c r="H4" s="8">
+      <c r="F4" s="123">
+        <v>0</v>
+      </c>
+      <c r="G4" s="123">
+        <v>0</v>
+      </c>
+      <c r="H4" s="123">
         <v>0</v>
       </c>
     </row>
@@ -55996,27 +55957,27 @@
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="122">
+      <c r="B5" s="123">
         <f>TRA_StockTot!U190</f>
         <v>4566.3906058589173</v>
       </c>
-      <c r="C5" s="8">
-        <v>0</v>
-      </c>
-      <c r="D5" s="8">
-        <v>0</v>
-      </c>
-      <c r="E5" s="122">
+      <c r="C5" s="123">
+        <v>0</v>
+      </c>
+      <c r="D5" s="123">
+        <v>0</v>
+      </c>
+      <c r="E5" s="123">
         <f>TRA_StockTot!U189</f>
         <v>1661.0121017769959</v>
       </c>
-      <c r="F5" s="8">
-        <v>0</v>
-      </c>
-      <c r="G5" s="8">
-        <v>0</v>
-      </c>
-      <c r="H5" s="8">
+      <c r="F5" s="123">
+        <v>0</v>
+      </c>
+      <c r="G5" s="123">
+        <v>0</v>
+      </c>
+      <c r="H5" s="123">
         <v>0</v>
       </c>
     </row>
@@ -56024,26 +55985,26 @@
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="8">
-        <v>0</v>
-      </c>
-      <c r="C6" s="8">
-        <v>0</v>
-      </c>
-      <c r="D6" s="8">
-        <v>0</v>
-      </c>
-      <c r="E6" s="122">
+      <c r="B6" s="123">
+        <v>0</v>
+      </c>
+      <c r="C6" s="123">
+        <v>0</v>
+      </c>
+      <c r="D6" s="123">
+        <v>0</v>
+      </c>
+      <c r="E6" s="123">
         <f>TRA_StockTot!U223+TRA_StockTot!U230+TRA_StockTot!U239+TRA_StockTot!U246</f>
         <v>4077.5125867167935</v>
       </c>
-      <c r="F6" s="8">
-        <v>0</v>
-      </c>
-      <c r="G6" s="8">
-        <v>0</v>
-      </c>
-      <c r="H6" s="8">
+      <c r="F6" s="123">
+        <v>0</v>
+      </c>
+      <c r="G6" s="123">
+        <v>0</v>
+      </c>
+      <c r="H6" s="123">
         <v>0</v>
       </c>
     </row>
@@ -56051,25 +56012,25 @@
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="8">
-        <v>0</v>
-      </c>
-      <c r="C7" s="8">
-        <v>0</v>
-      </c>
-      <c r="D7" s="8">
-        <v>0</v>
-      </c>
-      <c r="E7" s="8">
-        <v>0</v>
-      </c>
-      <c r="F7" s="8">
-        <v>0</v>
-      </c>
-      <c r="G7" s="8">
-        <v>0</v>
-      </c>
-      <c r="H7" s="8">
+      <c r="B7" s="123">
+        <v>0</v>
+      </c>
+      <c r="C7" s="123">
+        <v>0</v>
+      </c>
+      <c r="D7" s="123">
+        <v>0</v>
+      </c>
+      <c r="E7" s="123">
+        <v>0</v>
+      </c>
+      <c r="F7" s="123">
+        <v>0</v>
+      </c>
+      <c r="G7" s="123">
+        <v>0</v>
+      </c>
+      <c r="H7" s="123">
         <v>0</v>
       </c>
     </row>
@@ -56084,6 +56045,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="C3" formulaRange="1"/>
   </ignoredErrors>

--- a/InputData/trans/SYVbT/Start Year Vehicles by Technology.xlsx
+++ b/InputData/trans/SYVbT/Start Year Vehicles by Technology.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="9765" tabRatio="923"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="9765" tabRatio="923" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -98,7 +98,7 @@
     <definedName name="ti_tbl_50">#REF!</definedName>
     <definedName name="ti_tbl_69">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1170,12 +1170,11 @@
     <font>
       <sz val="11"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="238"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1897,7 +1896,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2230,7 +2229,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="149">
     <cellStyle name="20% - Accent1 2" xfId="15"/>
@@ -3130,7 +3128,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A80" sqref="A80"/>
     </sheetView>
   </sheetViews>
@@ -13000,8 +12998,8 @@
   </sheetPr>
   <dimension ref="A1:S122"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="S45" sqref="S45"/>
     </sheetView>
   </sheetViews>
@@ -19410,7 +19408,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12:F12"/>
     </sheetView>
   </sheetViews>
@@ -20582,16 +20580,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ251"/>
   <sheetViews>
-    <sheetView topLeftCell="A150" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="P1" sqref="B1:P1048576"/>
+    <sheetView topLeftCell="A196" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="Q1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Q111" sqref="Q111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="46.53125" bestFit="1" customWidth="1"/>
-    <col min="2" max="20" width="9.06640625" hidden="1" customWidth="1"/>
-    <col min="21" max="52" width="9.06640625" customWidth="1"/>
+    <col min="2" max="2" width="9.06640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="52" width="9.06640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="14.65" thickBot="1">
@@ -55648,8 +55646,8 @@
         <v>1524302</v>
       </c>
       <c r="D2" s="6">
-        <f>SUM(TRA_StockTot!U48,TRA_StockTot!U50,TRA_StockTot!U52)</f>
-        <v>146016357</v>
+        <f>TRA_StockTot!U48</f>
+        <v>145999954</v>
       </c>
       <c r="E2" s="6">
         <f>TRA_StockTot!U51</f>
@@ -55681,7 +55679,7 @@
         <v>45184</v>
       </c>
       <c r="D3" s="6">
-        <f>SUM(TRA_StockTot!U84:U85,TRA_StockTot!U81)</f>
+        <f>TRA_StockTot!U81</f>
         <v>3647</v>
       </c>
       <c r="E3" s="6">
@@ -55787,8 +55785,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="6">
-        <f>TRA_StockTot!U39</f>
-        <v>2214542</v>
+        <v>0</v>
       </c>
       <c r="C7" s="6">
         <v>0</v>
@@ -55822,8 +55819,8 @@
   </sheetPr>
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25"/>
@@ -55877,8 +55874,8 @@
         <v>159546</v>
       </c>
       <c r="D2" s="123">
-        <f>SUM(TRA_StockTot!U112,TRA_StockTot!U114,TRA_StockTot!U116)</f>
-        <v>2341779</v>
+        <f>TRA_StockTot!U112</f>
+        <v>2339955</v>
       </c>
       <c r="E2" s="123">
         <f>TRA_StockTot!U115</f>
@@ -55892,7 +55889,7 @@
         <f>TRA_StockTot!U111</f>
         <v>292214</v>
       </c>
-      <c r="H2" s="124">
+      <c r="H2" s="123">
         <f>'Alternative Fuel Vehicles'!B28</f>
         <v>296</v>
       </c>
@@ -55960,7 +55957,7 @@
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="123">
         <f>TRA_StockTot!U190</f>
         <v>4566.3906058589173</v>
       </c>

--- a/InputData/trans/SYVbT/Start Year Vehicles by Technology.xlsx
+++ b/InputData/trans/SYVbT/Start Year Vehicles by Technology.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="9765" tabRatio="923" activeTab="8"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="9765" tabRatio="923"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -98,7 +98,7 @@
     <definedName name="ti_tbl_50">#REF!</definedName>
     <definedName name="ti_tbl_69">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1170,11 +1170,12 @@
     <font>
       <sz val="11"/>
       <name val="Arial"/>
-      <charset val="238"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1896,7 +1897,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2229,6 +2230,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="149">
     <cellStyle name="20% - Accent1 2" xfId="15"/>
@@ -3128,7 +3130,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E95"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
       <selection activeCell="A80" sqref="A80"/>
     </sheetView>
   </sheetViews>
@@ -12998,8 +13000,8 @@
   </sheetPr>
   <dimension ref="A1:S122"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
+    <sheetView showGridLines="0" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="S45" sqref="S45"/>
     </sheetView>
   </sheetViews>
@@ -19408,7 +19410,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="E12" sqref="E12:F12"/>
     </sheetView>
   </sheetViews>
@@ -20580,16 +20582,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ251"/>
   <sheetViews>
-    <sheetView topLeftCell="A196" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="Q1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Q111" sqref="Q111"/>
+    <sheetView topLeftCell="A150" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="P1" sqref="B1:P1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="46.53125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.06640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="52" width="9.06640625" customWidth="1"/>
+    <col min="2" max="20" width="9.06640625" hidden="1" customWidth="1"/>
+    <col min="21" max="52" width="9.06640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="14.65" thickBot="1">
@@ -55646,8 +55648,8 @@
         <v>1524302</v>
       </c>
       <c r="D2" s="6">
-        <f>TRA_StockTot!U48</f>
-        <v>145999954</v>
+        <f>SUM(TRA_StockTot!U48,TRA_StockTot!U50,TRA_StockTot!U52)</f>
+        <v>146016357</v>
       </c>
       <c r="E2" s="6">
         <f>TRA_StockTot!U51</f>
@@ -55679,7 +55681,7 @@
         <v>45184</v>
       </c>
       <c r="D3" s="6">
-        <f>TRA_StockTot!U81</f>
+        <f>SUM(TRA_StockTot!U84:U85,TRA_StockTot!U81)</f>
         <v>3647</v>
       </c>
       <c r="E3" s="6">
@@ -55785,7 +55787,8 @@
         <v>8</v>
       </c>
       <c r="B7" s="6">
-        <v>0</v>
+        <f>TRA_StockTot!U39</f>
+        <v>2214542</v>
       </c>
       <c r="C7" s="6">
         <v>0</v>
@@ -55819,8 +55822,8 @@
   </sheetPr>
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:H7"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25"/>
@@ -55874,8 +55877,8 @@
         <v>159546</v>
       </c>
       <c r="D2" s="123">
-        <f>TRA_StockTot!U112</f>
-        <v>2339955</v>
+        <f>SUM(TRA_StockTot!U112,TRA_StockTot!U114,TRA_StockTot!U116)</f>
+        <v>2341779</v>
       </c>
       <c r="E2" s="123">
         <f>TRA_StockTot!U115</f>
@@ -55889,7 +55892,7 @@
         <f>TRA_StockTot!U111</f>
         <v>292214</v>
       </c>
-      <c r="H2" s="123">
+      <c r="H2" s="124">
         <f>'Alternative Fuel Vehicles'!B28</f>
         <v>296</v>
       </c>
@@ -55957,7 +55960,7 @@
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="123">
+      <c r="B5" s="6">
         <f>TRA_StockTot!U190</f>
         <v>4566.3906058589173</v>
       </c>

--- a/InputData/trans/SYVbT/Start Year Vehicles by Technology.xlsx
+++ b/InputData/trans/SYVbT/Start Year Vehicles by Technology.xlsx
@@ -98,7 +98,7 @@
     <definedName name="ti_tbl_50">#REF!</definedName>
     <definedName name="ti_tbl_69">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1170,11 +1170,12 @@
     <font>
       <sz val="11"/>
       <name val="Arial"/>
-      <charset val="238"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1896,7 +1897,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2229,6 +2230,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="149">
     <cellStyle name="20% - Accent1 2" xfId="15"/>
@@ -3128,7 +3130,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E95"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A58" workbookViewId="0">
       <selection activeCell="A80" sqref="A80"/>
     </sheetView>
   </sheetViews>
@@ -12998,8 +13000,8 @@
   </sheetPr>
   <dimension ref="A1:S122"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
+    <sheetView showGridLines="0" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="S45" sqref="S45"/>
     </sheetView>
   </sheetViews>
@@ -19408,7 +19410,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="E12" sqref="E12:F12"/>
     </sheetView>
   </sheetViews>
@@ -20580,16 +20582,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ251"/>
   <sheetViews>
-    <sheetView topLeftCell="A196" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="Q1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Q111" sqref="Q111"/>
+    <sheetView topLeftCell="A123" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="P1" sqref="B1:P1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="46.53125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.06640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="52" width="9.06640625" customWidth="1"/>
+    <col min="2" max="20" width="9.06640625" hidden="1" customWidth="1"/>
+    <col min="21" max="52" width="9.06640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="14.65" thickBot="1">
@@ -55593,7 +55595,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25"/>
@@ -55646,8 +55648,8 @@
         <v>1524302</v>
       </c>
       <c r="D2" s="6">
-        <f>TRA_StockTot!U48</f>
-        <v>145999954</v>
+        <f>SUM(TRA_StockTot!U48,TRA_StockTot!U50,TRA_StockTot!U52)</f>
+        <v>146016357</v>
       </c>
       <c r="E2" s="6">
         <f>TRA_StockTot!U51</f>
@@ -55662,8 +55664,8 @@
         <v>7965579</v>
       </c>
       <c r="H2" s="6">
-        <f>'Alternative Fuel Vehicles'!B20</f>
-        <v>848</v>
+        <f>TRA_StockTot!U75</f>
+        <v>2727</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -55679,7 +55681,7 @@
         <v>45184</v>
       </c>
       <c r="D3" s="6">
-        <f>TRA_StockTot!U81</f>
+        <f>SUM(TRA_StockTot!U84:U85,TRA_StockTot!U81)</f>
         <v>3647</v>
       </c>
       <c r="E3" s="6">
@@ -55695,8 +55697,8 @@
         <v>1800</v>
       </c>
       <c r="H3" s="6">
-        <f>'Alternative Fuel Vehicles'!B36</f>
-        <v>28</v>
+        <f>TRA_StockTot!U105</f>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -55731,8 +55733,8 @@
         <v>6</v>
       </c>
       <c r="B5" s="6">
-        <f>(TRA_StockTot!U185/TRA_StockTot!U183)*TRA_StockTot!U182</f>
-        <v>18479.081983871507</v>
+        <f>(TRA_StockTot!U185/TRA_StockTot!U183)*TRA_StockTot!U182+SUM(TRA_StockTot!U186:U187)</f>
+        <v>32987.421116253026</v>
       </c>
       <c r="C5" s="6">
         <v>0</v>
@@ -55785,7 +55787,8 @@
         <v>8</v>
       </c>
       <c r="B7" s="6">
-        <v>0</v>
+        <f>TRA_StockTot!U39</f>
+        <v>2214542</v>
       </c>
       <c r="C7" s="6">
         <v>0</v>
@@ -55874,8 +55877,8 @@
         <v>159546</v>
       </c>
       <c r="D2" s="123">
-        <f>TRA_StockTot!U112</f>
-        <v>2339955</v>
+        <f>SUM(TRA_StockTot!U112,TRA_StockTot!U114,TRA_StockTot!U116)</f>
+        <v>2341779</v>
       </c>
       <c r="E2" s="123">
         <f>TRA_StockTot!U115</f>
@@ -55889,22 +55892,22 @@
         <f>TRA_StockTot!U111</f>
         <v>292214</v>
       </c>
-      <c r="H2" s="123">
-        <f>'Alternative Fuel Vehicles'!B28</f>
-        <v>296</v>
+      <c r="H2" s="124">
+        <f>TRA_StockTot!U139</f>
+        <v>512</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="123">
-        <f>'Alternative Fuel Vehicles'!C12</f>
-        <v>284</v>
-      </c>
-      <c r="C3" s="123">
-        <f>SUM('Alternative Fuel Vehicles'!E12:F12)</f>
-        <v>21446</v>
+      <c r="B3" s="124">
+        <f>TRA_StockTot!U153</f>
+        <v>4</v>
+      </c>
+      <c r="C3" s="124">
+        <f>TRA_StockTot!U146</f>
+        <v>397</v>
       </c>
       <c r="D3" s="123">
         <f>TRA_StockTot!U145+TRA_StockTot!U164</f>
@@ -55921,9 +55924,9 @@
         <f>'Alternative Fuel Vehicles'!G12</f>
         <v>0</v>
       </c>
-      <c r="H3" s="123">
-        <f>'Alternative Fuel Vehicles'!B12</f>
-        <v>6</v>
+      <c r="H3" s="124">
+        <f>TRA_StockTot!U158</f>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -55957,7 +55960,7 @@
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="123">
+      <c r="B5" s="6">
         <f>TRA_StockTot!U190</f>
         <v>4566.3906058589173</v>
       </c>
@@ -56046,8 +56049,5 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="C3" formulaRange="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
--- a/InputData/trans/SYVbT/Start Year Vehicles by Technology.xlsx
+++ b/InputData/trans/SYVbT/Start Year Vehicles by Technology.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mary Francis Swint\Vensim\eps-eu\InputData\trans\SYVbT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DCB7B66-A444-42C8-AB97-4E542C12281F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CE7C2F9-0886-4BBE-A00B-1EDFE3EBFBDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="744" firstSheet="3" activeTab="7" xr2:uid="{05A92713-FF8C-4705-B0D9-268054C6A6B1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="744" firstSheet="2" activeTab="7" xr2:uid="{05A92713-FF8C-4705-B0D9-268054C6A6B1}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -1508,9 +1508,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1548,7 +1548,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1654,7 +1654,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1796,7 +1796,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3009,10 +3009,10 @@
   <dimension ref="A1:AG251"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D161" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D216" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A18" sqref="A18"/>
+      <selection pane="bottomRight" activeCell="D222" sqref="D222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -53117,7 +53117,7 @@
   <dimension ref="A1:T58"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScale="60" workbookViewId="0">
-      <selection activeCell="L49" sqref="L49:T49"/>
+      <selection activeCell="P58" sqref="P58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -55709,8 +55709,8 @@
         <v>161</v>
       </c>
       <c r="P57" s="36">
-        <f>'Raw data JRC Other'!D222+'Raw data JRC Other'!D229+'Raw data JRC Other'!D238+'Raw data JRC Other'!D245</f>
-        <v>4178</v>
+        <f>'Raw data JRC Other'!D222+'Raw data JRC Other'!D229</f>
+        <v>2022</v>
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.35">
@@ -55719,11 +55719,11 @@
       </c>
       <c r="P58">
         <f>P57*(1-P56)</f>
-        <v>3935.4910968175541</v>
+        <v>1904.6345135866668</v>
       </c>
       <c r="T58">
         <f>P58</f>
-        <v>3935.4910968175541</v>
+        <v>1904.6345135866668</v>
       </c>
     </row>
   </sheetData>
@@ -56007,7 +56007,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -56197,7 +56197,7 @@
       </c>
       <c r="E6">
         <f>Calculations!P58</f>
-        <v>3935.4910968175541</v>
+        <v>1904.6345135866668</v>
       </c>
       <c r="F6">
         <f>Calculations!Q49</f>
@@ -56474,15 +56474,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="00484652-42e1-479e-92f4-fb0efddcdf60">
@@ -56491,6 +56482,15 @@
     <TaxCatchAll xmlns="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -56513,14 +56513,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B958747-05AB-4C5B-933F-03EB048ECECF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D86501B8-0259-48A1-9C13-881AE5763A57}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -56529,4 +56521,12 @@
     <ds:schemaRef ds:uri="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B958747-05AB-4C5B-933F-03EB048ECECF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/InputData/trans/SYVbT/Start Year Vehicles by Technology.xlsx
+++ b/InputData/trans/SYVbT/Start Year Vehicles by Technology.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mary Francis Swint\Vensim\eps-eu\InputData\trans\SYVbT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CE7C2F9-0886-4BBE-A00B-1EDFE3EBFBDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03FD2AF4-5C02-4842-B627-9F4923B19DF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="744" firstSheet="2" activeTab="7" xr2:uid="{05A92713-FF8C-4705-B0D9-268054C6A6B1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="744" firstSheet="1" activeTab="1" xr2:uid="{05A92713-FF8C-4705-B0D9-268054C6A6B1}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -1810,22 +1810,22 @@
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="10.81640625" style="2"/>
+    <col min="1" max="2" width="10.85546875" style="2"/>
     <col min="3" max="3" width="26" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="10.81640625" style="2"/>
+    <col min="4" max="16384" width="10.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="3"/>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
         <v>1</v>
       </c>
@@ -1836,7 +1836,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="3"/>
       <c r="C14" s="3" t="s">
         <v>4</v>
@@ -1845,84 +1845,84 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="3"/>
       <c r="C15" s="4"/>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="70" t="s">
         <v>7</v>
       </c>
       <c r="C17" s="5"/>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="138" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="5"/>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="138" t="s">
         <v>9</v>
       </c>
       <c r="C19" s="5"/>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="138" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="5"/>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="138" t="s">
         <v>11</v>
       </c>
       <c r="C22" s="5"/>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="138" t="s">
         <v>12</v>
       </c>
       <c r="C23" s="5"/>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
     </row>
@@ -1939,17 +1939,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{357CB24D-1D6B-4122-9DA1-45BAC6D526D4}">
   <dimension ref="A1:E120"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G83" sqref="G83"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -1963,7 +1963,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>15</v>
       </c>
@@ -1971,7 +1971,7 @@
         <v>327835506.99146843</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>16</v>
       </c>
@@ -1983,7 +1983,7 @@
       </c>
       <c r="E3" s="102"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>18</v>
       </c>
@@ -1997,7 +1997,7 @@
         <v>377464.49938113766</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>20</v>
       </c>
@@ -2011,7 +2011,7 @@
         <v>10913.60207637002</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>22</v>
       </c>
@@ -2025,7 +2025,7 @@
         <v>92736.437017180739</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>24</v>
       </c>
@@ -2039,7 +2039,7 @@
         <v>273814.4602875869</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>26</v>
       </c>
@@ -2053,7 +2053,7 @@
         <v>6658.1409445442414</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>28</v>
       </c>
@@ -2067,7 +2067,7 @@
         <v>215.38927813957602</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>30</v>
       </c>
@@ -2081,7 +2081,7 @@
         <v>6442.7516664046652</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>31</v>
       </c>
@@ -2090,7 +2090,7 @@
       </c>
       <c r="E11" s="16"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>32</v>
       </c>
@@ -2104,7 +2104,7 @@
         <v>2609.5848279533971</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>22</v>
       </c>
@@ -2118,7 +2118,7 @@
         <v>2473.626992400099</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>24</v>
       </c>
@@ -2132,7 +2132,7 @@
         <v>125.51628099055287</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>26</v>
       </c>
@@ -2146,7 +2146,7 @@
         <v>754.56742128280655</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>28</v>
       </c>
@@ -2160,7 +2160,7 @@
         <v>1593.5432901267395</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>31</v>
       </c>
@@ -2174,7 +2174,7 @@
         <v>135.95783555329817</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>34</v>
       </c>
@@ -2188,7 +2188,7 @@
         <v>9.1876875380647771</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>35</v>
       </c>
@@ -2202,7 +2202,7 @@
         <v>126.7701480152334</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>22</v>
       </c>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="E20" s="16"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>24</v>
       </c>
@@ -2225,7 +2225,7 @@
         <v>1913337</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>26</v>
       </c>
@@ -2239,7 +2239,7 @@
         <v>1859073</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>28</v>
       </c>
@@ -2253,7 +2253,7 @@
         <v>263203</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>31</v>
       </c>
@@ -2267,7 +2267,7 @@
         <v>1124284</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>37</v>
       </c>
@@ -2281,7 +2281,7 @@
         <v>471585.99999999994</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>21</v>
       </c>
@@ -2295,7 +2295,7 @@
         <v>54264</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>38</v>
       </c>
@@ -2309,7 +2309,7 @@
         <v>17901</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D28" s="21" t="s">
         <v>25</v>
       </c>
@@ -2317,7 +2317,7 @@
         <v>36363</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>39</v>
       </c>
@@ -2325,7 +2325,7 @@
         <v>8854.0777976351601</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="24" t="s">
         <v>16</v>
       </c>
@@ -2337,7 +2337,7 @@
       </c>
       <c r="E30" s="20"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="22" t="s">
         <v>21</v>
       </c>
@@ -2351,7 +2351,7 @@
         <v>242091488</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="22" t="s">
         <v>23</v>
       </c>
@@ -2365,7 +2365,7 @@
         <v>22885420</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="22" t="s">
         <v>25</v>
       </c>
@@ -2379,7 +2379,7 @@
         <v>138174654</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="23" t="s">
         <v>34</v>
       </c>
@@ -2393,7 +2393,7 @@
         <v>81031414</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="22" t="s">
         <v>29</v>
       </c>
@@ -2407,7 +2407,7 @@
         <v>2267709.2929717926</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="21" t="s">
         <v>25</v>
       </c>
@@ -2421,7 +2421,7 @@
         <v>419657.6616262116</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D37" s="21" t="s">
         <v>25</v>
       </c>
@@ -2429,7 +2429,7 @@
         <v>1848051.6313455808</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D39" s="14" t="s">
         <v>39</v>
       </c>
@@ -2437,7 +2437,7 @@
         <v>1688.128457276671</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D40" s="24" t="s">
         <v>16</v>
       </c>
@@ -2445,7 +2445,7 @@
         <v>1607.642640613188</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D41" s="22" t="s">
         <v>21</v>
       </c>
@@ -2453,7 +2453,7 @@
         <v>136.969297198725</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D42" s="22" t="s">
         <v>23</v>
       </c>
@@ -2461,7 +2461,7 @@
         <v>633.04279279279297</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D43" s="22" t="s">
         <v>25</v>
       </c>
@@ -2469,7 +2469,7 @@
         <v>837.63055062166995</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D44" s="23" t="s">
         <v>34</v>
       </c>
@@ -2477,7 +2477,7 @@
         <v>80.485816663482993</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D45" s="22" t="s">
         <v>29</v>
       </c>
@@ -2485,7 +2485,7 @@
         <v>16.485103132161999</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D46" s="21" t="s">
         <v>25</v>
       </c>
@@ -2493,7 +2493,7 @@
         <v>64.000713531320997</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D48" s="14" t="s">
         <v>43</v>
       </c>
@@ -2501,7 +2501,7 @@
         <v>1674.497023245706</v>
       </c>
     </row>
-    <row r="49" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D49" s="24" t="s">
         <v>16</v>
       </c>
@@ -2509,7 +2509,7 @@
         <v>1594.0112065822229</v>
       </c>
     </row>
-    <row r="50" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D50" s="22" t="s">
         <v>21</v>
       </c>
@@ -2517,7 +2517,7 @@
         <v>123.33786316776001</v>
       </c>
     </row>
-    <row r="51" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D51" s="22" t="s">
         <v>23</v>
       </c>
@@ -2525,7 +2525,7 @@
         <v>633.04279279279297</v>
       </c>
     </row>
-    <row r="52" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D52" s="22" t="s">
         <v>25</v>
       </c>
@@ -2533,7 +2533,7 @@
         <v>837.63055062166995</v>
       </c>
     </row>
-    <row r="53" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D53" s="23" t="s">
         <v>34</v>
       </c>
@@ -2541,7 +2541,7 @@
         <v>80.485816663482993</v>
       </c>
     </row>
-    <row r="54" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D54" s="22" t="s">
         <v>29</v>
       </c>
@@ -2549,7 +2549,7 @@
         <v>16.485103132161999</v>
       </c>
     </row>
-    <row r="55" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D55" s="21" t="s">
         <v>25</v>
       </c>
@@ -2557,7 +2557,7 @@
         <v>64.000713531320997</v>
       </c>
     </row>
-    <row r="57" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D57" s="14" t="s">
         <v>44</v>
       </c>
@@ -2565,7 +2565,7 @@
         <v>83.600020599576894</v>
       </c>
     </row>
-    <row r="58" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D58" s="24" t="s">
         <v>16</v>
       </c>
@@ -2573,7 +2573,7 @@
         <v>81.206615141762882</v>
       </c>
     </row>
-    <row r="59" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D59" s="22" t="s">
         <v>21</v>
       </c>
@@ -2581,7 +2581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D60" s="22" t="s">
         <v>23</v>
       </c>
@@ -2589,7 +2589,7 @@
         <v>42.50539376196491</v>
       </c>
     </row>
-    <row r="61" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D61" s="22" t="s">
         <v>25</v>
       </c>
@@ -2597,7 +2597,7 @@
         <v>38.701221379797971</v>
       </c>
     </row>
-    <row r="62" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D62" s="23" t="s">
         <v>34</v>
       </c>
@@ -2605,7 +2605,7 @@
         <v>2.3934054578140085</v>
       </c>
     </row>
-    <row r="63" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D63" s="22" t="s">
         <v>29</v>
       </c>
@@ -2613,7 +2613,7 @@
         <v>0.87423703090800231</v>
       </c>
     </row>
-    <row r="64" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D64" s="21" t="s">
         <v>25</v>
       </c>
@@ -2621,19 +2621,19 @@
         <v>1.5191684269060062</v>
       </c>
     </row>
-    <row r="66" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D66" s="83" t="s">
         <v>45</v>
       </c>
       <c r="E66" s="118"/>
     </row>
-    <row r="68" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D68" s="14" t="s">
         <v>46</v>
       </c>
       <c r="E68" s="102"/>
     </row>
-    <row r="69" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D69" s="24" t="s">
         <v>47</v>
       </c>
@@ -2641,7 +2641,7 @@
         <v>130.22161475100762</v>
       </c>
     </row>
-    <row r="70" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D70" s="22" t="s">
         <v>21</v>
       </c>
@@ -2649,7 +2649,7 @@
         <v>86.949692822650192</v>
       </c>
     </row>
-    <row r="71" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D71" s="22" t="s">
         <v>23</v>
       </c>
@@ -2657,7 +2657,7 @@
         <v>122.90013377402863</v>
       </c>
     </row>
-    <row r="72" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D72" s="22" t="s">
         <v>25</v>
       </c>
@@ -2665,7 +2665,7 @@
         <v>171.82743762537481</v>
       </c>
     </row>
-    <row r="73" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D73" s="23" t="s">
         <v>48</v>
       </c>
@@ -2673,7 +2673,7 @@
         <v>41.790308362298994</v>
       </c>
     </row>
-    <row r="74" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D74" s="22" t="s">
         <v>29</v>
       </c>
@@ -2681,7 +2681,7 @@
         <v>23.443252423116675</v>
       </c>
     </row>
-    <row r="75" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D75" s="21" t="s">
         <v>25</v>
       </c>
@@ -2689,13 +2689,13 @@
         <v>50.822309252415387</v>
       </c>
     </row>
-    <row r="77" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D77" s="14" t="s">
         <v>49</v>
       </c>
       <c r="E77" s="102"/>
     </row>
-    <row r="78" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D78" s="24" t="s">
         <v>16</v>
       </c>
@@ -2703,7 +2703,7 @@
         <v>1330.5701241425693</v>
       </c>
     </row>
-    <row r="79" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="79" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D79" s="22" t="s">
         <v>21</v>
       </c>
@@ -2711,7 +2711,7 @@
         <v>476.88013050973154</v>
       </c>
     </row>
-    <row r="80" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D80" s="22" t="s">
         <v>23</v>
       </c>
@@ -2719,7 +2719,7 @@
         <v>671.15374877060117</v>
       </c>
     </row>
-    <row r="81" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D81" s="22" t="s">
         <v>25</v>
       </c>
@@ -2727,7 +2727,7 @@
         <v>3379.1149231036115</v>
       </c>
     </row>
-    <row r="82" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D82" s="23" t="s">
         <v>34</v>
       </c>
@@ -2735,7 +2735,7 @@
         <v>2505.4886398588046</v>
       </c>
     </row>
-    <row r="83" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D83" s="22" t="s">
         <v>29</v>
       </c>
@@ -2743,7 +2743,7 @@
         <v>513.24996022930441</v>
       </c>
     </row>
-    <row r="84" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D84" s="21" t="s">
         <v>25</v>
       </c>
@@ -2751,13 +2751,13 @@
         <v>3486.2400796203119</v>
       </c>
     </row>
-    <row r="86" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D86" s="14" t="s">
         <v>50</v>
       </c>
       <c r="E86" s="102"/>
     </row>
-    <row r="87" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D87" s="24" t="s">
         <v>51</v>
       </c>
@@ -2765,7 +2765,7 @@
         <v>203039.09495815259</v>
       </c>
     </row>
-    <row r="88" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="88" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D88" s="22" t="s">
         <v>21</v>
       </c>
@@ -2773,7 +2773,7 @@
         <v>41464.580861046496</v>
       </c>
     </row>
-    <row r="89" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D89" s="22" t="s">
         <v>23</v>
       </c>
@@ -2781,7 +2781,7 @@
         <v>82484.885506847684</v>
       </c>
     </row>
-    <row r="90" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D90" s="22" t="s">
         <v>25</v>
       </c>
@@ -2789,7 +2789,7 @@
         <v>580624.658678559</v>
       </c>
     </row>
-    <row r="91" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="91" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D91" s="23" t="s">
         <v>52</v>
       </c>
@@ -2797,7 +2797,7 @@
         <v>122699.0443856745</v>
       </c>
     </row>
-    <row r="92" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D92" s="22" t="s">
         <v>29</v>
       </c>
@@ -2805,7 +2805,7 @@
         <v>12032.24837381018</v>
       </c>
     </row>
-    <row r="93" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="93" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D93" s="21" t="s">
         <v>25</v>
       </c>
@@ -2813,13 +2813,13 @@
         <v>177178.77145462873</v>
       </c>
     </row>
-    <row r="95" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="95" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D95" s="14" t="s">
         <v>53</v>
       </c>
       <c r="E95" s="102"/>
     </row>
-    <row r="96" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="96" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D96" s="24" t="s">
         <v>16</v>
       </c>
@@ -2827,7 +2827,7 @@
         <v>1166.2860288078562</v>
       </c>
     </row>
-    <row r="97" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="97" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D97" s="22" t="s">
         <v>21</v>
       </c>
@@ -2835,7 +2835,7 @@
         <v>2134.0000000000014</v>
       </c>
     </row>
-    <row r="98" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="98" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D98" s="22" t="s">
         <v>23</v>
       </c>
@@ -2843,7 +2843,7 @@
         <v>1775.9999999999995</v>
       </c>
     </row>
-    <row r="99" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="99" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D99" s="22" t="s">
         <v>25</v>
       </c>
@@ -2851,7 +2851,7 @@
         <v>562.99999999999966</v>
       </c>
     </row>
-    <row r="100" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="100" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D100" s="23" t="s">
         <v>34</v>
       </c>
@@ -2859,7 +2859,7 @@
         <v>674.20574517969669</v>
       </c>
     </row>
-    <row r="101" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="101" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D101" s="22" t="s">
         <v>29</v>
       </c>
@@ -2867,7 +2867,7 @@
         <v>1085.8894758793242</v>
       </c>
     </row>
-    <row r="102" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="102" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D102" s="21" t="s">
         <v>25</v>
       </c>
@@ -2875,13 +2875,13 @@
         <v>568.16554056392647</v>
       </c>
     </row>
-    <row r="104" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="104" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D104" s="14" t="s">
         <v>54</v>
       </c>
       <c r="E104" s="95"/>
     </row>
-    <row r="105" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="105" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D105" s="24" t="s">
         <v>55</v>
       </c>
@@ -2889,7 +2889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="106" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D106" s="22" t="s">
         <v>21</v>
       </c>
@@ -2897,7 +2897,7 @@
         <v>2.8912923186851052E-2</v>
       </c>
     </row>
-    <row r="107" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="107" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D107" s="22" t="s">
         <v>23</v>
       </c>
@@ -2905,7 +2905,7 @@
         <v>0.24568254013085841</v>
       </c>
     </row>
-    <row r="108" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="108" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D108" s="22" t="s">
         <v>25</v>
       </c>
@@ -2913,7 +2913,7 @@
         <v>0.72540453668229055</v>
       </c>
     </row>
-    <row r="109" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="109" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D109" s="23" t="s">
         <v>56</v>
       </c>
@@ -2921,7 +2921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="110" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D110" s="22" t="s">
         <v>29</v>
       </c>
@@ -2929,7 +2929,7 @@
         <v>3.2349762483785884E-2</v>
       </c>
     </row>
-    <row r="111" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="111" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D111" s="21" t="s">
         <v>25</v>
       </c>
@@ -2937,13 +2937,13 @@
         <v>0.96765023751621404</v>
       </c>
     </row>
-    <row r="113" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="113" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D113" s="14" t="s">
         <v>57</v>
       </c>
       <c r="E113" s="95"/>
     </row>
-    <row r="114" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="114" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D114" s="24" t="s">
         <v>16</v>
       </c>
@@ -2951,7 +2951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="115" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D115" s="22" t="s">
         <v>21</v>
       </c>
@@ -2959,7 +2959,7 @@
         <v>5.0741797925146159E-2</v>
       </c>
     </row>
-    <row r="116" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="116" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D116" s="22" t="s">
         <v>23</v>
       </c>
@@ -2967,7 +2967,7 @@
         <v>0.30504494962301026</v>
       </c>
     </row>
-    <row r="117" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="117" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D117" s="22" t="s">
         <v>25</v>
       </c>
@@ -2975,7 +2975,7 @@
         <v>0.64421325245184358</v>
       </c>
     </row>
-    <row r="118" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="118" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D118" s="23" t="s">
         <v>34</v>
       </c>
@@ -2983,7 +2983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="119" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D119" s="22" t="s">
         <v>29</v>
       </c>
@@ -2991,7 +2991,7 @@
         <v>6.7577477242663386E-2</v>
       </c>
     </row>
-    <row r="120" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="120" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D120" s="21" t="s">
         <v>25</v>
       </c>
@@ -3015,16 +3015,16 @@
       <selection pane="bottomRight" activeCell="D222" sqref="D222"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.81640625" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="8.81640625" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="13.453125" customWidth="1"/>
-    <col min="5" max="33" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="5" max="33" width="7.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
         <v>58</v>
       </c>
@@ -3125,7 +3125,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" s="29"/>
       <c r="B2" s="30"/>
       <c r="C2" s="30"/>
@@ -3160,7 +3160,7 @@
       <c r="AF2" s="30"/>
       <c r="AG2" s="30"/>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
         <v>59</v>
       </c>
@@ -3197,7 +3197,7 @@
       <c r="AF3" s="32"/>
       <c r="AG3" s="32"/>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
         <v>16</v>
       </c>
@@ -3234,7 +3234,7 @@
       <c r="AF4" s="34"/>
       <c r="AG4" s="34"/>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="35" t="s">
         <v>60</v>
       </c>
@@ -3335,7 +3335,7 @@
         <v>393783978</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="38" t="s">
         <v>18</v>
       </c>
@@ -3436,7 +3436,7 @@
         <v>80506210</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="40" t="s">
         <v>20</v>
       </c>
@@ -3537,7 +3537,7 @@
         <v>312281036</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="40" t="s">
         <v>32</v>
       </c>
@@ -3638,7 +3638,7 @@
         <v>996732</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="35" t="s">
         <v>61</v>
       </c>
@@ -3739,7 +3739,7 @@
         <v>35955</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="38" t="s">
         <v>62</v>
       </c>
@@ -3840,7 +3840,7 @@
         <v>14750</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="40" t="s">
         <v>63</v>
       </c>
@@ -3941,7 +3941,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="40" t="s">
         <v>64</v>
       </c>
@@ -4042,7 +4042,7 @@
         <v>19775</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" s="35" t="s">
         <v>65</v>
       </c>
@@ -4143,7 +4143,7 @@
         <v>38747747</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
         <v>21</v>
       </c>
@@ -4244,7 +4244,7 @@
         <v>3261850</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" s="40" t="s">
         <v>23</v>
       </c>
@@ -4345,7 +4345,7 @@
         <v>26285443</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="40" t="s">
         <v>25</v>
       </c>
@@ -4446,7 +4446,7 @@
         <v>9200454</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" s="33" t="s">
         <v>34</v>
       </c>
@@ -4483,7 +4483,7 @@
       <c r="AF17" s="34"/>
       <c r="AG17" s="34"/>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" s="35" t="s">
         <v>60</v>
       </c>
@@ -4584,7 +4584,7 @@
         <v>52156647</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" s="40" t="s">
         <v>66</v>
       </c>
@@ -4685,7 +4685,7 @@
         <v>43490302</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" s="43" t="s">
         <v>67</v>
       </c>
@@ -4786,7 +4786,7 @@
         <v>8666345</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" s="35" t="s">
         <v>68</v>
       </c>
@@ -4887,7 +4887,7 @@
         <v>8949</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" s="35" t="s">
         <v>65</v>
       </c>
@@ -4988,7 +4988,7 @@
         <v>2857657</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" s="38" t="s">
         <v>29</v>
       </c>
@@ -5089,7 +5089,7 @@
         <v>1634020</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24" s="43" t="s">
         <v>25</v>
       </c>
@@ -5190,7 +5190,7 @@
         <v>1223638</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A25" s="35" t="s">
         <v>69</v>
       </c>
@@ -5291,7 +5291,7 @@
         <v>2737.3</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A26" s="40" t="s">
         <v>70</v>
       </c>
@@ -5392,7 +5392,7 @@
         <v>1187.4000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A27" s="43" t="s">
         <v>71</v>
       </c>
@@ -5493,7 +5493,7 @@
         <v>1549.9</v>
       </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A28" s="48"/>
       <c r="B28" s="30"/>
       <c r="C28" s="30"/>
@@ -5528,7 +5528,7 @@
       <c r="AF28" s="30"/>
       <c r="AG28" s="30"/>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A29" s="49"/>
       <c r="B29" s="50"/>
       <c r="C29" s="50"/>
@@ -5563,7 +5563,7 @@
       <c r="AF29" s="50"/>
       <c r="AG29" s="50"/>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A30" s="31" t="s">
         <v>60</v>
       </c>
@@ -5664,7 +5664,7 @@
         <v>445940625</v>
       </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A31" s="52" t="s">
         <v>16</v>
       </c>
@@ -5765,7 +5765,7 @@
         <v>393783978</v>
       </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A32" s="54" t="s">
         <v>18</v>
       </c>
@@ -5866,7 +5866,7 @@
         <v>80506210</v>
       </c>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A33" s="56" t="s">
         <v>72</v>
       </c>
@@ -5967,7 +5967,7 @@
         <v>49309742</v>
       </c>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A34" s="58" t="s">
         <v>73</v>
       </c>
@@ -6068,7 +6068,7 @@
         <v>49309742</v>
       </c>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A35" s="58" t="s">
         <v>74</v>
       </c>
@@ -6169,7 +6169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A36" s="58" t="s">
         <v>75</v>
       </c>
@@ -6270,7 +6270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A37" s="56" t="s">
         <v>76</v>
       </c>
@@ -6371,7 +6371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A38" s="58" t="s">
         <v>73</v>
       </c>
@@ -6472,7 +6472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A39" s="56" t="s">
         <v>77</v>
       </c>
@@ -6573,7 +6573,7 @@
         <v>31196468</v>
       </c>
     </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A40" s="58" t="s">
         <v>78</v>
       </c>
@@ -6674,7 +6674,7 @@
         <v>31196468</v>
       </c>
     </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A41" s="58" t="s">
         <v>79</v>
       </c>
@@ -6775,7 +6775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A42" s="58" t="s">
         <v>80</v>
       </c>
@@ -6876,7 +6876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A43" s="56" t="s">
         <v>81</v>
       </c>
@@ -6977,7 +6977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A44" s="58" t="s">
         <v>82</v>
       </c>
@@ -7078,7 +7078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A45" s="54" t="s">
         <v>20</v>
       </c>
@@ -7179,7 +7179,7 @@
         <v>312281036</v>
       </c>
     </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A46" s="56" t="s">
         <v>72</v>
       </c>
@@ -7280,7 +7280,7 @@
         <v>188145308</v>
       </c>
     </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A47" s="58" t="s">
         <v>83</v>
       </c>
@@ -7381,7 +7381,7 @@
         <v>5129305</v>
       </c>
     </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A48" s="58" t="s">
         <v>73</v>
       </c>
@@ -7482,7 +7482,7 @@
         <v>105650949</v>
       </c>
     </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A49" s="58" t="s">
         <v>84</v>
       </c>
@@ -7583,7 +7583,7 @@
         <v>5897974</v>
       </c>
     </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A50" s="58" t="s">
         <v>85</v>
       </c>
@@ -7684,7 +7684,7 @@
         <v>1802791</v>
       </c>
     </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A51" s="58" t="s">
         <v>74</v>
       </c>
@@ -7785,7 +7785,7 @@
         <v>68520575</v>
       </c>
     </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A52" s="58" t="s">
         <v>75</v>
       </c>
@@ -7886,7 +7886,7 @@
         <v>1143714</v>
       </c>
     </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A53" s="58" t="s">
         <v>86</v>
       </c>
@@ -7987,7 +7987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A54" s="56"/>
       <c r="B54" s="59"/>
       <c r="C54" s="59"/>
@@ -8022,7 +8022,7 @@
       <c r="AF54" s="59"/>
       <c r="AG54" s="59"/>
     </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A55" s="58"/>
       <c r="B55" s="42"/>
       <c r="C55" s="42"/>
@@ -8057,7 +8057,7 @@
       <c r="AF55" s="42"/>
       <c r="AG55" s="42"/>
     </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A56" s="58"/>
       <c r="B56" s="42"/>
       <c r="C56" s="42"/>
@@ -8092,7 +8092,7 @@
       <c r="AF56" s="42"/>
       <c r="AG56" s="42"/>
     </row>
-    <row r="57" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A57" s="58"/>
       <c r="B57" s="42"/>
       <c r="C57" s="42"/>
@@ -8127,7 +8127,7 @@
       <c r="AF57" s="42"/>
       <c r="AG57" s="42"/>
     </row>
-    <row r="58" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A58" s="58"/>
       <c r="B58" s="42"/>
       <c r="C58" s="42"/>
@@ -8162,7 +8162,7 @@
       <c r="AF58" s="42"/>
       <c r="AG58" s="42"/>
     </row>
-    <row r="59" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A59" s="58"/>
       <c r="B59" s="42"/>
       <c r="C59" s="42"/>
@@ -8197,7 +8197,7 @@
       <c r="AF59" s="42"/>
       <c r="AG59" s="42"/>
     </row>
-    <row r="60" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A60" s="58"/>
       <c r="B60" s="42"/>
       <c r="C60" s="42"/>
@@ -8232,7 +8232,7 @@
       <c r="AF60" s="42"/>
       <c r="AG60" s="42"/>
     </row>
-    <row r="61" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A61" s="58"/>
       <c r="B61" s="42"/>
       <c r="C61" s="42"/>
@@ -8267,7 +8267,7 @@
       <c r="AF61" s="42"/>
       <c r="AG61" s="42"/>
     </row>
-    <row r="62" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A62" s="56" t="s">
         <v>76</v>
       </c>
@@ -8368,7 +8368,7 @@
         <v>32149494</v>
       </c>
     </row>
-    <row r="63" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A63" s="58" t="s">
         <v>83</v>
       </c>
@@ -8469,7 +8469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A64" s="58" t="s">
         <v>73</v>
       </c>
@@ -8570,7 +8570,7 @@
         <v>32149323</v>
       </c>
     </row>
-    <row r="65" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A65" s="58" t="s">
         <v>84</v>
       </c>
@@ -8671,7 +8671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A66" s="58" t="s">
         <v>85</v>
       </c>
@@ -8772,7 +8772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A67" s="58" t="s">
         <v>74</v>
       </c>
@@ -8873,7 +8873,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="68" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A68" s="58" t="s">
         <v>75</v>
       </c>
@@ -8974,7 +8974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A69" s="58" t="s">
         <v>86</v>
       </c>
@@ -9075,7 +9075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A70" s="56" t="s">
         <v>77</v>
       </c>
@@ -9176,7 +9176,7 @@
         <v>88167271</v>
       </c>
     </row>
-    <row r="71" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A71" s="58" t="s">
         <v>78</v>
       </c>
@@ -9277,7 +9277,7 @@
         <v>68754176</v>
       </c>
     </row>
-    <row r="72" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A72" s="58" t="s">
         <v>79</v>
       </c>
@@ -9378,7 +9378,7 @@
         <v>19413095</v>
       </c>
     </row>
-    <row r="73" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A73" s="58" t="s">
         <v>80</v>
       </c>
@@ -9479,7 +9479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A74" s="58" t="s">
         <v>87</v>
       </c>
@@ -9580,7 +9580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A75" s="56" t="s">
         <v>81</v>
       </c>
@@ -9681,7 +9681,7 @@
         <v>3818963</v>
       </c>
     </row>
-    <row r="76" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A76" s="58" t="s">
         <v>82</v>
       </c>
@@ -9782,7 +9782,7 @@
         <v>3270716</v>
       </c>
     </row>
-    <row r="77" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A77" s="58" t="s">
         <v>88</v>
       </c>
@@ -9883,7 +9883,7 @@
         <v>548247</v>
       </c>
     </row>
-    <row r="78" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A78" s="54" t="s">
         <v>32</v>
       </c>
@@ -9984,7 +9984,7 @@
         <v>996732</v>
       </c>
     </row>
-    <row r="79" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A79" s="56" t="s">
         <v>72</v>
       </c>
@@ -10085,7 +10085,7 @@
         <v>655057</v>
       </c>
     </row>
-    <row r="80" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A80" s="58" t="s">
         <v>83</v>
       </c>
@@ -10186,7 +10186,7 @@
         <v>2177</v>
       </c>
     </row>
-    <row r="81" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A81" s="58" t="s">
         <v>73</v>
       </c>
@@ -10287,7 +10287,7 @@
         <v>3534</v>
       </c>
     </row>
-    <row r="82" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A82" s="58" t="s">
         <v>84</v>
       </c>
@@ -10388,7 +10388,7 @@
         <v>103905</v>
       </c>
     </row>
-    <row r="83" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A83" s="58" t="s">
         <v>74</v>
       </c>
@@ -10489,7 +10489,7 @@
         <v>524052</v>
       </c>
     </row>
-    <row r="84" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A84" s="58" t="s">
         <v>75</v>
       </c>
@@ -10590,7 +10590,7 @@
         <v>10609</v>
       </c>
     </row>
-    <row r="85" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A85" s="58" t="s">
         <v>89</v>
       </c>
@@ -10691,7 +10691,7 @@
         <v>10780</v>
       </c>
     </row>
-    <row r="86" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A86" s="56"/>
       <c r="B86" s="59"/>
       <c r="C86" s="59"/>
@@ -10726,7 +10726,7 @@
       <c r="AF86" s="59"/>
       <c r="AG86" s="59"/>
     </row>
-    <row r="87" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A87" s="58"/>
       <c r="B87" s="42"/>
       <c r="C87" s="42"/>
@@ -10761,7 +10761,7 @@
       <c r="AF87" s="42"/>
       <c r="AG87" s="42"/>
     </row>
-    <row r="88" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A88" s="58"/>
       <c r="B88" s="42"/>
       <c r="C88" s="42"/>
@@ -10796,7 +10796,7 @@
       <c r="AF88" s="42"/>
       <c r="AG88" s="42"/>
     </row>
-    <row r="89" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A89" s="58"/>
       <c r="B89" s="42"/>
       <c r="C89" s="42"/>
@@ -10831,7 +10831,7 @@
       <c r="AF89" s="42"/>
       <c r="AG89" s="42"/>
     </row>
-    <row r="90" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A90" s="58"/>
       <c r="B90" s="42"/>
       <c r="C90" s="42"/>
@@ -10866,7 +10866,7 @@
       <c r="AF90" s="42"/>
       <c r="AG90" s="42"/>
     </row>
-    <row r="91" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A91" s="58"/>
       <c r="B91" s="42"/>
       <c r="C91" s="42"/>
@@ -10901,7 +10901,7 @@
       <c r="AF91" s="42"/>
       <c r="AG91" s="42"/>
     </row>
-    <row r="92" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A92" s="58"/>
       <c r="B92" s="42"/>
       <c r="C92" s="42"/>
@@ -10936,7 +10936,7 @@
       <c r="AF92" s="42"/>
       <c r="AG92" s="42"/>
     </row>
-    <row r="93" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A93" s="56" t="s">
         <v>76</v>
       </c>
@@ -11037,7 +11037,7 @@
         <v>13647</v>
       </c>
     </row>
-    <row r="94" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A94" s="58" t="s">
         <v>83</v>
       </c>
@@ -11138,7 +11138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A95" s="58" t="s">
         <v>73</v>
       </c>
@@ -11239,7 +11239,7 @@
         <v>9901</v>
       </c>
     </row>
-    <row r="96" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A96" s="58" t="s">
         <v>84</v>
       </c>
@@ -11340,7 +11340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A97" s="58" t="s">
         <v>74</v>
       </c>
@@ -11441,7 +11441,7 @@
         <v>3746</v>
       </c>
     </row>
-    <row r="98" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A98" s="58" t="s">
         <v>75</v>
       </c>
@@ -11542,7 +11542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A99" s="58" t="s">
         <v>89</v>
       </c>
@@ -11643,7 +11643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A100" s="56" t="s">
         <v>77</v>
       </c>
@@ -11744,7 +11744,7 @@
         <v>262749</v>
       </c>
     </row>
-    <row r="101" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A101" s="58" t="s">
         <v>78</v>
       </c>
@@ -11845,7 +11845,7 @@
         <v>222170</v>
       </c>
     </row>
-    <row r="102" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A102" s="58" t="s">
         <v>79</v>
       </c>
@@ -11946,7 +11946,7 @@
         <v>7575</v>
       </c>
     </row>
-    <row r="103" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A103" s="58" t="s">
         <v>80</v>
       </c>
@@ -12047,7 +12047,7 @@
         <v>33004</v>
       </c>
     </row>
-    <row r="104" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A104" s="58" t="s">
         <v>87</v>
       </c>
@@ -12148,7 +12148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A105" s="56" t="s">
         <v>81</v>
       </c>
@@ -12249,7 +12249,7 @@
         <v>65279</v>
       </c>
     </row>
-    <row r="106" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A106" s="58" t="s">
         <v>82</v>
       </c>
@@ -12350,7 +12350,7 @@
         <v>58533</v>
       </c>
     </row>
-    <row r="107" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A107" s="58" t="s">
         <v>90</v>
       </c>
@@ -12451,7 +12451,7 @@
         <v>6746</v>
       </c>
     </row>
-    <row r="108" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A108" s="52" t="s">
         <v>34</v>
       </c>
@@ -12552,7 +12552,7 @@
         <v>52156647</v>
       </c>
     </row>
-    <row r="109" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A109" s="54" t="s">
         <v>66</v>
       </c>
@@ -12653,7 +12653,7 @@
         <v>43490302</v>
       </c>
     </row>
-    <row r="110" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A110" s="56" t="s">
         <v>72</v>
       </c>
@@ -12754,7 +12754,7 @@
         <v>24914392</v>
       </c>
     </row>
-    <row r="111" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A111" s="58" t="s">
         <v>83</v>
       </c>
@@ -12855,7 +12855,7 @@
         <v>275435</v>
       </c>
     </row>
-    <row r="112" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A112" s="58" t="s">
         <v>73</v>
       </c>
@@ -12956,7 +12956,7 @@
         <v>2025432</v>
       </c>
     </row>
-    <row r="113" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A113" s="58" t="s">
         <v>84</v>
       </c>
@@ -13057,7 +13057,7 @@
         <v>740673</v>
       </c>
     </row>
-    <row r="114" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A114" s="58" t="s">
         <v>85</v>
       </c>
@@ -13158,7 +13158,7 @@
         <v>211544</v>
       </c>
     </row>
-    <row r="115" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A115" s="58" t="s">
         <v>74</v>
       </c>
@@ -13259,7 +13259,7 @@
         <v>21521228</v>
       </c>
     </row>
-    <row r="116" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A116" s="58" t="s">
         <v>75</v>
       </c>
@@ -13360,7 +13360,7 @@
         <v>140080</v>
       </c>
     </row>
-    <row r="117" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A117" s="58" t="s">
         <v>86</v>
       </c>
@@ -13461,7 +13461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A118" s="56"/>
       <c r="B118" s="59"/>
       <c r="C118" s="59"/>
@@ -13496,7 +13496,7 @@
       <c r="AF118" s="59"/>
       <c r="AG118" s="59"/>
     </row>
-    <row r="119" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A119" s="58"/>
       <c r="B119" s="42"/>
       <c r="C119" s="42"/>
@@ -13531,7 +13531,7 @@
       <c r="AF119" s="42"/>
       <c r="AG119" s="42"/>
     </row>
-    <row r="120" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A120" s="58"/>
       <c r="B120" s="42"/>
       <c r="C120" s="42"/>
@@ -13566,7 +13566,7 @@
       <c r="AF120" s="42"/>
       <c r="AG120" s="42"/>
     </row>
-    <row r="121" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A121" s="58"/>
       <c r="B121" s="42"/>
       <c r="C121" s="42"/>
@@ -13601,7 +13601,7 @@
       <c r="AF121" s="42"/>
       <c r="AG121" s="42"/>
     </row>
-    <row r="122" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A122" s="58"/>
       <c r="B122" s="42"/>
       <c r="C122" s="42"/>
@@ -13636,7 +13636,7 @@
       <c r="AF122" s="42"/>
       <c r="AG122" s="42"/>
     </row>
-    <row r="123" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A123" s="58"/>
       <c r="B123" s="42"/>
       <c r="C123" s="42"/>
@@ -13671,7 +13671,7 @@
       <c r="AF123" s="42"/>
       <c r="AG123" s="42"/>
     </row>
-    <row r="124" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A124" s="58"/>
       <c r="B124" s="42"/>
       <c r="C124" s="42"/>
@@ -13706,7 +13706,7 @@
       <c r="AF124" s="42"/>
       <c r="AG124" s="42"/>
     </row>
-    <row r="125" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A125" s="58"/>
       <c r="B125" s="42"/>
       <c r="C125" s="42"/>
@@ -13741,7 +13741,7 @@
       <c r="AF125" s="42"/>
       <c r="AG125" s="42"/>
     </row>
-    <row r="126" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A126" s="56" t="s">
         <v>76</v>
       </c>
@@ -13842,7 +13842,7 @@
         <v>6555702</v>
       </c>
     </row>
-    <row r="127" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A127" s="58" t="s">
         <v>83</v>
       </c>
@@ -13943,7 +13943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A128" s="58" t="s">
         <v>73</v>
       </c>
@@ -14044,7 +14044,7 @@
         <v>636630</v>
       </c>
     </row>
-    <row r="129" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A129" s="58" t="s">
         <v>84</v>
       </c>
@@ -14145,7 +14145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A130" s="58" t="s">
         <v>85</v>
       </c>
@@ -14246,7 +14246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A131" s="58" t="s">
         <v>74</v>
       </c>
@@ -14347,7 +14347,7 @@
         <v>5919072</v>
       </c>
     </row>
-    <row r="132" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A132" s="58" t="s">
         <v>75</v>
       </c>
@@ -14448,7 +14448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A133" s="58" t="s">
         <v>86</v>
       </c>
@@ -14549,7 +14549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A134" s="56" t="s">
         <v>77</v>
       </c>
@@ -14650,7 +14650,7 @@
         <v>11496650</v>
       </c>
     </row>
-    <row r="135" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A135" s="58" t="s">
         <v>78</v>
       </c>
@@ -14751,7 +14751,7 @@
         <v>8733268</v>
       </c>
     </row>
-    <row r="136" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A136" s="58" t="s">
         <v>79</v>
       </c>
@@ -14852,7 +14852,7 @@
         <v>2763382</v>
       </c>
     </row>
-    <row r="137" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A137" s="58" t="s">
         <v>80</v>
       </c>
@@ -14953,7 +14953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A138" s="58" t="s">
         <v>87</v>
       </c>
@@ -15054,7 +15054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A139" s="56" t="s">
         <v>81</v>
       </c>
@@ -15155,7 +15155,7 @@
         <v>523558</v>
       </c>
     </row>
-    <row r="140" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A140" s="58" t="s">
         <v>82</v>
       </c>
@@ -15256,7 +15256,7 @@
         <v>450759</v>
       </c>
     </row>
-    <row r="141" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A141" s="58" t="s">
         <v>88</v>
       </c>
@@ -15357,7 +15357,7 @@
         <v>72799</v>
       </c>
     </row>
-    <row r="142" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A142" s="54" t="s">
         <v>91</v>
       </c>
@@ -15458,7 +15458,7 @@
         <v>7813580</v>
       </c>
     </row>
-    <row r="143" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A143" s="56" t="s">
         <v>72</v>
       </c>
@@ -15559,7 +15559,7 @@
         <v>7391953</v>
       </c>
     </row>
-    <row r="144" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A144" s="58" t="s">
         <v>74</v>
       </c>
@@ -15660,7 +15660,7 @@
         <v>6822844</v>
       </c>
     </row>
-    <row r="145" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A145" s="58" t="s">
         <v>75</v>
       </c>
@@ -15761,7 +15761,7 @@
         <v>139892</v>
       </c>
     </row>
-    <row r="146" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A146" s="58" t="s">
         <v>92</v>
       </c>
@@ -15862,7 +15862,7 @@
         <v>191797</v>
       </c>
     </row>
-    <row r="147" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A147" s="58" t="s">
         <v>86</v>
       </c>
@@ -15963,7 +15963,7 @@
         <v>237420</v>
       </c>
     </row>
-    <row r="148" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A148" s="56"/>
       <c r="B148" s="59"/>
       <c r="C148" s="59"/>
@@ -15998,7 +15998,7 @@
       <c r="AF148" s="59"/>
       <c r="AG148" s="59"/>
     </row>
-    <row r="149" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A149" s="58"/>
       <c r="B149" s="42"/>
       <c r="C149" s="42"/>
@@ -16033,7 +16033,7 @@
       <c r="AF149" s="42"/>
       <c r="AG149" s="42"/>
     </row>
-    <row r="150" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A150" s="58"/>
       <c r="B150" s="42"/>
       <c r="C150" s="42"/>
@@ -16068,7 +16068,7 @@
       <c r="AF150" s="42"/>
       <c r="AG150" s="42"/>
     </row>
-    <row r="151" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A151" s="58"/>
       <c r="B151" s="42"/>
       <c r="C151" s="42"/>
@@ -16103,7 +16103,7 @@
       <c r="AF151" s="42"/>
       <c r="AG151" s="42"/>
     </row>
-    <row r="152" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A152" s="58"/>
       <c r="B152" s="42"/>
       <c r="C152" s="42"/>
@@ -16138,7 +16138,7 @@
       <c r="AF152" s="42"/>
       <c r="AG152" s="42"/>
     </row>
-    <row r="153" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A153" s="56" t="s">
         <v>77</v>
       </c>
@@ -16239,7 +16239,7 @@
         <v>118644</v>
       </c>
     </row>
-    <row r="154" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A154" s="58" t="s">
         <v>78</v>
       </c>
@@ -16340,7 +16340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A155" s="58" t="s">
         <v>79</v>
       </c>
@@ -16441,7 +16441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A156" s="58" t="s">
         <v>80</v>
       </c>
@@ -16542,7 +16542,7 @@
         <v>118644</v>
       </c>
     </row>
-    <row r="157" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A157" s="58" t="s">
         <v>87</v>
       </c>
@@ -16643,7 +16643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A158" s="56" t="s">
         <v>81</v>
       </c>
@@ -16744,7 +16744,7 @@
         <v>302983</v>
       </c>
     </row>
-    <row r="159" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A159" s="58" t="s">
         <v>82</v>
       </c>
@@ -16845,7 +16845,7 @@
         <v>261375</v>
       </c>
     </row>
-    <row r="160" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A160" s="60" t="s">
         <v>88</v>
       </c>
@@ -16946,7 +16946,7 @@
         <v>41608</v>
       </c>
     </row>
-    <row r="161" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A161" s="54" t="s">
         <v>93</v>
       </c>
@@ -17047,7 +17047,7 @@
         <v>852765</v>
       </c>
     </row>
-    <row r="162" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A162" s="56" t="s">
         <v>72</v>
       </c>
@@ -17148,7 +17148,7 @@
         <v>782544</v>
       </c>
     </row>
-    <row r="163" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A163" s="58" t="s">
         <v>74</v>
       </c>
@@ -17249,7 +17249,7 @@
         <v>712466</v>
       </c>
     </row>
-    <row r="164" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A164" s="58" t="s">
         <v>75</v>
       </c>
@@ -17350,7 +17350,7 @@
         <v>16182</v>
       </c>
     </row>
-    <row r="165" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A165" s="58" t="s">
         <v>92</v>
       </c>
@@ -17451,7 +17451,7 @@
         <v>26402</v>
       </c>
     </row>
-    <row r="166" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A166" s="58" t="s">
         <v>86</v>
       </c>
@@ -17552,7 +17552,7 @@
         <v>27494</v>
       </c>
     </row>
-    <row r="167" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A167" s="56"/>
       <c r="B167" s="59"/>
       <c r="C167" s="59"/>
@@ -17587,7 +17587,7 @@
       <c r="AF167" s="59"/>
       <c r="AG167" s="59"/>
     </row>
-    <row r="168" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A168" s="58"/>
       <c r="B168" s="42"/>
       <c r="C168" s="42"/>
@@ -17622,7 +17622,7 @@
       <c r="AF168" s="42"/>
       <c r="AG168" s="42"/>
     </row>
-    <row r="169" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A169" s="58"/>
       <c r="B169" s="42"/>
       <c r="C169" s="42"/>
@@ -17657,7 +17657,7 @@
       <c r="AF169" s="42"/>
       <c r="AG169" s="42"/>
     </row>
-    <row r="170" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A170" s="58"/>
       <c r="B170" s="42"/>
       <c r="C170" s="42"/>
@@ -17692,7 +17692,7 @@
       <c r="AF170" s="42"/>
       <c r="AG170" s="42"/>
     </row>
-    <row r="171" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A171" s="58"/>
       <c r="B171" s="42"/>
       <c r="C171" s="42"/>
@@ -17727,7 +17727,7 @@
       <c r="AF171" s="42"/>
       <c r="AG171" s="42"/>
     </row>
-    <row r="172" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A172" s="56" t="s">
         <v>77</v>
       </c>
@@ -17828,7 +17828,7 @@
         <v>17612</v>
       </c>
     </row>
-    <row r="173" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A173" s="58" t="s">
         <v>78</v>
       </c>
@@ -17929,7 +17929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A174" s="58" t="s">
         <v>79</v>
       </c>
@@ -18030,7 +18030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A175" s="58" t="s">
         <v>80</v>
       </c>
@@ -18131,7 +18131,7 @@
         <v>17612</v>
       </c>
     </row>
-    <row r="176" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A176" s="58" t="s">
         <v>87</v>
       </c>
@@ -18232,7 +18232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A177" s="56" t="s">
         <v>81</v>
       </c>
@@ -18333,7 +18333,7 @@
         <v>52609</v>
       </c>
     </row>
-    <row r="178" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A178" s="58" t="s">
         <v>82</v>
       </c>
@@ -18434,7 +18434,7 @@
         <v>45643</v>
       </c>
     </row>
-    <row r="179" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A179" s="60" t="s">
         <v>88</v>
       </c>
@@ -18535,7 +18535,7 @@
         <v>6966</v>
       </c>
     </row>
-    <row r="180" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A180" s="62"/>
       <c r="B180" s="62"/>
       <c r="C180" s="62"/>
@@ -18570,7 +18570,7 @@
       <c r="AF180" s="62"/>
       <c r="AG180" s="62"/>
     </row>
-    <row r="181" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A181" s="31" t="s">
         <v>61</v>
       </c>
@@ -18671,7 +18671,7 @@
         <v>44904</v>
       </c>
     </row>
-    <row r="182" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A182" s="52" t="s">
         <v>16</v>
       </c>
@@ -18772,7 +18772,7 @@
         <v>35955</v>
       </c>
     </row>
-    <row r="183" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A183" s="63" t="s">
         <v>62</v>
       </c>
@@ -18873,7 +18873,7 @@
         <v>14750</v>
       </c>
     </row>
-    <row r="184" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A184" s="40" t="s">
         <v>74</v>
       </c>
@@ -18974,7 +18974,7 @@
         <v>4083</v>
       </c>
     </row>
-    <row r="185" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A185" s="40" t="s">
         <v>94</v>
       </c>
@@ -19075,7 +19075,7 @@
         <v>10666</v>
       </c>
     </row>
-    <row r="186" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A186" s="63" t="s">
         <v>63</v>
       </c>
@@ -19176,7 +19176,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="187" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A187" s="63" t="s">
         <v>64</v>
       </c>
@@ -19277,7 +19277,7 @@
         <v>19775</v>
       </c>
     </row>
-    <row r="188" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A188" s="52" t="s">
         <v>34</v>
       </c>
@@ -19378,7 +19378,7 @@
         <v>8949</v>
       </c>
     </row>
-    <row r="189" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A189" s="64" t="s">
         <v>74</v>
       </c>
@@ -19479,7 +19479,7 @@
         <v>2051</v>
       </c>
     </row>
-    <row r="190" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A190" s="65" t="s">
         <v>94</v>
       </c>
@@ -19580,7 +19580,7 @@
         <v>6898</v>
       </c>
     </row>
-    <row r="191" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A191" s="62"/>
       <c r="B191" s="62"/>
       <c r="C191" s="62"/>
@@ -19615,7 +19615,7 @@
       <c r="AF191" s="62"/>
       <c r="AG191" s="62"/>
     </row>
-    <row r="192" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A192" s="31" t="s">
         <v>65</v>
       </c>
@@ -19716,7 +19716,7 @@
         <v>41605404</v>
       </c>
     </row>
-    <row r="193" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A193" s="52" t="s">
         <v>16</v>
       </c>
@@ -19817,7 +19817,7 @@
         <v>38747747</v>
       </c>
     </row>
-    <row r="194" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A194" s="63" t="s">
         <v>21</v>
       </c>
@@ -19918,7 +19918,7 @@
         <v>3261850</v>
       </c>
     </row>
-    <row r="195" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A195" s="40" t="s">
         <v>95</v>
       </c>
@@ -20019,7 +20019,7 @@
         <v>2928575</v>
       </c>
     </row>
-    <row r="196" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A196" s="40" t="s">
         <v>96</v>
       </c>
@@ -20120,7 +20120,7 @@
         <v>333275</v>
       </c>
     </row>
-    <row r="197" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A197" s="40" t="s">
         <v>97</v>
       </c>
@@ -20221,7 +20221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A198" s="40" t="s">
         <v>98</v>
       </c>
@@ -20322,7 +20322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A199" s="63" t="s">
         <v>23</v>
       </c>
@@ -20423,7 +20423,7 @@
         <v>26285443</v>
       </c>
     </row>
-    <row r="200" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A200" s="40" t="s">
         <v>95</v>
       </c>
@@ -20524,7 +20524,7 @@
         <v>25924766</v>
       </c>
     </row>
-    <row r="201" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A201" s="40" t="s">
         <v>96</v>
       </c>
@@ -20625,7 +20625,7 @@
         <v>360677</v>
       </c>
     </row>
-    <row r="202" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A202" s="40" t="s">
         <v>97</v>
       </c>
@@ -20726,7 +20726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A203" s="40" t="s">
         <v>98</v>
       </c>
@@ -20827,7 +20827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A204" s="63" t="s">
         <v>25</v>
       </c>
@@ -20928,7 +20928,7 @@
         <v>9200454</v>
       </c>
     </row>
-    <row r="205" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A205" s="40" t="s">
         <v>95</v>
       </c>
@@ -21029,7 +21029,7 @@
         <v>9182980</v>
       </c>
     </row>
-    <row r="206" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A206" s="40" t="s">
         <v>96</v>
       </c>
@@ -21130,7 +21130,7 @@
         <v>17474</v>
       </c>
     </row>
-    <row r="207" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A207" s="40" t="s">
         <v>97</v>
       </c>
@@ -21231,7 +21231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A208" s="40" t="s">
         <v>98</v>
       </c>
@@ -21332,7 +21332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A209" s="52" t="s">
         <v>34</v>
       </c>
@@ -21433,7 +21433,7 @@
         <v>2857657</v>
       </c>
     </row>
-    <row r="210" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A210" s="63" t="s">
         <v>29</v>
       </c>
@@ -21534,7 +21534,7 @@
         <v>1634020</v>
       </c>
     </row>
-    <row r="211" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A211" s="40" t="s">
         <v>95</v>
       </c>
@@ -21635,7 +21635,7 @@
         <v>1581926</v>
       </c>
     </row>
-    <row r="212" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A212" s="40" t="s">
         <v>96</v>
       </c>
@@ -21736,7 +21736,7 @@
         <v>52093</v>
       </c>
     </row>
-    <row r="213" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A213" s="40" t="s">
         <v>97</v>
       </c>
@@ -21837,7 +21837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A214" s="40" t="s">
         <v>98</v>
       </c>
@@ -21938,7 +21938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A215" s="63" t="s">
         <v>25</v>
       </c>
@@ -22039,7 +22039,7 @@
         <v>1223638</v>
       </c>
     </row>
-    <row r="216" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A216" s="40" t="s">
         <v>95</v>
       </c>
@@ -22140,7 +22140,7 @@
         <v>1221806</v>
       </c>
     </row>
-    <row r="217" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A217" s="40" t="s">
         <v>96</v>
       </c>
@@ -22241,7 +22241,7 @@
         <v>1831</v>
       </c>
     </row>
-    <row r="218" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A218" s="40" t="s">
         <v>97</v>
       </c>
@@ -22342,7 +22342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A219" s="43" t="s">
         <v>98</v>
       </c>
@@ -22443,7 +22443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A220" s="62"/>
       <c r="B220" s="62"/>
       <c r="C220" s="62"/>
@@ -22478,7 +22478,7 @@
       <c r="AF220" s="62"/>
       <c r="AG220" s="62"/>
     </row>
-    <row r="221" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A221" s="31" t="s">
         <v>69</v>
       </c>
@@ -22515,7 +22515,7 @@
       <c r="AF221" s="66"/>
       <c r="AG221" s="66"/>
     </row>
-    <row r="222" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A222" s="67" t="s">
         <v>70</v>
       </c>
@@ -22616,7 +22616,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="223" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A223" s="64" t="s">
         <v>99</v>
       </c>
@@ -22717,7 +22717,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="224" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A224" s="64" t="s">
         <v>100</v>
       </c>
@@ -22818,7 +22818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A225" s="64" t="s">
         <v>92</v>
       </c>
@@ -22919,7 +22919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A226" s="64" t="s">
         <v>101</v>
       </c>
@@ -23020,7 +23020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A227" s="64" t="s">
         <v>102</v>
       </c>
@@ -23121,7 +23121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A228" s="64" t="s">
         <v>103</v>
       </c>
@@ -23222,7 +23222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A229" s="67" t="s">
         <v>71</v>
       </c>
@@ -23323,7 +23323,7 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="230" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A230" s="64" t="s">
         <v>99</v>
       </c>
@@ -23424,7 +23424,7 @@
         <v>1549</v>
       </c>
     </row>
-    <row r="231" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A231" s="64" t="s">
         <v>100</v>
       </c>
@@ -23525,7 +23525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A232" s="64" t="s">
         <v>92</v>
       </c>
@@ -23626,7 +23626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A233" s="64" t="s">
         <v>101</v>
       </c>
@@ -23727,7 +23727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A234" s="64" t="s">
         <v>102</v>
       </c>
@@ -23828,7 +23828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A235" s="65" t="s">
         <v>103</v>
       </c>
@@ -23929,7 +23929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A236" s="62"/>
       <c r="B236" s="62"/>
       <c r="C236" s="62"/>
@@ -23964,7 +23964,7 @@
       <c r="AF236" s="62"/>
       <c r="AG236" s="62"/>
     </row>
-    <row r="237" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A237" s="31" t="s">
         <v>104</v>
       </c>
@@ -24001,7 +24001,7 @@
       <c r="AF237" s="66"/>
       <c r="AG237" s="66"/>
     </row>
-    <row r="238" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A238" s="67" t="s">
         <v>105</v>
       </c>
@@ -24102,7 +24102,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="239" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A239" s="64" t="s">
         <v>99</v>
       </c>
@@ -24203,7 +24203,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="240" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A240" s="64" t="s">
         <v>100</v>
       </c>
@@ -24304,7 +24304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A241" s="64" t="s">
         <v>92</v>
       </c>
@@ -24405,7 +24405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A242" s="64" t="s">
         <v>101</v>
       </c>
@@ -24506,7 +24506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A243" s="64" t="s">
         <v>102</v>
       </c>
@@ -24607,7 +24607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A244" s="64" t="s">
         <v>103</v>
       </c>
@@ -24708,7 +24708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A245" s="67" t="s">
         <v>106</v>
       </c>
@@ -24809,7 +24809,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="246" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A246" s="64" t="s">
         <v>99</v>
       </c>
@@ -24910,7 +24910,7 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="247" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A247" s="64" t="s">
         <v>100</v>
       </c>
@@ -25011,7 +25011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A248" s="64" t="s">
         <v>92</v>
       </c>
@@ -25112,7 +25112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A249" s="64" t="s">
         <v>101</v>
       </c>
@@ -25213,7 +25213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A250" s="64" t="s">
         <v>102</v>
       </c>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A251" s="65" t="s">
         <v>103</v>
       </c>
@@ -25428,13 +25428,13 @@
       <selection activeCell="Q287" sqref="Q287:Q295"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="16" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="75" t="s">
         <v>107</v>
       </c>
@@ -25487,7 +25487,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="111"/>
       <c r="B2" s="110"/>
       <c r="C2" s="110"/>
@@ -25506,7 +25506,7 @@
       <c r="P2" s="110"/>
       <c r="Q2" s="110"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>17</v>
       </c>
@@ -25527,7 +25527,7 @@
       <c r="P3" s="102"/>
       <c r="Q3" s="102"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>19</v>
       </c>
@@ -25580,7 +25580,7 @@
         <v>703591.6530207874</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>18</v>
       </c>
@@ -25633,7 +25633,7 @@
         <v>5194.5945602601159</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>20</v>
       </c>
@@ -25686,7 +25686,7 @@
         <v>657597.05846052733</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>22</v>
       </c>
@@ -25739,7 +25739,7 @@
         <v>347492.75821898464</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>24</v>
       </c>
@@ -25792,7 +25792,7 @@
         <v>309043.92193413706</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>26</v>
       </c>
@@ -25845,7 +25845,7 @@
         <v>222.15290830933625</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>28</v>
       </c>
@@ -25898,7 +25898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>30</v>
       </c>
@@ -25951,7 +25951,7 @@
         <v>500.34638062116716</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>31</v>
       </c>
@@ -26004,7 +26004,7 @@
         <v>337.87901847508363</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>32</v>
       </c>
@@ -26057,7 +26057,7 @@
         <v>40800</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>22</v>
       </c>
@@ -26110,7 +26110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>24</v>
       </c>
@@ -26163,7 +26163,7 @@
         <v>40627.464882008491</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>26</v>
       </c>
@@ -26216,7 +26216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>28</v>
       </c>
@@ -26269,7 +26269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>31</v>
       </c>
@@ -26322,7 +26322,7 @@
         <v>172.53511799151062</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>27</v>
       </c>
@@ -26375,7 +26375,7 @@
         <v>189072.55787882462</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>35</v>
       </c>
@@ -26428,7 +26428,7 @@
         <v>23025.81043839869</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>22</v>
       </c>
@@ -26481,7 +26481,7 @@
         <v>728.80113244052234</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>24</v>
       </c>
@@ -26534,7 +26534,7 @@
         <v>22088.801297183498</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>26</v>
       </c>
@@ -26587,7 +26587,7 @@
         <v>187.03461178483647</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>28</v>
       </c>
@@ -26640,7 +26640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>31</v>
       </c>
@@ -26693,7 +26693,7 @@
         <v>21.173396989833488</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>37</v>
       </c>
@@ -26746,7 +26746,7 @@
         <v>166046.74744042594</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>21</v>
       </c>
@@ -26799,7 +26799,7 @@
         <v>142868</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>38</v>
       </c>
@@ -26852,7 +26852,7 @@
         <v>23178.747440425941</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="74"/>
       <c r="B29" s="77"/>
       <c r="C29" s="77"/>
@@ -26871,7 +26871,7 @@
       <c r="P29" s="77"/>
       <c r="Q29" s="77"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>108</v>
       </c>
@@ -26924,7 +26924,7 @@
         <v>475021.63306841312</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
         <v>16</v>
       </c>
@@ -26977,7 +26977,7 @@
         <v>383447.32483790943</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
         <v>18</v>
       </c>
@@ -27030,7 +27030,7 @@
         <v>4507.63</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>20</v>
       </c>
@@ -27083,7 +27083,7 @@
         <v>376787.69483790942</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
         <v>22</v>
       </c>
@@ -27136,7 +27136,7 @@
         <v>201734.62373074971</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
         <v>24</v>
       </c>
@@ -27189,7 +27189,7 @@
         <v>174411.18509556589</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
         <v>26</v>
       </c>
@@ -27242,7 +27242,7 @@
         <v>131.22516217561952</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
         <v>28</v>
       </c>
@@ -27295,7 +27295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
         <v>30</v>
       </c>
@@ -27348,7 +27348,7 @@
         <v>295.55334404882763</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
         <v>31</v>
       </c>
@@ -27401,7 +27401,7 @@
         <v>215.1075053693875</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
         <v>32</v>
       </c>
@@ -27454,7 +27454,7 @@
         <v>2152</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
         <v>22</v>
       </c>
@@ -27507,7 +27507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
         <v>24</v>
       </c>
@@ -27560,7 +27560,7 @@
         <v>2142.8996182863302</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
         <v>26</v>
       </c>
@@ -27613,7 +27613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
         <v>28</v>
       </c>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
         <v>31</v>
       </c>
@@ -27719,7 +27719,7 @@
         <v>9.1003817136698739</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
         <v>34</v>
       </c>
@@ -27772,7 +27772,7 @@
         <v>91574.308230503666</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
         <v>35</v>
       </c>
@@ -27825,7 +27825,7 @@
         <v>73123.750665528176</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
         <v>22</v>
       </c>
@@ -27878,7 +27878,7 @@
         <v>2892.7051187101574</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
         <v>24</v>
       </c>
@@ -27931,7 +27931,7 @@
         <v>69404.641270081949</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
         <v>26</v>
       </c>
@@ -27984,7 +27984,7 @@
         <v>742.36434989364898</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
         <v>28</v>
       </c>
@@ -28037,7 +28037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
         <v>31</v>
       </c>
@@ -28090,7 +28090,7 @@
         <v>84.039926842418936</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
         <v>37</v>
       </c>
@@ -28143,7 +28143,7 @@
         <v>18450.557564975494</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
         <v>21</v>
       </c>
@@ -28196,7 +28196,7 @@
         <v>16784</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
         <v>38</v>
       </c>
@@ -28249,7 +28249,7 @@
         <v>1666.5575649754946</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="14" t="s">
         <v>15</v>
       </c>
@@ -28302,7 +28302,7 @@
         <v>35800612.559587948</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="13" t="s">
         <v>16</v>
       </c>
@@ -28355,7 +28355,7 @@
         <v>31544294</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="12" t="s">
         <v>18</v>
       </c>
@@ -28408,7 +28408,7 @@
         <v>1253100</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
         <v>20</v>
       </c>
@@ -28461,7 +28461,7 @@
         <v>30250374</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
         <v>22</v>
       </c>
@@ -28514,7 +28514,7 @@
         <v>18748833</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
         <v>24</v>
       </c>
@@ -28567,7 +28567,7 @@
         <v>11439660</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
         <v>26</v>
       </c>
@@ -28620,7 +28620,7 @@
         <v>13793</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
         <v>28</v>
       </c>
@@ -28673,7 +28673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="s">
         <v>30</v>
       </c>
@@ -28726,7 +28726,7 @@
         <v>26590</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" s="10" t="s">
         <v>31</v>
       </c>
@@ -28779,7 +28779,7 @@
         <v>21498</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
         <v>32</v>
       </c>
@@ -28832,7 +28832,7 @@
         <v>40820</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" s="10" t="s">
         <v>22</v>
       </c>
@@ -28885,7 +28885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" s="10" t="s">
         <v>24</v>
       </c>
@@ -28938,7 +28938,7 @@
         <v>40626</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" s="10" t="s">
         <v>26</v>
       </c>
@@ -28991,7 +28991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" s="10" t="s">
         <v>28</v>
       </c>
@@ -29044,7 +29044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" s="10" t="s">
         <v>31</v>
       </c>
@@ -29097,7 +29097,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" s="13" t="s">
         <v>34</v>
       </c>
@@ -29150,7 +29150,7 @@
         <v>4256318.5595879471</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" s="12" t="s">
         <v>35</v>
       </c>
@@ -29203,7 +29203,7 @@
         <v>3603480</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" s="10" t="s">
         <v>22</v>
       </c>
@@ -29256,7 +29256,7 @@
         <v>189531</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" s="10" t="s">
         <v>24</v>
       </c>
@@ -29309,7 +29309,7 @@
         <v>3369616</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" s="10" t="s">
         <v>26</v>
       </c>
@@ -29362,7 +29362,7 @@
         <v>38173</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" s="10" t="s">
         <v>28</v>
       </c>
@@ -29415,7 +29415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" s="10" t="s">
         <v>31</v>
       </c>
@@ -29468,7 +29468,7 @@
         <v>6160</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" s="11" t="s">
         <v>37</v>
       </c>
@@ -29521,7 +29521,7 @@
         <v>652838.55958794698</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" s="10" t="s">
         <v>21</v>
       </c>
@@ -29574,7 +29574,7 @@
         <v>633232</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" s="9" t="s">
         <v>38</v>
       </c>
@@ -29627,7 +29627,7 @@
         <v>19606.559587946995</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" s="14" t="s">
         <v>109</v>
       </c>
@@ -29680,7 +29680,7 @@
         <v>35800612.559587948</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" s="13" t="s">
         <v>16</v>
       </c>
@@ -29733,7 +29733,7 @@
         <v>31544294</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86" s="12" t="s">
         <v>18</v>
       </c>
@@ -29786,7 +29786,7 @@
         <v>1253100</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87" s="11" t="s">
         <v>20</v>
       </c>
@@ -29839,7 +29839,7 @@
         <v>30250374</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88" s="10" t="s">
         <v>22</v>
       </c>
@@ -29892,7 +29892,7 @@
         <v>18748833</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89" s="10" t="s">
         <v>24</v>
       </c>
@@ -29945,7 +29945,7 @@
         <v>11439660</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90" s="10" t="s">
         <v>26</v>
       </c>
@@ -29998,7 +29998,7 @@
         <v>13793</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91" s="10" t="s">
         <v>28</v>
       </c>
@@ -30051,7 +30051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92" s="10" t="s">
         <v>30</v>
       </c>
@@ -30104,7 +30104,7 @@
         <v>26590</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93" s="10" t="s">
         <v>31</v>
       </c>
@@ -30157,7 +30157,7 @@
         <v>21498</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94" s="11" t="s">
         <v>32</v>
       </c>
@@ -30210,7 +30210,7 @@
         <v>40820</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95" s="10" t="s">
         <v>22</v>
       </c>
@@ -30263,7 +30263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96" s="10" t="s">
         <v>24</v>
       </c>
@@ -30316,7 +30316,7 @@
         <v>40626</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97" s="10" t="s">
         <v>26</v>
       </c>
@@ -30369,7 +30369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98" s="10" t="s">
         <v>28</v>
       </c>
@@ -30422,7 +30422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99" s="10" t="s">
         <v>31</v>
       </c>
@@ -30475,7 +30475,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100" s="13" t="s">
         <v>34</v>
       </c>
@@ -30528,7 +30528,7 @@
         <v>4256318.5595879471</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A101" s="12" t="s">
         <v>35</v>
       </c>
@@ -30581,7 +30581,7 @@
         <v>3603480</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A102" s="10" t="s">
         <v>22</v>
       </c>
@@ -30634,7 +30634,7 @@
         <v>189531</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A103" s="10" t="s">
         <v>24</v>
       </c>
@@ -30687,7 +30687,7 @@
         <v>3369616</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A104" s="10" t="s">
         <v>26</v>
       </c>
@@ -30740,7 +30740,7 @@
         <v>38173</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A105" s="10" t="s">
         <v>28</v>
       </c>
@@ -30793,7 +30793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A106" s="10" t="s">
         <v>31</v>
       </c>
@@ -30846,7 +30846,7 @@
         <v>6160</v>
       </c>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A107" s="11" t="s">
         <v>37</v>
       </c>
@@ -30899,7 +30899,7 @@
         <v>652838.55958794698</v>
       </c>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A108" s="10" t="s">
         <v>21</v>
       </c>
@@ -30952,7 +30952,7 @@
         <v>633232</v>
       </c>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A109" s="9" t="s">
         <v>38</v>
       </c>
@@ -31005,7 +31005,7 @@
         <v>19606.559587946995</v>
       </c>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A111" s="14" t="s">
         <v>110</v>
       </c>
@@ -31056,7 +31056,7 @@
         <v>3536062</v>
       </c>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A112" s="13" t="s">
         <v>16</v>
       </c>
@@ -31107,7 +31107,7 @@
         <v>2960995</v>
       </c>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A113" s="12" t="s">
         <v>18</v>
       </c>
@@ -31158,7 +31158,7 @@
         <v>89859</v>
       </c>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A114" s="11" t="s">
         <v>20</v>
       </c>
@@ -31209,7 +31209,7 @@
         <v>2868393</v>
       </c>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A115" s="10" t="s">
         <v>22</v>
       </c>
@@ -31260,7 +31260,7 @@
         <v>1554374</v>
       </c>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A116" s="10" t="s">
         <v>24</v>
       </c>
@@ -31311,7 +31311,7 @@
         <v>1284820</v>
       </c>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A117" s="10" t="s">
         <v>26</v>
       </c>
@@ -31362,7 +31362,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A118" s="10" t="s">
         <v>28</v>
       </c>
@@ -31413,7 +31413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A119" s="10" t="s">
         <v>30</v>
       </c>
@@ -31464,7 +31464,7 @@
         <v>19271</v>
       </c>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A120" s="10" t="s">
         <v>31</v>
       </c>
@@ -31515,7 +31515,7 @@
         <v>9926</v>
       </c>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A121" s="11" t="s">
         <v>32</v>
       </c>
@@ -31566,7 +31566,7 @@
         <v>2743</v>
       </c>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A122" s="10" t="s">
         <v>22</v>
       </c>
@@ -31617,7 +31617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A123" s="10" t="s">
         <v>24</v>
       </c>
@@ -31668,7 +31668,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A124" s="10" t="s">
         <v>26</v>
       </c>
@@ -31719,7 +31719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A125" s="10" t="s">
         <v>28</v>
       </c>
@@ -31770,7 +31770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A126" s="10" t="s">
         <v>31</v>
       </c>
@@ -31821,7 +31821,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A127" s="13" t="s">
         <v>34</v>
       </c>
@@ -31872,7 +31872,7 @@
         <v>575067</v>
       </c>
     </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A128" s="12" t="s">
         <v>35</v>
       </c>
@@ -31923,7 +31923,7 @@
         <v>440130</v>
       </c>
     </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A129" s="10" t="s">
         <v>22</v>
       </c>
@@ -31974,7 +31974,7 @@
         <v>17166</v>
       </c>
     </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A130" s="10" t="s">
         <v>24</v>
       </c>
@@ -32025,7 +32025,7 @@
         <v>420289</v>
       </c>
     </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A131" s="10" t="s">
         <v>26</v>
       </c>
@@ -32076,7 +32076,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A132" s="10" t="s">
         <v>28</v>
       </c>
@@ -32127,7 +32127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A133" s="10" t="s">
         <v>31</v>
       </c>
@@ -32178,7 +32178,7 @@
         <v>1938</v>
       </c>
     </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A134" s="11" t="s">
         <v>37</v>
       </c>
@@ -32229,7 +32229,7 @@
         <v>134937</v>
       </c>
     </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A135" s="10" t="s">
         <v>21</v>
       </c>
@@ -32280,7 +32280,7 @@
         <v>130080</v>
       </c>
     </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A136" s="9" t="s">
         <v>38</v>
       </c>
@@ -32331,7 +32331,7 @@
         <v>4857</v>
       </c>
     </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A138" s="83" t="s">
         <v>45</v>
       </c>
@@ -32352,7 +32352,7 @@
       <c r="P138" s="104"/>
       <c r="Q138" s="104"/>
     </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A140" s="14" t="s">
         <v>111</v>
       </c>
@@ -32373,7 +32373,7 @@
       <c r="P140" s="103"/>
       <c r="Q140" s="103"/>
     </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A141" s="13" t="s">
         <v>112</v>
       </c>
@@ -32426,7 +32426,7 @@
         <v>1.8349108402782812</v>
       </c>
     </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A142" s="12" t="s">
         <v>18</v>
       </c>
@@ -32479,7 +32479,7 @@
         <v>1.1524003878446358</v>
       </c>
     </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A143" s="11" t="s">
         <v>20</v>
       </c>
@@ -32532,7 +32532,7 @@
         <v>1.7452721186752649</v>
       </c>
     </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A144" s="10" t="s">
         <v>22</v>
       </c>
@@ -32585,7 +32585,7 @@
         <v>1.7225241348890847</v>
       </c>
     </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A145" s="10" t="s">
         <v>24</v>
       </c>
@@ -32638,7 +32638,7 @@
         <v>1.7719271947197726</v>
       </c>
     </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A146" s="10" t="s">
         <v>26</v>
       </c>
@@ -32691,7 +32691,7 @@
         <v>1.692913955115007</v>
       </c>
     </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A147" s="10" t="s">
         <v>28</v>
       </c>
@@ -32744,7 +32744,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A148" s="10" t="s">
         <v>30</v>
       </c>
@@ -32797,7 +32797,7 @@
         <v>1.692913955115007</v>
       </c>
     </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A149" s="10" t="s">
         <v>31</v>
       </c>
@@ -32850,7 +32850,7 @@
         <v>1.5707449068077384</v>
       </c>
     </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A150" s="11" t="s">
         <v>32</v>
       </c>
@@ -32903,7 +32903,7 @@
         <v>18.959107806691449</v>
       </c>
     </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A151" s="10" t="s">
         <v>22</v>
       </c>
@@ -32956,7 +32956,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A152" s="10" t="s">
         <v>24</v>
       </c>
@@ -33009,7 +33009,7 @@
         <v>18.959107806691449</v>
       </c>
     </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A153" s="10" t="s">
         <v>26</v>
       </c>
@@ -33062,7 +33062,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A154" s="10" t="s">
         <v>28</v>
       </c>
@@ -33115,7 +33115,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A155" s="10" t="s">
         <v>31</v>
       </c>
@@ -33168,7 +33168,7 @@
         <v>18.959107806691449</v>
       </c>
     </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A156" s="13" t="s">
         <v>114</v>
       </c>
@@ -33221,7 +33221,7 @@
         <v>2.0646899936487211</v>
       </c>
     </row>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A157" s="12" t="s">
         <v>35</v>
       </c>
@@ -33274,7 +33274,7 @@
         <v>0.31488825762945255</v>
       </c>
     </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A158" s="10" t="s">
         <v>22</v>
       </c>
@@ -33327,7 +33327,7 @@
         <v>0.2519444957339762</v>
       </c>
     </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A159" s="10" t="s">
         <v>24</v>
       </c>
@@ -33380,7 +33380,7 @@
         <v>0.31826115506060904</v>
       </c>
     </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A160" s="10" t="s">
         <v>26</v>
       </c>
@@ -33433,7 +33433,7 @@
         <v>0.2519444957339762</v>
       </c>
     </row>
-    <row r="161" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A161" s="10" t="s">
         <v>28</v>
       </c>
@@ -33486,7 +33486,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="162" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A162" s="10" t="s">
         <v>31</v>
       </c>
@@ -33539,7 +33539,7 @@
         <v>0.2519444957339762</v>
       </c>
     </row>
-    <row r="163" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A163" s="11" t="s">
         <v>37</v>
       </c>
@@ -33592,7 +33592,7 @@
         <v>8.9995517401398644</v>
       </c>
     </row>
-    <row r="164" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A164" s="10" t="s">
         <v>21</v>
       </c>
@@ -33645,7 +33645,7 @@
         <v>8.5121544327931371</v>
       </c>
     </row>
-    <row r="165" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A165" s="9" t="s">
         <v>38</v>
       </c>
@@ -33698,7 +33698,7 @@
         <v>13.908158906450234</v>
       </c>
     </row>
-    <row r="167" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A167" s="14" t="s">
         <v>115</v>
       </c>
@@ -33751,7 +33751,7 @@
         <v>13268.533667622822</v>
       </c>
     </row>
-    <row r="168" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A168" s="13" t="s">
         <v>16</v>
       </c>
@@ -33804,7 +33804,7 @@
         <v>12155.83790963619</v>
       </c>
     </row>
-    <row r="169" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A169" s="12" t="s">
         <v>18</v>
       </c>
@@ -33857,7 +33857,7 @@
         <v>3597.1829861942383</v>
       </c>
     </row>
-    <row r="170" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A170" s="11" t="s">
         <v>20</v>
       </c>
@@ -33910,7 +33910,7 @@
         <v>12455.637567916001</v>
       </c>
     </row>
-    <row r="171" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A171" s="10" t="s">
         <v>22</v>
       </c>
@@ -33963,7 +33963,7 @@
         <v>10759.849625347331</v>
       </c>
     </row>
-    <row r="172" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A172" s="10" t="s">
         <v>24</v>
       </c>
@@ -34016,7 +34016,7 @@
         <v>15246.186083814195</v>
       </c>
     </row>
-    <row r="173" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A173" s="10" t="s">
         <v>26</v>
       </c>
@@ -34069,7 +34069,7 @@
         <v>9513.8956119495051</v>
       </c>
     </row>
-    <row r="174" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A174" s="10" t="s">
         <v>28</v>
       </c>
@@ -34122,7 +34122,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="175" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A175" s="10" t="s">
         <v>30</v>
       </c>
@@ -34175,7 +34175,7 @@
         <v>11115.206620866027</v>
       </c>
     </row>
-    <row r="176" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A176" s="10" t="s">
         <v>31</v>
       </c>
@@ -34228,7 +34228,7 @@
         <v>10005.931034021189</v>
       </c>
     </row>
-    <row r="177" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A177" s="11" t="s">
         <v>32</v>
       </c>
@@ -34281,7 +34281,7 @@
         <v>52719.255267025968</v>
       </c>
     </row>
-    <row r="178" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A178" s="10" t="s">
         <v>22</v>
       </c>
@@ -34334,7 +34334,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="179" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A179" s="10" t="s">
         <v>24</v>
       </c>
@@ -34387,7 +34387,7 @@
         <v>52746.999908588841</v>
       </c>
     </row>
-    <row r="180" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A180" s="10" t="s">
         <v>26</v>
       </c>
@@ -34440,7 +34440,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="181" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A181" s="10" t="s">
         <v>28</v>
       </c>
@@ -34493,7 +34493,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="182" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A182" s="10" t="s">
         <v>31</v>
       </c>
@@ -34546,7 +34546,7 @@
         <v>46909.184091081821</v>
       </c>
     </row>
-    <row r="183" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A183" s="13" t="s">
         <v>34</v>
       </c>
@@ -34599,7 +34599,7 @@
         <v>21514.909410203767</v>
       </c>
     </row>
-    <row r="184" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A184" s="12" t="s">
         <v>35</v>
       </c>
@@ -34652,7 +34652,7 @@
         <v>20292.53684369781</v>
       </c>
     </row>
-    <row r="185" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A185" s="10" t="s">
         <v>22</v>
       </c>
@@ -34705,7 +34705,7 @@
         <v>15262.437905726016</v>
       </c>
     </row>
-    <row r="186" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A186" s="10" t="s">
         <v>24</v>
       </c>
@@ -34758,7 +34758,7 @@
         <v>20597.19602176686</v>
       </c>
     </row>
-    <row r="187" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A187" s="10" t="s">
         <v>26</v>
       </c>
@@ -34811,7 +34811,7 @@
         <v>19447.367246316742</v>
       </c>
     </row>
-    <row r="188" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A188" s="10" t="s">
         <v>28</v>
       </c>
@@ -34864,7 +34864,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="189" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A189" s="10" t="s">
         <v>31</v>
       </c>
@@ -34917,7 +34917,7 @@
         <v>13642.845266626451</v>
       </c>
     </row>
-    <row r="190" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A190" s="11" t="s">
         <v>37</v>
       </c>
@@ -34970,7 +34970,7 @@
         <v>28262.052377269134</v>
       </c>
     </row>
-    <row r="191" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A191" s="10" t="s">
         <v>21</v>
       </c>
@@ -35023,7 +35023,7 @@
         <v>26505.293478535514</v>
       </c>
     </row>
-    <row r="192" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A192" s="9" t="s">
         <v>38</v>
       </c>
@@ -35076,7 +35076,7 @@
         <v>85000</v>
       </c>
     </row>
-    <row r="194" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A194" s="14" t="s">
         <v>116</v>
       </c>
@@ -35097,7 +35097,7 @@
       <c r="P194" s="102"/>
       <c r="Q194" s="102"/>
     </row>
-    <row r="195" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A195" s="13" t="s">
         <v>117</v>
       </c>
@@ -35150,7 +35150,7 @@
         <v>22304.878753057124</v>
       </c>
     </row>
-    <row r="196" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A196" s="12" t="s">
         <v>18</v>
       </c>
@@ -35203,7 +35203,7 @@
         <v>4145.3950684383653</v>
       </c>
     </row>
-    <row r="197" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A197" s="11" t="s">
         <v>20</v>
       </c>
@@ -35256,7 +35256,7 @@
         <v>21738.476967607981</v>
       </c>
     </row>
-    <row r="198" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A198" s="10" t="s">
         <v>22</v>
       </c>
@@ -35309,7 +35309,7 @@
         <v>18534.100667438055</v>
       </c>
     </row>
-    <row r="199" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A199" s="10" t="s">
         <v>24</v>
       </c>
@@ -35362,7 +35362,7 @@
         <v>27015.131737668522</v>
       </c>
     </row>
-    <row r="200" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A200" s="10" t="s">
         <v>26</v>
       </c>
@@ -35415,7 +35415,7 @@
         <v>16106.206648976746</v>
       </c>
     </row>
-    <row r="201" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A201" s="10" t="s">
         <v>28</v>
       </c>
@@ -35468,7 +35468,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="202" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A202" s="10" t="s">
         <v>30</v>
       </c>
@@ -35521,7 +35521,7 @@
         <v>18817.088402450816</v>
       </c>
     </row>
-    <row r="203" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A203" s="10" t="s">
         <v>31</v>
       </c>
@@ -35574,7 +35574,7 @@
         <v>15716.765209558269</v>
       </c>
     </row>
-    <row r="204" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A204" s="11" t="s">
         <v>32</v>
       </c>
@@ -35627,7 +35627,7 @@
         <v>999510.04409603134</v>
       </c>
     </row>
-    <row r="205" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A205" s="10" t="s">
         <v>22</v>
       </c>
@@ -35680,7 +35680,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="206" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A206" s="10" t="s">
         <v>24</v>
       </c>
@@ -35733,7 +35733,7 @@
         <v>1000036.0577464799</v>
       </c>
     </row>
-    <row r="207" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A207" s="10" t="s">
         <v>26</v>
       </c>
@@ -35786,7 +35786,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="208" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A208" s="10" t="s">
         <v>28</v>
       </c>
@@ -35839,7 +35839,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="209" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A209" s="10" t="s">
         <v>31</v>
       </c>
@@ -35892,7 +35892,7 @@
         <v>889356.27830675582</v>
       </c>
     </row>
-    <row r="210" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A210" s="13" t="s">
         <v>118</v>
       </c>
@@ -35945,7 +35945,7 @@
         <v>44421.618173506416</v>
       </c>
     </row>
-    <row r="211" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A211" s="12" t="s">
         <v>35</v>
       </c>
@@ -35998,7 +35998,7 @@
         <v>6389.8815695934736</v>
       </c>
     </row>
-    <row r="212" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A212" s="10" t="s">
         <v>22</v>
       </c>
@@ -36051,7 +36051,7 @@
         <v>3845.2872218292646</v>
       </c>
     </row>
-    <row r="213" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A213" s="10" t="s">
         <v>24</v>
       </c>
@@ -36104,7 +36104,7 @@
         <v>6555.2873968973017</v>
       </c>
     </row>
-    <row r="214" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A214" s="10" t="s">
         <v>26</v>
       </c>
@@ -36157,7 +36157,7 @@
         <v>4899.6571342267171</v>
       </c>
     </row>
-    <row r="215" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A215" s="10" t="s">
         <v>28</v>
       </c>
@@ -36210,7 +36210,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="216" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A216" s="10" t="s">
         <v>31</v>
       </c>
@@ -36263,7 +36263,7 @@
         <v>3437.2397710768651</v>
       </c>
     </row>
-    <row r="217" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A217" s="11" t="s">
         <v>37</v>
       </c>
@@ -36316,7 +36316,7 @@
         <v>254345.80265177641</v>
       </c>
     </row>
-    <row r="218" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A218" s="10" t="s">
         <v>21</v>
       </c>
@@ -36369,7 +36369,7 @@
         <v>225617.15137579906</v>
       </c>
     </row>
-    <row r="219" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A219" s="9" t="s">
         <v>38</v>
       </c>
@@ -36422,7 +36422,7 @@
         <v>1182193.50704827</v>
       </c>
     </row>
-    <row r="221" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A221" s="14" t="s">
         <v>54</v>
       </c>
@@ -36443,7 +36443,7 @@
       <c r="P221" s="95"/>
       <c r="Q221" s="95"/>
     </row>
-    <row r="222" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A222" s="13" t="s">
         <v>55</v>
       </c>
@@ -36496,7 +36496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A223" s="93" t="s">
         <v>18</v>
       </c>
@@ -36549,7 +36549,7 @@
         <v>7.382967859208874E-3</v>
       </c>
     </row>
-    <row r="224" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A224" s="89" t="s">
         <v>20</v>
       </c>
@@ -36602,7 +36602,7 @@
         <v>0.93462885131910289</v>
       </c>
     </row>
-    <row r="225" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A225" s="91" t="s">
         <v>22</v>
       </c>
@@ -36655,7 +36655,7 @@
         <v>0.49388413965268868</v>
       </c>
     </row>
-    <row r="226" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A226" s="91" t="s">
         <v>24</v>
       </c>
@@ -36708,7 +36708,7 @@
         <v>0.43923761830785457</v>
       </c>
     </row>
-    <row r="227" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A227" s="91" t="s">
         <v>26</v>
       </c>
@@ -36761,7 +36761,7 @@
         <v>3.1574125041925822E-4</v>
       </c>
     </row>
-    <row r="228" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A228" s="91" t="s">
         <v>28</v>
       </c>
@@ -36814,7 +36814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A229" s="91" t="s">
         <v>30</v>
       </c>
@@ -36867,7 +36867,7 @@
         <v>7.1113177433670407E-4</v>
       </c>
     </row>
-    <row r="230" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A230" s="91" t="s">
         <v>31</v>
       </c>
@@ -36920,7 +36920,7 @@
         <v>4.8022033380362044E-4</v>
       </c>
     </row>
-    <row r="231" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A231" s="89" t="s">
         <v>32</v>
       </c>
@@ -36973,7 +36973,7 @@
         <v>5.7988180821688308E-2</v>
       </c>
     </row>
-    <row r="232" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A232" s="91" t="s">
         <v>22</v>
       </c>
@@ -37026,7 +37026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A233" s="91" t="s">
         <v>24</v>
       </c>
@@ -37079,7 +37079,7 @@
         <v>5.7742960291781865E-2</v>
       </c>
     </row>
-    <row r="234" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A234" s="91" t="s">
         <v>26</v>
       </c>
@@ -37132,7 +37132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A235" s="91" t="s">
         <v>28</v>
       </c>
@@ -37185,7 +37185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A236" s="91" t="s">
         <v>31</v>
       </c>
@@ -37238,7 +37238,7 @@
         <v>2.4522052990644721E-4</v>
       </c>
     </row>
-    <row r="237" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A237" s="13" t="s">
         <v>56</v>
       </c>
@@ -37291,7 +37291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A238" s="93" t="s">
         <v>35</v>
       </c>
@@ -37344,7 +37344,7 @@
         <v>0.12178293188986095</v>
       </c>
     </row>
-    <row r="239" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A239" s="91" t="s">
         <v>22</v>
       </c>
@@ -37397,7 +37397,7 @@
         <v>3.8546108468454016E-3</v>
       </c>
     </row>
-    <row r="240" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A240" s="91" t="s">
         <v>24</v>
       </c>
@@ -37450,7 +37450,7 @@
         <v>0.11682711412483279</v>
       </c>
     </row>
-    <row r="241" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A241" s="91" t="s">
         <v>26</v>
       </c>
@@ -37503,7 +37503,7 @@
         <v>9.8922135440038706E-4</v>
       </c>
     </row>
-    <row r="242" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A242" s="91" t="s">
         <v>28</v>
       </c>
@@ -37556,7 +37556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A243" s="91" t="s">
         <v>31</v>
       </c>
@@ -37609,7 +37609,7 @@
         <v>3.0093303266074885E-5</v>
       </c>
     </row>
-    <row r="244" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A244" s="89" t="s">
         <v>37</v>
       </c>
@@ -37662,7 +37662,7 @@
         <v>0.87821706811013911</v>
       </c>
     </row>
-    <row r="245" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A245" s="91" t="s">
         <v>21</v>
       </c>
@@ -37715,7 +37715,7 @@
         <v>0.75562525626570931</v>
       </c>
     </row>
-    <row r="246" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A246" s="85" t="s">
         <v>38</v>
       </c>
@@ -37768,7 +37768,7 @@
         <v>0.12259181184442985</v>
       </c>
     </row>
-    <row r="248" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A248" s="14" t="s">
         <v>57</v>
       </c>
@@ -37789,7 +37789,7 @@
       <c r="P248" s="95"/>
       <c r="Q248" s="95"/>
     </row>
-    <row r="249" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A249" s="13" t="s">
         <v>16</v>
       </c>
@@ -37842,7 +37842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A250" s="93" t="s">
         <v>18</v>
       </c>
@@ -37895,7 +37895,7 @@
         <v>1.1755539048043854E-2</v>
       </c>
     </row>
-    <row r="251" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A251" s="89" t="s">
         <v>20</v>
       </c>
@@ -37948,7 +37948,7 @@
         <v>0.98263221681670321</v>
       </c>
     </row>
-    <row r="252" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A252" s="91" t="s">
         <v>22</v>
       </c>
@@ -38001,7 +38001,7 @@
         <v>0.52610778759775367</v>
       </c>
     </row>
-    <row r="253" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A253" s="91" t="s">
         <v>24</v>
       </c>
@@ -38054,7 +38054,7 @@
         <v>0.4548504417635274</v>
       </c>
     </row>
-    <row r="254" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A254" s="91" t="s">
         <v>26</v>
       </c>
@@ -38107,7 +38107,7 @@
         <v>3.4222474294504709E-4</v>
       </c>
     </row>
-    <row r="255" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A255" s="91" t="s">
         <v>28</v>
       </c>
@@ -38160,7 +38160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A256" s="91" t="s">
         <v>30</v>
       </c>
@@ -38213,7 +38213,7 @@
         <v>7.7077951756154177E-4</v>
       </c>
     </row>
-    <row r="257" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A257" s="91" t="s">
         <v>31</v>
       </c>
@@ -38266,7 +38266,7 @@
         <v>5.6098319491554045E-4</v>
       </c>
     </row>
-    <row r="258" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A258" s="89" t="s">
         <v>32</v>
       </c>
@@ -38319,7 +38319,7 @@
         <v>5.6122441352529761E-3</v>
       </c>
     </row>
-    <row r="259" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A259" s="91" t="s">
         <v>22</v>
       </c>
@@ -38372,7 +38372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A260" s="91" t="s">
         <v>24</v>
       </c>
@@ -38425,7 +38425,7 @@
         <v>5.5885110665256964E-3</v>
       </c>
     </row>
-    <row r="261" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A261" s="91" t="s">
         <v>26</v>
       </c>
@@ -38478,7 +38478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A262" s="91" t="s">
         <v>28</v>
       </c>
@@ -38531,7 +38531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A263" s="91" t="s">
         <v>31</v>
       </c>
@@ -38584,7 +38584,7 @@
         <v>2.3733068727280287E-5</v>
       </c>
     </row>
-    <row r="264" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A264" s="13" t="s">
         <v>34</v>
       </c>
@@ -38637,7 +38637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A265" s="93" t="s">
         <v>35</v>
       </c>
@@ -38690,7 +38690,7 @@
         <v>0.79851818789028473</v>
       </c>
     </row>
-    <row r="266" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A266" s="91" t="s">
         <v>22</v>
       </c>
@@ -38743,7 +38743,7 @@
         <v>3.1588610109168032E-2</v>
       </c>
     </row>
-    <row r="267" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A267" s="91" t="s">
         <v>24</v>
       </c>
@@ -38796,7 +38796,7 @@
         <v>0.75790516588323043</v>
       </c>
     </row>
-    <row r="268" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A268" s="91" t="s">
         <v>26</v>
       </c>
@@ -38849,7 +38849,7 @@
         <v>8.106688046444507E-3</v>
       </c>
     </row>
-    <row r="269" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A269" s="91" t="s">
         <v>28</v>
       </c>
@@ -38902,7 +38902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A270" s="91" t="s">
         <v>31</v>
       </c>
@@ -38955,7 +38955,7 @@
         <v>9.1772385144182824E-4</v>
       </c>
     </row>
-    <row r="271" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A271" s="89" t="s">
         <v>37</v>
       </c>
@@ -39008,7 +39008,7 @@
         <v>0.20148181210971527</v>
       </c>
     </row>
-    <row r="272" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A272" s="87" t="s">
         <v>21</v>
       </c>
@@ -39061,7 +39061,7 @@
         <v>0.18328284782400575</v>
       </c>
     </row>
-    <row r="273" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A273" s="85" t="s">
         <v>38</v>
       </c>
@@ -39114,12 +39114,12 @@
         <v>1.8198964285709555E-2</v>
       </c>
     </row>
-    <row r="274" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A274" s="134" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="275" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A275" s="14" t="s">
         <v>120</v>
       </c>
@@ -39127,7 +39127,7 @@
         <v>3736.5</v>
       </c>
     </row>
-    <row r="276" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A276" s="13" t="s">
         <v>16</v>
       </c>
@@ -39135,7 +39135,7 @@
         <v>3374.5</v>
       </c>
     </row>
-    <row r="277" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A277" s="124" t="s">
         <v>64</v>
       </c>
@@ -39143,7 +39143,7 @@
         <v>1433</v>
       </c>
     </row>
-    <row r="278" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A278" s="11" t="s">
         <v>62</v>
       </c>
@@ -39151,7 +39151,7 @@
         <v>1919.5</v>
       </c>
     </row>
-    <row r="279" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A279" s="10" t="s">
         <v>121</v>
       </c>
@@ -39159,7 +39159,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="280" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A280" s="10" t="s">
         <v>122</v>
       </c>
@@ -39167,7 +39167,7 @@
         <v>667.5</v>
       </c>
     </row>
-    <row r="281" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A281" s="125" t="s">
         <v>63</v>
       </c>
@@ -39175,7 +39175,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="282" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A282" s="13" t="s">
         <v>34</v>
       </c>
@@ -39183,7 +39183,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="283" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A283" s="22" t="s">
         <v>121</v>
       </c>
@@ -39191,7 +39191,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="284" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A284" s="21" t="s">
         <v>122</v>
       </c>
@@ -39199,7 +39199,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="287" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A287" s="75" t="s">
         <v>123</v>
       </c>
@@ -39207,10 +39207,10 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="288" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:17" x14ac:dyDescent="0.25">
       <c r="Q288" s="77"/>
     </row>
-    <row r="289" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A289" s="14" t="s">
         <v>124</v>
       </c>
@@ -39218,7 +39218,7 @@
         <v>904480.4206648746</v>
       </c>
     </row>
-    <row r="290" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A290" s="140" t="s">
         <v>125</v>
       </c>
@@ -39226,7 +39226,7 @@
         <v>100591.62798774872</v>
       </c>
     </row>
-    <row r="291" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A291" s="139" t="s">
         <v>126</v>
       </c>
@@ -39234,7 +39234,7 @@
         <v>803888.79267712589</v>
       </c>
     </row>
-    <row r="293" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A293" s="14" t="s">
         <v>33</v>
       </c>
@@ -39242,7 +39242,7 @@
         <v>21.310651668275597</v>
       </c>
     </row>
-    <row r="294" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A294" s="140" t="s">
         <v>125</v>
       </c>
@@ -39250,7 +39250,7 @@
         <v>7.9016338037875116</v>
       </c>
     </row>
-    <row r="295" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A295" s="139" t="s">
         <v>126</v>
       </c>
@@ -39271,13 +39271,13 @@
       <selection activeCell="W202" sqref="W202"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.1796875" customWidth="1"/>
+    <col min="1" max="1" width="25.140625" customWidth="1"/>
     <col min="2" max="16" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="75" t="s">
         <v>127</v>
       </c>
@@ -39330,7 +39330,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="111"/>
       <c r="B2" s="110"/>
       <c r="C2" s="110"/>
@@ -39349,7 +39349,7 @@
       <c r="P2" s="110"/>
       <c r="Q2" s="110"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>17</v>
       </c>
@@ -39370,7 +39370,7 @@
       <c r="P3" s="102"/>
       <c r="Q3" s="102"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>19</v>
       </c>
@@ -39423,7 +39423,7 @@
         <v>5387885.2102444759</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>18</v>
       </c>
@@ -39476,7 +39476,7 @@
         <v>124572.07616194514</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>20</v>
       </c>
@@ -39529,7 +39529,7 @@
         <v>4719824.7265817737</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>22</v>
       </c>
@@ -39582,7 +39582,7 @@
         <v>1885032.439136676</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>24</v>
       </c>
@@ -39635,7 +39635,7 @@
         <v>2671347.2581787887</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>26</v>
       </c>
@@ -39688,7 +39688,7 @@
         <v>130898.8274178088</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>28</v>
       </c>
@@ -39741,7 +39741,7 @@
         <v>26412.458849760857</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>30</v>
       </c>
@@ -39794,7 +39794,7 @@
         <v>2897.4455713570092</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>31</v>
       </c>
@@ -39847,7 +39847,7 @@
         <v>3236.2974273826035</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>32</v>
       </c>
@@ -39900,7 +39900,7 @@
         <v>543488.40750075656</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>22</v>
       </c>
@@ -39953,7 +39953,7 @@
         <v>615.80206249370519</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>24</v>
       </c>
@@ -40006,7 +40006,7 @@
         <v>505026.61755038705</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>26</v>
       </c>
@@ -40059,7 +40059,7 @@
         <v>983.06236435623714</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>28</v>
       </c>
@@ -40112,7 +40112,7 @@
         <v>33182.745988862509</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>31</v>
       </c>
@@ -40165,7 +40165,7 @@
         <v>3680.1795346570198</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>27</v>
       </c>
@@ -40218,7 +40218,7 @@
         <v>1839969.9161456034</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>35</v>
       </c>
@@ -40271,7 +40271,7 @@
         <v>117316.14408828289</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>22</v>
       </c>
@@ -40324,7 +40324,7 @@
         <v>4409.4864845661323</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>24</v>
       </c>
@@ -40377,7 +40377,7 @@
         <v>111884.29225176512</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>26</v>
       </c>
@@ -40430,7 +40430,7 @@
         <v>599.636173717926</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>28</v>
       </c>
@@ -40483,7 +40483,7 @@
         <v>328.79533002535783</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>31</v>
       </c>
@@ -40536,7 +40536,7 @@
         <v>93.933848208376332</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>37</v>
       </c>
@@ -40589,7 +40589,7 @@
         <v>1722653.7720573205</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>21</v>
       </c>
@@ -40642,7 +40642,7 @@
         <v>1143331.675949363</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>38</v>
       </c>
@@ -40695,7 +40695,7 @@
         <v>579322.0961079573</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="74"/>
       <c r="B29" s="77"/>
       <c r="C29" s="77"/>
@@ -40714,7 +40714,7 @@
       <c r="P29" s="77"/>
       <c r="Q29" s="77"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>108</v>
       </c>
@@ -40767,7 +40767,7 @@
         <v>3636616.8056466528</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
         <v>16</v>
       </c>
@@ -40820,7 +40820,7 @@
         <v>3030208.2761597843</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
         <v>18</v>
       </c>
@@ -40873,7 +40873,7 @@
         <v>105129.0876757605</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>20</v>
       </c>
@@ -40926,7 +40926,7 @@
         <v>2896900.983536006</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
         <v>22</v>
       </c>
@@ -40979,7 +40979,7 @@
         <v>1161469.6826307648</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
         <v>24</v>
       </c>
@@ -41032,7 +41032,7 @@
         <v>1636190.7444116129</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
         <v>26</v>
       </c>
@@ -41085,7 +41085,7 @@
         <v>79595.214647008805</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
         <v>28</v>
       </c>
@@ -41138,7 +41138,7 @@
         <v>15522.046566037176</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
         <v>30</v>
       </c>
@@ -41191,7 +41191,7 @@
         <v>1905.0221530917511</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
         <v>31</v>
       </c>
@@ -41244,7 +41244,7 @@
         <v>2218.273127490892</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
         <v>32</v>
       </c>
@@ -41297,7 +41297,7 @@
         <v>28178.204948018065</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
         <v>22</v>
       </c>
@@ -41350,7 +41350,7 @@
         <v>72.265479066891118</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
         <v>24</v>
       </c>
@@ -41403,7 +41403,7 @@
         <v>26261.849541092113</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
         <v>26</v>
       </c>
@@ -41456,7 +41456,7 @@
         <v>49.539667353143813</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
         <v>28</v>
       </c>
@@ -41509,7 +41509,7 @@
         <v>1623.532337939748</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
         <v>31</v>
       </c>
@@ -41562,7 +41562,7 @@
         <v>171.01792256617077</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
         <v>34</v>
       </c>
@@ -41615,7 +41615,7 @@
         <v>606408.52948686853</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
         <v>35</v>
       </c>
@@ -41668,7 +41668,7 @@
         <v>450004.70075862878</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
         <v>22</v>
       </c>
@@ -41721,7 +41721,7 @@
         <v>21987.258283096267</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
         <v>24</v>
       </c>
@@ -41774,7 +41774,7 @@
         <v>422963.13590048673</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
         <v>26</v>
       </c>
@@ -41827,7 +41827,7 @@
         <v>3061.9875477612886</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
         <v>28</v>
       </c>
@@ -41880,7 +41880,7 @@
         <v>1574.4170728517074</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
         <v>31</v>
       </c>
@@ -41933,7 +41933,7 @@
         <v>417.90195443278617</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
         <v>37</v>
       </c>
@@ -41986,7 +41986,7 @@
         <v>156403.82872823978</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
         <v>21</v>
       </c>
@@ -42039,7 +42039,7 @@
         <v>114750.42945342396</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
         <v>38</v>
       </c>
@@ -42092,7 +42092,7 @@
         <v>41653.399274815827</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="14" t="s">
         <v>15</v>
       </c>
@@ -42145,7 +42145,7 @@
         <v>327835506.99146843</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="13" t="s">
         <v>16</v>
       </c>
@@ -42198,7 +42198,7 @@
         <v>292751201</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="12" t="s">
         <v>18</v>
       </c>
@@ -42251,7 +42251,7 @@
         <v>37036579</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
         <v>20</v>
       </c>
@@ -42304,7 +42304,7 @@
         <v>255004455</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
         <v>22</v>
       </c>
@@ -42357,7 +42357,7 @@
         <v>139055432</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
         <v>24</v>
       </c>
@@ -42410,7 +42410,7 @@
         <v>106612315</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
         <v>26</v>
       </c>
@@ -42463,7 +42463,7 @@
         <v>7685081</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
         <v>28</v>
       </c>
@@ -42516,7 +42516,7 @@
         <v>1313031</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="s">
         <v>30</v>
       </c>
@@ -42569,7 +42569,7 @@
         <v>181560</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" s="10" t="s">
         <v>31</v>
       </c>
@@ -42622,7 +42622,7 @@
         <v>157036</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
         <v>32</v>
       </c>
@@ -42675,7 +42675,7 @@
         <v>710167</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" s="10" t="s">
         <v>22</v>
       </c>
@@ -42728,7 +42728,7 @@
         <v>4259</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" s="10" t="s">
         <v>24</v>
       </c>
@@ -42781,7 +42781,7 @@
         <v>664879</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" s="10" t="s">
         <v>26</v>
       </c>
@@ -42834,7 +42834,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" s="10" t="s">
         <v>28</v>
       </c>
@@ -42887,7 +42887,7 @@
         <v>34907</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" s="10" t="s">
         <v>31</v>
       </c>
@@ -42940,7 +42940,7 @@
         <v>4118</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" s="13" t="s">
         <v>34</v>
       </c>
@@ -42993,7 +42993,7 @@
         <v>35084305.991468422</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" s="12" t="s">
         <v>35</v>
       </c>
@@ -43046,7 +43046,7 @@
         <v>29147375</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" s="10" t="s">
         <v>22</v>
       </c>
@@ -43099,7 +43099,7 @@
         <v>2226999</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" s="10" t="s">
         <v>24</v>
       </c>
@@ -43152,7 +43152,7 @@
         <v>26430217</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" s="10" t="s">
         <v>26</v>
       </c>
@@ -43205,7 +43205,7 @@
         <v>320764</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" s="10" t="s">
         <v>28</v>
       </c>
@@ -43258,7 +43258,7 @@
         <v>128891</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" s="10" t="s">
         <v>31</v>
       </c>
@@ -43311,7 +43311,7 @@
         <v>40504</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" s="11" t="s">
         <v>37</v>
       </c>
@@ -43364,7 +43364,7 @@
         <v>5936930.9914684212</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" s="10" t="s">
         <v>21</v>
       </c>
@@ -43417,7 +43417,7 @@
         <v>5446891</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" s="9" t="s">
         <v>38</v>
       </c>
@@ -43470,7 +43470,7 @@
         <v>490039.99146842147</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" s="14" t="s">
         <v>109</v>
       </c>
@@ -43523,7 +43523,7 @@
         <v>327835506.99146843</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" s="13" t="s">
         <v>16</v>
       </c>
@@ -43576,7 +43576,7 @@
         <v>292751201</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86" s="12" t="s">
         <v>18</v>
       </c>
@@ -43629,7 +43629,7 @@
         <v>37036579</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87" s="11" t="s">
         <v>20</v>
       </c>
@@ -43682,7 +43682,7 @@
         <v>255004455</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88" s="10" t="s">
         <v>22</v>
       </c>
@@ -43735,7 +43735,7 @@
         <v>139055432</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89" s="10" t="s">
         <v>24</v>
       </c>
@@ -43788,7 +43788,7 @@
         <v>106612315</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90" s="10" t="s">
         <v>26</v>
       </c>
@@ -43841,7 +43841,7 @@
         <v>7685081</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91" s="10" t="s">
         <v>28</v>
       </c>
@@ -43894,7 +43894,7 @@
         <v>1313031</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92" s="10" t="s">
         <v>30</v>
       </c>
@@ -43947,7 +43947,7 @@
         <v>181560</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93" s="10" t="s">
         <v>31</v>
       </c>
@@ -44000,7 +44000,7 @@
         <v>157036</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94" s="11" t="s">
         <v>32</v>
       </c>
@@ -44053,7 +44053,7 @@
         <v>710167</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95" s="10" t="s">
         <v>22</v>
       </c>
@@ -44106,7 +44106,7 @@
         <v>4259</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96" s="10" t="s">
         <v>24</v>
       </c>
@@ -44159,7 +44159,7 @@
         <v>664879</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97" s="10" t="s">
         <v>26</v>
       </c>
@@ -44212,7 +44212,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98" s="10" t="s">
         <v>28</v>
       </c>
@@ -44265,7 +44265,7 @@
         <v>34907</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99" s="10" t="s">
         <v>31</v>
       </c>
@@ -44318,7 +44318,7 @@
         <v>4118</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100" s="13" t="s">
         <v>34</v>
       </c>
@@ -44371,7 +44371,7 @@
         <v>35084305.991468422</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A101" s="12" t="s">
         <v>35</v>
       </c>
@@ -44424,7 +44424,7 @@
         <v>29147375</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A102" s="10" t="s">
         <v>22</v>
       </c>
@@ -44477,7 +44477,7 @@
         <v>2226999</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A103" s="10" t="s">
         <v>24</v>
       </c>
@@ -44530,7 +44530,7 @@
         <v>26430217</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A104" s="10" t="s">
         <v>26</v>
       </c>
@@ -44583,7 +44583,7 @@
         <v>320764</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A105" s="10" t="s">
         <v>28</v>
       </c>
@@ -44636,7 +44636,7 @@
         <v>128891</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A106" s="10" t="s">
         <v>31</v>
       </c>
@@ -44689,7 +44689,7 @@
         <v>40504</v>
       </c>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A107" s="11" t="s">
         <v>37</v>
       </c>
@@ -44742,7 +44742,7 @@
         <v>5936930.9914684212</v>
       </c>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A108" s="10" t="s">
         <v>21</v>
       </c>
@@ -44795,7 +44795,7 @@
         <v>5446891</v>
       </c>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A109" s="9" t="s">
         <v>38</v>
       </c>
@@ -44848,7 +44848,7 @@
         <v>490039.99146842147</v>
       </c>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A111" s="14" t="s">
         <v>110</v>
       </c>
@@ -44899,7 +44899,7 @@
         <v>24382696</v>
       </c>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A112" s="13" t="s">
         <v>16</v>
       </c>
@@ -44950,7 +44950,7 @@
         <v>20815237</v>
       </c>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A113" s="12" t="s">
         <v>18</v>
       </c>
@@ -45001,7 +45001,7 @@
         <v>2031962</v>
       </c>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A114" s="11" t="s">
         <v>20</v>
       </c>
@@ -45052,7 +45052,7 @@
         <v>18714984</v>
       </c>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A115" s="10" t="s">
         <v>22</v>
       </c>
@@ -45103,7 +45103,7 @@
         <v>9118346</v>
       </c>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A116" s="10" t="s">
         <v>24</v>
       </c>
@@ -45154,7 +45154,7 @@
         <v>8794891</v>
       </c>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A117" s="10" t="s">
         <v>26</v>
       </c>
@@ -45205,7 +45205,7 @@
         <v>557532</v>
       </c>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A118" s="10" t="s">
         <v>28</v>
       </c>
@@ -45256,7 +45256,7 @@
         <v>94046</v>
       </c>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A119" s="10" t="s">
         <v>30</v>
       </c>
@@ -45307,7 +45307,7 @@
         <v>92083</v>
       </c>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A120" s="10" t="s">
         <v>31</v>
       </c>
@@ -45358,7 +45358,7 @@
         <v>58086</v>
       </c>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A121" s="11" t="s">
         <v>32</v>
       </c>
@@ -45409,7 +45409,7 @@
         <v>68291</v>
       </c>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A122" s="10" t="s">
         <v>22</v>
       </c>
@@ -45460,7 +45460,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A123" s="10" t="s">
         <v>24</v>
       </c>
@@ -45511,7 +45511,7 @@
         <v>57538</v>
       </c>
     </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A124" s="10" t="s">
         <v>26</v>
       </c>
@@ -45562,7 +45562,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A125" s="10" t="s">
         <v>28</v>
       </c>
@@ -45613,7 +45613,7 @@
         <v>10117</v>
       </c>
     </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A126" s="10" t="s">
         <v>31</v>
       </c>
@@ -45664,7 +45664,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A127" s="13" t="s">
         <v>34</v>
       </c>
@@ -45715,7 +45715,7 @@
         <v>3567459</v>
       </c>
     </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A128" s="12" t="s">
         <v>35</v>
       </c>
@@ -45766,7 +45766,7 @@
         <v>2926545</v>
       </c>
     </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A129" s="10" t="s">
         <v>22</v>
       </c>
@@ -45817,7 +45817,7 @@
         <v>201298</v>
       </c>
     </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A130" s="10" t="s">
         <v>24</v>
       </c>
@@ -45868,7 +45868,7 @@
         <v>2687171</v>
       </c>
     </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A131" s="10" t="s">
         <v>26</v>
       </c>
@@ -45919,7 +45919,7 @@
         <v>11205</v>
       </c>
     </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A132" s="10" t="s">
         <v>28</v>
       </c>
@@ -45970,7 +45970,7 @@
         <v>16637</v>
       </c>
     </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A133" s="10" t="s">
         <v>31</v>
       </c>
@@ -46021,7 +46021,7 @@
         <v>10234</v>
       </c>
     </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A134" s="11" t="s">
         <v>37</v>
       </c>
@@ -46072,7 +46072,7 @@
         <v>640914</v>
       </c>
     </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A135" s="10" t="s">
         <v>21</v>
       </c>
@@ -46123,7 +46123,7 @@
         <v>529607</v>
       </c>
     </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A136" s="9" t="s">
         <v>38</v>
       </c>
@@ -46174,7 +46174,7 @@
         <v>111307</v>
       </c>
     </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A138" s="83" t="s">
         <v>45</v>
       </c>
@@ -46195,7 +46195,7 @@
       <c r="P138" s="104"/>
       <c r="Q138" s="104"/>
     </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A140" s="14" t="s">
         <v>111</v>
       </c>
@@ -46216,7 +46216,7 @@
       <c r="P140" s="103"/>
       <c r="Q140" s="103"/>
     </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A141" s="13" t="s">
         <v>112</v>
       </c>
@@ -46269,7 +46269,7 @@
         <v>1.7780577172314376</v>
       </c>
     </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A142" s="12" t="s">
         <v>18</v>
       </c>
@@ -46322,7 +46322,7 @@
         <v>1.1849439476365549</v>
       </c>
     </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A143" s="11" t="s">
         <v>20</v>
       </c>
@@ -46375,7 +46375,7 @@
         <v>1.6292668452964092</v>
       </c>
     </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A144" s="10" t="s">
         <v>22</v>
       </c>
@@ -46428,7 +46428,7 @@
         <v>1.6229717118978251</v>
       </c>
     </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A145" s="10" t="s">
         <v>24</v>
       </c>
@@ -46481,7 +46481,7 @@
         <v>1.6326624920124617</v>
       </c>
     </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A146" s="10" t="s">
         <v>26</v>
       </c>
@@ -46534,7 +46534,7 @@
         <v>1.6445564975020517</v>
       </c>
     </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A147" s="10" t="s">
         <v>28</v>
       </c>
@@ -46587,7 +46587,7 @@
         <v>1.701609303733975</v>
       </c>
     </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A148" s="10" t="s">
         <v>30</v>
       </c>
@@ -46640,7 +46640,7 @@
         <v>1.5209511168437631</v>
       </c>
     </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A149" s="10" t="s">
         <v>31</v>
       </c>
@@ -46693,7 +46693,7 @@
         <v>1.4589264898336516</v>
       </c>
     </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A150" s="11" t="s">
         <v>32</v>
       </c>
@@ -46746,7 +46746,7 @@
         <v>19.287545409771859</v>
       </c>
     </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A151" s="10" t="s">
         <v>22</v>
       </c>
@@ -46799,7 +46799,7 @@
         <v>8.5213862890703336</v>
       </c>
     </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A152" s="10" t="s">
         <v>24</v>
       </c>
@@ -46852,7 +46852,7 @@
         <v>19.230428411379332</v>
       </c>
     </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A153" s="10" t="s">
         <v>26</v>
       </c>
@@ -46905,7 +46905,7 @@
         <v>19.843943588649299</v>
       </c>
     </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A154" s="10" t="s">
         <v>28</v>
       </c>
@@ -46958,7 +46958,7 @@
         <v>20.43861105407435</v>
       </c>
     </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A155" s="10" t="s">
         <v>31</v>
       </c>
@@ -47011,7 +47011,7 @@
         <v>21.519262305581297</v>
       </c>
     </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A156" s="13" t="s">
         <v>114</v>
       </c>
@@ -47064,7 +47064,7 @@
         <v>3.0342085024802525</v>
       </c>
     </row>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A157" s="12" t="s">
         <v>35</v>
       </c>
@@ -47117,7 +47117,7 @@
         <v>0.26069981911413037</v>
       </c>
     </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A158" s="10" t="s">
         <v>22</v>
       </c>
@@ -47170,7 +47170,7 @@
         <v>0.200547354644764</v>
       </c>
     </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A159" s="10" t="s">
         <v>24</v>
       </c>
@@ -47223,7 +47223,7 @@
         <v>0.26452492606374295</v>
       </c>
     </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A160" s="10" t="s">
         <v>26</v>
       </c>
@@ -47276,7 +47276,7 @@
         <v>0.19583233581610679</v>
       </c>
     </row>
-    <row r="161" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A161" s="10" t="s">
         <v>28</v>
       </c>
@@ -47329,7 +47329,7 @@
         <v>0.208836232593577</v>
       </c>
     </row>
-    <row r="162" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A162" s="10" t="s">
         <v>31</v>
       </c>
@@ -47382,7 +47382,7 @@
         <v>0.22477484781297979</v>
       </c>
     </row>
-    <row r="163" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A163" s="11" t="s">
         <v>37</v>
       </c>
@@ -47435,7 +47435,7 @@
         <v>11.014140677147525</v>
       </c>
     </row>
-    <row r="164" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A164" s="10" t="s">
         <v>21</v>
       </c>
@@ -47488,7 +47488,7 @@
         <v>9.9636374468945217</v>
       </c>
     </row>
-    <row r="165" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A165" s="9" t="s">
         <v>38</v>
       </c>
@@ -47541,7 +47541,7 @@
         <v>13.908158906450231</v>
       </c>
     </row>
-    <row r="167" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A167" s="14" t="s">
         <v>115</v>
       </c>
@@ -47594,7 +47594,7 @@
         <v>11092.80943671941</v>
       </c>
     </row>
-    <row r="168" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A168" s="13" t="s">
         <v>16</v>
       </c>
@@ -47647,7 +47647,7 @@
         <v>10350.797078915431</v>
       </c>
     </row>
-    <row r="169" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A169" s="12" t="s">
         <v>18</v>
       </c>
@@ -47700,7 +47700,7 @@
         <v>2838.5204712282011</v>
       </c>
     </row>
-    <row r="170" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A170" s="11" t="s">
         <v>20</v>
       </c>
@@ -47753,7 +47753,7 @@
         <v>11360.197544533117</v>
       </c>
     </row>
-    <row r="171" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A171" s="10" t="s">
         <v>22</v>
       </c>
@@ -47806,7 +47806,7 @@
         <v>8352.5660661049533</v>
       </c>
     </row>
-    <row r="172" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A172" s="10" t="s">
         <v>24</v>
       </c>
@@ -47859,7 +47859,7 @@
         <v>15347.108299933387</v>
       </c>
     </row>
-    <row r="173" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A173" s="10" t="s">
         <v>26</v>
       </c>
@@ -47912,7 +47912,7 @@
         <v>10357.10809645452</v>
       </c>
     </row>
-    <row r="174" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A174" s="10" t="s">
         <v>28</v>
       </c>
@@ -47965,7 +47965,7 @@
         <v>11821.538536437583</v>
       </c>
     </row>
-    <row r="175" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A175" s="10" t="s">
         <v>30</v>
       </c>
@@ -48018,7 +48018,7 @@
         <v>10492.521222140071</v>
       </c>
     </row>
-    <row r="176" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A176" s="10" t="s">
         <v>31</v>
       </c>
@@ -48071,7 +48071,7 @@
         <v>14125.889143195776</v>
       </c>
     </row>
-    <row r="177" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A177" s="11" t="s">
         <v>32</v>
       </c>
@@ -48124,7 +48124,7 @@
         <v>39678.27982434845</v>
       </c>
     </row>
-    <row r="178" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A178" s="10" t="s">
         <v>22</v>
       </c>
@@ -48177,7 +48177,7 @@
         <v>16967.710511127287</v>
       </c>
     </row>
-    <row r="179" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A179" s="10" t="s">
         <v>24</v>
       </c>
@@ -48230,7 +48230,7 @@
         <v>39498.690049004574</v>
       </c>
     </row>
-    <row r="180" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A180" s="10" t="s">
         <v>26</v>
       </c>
@@ -48283,7 +48283,7 @@
         <v>24720.392890790325</v>
       </c>
     </row>
-    <row r="181" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A181" s="10" t="s">
         <v>28</v>
       </c>
@@ -48336,7 +48336,7 @@
         <v>46510.222532436135</v>
       </c>
     </row>
-    <row r="182" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A182" s="10" t="s">
         <v>31</v>
       </c>
@@ -48389,7 +48389,7 @@
         <v>41529.364391979303</v>
       </c>
     </row>
-    <row r="183" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A183" s="13" t="s">
         <v>34</v>
       </c>
@@ -48442,7 +48442,7 @@
         <v>17284.324496381119</v>
       </c>
     </row>
-    <row r="184" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A184" s="12" t="s">
         <v>35</v>
       </c>
@@ -48495,7 +48495,7 @@
         <v>15438.944356348686</v>
       </c>
     </row>
-    <row r="185" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A185" s="10" t="s">
         <v>22</v>
       </c>
@@ -48548,7 +48548,7 @@
         <v>9873.0436264660511</v>
       </c>
     </row>
-    <row r="186" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A186" s="10" t="s">
         <v>24</v>
       </c>
@@ -48601,7 +48601,7 @@
         <v>16003.014122074244</v>
       </c>
     </row>
-    <row r="187" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A187" s="10" t="s">
         <v>26</v>
       </c>
@@ -48654,7 +48654,7 @@
         <v>9545.9202022711052</v>
       </c>
     </row>
-    <row r="188" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A188" s="10" t="s">
         <v>28</v>
       </c>
@@ -48707,7 +48707,7 @@
         <v>12215.10480058117</v>
       </c>
     </row>
-    <row r="189" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A189" s="10" t="s">
         <v>31</v>
       </c>
@@ -48760,7 +48760,7 @@
         <v>10317.547759055555</v>
       </c>
     </row>
-    <row r="190" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A190" s="11" t="s">
         <v>37</v>
       </c>
@@ -48813,7 +48813,7 @@
         <v>26344.222116274821</v>
       </c>
     </row>
-    <row r="191" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A191" s="10" t="s">
         <v>21</v>
       </c>
@@ -48866,7 +48866,7 @@
         <v>21067.142605465018</v>
       </c>
     </row>
-    <row r="192" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A192" s="9" t="s">
         <v>38</v>
       </c>
@@ -48919,7 +48919,7 @@
         <v>85000</v>
       </c>
     </row>
-    <row r="194" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A194" s="14" t="s">
         <v>116</v>
       </c>
@@ -48940,7 +48940,7 @@
       <c r="P194" s="102"/>
       <c r="Q194" s="102"/>
     </row>
-    <row r="195" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A195" s="13" t="s">
         <v>117</v>
       </c>
@@ -48993,7 +48993,7 @@
         <v>18404.314625662202</v>
       </c>
     </row>
-    <row r="196" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A196" s="12" t="s">
         <v>18</v>
       </c>
@@ -49046,7 +49046,7 @@
         <v>3363.4876526243183</v>
       </c>
     </row>
-    <row r="197" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A197" s="11" t="s">
         <v>20</v>
       </c>
@@ -49099,7 +49099,7 @@
         <v>18508.793215325488</v>
       </c>
     </row>
-    <row r="198" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A198" s="10" t="s">
         <v>22</v>
       </c>
@@ -49152,7 +49152,7 @@
         <v>13555.978447046038</v>
       </c>
     </row>
-    <row r="199" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A199" s="10" t="s">
         <v>24</v>
       </c>
@@ -49205,7 +49205,7 @@
         <v>25056.648082154381</v>
       </c>
     </row>
-    <row r="200" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A200" s="10" t="s">
         <v>26</v>
       </c>
@@ -49258,7 +49258,7 @@
         <v>17032.849415355387</v>
       </c>
     </row>
-    <row r="201" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A201" s="10" t="s">
         <v>28</v>
       </c>
@@ -49311,7 +49311,7 @@
         <v>20115.63995805191</v>
       </c>
     </row>
-    <row r="202" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A202" s="10" t="s">
         <v>30</v>
       </c>
@@ -49364,7 +49364,7 @@
         <v>15958.611871320825</v>
       </c>
     </row>
-    <row r="203" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A203" s="10" t="s">
         <v>31</v>
       </c>
@@ -49417,7 +49417,7 @@
         <v>20608.633863461906</v>
       </c>
     </row>
-    <row r="204" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A204" s="11" t="s">
         <v>32</v>
       </c>
@@ -49470,7 +49470,7 @@
         <v>765296.62389375537</v>
       </c>
     </row>
-    <row r="205" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A205" s="10" t="s">
         <v>22</v>
       </c>
@@ -49523,7 +49523,7 @@
         <v>144588.41570643464</v>
       </c>
     </row>
-    <row r="206" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A206" s="10" t="s">
         <v>24</v>
       </c>
@@ -49576,7 +49576,7 @@
         <v>759576.73133064364</v>
       </c>
     </row>
-    <row r="207" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A207" s="10" t="s">
         <v>26</v>
       </c>
@@ -49629,7 +49629,7 @@
         <v>490550.08201409038</v>
       </c>
     </row>
-    <row r="208" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A208" s="10" t="s">
         <v>28</v>
       </c>
@@ -49682,7 +49682,7 @@
         <v>950604.34837890707</v>
       </c>
     </row>
-    <row r="209" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A209" s="10" t="s">
         <v>31</v>
       </c>
@@ -49735,7 +49735,7 @@
         <v>893681.28573507036</v>
       </c>
     </row>
-    <row r="210" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A210" s="13" t="s">
         <v>118</v>
       </c>
@@ -49788,7 +49788,7 @@
         <v>52444.244346547304</v>
       </c>
     </row>
-    <row r="211" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A211" s="12" t="s">
         <v>35</v>
       </c>
@@ -49841,7 +49841,7 @@
         <v>4024.930001013226</v>
       </c>
     </row>
-    <row r="212" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A212" s="10" t="s">
         <v>22</v>
       </c>
@@ -49894,7 +49894,7 @@
         <v>1980.0127815801141</v>
       </c>
     </row>
-    <row r="213" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A213" s="10" t="s">
         <v>24</v>
       </c>
@@ -49947,7 +49947,7 @@
         <v>4233.196127438724</v>
       </c>
     </row>
-    <row r="214" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A214" s="10" t="s">
         <v>26</v>
       </c>
@@ -50000,7 +50000,7 @@
         <v>1869.399850724913</v>
       </c>
     </row>
-    <row r="215" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A215" s="10" t="s">
         <v>28</v>
       </c>
@@ -50053,7 +50053,7 @@
         <v>2550.9564672890879</v>
       </c>
     </row>
-    <row r="216" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A216" s="10" t="s">
         <v>31</v>
       </c>
@@ -50106,7 +50106,7 @@
         <v>2319.1252273448631</v>
       </c>
     </row>
-    <row r="217" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A217" s="11" t="s">
         <v>37</v>
       </c>
@@ -50159,7 +50159,7 @@
         <v>290158.96841867198</v>
       </c>
     </row>
-    <row r="218" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A218" s="10" t="s">
         <v>21</v>
       </c>
@@ -50212,7 +50212,7 @@
         <v>209905.37096287828</v>
       </c>
     </row>
-    <row r="219" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A219" s="9" t="s">
         <v>38</v>
       </c>
@@ -50265,7 +50265,7 @@
         <v>1182193.5070482695</v>
       </c>
     </row>
-    <row r="221" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A221" s="14" t="s">
         <v>54</v>
       </c>
@@ -50286,7 +50286,7 @@
       <c r="P221" s="95"/>
       <c r="Q221" s="95"/>
     </row>
-    <row r="222" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A222" s="13" t="s">
         <v>55</v>
       </c>
@@ -50339,7 +50339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A223" s="93" t="s">
         <v>18</v>
       </c>
@@ -50392,7 +50392,7 @@
         <v>2.3120773977345493E-2</v>
       </c>
     </row>
-    <row r="224" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A224" s="89" t="s">
         <v>20</v>
       </c>
@@ -50445,7 +50445,7 @@
         <v>0.87600691967370459</v>
       </c>
     </row>
-    <row r="225" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A225" s="91" t="s">
         <v>22</v>
       </c>
@@ -50498,7 +50498,7 @@
         <v>0.34986499629808232</v>
       </c>
     </row>
-    <row r="226" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A226" s="91" t="s">
         <v>24</v>
       </c>
@@ -50551,7 +50551,7 @@
         <v>0.49580626793969429</v>
       </c>
     </row>
-    <row r="227" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A227" s="91" t="s">
         <v>26</v>
       </c>
@@ -50604,7 +50604,7 @@
         <v>2.4295028997447638E-2</v>
       </c>
     </row>
-    <row r="228" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A228" s="91" t="s">
         <v>28</v>
       </c>
@@ -50657,7 +50657,7 @@
         <v>4.9021940555712745E-3</v>
       </c>
     </row>
-    <row r="229" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A229" s="91" t="s">
         <v>30</v>
       </c>
@@ -50710,7 +50710,7 @@
         <v>5.3777047177022859E-4</v>
       </c>
     </row>
-    <row r="230" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A230" s="91" t="s">
         <v>31</v>
       </c>
@@ -50763,7 +50763,7 @@
         <v>6.0066191113892652E-4</v>
       </c>
     </row>
-    <row r="231" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A231" s="89" t="s">
         <v>32</v>
       </c>
@@ -50816,7 +50816,7 @@
         <v>0.10087230634894979</v>
       </c>
     </row>
-    <row r="232" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A232" s="91" t="s">
         <v>22</v>
       </c>
@@ -50869,7 +50869,7 @@
         <v>1.1429383486545422E-4</v>
       </c>
     </row>
-    <row r="233" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A233" s="91" t="s">
         <v>24</v>
       </c>
@@ -50922,7 +50922,7 @@
         <v>9.3733737420785071E-2</v>
       </c>
     </row>
-    <row r="234" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A234" s="91" t="s">
         <v>26</v>
       </c>
@@ -50975,7 +50975,7 @@
         <v>1.8245792662528358E-4</v>
       </c>
     </row>
-    <row r="235" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A235" s="91" t="s">
         <v>28</v>
       </c>
@@ -51028,7 +51028,7 @@
         <v>6.1587700357403933E-3</v>
       </c>
     </row>
-    <row r="236" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A236" s="91" t="s">
         <v>31</v>
       </c>
@@ -51081,7 +51081,7 @@
         <v>6.8304713093359155E-4</v>
       </c>
     </row>
-    <row r="237" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A237" s="13" t="s">
         <v>56</v>
       </c>
@@ -51134,7 +51134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A238" s="93" t="s">
         <v>35</v>
       </c>
@@ -51187,7 +51187,7 @@
         <v>6.3759816428976462E-2</v>
       </c>
     </row>
-    <row r="239" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A239" s="91" t="s">
         <v>22</v>
       </c>
@@ -51240,7 +51240,7 @@
         <v>2.3964992285326007E-3</v>
       </c>
     </row>
-    <row r="240" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A240" s="91" t="s">
         <v>24</v>
       </c>
@@ -51293,7 +51293,7 @@
         <v>6.0807674772282154E-2</v>
       </c>
     </row>
-    <row r="241" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A241" s="91" t="s">
         <v>26</v>
       </c>
@@ -51346,7 +51346,7 @@
         <v>3.2589455319685488E-4</v>
       </c>
     </row>
-    <row r="242" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A242" s="91" t="s">
         <v>28</v>
       </c>
@@ -51399,7 +51399,7 @@
         <v>1.7869603581026109E-4</v>
       </c>
     </row>
-    <row r="243" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A243" s="91" t="s">
         <v>31</v>
       </c>
@@ -51452,7 +51452,7 @@
         <v>1.7434270505572646E-5</v>
       </c>
     </row>
-    <row r="244" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A244" s="89" t="s">
         <v>37</v>
       </c>
@@ -51505,7 +51505,7 @@
         <v>0.93624018357102345</v>
       </c>
     </row>
-    <row r="245" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A245" s="91" t="s">
         <v>21</v>
       </c>
@@ -51558,7 +51558,7 @@
         <v>0.62138607045512539</v>
       </c>
     </row>
-    <row r="246" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A246" s="85" t="s">
         <v>38</v>
       </c>
@@ -51611,7 +51611,7 @@
         <v>0.31485411311589806</v>
       </c>
     </row>
-    <row r="248" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A248" s="14" t="s">
         <v>57</v>
       </c>
@@ -51632,7 +51632,7 @@
       <c r="P248" s="95"/>
       <c r="Q248" s="95"/>
     </row>
-    <row r="249" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A249" s="13" t="s">
         <v>16</v>
       </c>
@@ -51685,7 +51685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A250" s="93" t="s">
         <v>18</v>
       </c>
@@ -51738,7 +51738,7 @@
         <v>3.4693683765193765E-2</v>
       </c>
     </row>
-    <row r="251" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A251" s="89" t="s">
         <v>20</v>
       </c>
@@ -51791,7 +51791,7 @@
         <v>0.95600721782968656</v>
       </c>
     </row>
-    <row r="252" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A252" s="91" t="s">
         <v>22</v>
       </c>
@@ -51844,7 +51844,7 @@
         <v>0.38329698053056205</v>
       </c>
     </row>
-    <row r="253" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A253" s="91" t="s">
         <v>24</v>
       </c>
@@ -51897,7 +51897,7 @@
         <v>0.53995982958807542</v>
       </c>
     </row>
-    <row r="254" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A254" s="91" t="s">
         <v>26</v>
       </c>
@@ -51950,7 +51950,7 @@
         <v>2.6267242180422225E-2</v>
       </c>
     </row>
-    <row r="255" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A255" s="91" t="s">
         <v>28</v>
       </c>
@@ -52003,7 +52003,7 @@
         <v>5.1224355395492593E-3</v>
       </c>
     </row>
-    <row r="256" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A256" s="91" t="s">
         <v>30</v>
       </c>
@@ -52056,7 +52056,7 @@
         <v>6.2867696853696352E-4</v>
       </c>
     </row>
-    <row r="257" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A257" s="91" t="s">
         <v>31</v>
       </c>
@@ -52109,7 +52109,7 @@
         <v>7.3205302254079169E-4</v>
       </c>
     </row>
-    <row r="258" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A258" s="89" t="s">
         <v>32</v>
       </c>
@@ -52162,7 +52162,7 @@
         <v>9.2990984051197333E-3</v>
       </c>
     </row>
-    <row r="259" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A259" s="91" t="s">
         <v>22</v>
       </c>
@@ -52215,7 +52215,7 @@
         <v>2.3848353803083774E-5</v>
       </c>
     </row>
-    <row r="260" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A260" s="91" t="s">
         <v>24</v>
       </c>
@@ -52268,7 +52268,7 @@
         <v>8.6666813458690824E-3</v>
       </c>
     </row>
-    <row r="261" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A261" s="91" t="s">
         <v>26</v>
       </c>
@@ -52321,7 +52321,7 @@
         <v>1.6348601428785605E-5</v>
       </c>
     </row>
-    <row r="262" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A262" s="91" t="s">
         <v>28</v>
       </c>
@@ -52374,7 +52374,7 @@
         <v>5.3578242482964504E-4</v>
       </c>
     </row>
-    <row r="263" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A263" s="91" t="s">
         <v>31</v>
       </c>
@@ -52427,7 +52427,7 @@
         <v>5.6437679189136012E-5</v>
       </c>
     </row>
-    <row r="264" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A264" s="13" t="s">
         <v>34</v>
       </c>
@@ -52480,7 +52480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A265" s="93" t="s">
         <v>35</v>
       </c>
@@ -52533,7 +52533,7 @@
         <v>0.74208174667235349</v>
       </c>
     </row>
-    <row r="266" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A266" s="91" t="s">
         <v>22</v>
       </c>
@@ -52586,7 +52586,7 @@
         <v>3.6258161311981334E-2</v>
       </c>
     </row>
-    <row r="267" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A267" s="91" t="s">
         <v>24</v>
       </c>
@@ -52639,7 +52639,7 @@
         <v>0.69748876431271534</v>
       </c>
     </row>
-    <row r="268" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A268" s="91" t="s">
         <v>26</v>
       </c>
@@ -52692,7 +52692,7 @@
         <v>5.0493807373591607E-3</v>
       </c>
     </row>
-    <row r="269" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A269" s="91" t="s">
         <v>28</v>
       </c>
@@ -52745,7 +52745,7 @@
         <v>2.596297704097186E-3</v>
       </c>
     </row>
-    <row r="270" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A270" s="91" t="s">
         <v>31</v>
       </c>
@@ -52798,7 +52798,7 @@
         <v>6.8914260620048815E-4</v>
       </c>
     </row>
-    <row r="271" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A271" s="89" t="s">
         <v>37</v>
       </c>
@@ -52851,7 +52851,7 @@
         <v>0.25791825332764656</v>
       </c>
     </row>
-    <row r="272" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A272" s="87" t="s">
         <v>21</v>
       </c>
@@ -52904,7 +52904,7 @@
         <v>0.18922957688362926</v>
       </c>
     </row>
-    <row r="273" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A273" s="85" t="s">
         <v>38</v>
       </c>
@@ -52957,7 +52957,7 @@
         <v>6.8688676444017285E-2</v>
       </c>
     </row>
-    <row r="275" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A275" s="75" t="s">
         <v>128</v>
       </c>
@@ -52965,7 +52965,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="276" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A276" s="14" t="s">
         <v>129</v>
       </c>
@@ -52973,7 +52973,7 @@
         <v>30819</v>
       </c>
     </row>
-    <row r="277" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A277" s="13" t="s">
         <v>16</v>
       </c>
@@ -52981,7 +52981,7 @@
         <v>25061</v>
       </c>
     </row>
-    <row r="278" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A278" s="124" t="s">
         <v>64</v>
       </c>
@@ -52989,7 +52989,7 @@
         <v>12071</v>
       </c>
     </row>
-    <row r="279" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A279" s="11" t="s">
         <v>62</v>
       </c>
@@ -52997,7 +52997,7 @@
         <v>12285</v>
       </c>
     </row>
-    <row r="280" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A280" s="10" t="s">
         <v>121</v>
       </c>
@@ -53005,7 +53005,7 @@
         <v>4092</v>
       </c>
     </row>
-    <row r="281" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A281" s="10" t="s">
         <v>122</v>
       </c>
@@ -53013,7 +53013,7 @@
         <v>8193</v>
       </c>
     </row>
-    <row r="282" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A282" s="125" t="s">
         <v>63</v>
       </c>
@@ -53021,7 +53021,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="283" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A283" s="13" t="s">
         <v>34</v>
       </c>
@@ -53029,7 +53029,7 @@
         <v>5758</v>
       </c>
     </row>
-    <row r="284" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A284" s="22" t="s">
         <v>121</v>
       </c>
@@ -53037,7 +53037,7 @@
         <v>1640.5</v>
       </c>
     </row>
-    <row r="285" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A285" s="21" t="s">
         <v>122</v>
       </c>
@@ -53045,7 +53045,7 @@
         <v>4117.5</v>
       </c>
     </row>
-    <row r="288" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A288" s="75" t="s">
         <v>130</v>
       </c>
@@ -53053,10 +53053,10 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="289" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:17" x14ac:dyDescent="0.25">
       <c r="Q289" s="77"/>
     </row>
-    <row r="290" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A290" s="14" t="s">
         <v>124</v>
       </c>
@@ -53064,7 +53064,7 @@
         <v>14053817.860116277</v>
       </c>
     </row>
-    <row r="291" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A291" s="140" t="s">
         <v>125</v>
       </c>
@@ -53072,7 +53072,7 @@
         <v>934012.70063174493</v>
       </c>
     </row>
-    <row r="292" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A292" s="139" t="s">
         <v>126</v>
       </c>
@@ -53080,7 +53080,7 @@
         <v>13119805.159484532</v>
       </c>
     </row>
-    <row r="294" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A294" s="14" t="s">
         <v>33</v>
       </c>
@@ -53088,7 +53088,7 @@
         <v>367.14488211210704</v>
       </c>
     </row>
-    <row r="295" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A295" s="140" t="s">
         <v>125</v>
       </c>
@@ -53096,7 +53096,7 @@
         <v>83.780844053560372</v>
       </c>
     </row>
-    <row r="296" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A296" s="139" t="s">
         <v>126</v>
       </c>
@@ -53116,30 +53116,30 @@
   </sheetPr>
   <dimension ref="A1:T58"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="60" workbookViewId="0">
-      <selection activeCell="P58" sqref="P58"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="P37" sqref="P37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.1796875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.453125" customWidth="1"/>
-    <col min="13" max="13" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="28.81640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.42578125" customWidth="1"/>
+    <col min="13" max="13" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="146" t="s">
         <v>131</v>
       </c>
@@ -53163,7 +53163,7 @@
       <c r="S1" s="146"/>
       <c r="T1" s="133"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="146"/>
       <c r="B2" s="146"/>
       <c r="C2" s="146"/>
@@ -53183,7 +53183,7 @@
       <c r="S2" s="146"/>
       <c r="T2" s="133"/>
     </row>
-    <row r="4" spans="1:20" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="145" t="s">
         <v>133</v>
       </c>
@@ -53207,7 +53207,7 @@
       <c r="S4" s="145"/>
       <c r="T4" s="135"/>
     </row>
-    <row r="5" spans="1:20" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>134</v>
       </c>
@@ -53263,7 +53263,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="68" t="s">
         <v>143</v>
       </c>
@@ -53337,7 +53337,7 @@
         <v>3603480</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="68" t="s">
         <v>145</v>
       </c>
@@ -53405,7 +53405,7 @@
         <v>652838.55958794698</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="68" t="s">
         <v>147</v>
       </c>
@@ -53419,8 +53419,8 @@
         <v>0</v>
       </c>
       <c r="E8" s="73">
-        <f>'Raw data JRC Aircraft'!E40</f>
-        <v>1607.642640613188</v>
+        <f>'Raw data JRC Aircraft'!E41+'Raw data JRC Aircraft'!E42</f>
+        <v>770.012089991518</v>
       </c>
       <c r="F8" s="73">
         <v>0</v>
@@ -53429,12 +53429,12 @@
         <v>0</v>
       </c>
       <c r="H8" s="73">
-        <f>'Raw data JRC Aircraft'!E40-SUM(B8:G8)</f>
+        <f>('Raw data JRC Aircraft'!E41+'Raw data JRC Aircraft'!E42)-SUM(B8:G8)</f>
         <v>0</v>
       </c>
       <c r="I8" s="136">
         <f t="shared" si="0"/>
-        <v>1607.642640613188</v>
+        <v>770.012089991518</v>
       </c>
       <c r="J8" s="113" t="s">
         <v>148</v>
@@ -53452,8 +53452,8 @@
         <v>0</v>
       </c>
       <c r="P8" s="73">
-        <f>'Raw data JRC Aircraft'!E44</f>
-        <v>80.485816663482993</v>
+        <f>'Raw data JRC Aircraft'!E45</f>
+        <v>16.485103132161999</v>
       </c>
       <c r="Q8" s="73">
         <v>0</v>
@@ -53466,10 +53466,10 @@
       </c>
       <c r="T8" s="136">
         <f t="shared" si="1"/>
-        <v>80.485816663482993</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+        <v>16.485103132161999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="68" t="s">
         <v>149</v>
       </c>
@@ -53536,7 +53536,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>151</v>
       </c>
@@ -53596,7 +53596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="68" t="s">
         <v>152</v>
       </c>
@@ -53655,7 +53655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="145" t="s">
         <v>153</v>
       </c>
@@ -53679,7 +53679,7 @@
       <c r="S13" s="145"/>
       <c r="T13" s="135"/>
     </row>
-    <row r="14" spans="1:20" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>134</v>
       </c>
@@ -53735,7 +53735,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="126" t="s">
         <v>143</v>
       </c>
@@ -53806,7 +53806,7 @@
         <v>29147375</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="126" t="s">
         <v>145</v>
       </c>
@@ -53871,7 +53871,7 @@
         <v>1722653.7720573205</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="126" t="s">
         <v>147</v>
       </c>
@@ -53885,8 +53885,8 @@
         <v>0</v>
       </c>
       <c r="E17" s="73">
-        <f>'Raw data JRC Aircraft'!B30</f>
-        <v>8346.0790641255444</v>
+        <f>'Raw data JRC Aircraft'!B31+'Raw data JRC Aircraft'!B32</f>
+        <v>4828.8394913743059</v>
       </c>
       <c r="F17" s="73">
         <v>0</v>
@@ -53899,7 +53899,7 @@
       </c>
       <c r="I17" s="136">
         <f t="shared" si="2"/>
-        <v>8346.0790641255444</v>
+        <v>4828.8394913743059</v>
       </c>
       <c r="L17" s="126" t="s">
         <v>147</v>
@@ -53914,8 +53914,8 @@
         <v>0</v>
       </c>
       <c r="P17" s="73">
-        <f>'Raw data JRC Aircraft'!B34</f>
-        <v>507.99873350961605</v>
+        <f>'Raw data JRC Aircraft'!B35</f>
+        <v>165.67674900357699</v>
       </c>
       <c r="Q17" s="73">
         <v>0</v>
@@ -53928,10 +53928,10 @@
       </c>
       <c r="T17" s="136">
         <f t="shared" si="3"/>
-        <v>507.99873350961605</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
+        <v>165.67674900357699</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="126" t="s">
         <v>149</v>
       </c>
@@ -53993,7 +53993,7 @@
         <v>5758</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>151</v>
       </c>
@@ -54051,7 +54051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="126" t="s">
         <v>152</v>
       </c>
@@ -54110,7 +54110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="145" t="s">
         <v>154</v>
       </c>
@@ -54134,7 +54134,7 @@
       <c r="S22" s="145"/>
       <c r="T22" s="135"/>
     </row>
-    <row r="23" spans="1:20" ht="29" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>134</v>
       </c>
@@ -54190,7 +54190,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>143</v>
       </c>
@@ -54262,7 +54262,7 @@
         <v>0.12362965790229824</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>145</v>
       </c>
@@ -54334,7 +54334,7 @@
         <v>0.37897258879146617</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>147</v>
       </c>
@@ -54351,8 +54351,8 @@
         <v>0</v>
       </c>
       <c r="E26" s="115">
-        <f t="shared" si="9"/>
-        <v>0.19262250312525978</v>
+        <f>IFERROR(E8/E17,0)</f>
+        <v>0.15946110682845863</v>
       </c>
       <c r="F26" s="115">
         <f t="shared" si="9"/>
@@ -54368,7 +54368,7 @@
       </c>
       <c r="I26" s="115">
         <f t="shared" si="7"/>
-        <v>0.19262250312525978</v>
+        <v>0.15946110682845863</v>
       </c>
       <c r="L26" s="1" t="s">
         <v>147</v>
@@ -54387,7 +54387,7 @@
       </c>
       <c r="P26" s="115">
         <f t="shared" si="10"/>
-        <v>0.15843704197337227</v>
+        <v>9.9501609195663795E-2</v>
       </c>
       <c r="Q26" s="115">
         <f t="shared" si="10"/>
@@ -54403,10 +54403,10 @@
       </c>
       <c r="T26" s="115">
         <f t="shared" si="10"/>
-        <v>0.15843704197337227</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
+        <v>9.9501609195663795E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>149</v>
       </c>
@@ -54478,7 +54478,7 @@
         <v>6.2869051754081279E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>151</v>
       </c>
@@ -54544,7 +54544,7 @@
       </c>
       <c r="T28" s="115"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>152</v>
       </c>
@@ -54613,7 +54613,7 @@
       </c>
       <c r="T29" s="115"/>
     </row>
-    <row r="33" spans="1:20" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A33" s="145" t="s">
         <v>155</v>
       </c>
@@ -54637,7 +54637,7 @@
       <c r="S33" s="145"/>
       <c r="T33" s="135"/>
     </row>
-    <row r="34" spans="1:20" ht="29" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>134</v>
       </c>
@@ -54693,7 +54693,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="117" t="s">
         <v>143</v>
       </c>
@@ -54765,7 +54765,7 @@
         <v>32946552</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="117" t="s">
         <v>145</v>
       </c>
@@ -54835,7 +54835,7 @@
         <v>7007448</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="69" t="s">
         <v>147</v>
       </c>
@@ -54853,7 +54853,7 @@
       </c>
       <c r="E37" s="73">
         <f t="shared" si="19"/>
-        <v>8346.0790641255444</v>
+        <v>4828.8394913743059</v>
       </c>
       <c r="F37" s="73">
         <f t="shared" si="19"/>
@@ -54869,7 +54869,7 @@
       </c>
       <c r="I37" s="136">
         <f t="shared" si="17"/>
-        <v>8346.0790641255444</v>
+        <v>4828.8394913743059</v>
       </c>
       <c r="J37" s="129" t="s">
         <v>156</v>
@@ -54889,8 +54889,8 @@
         <v>0</v>
       </c>
       <c r="P37" s="73">
-        <f>'Raw data JRC Aircraft'!B34</f>
-        <v>507.99873350961605</v>
+        <f>'Raw data JRC Aircraft'!B35</f>
+        <v>165.67674900357699</v>
       </c>
       <c r="Q37" s="73">
         <f t="shared" si="20"/>
@@ -54906,10 +54906,10 @@
       </c>
       <c r="T37" s="136">
         <f>SUM(N37:S37)</f>
-        <v>507.99873350961605</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.35">
+        <v>165.67674900357699</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="117" t="s">
         <v>149</v>
       </c>
@@ -54971,7 +54971,7 @@
         <v>6476</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>151</v>
       </c>
@@ -55029,7 +55029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="117" t="s">
         <v>152</v>
       </c>
@@ -55092,7 +55092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A43" s="145" t="s">
         <v>157</v>
       </c>
@@ -55116,7 +55116,7 @@
       <c r="S43" s="145"/>
       <c r="T43" s="135"/>
     </row>
-    <row r="44" spans="1:20" ht="29" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>134</v>
       </c>
@@ -55172,7 +55172,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="131" t="s">
         <v>143</v>
       </c>
@@ -55244,7 +55244,7 @@
         <v>28893739.526498262</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="131" t="s">
         <v>145</v>
       </c>
@@ -55316,7 +55316,7 @@
         <v>4352253.1090955287</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="131" t="s">
         <v>147</v>
       </c>
@@ -55334,7 +55334,7 @@
       </c>
       <c r="E47" s="73">
         <f t="shared" si="27"/>
-        <v>6738.4364235123567</v>
+        <v>4058.8274013827881</v>
       </c>
       <c r="F47" s="73">
         <f t="shared" si="27"/>
@@ -55350,7 +55350,7 @@
       </c>
       <c r="I47" s="136">
         <f t="shared" si="25"/>
-        <v>6738.4364235123567</v>
+        <v>4058.8274013827881</v>
       </c>
       <c r="L47" s="131" t="s">
         <v>147</v>
@@ -55369,7 +55369,7 @@
       </c>
       <c r="P47" s="73">
         <f t="shared" si="28"/>
-        <v>427.51291684613307</v>
+        <v>149.19164587141501</v>
       </c>
       <c r="Q47" s="73">
         <f t="shared" si="28"/>
@@ -55385,10 +55385,10 @@
       </c>
       <c r="T47" s="136">
         <f t="shared" si="23"/>
-        <v>427.51291684613307</v>
-      </c>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.35">
+        <v>149.19164587141501</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="131" t="s">
         <v>149</v>
       </c>
@@ -55460,7 +55460,7 @@
         <v>6086.9993183694387</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="131" t="s">
         <v>151</v>
       </c>
@@ -55532,7 +55532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="131" t="s">
         <v>152</v>
       </c>
@@ -55604,7 +55604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="L53" s="137" t="s">
         <v>158</v>
       </c>
@@ -55633,7 +55633,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="L54" s="116" t="s">
         <v>159</v>
       </c>
@@ -55664,7 +55664,7 @@
         <v>21.310651668275597</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="L55" s="71" t="s">
         <v>160</v>
       </c>
@@ -55695,7 +55695,7 @@
         <v>367.14488211210704</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="L56" t="s">
         <v>154</v>
       </c>
@@ -55704,7 +55704,7 @@
         <v>5.8044256386415943E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="L57" s="113" t="s">
         <v>161</v>
       </c>
@@ -55713,7 +55713,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="L58" s="130" t="s">
         <v>162</v>
       </c>
@@ -55743,7 +55743,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="P37 T37" formula="1"/>
+    <ignoredError sqref="T37" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -55756,21 +55756,21 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.81640625" customWidth="1"/>
-    <col min="8" max="8" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="7" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>134</v>
       </c>
@@ -55796,7 +55796,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>143</v>
       </c>
@@ -55829,7 +55829,7 @@
         <v>41503</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>145</v>
       </c>
@@ -55862,7 +55862,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>147</v>
       </c>
@@ -55880,7 +55880,7 @@
       </c>
       <c r="E4" s="144">
         <f>Calculations!E47</f>
-        <v>6738.4364235123567</v>
+        <v>4058.8274013827881</v>
       </c>
       <c r="F4" s="144">
         <f>Calculations!F47</f>
@@ -55895,7 +55895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>149</v>
       </c>
@@ -55928,7 +55928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>151</v>
       </c>
@@ -55961,7 +55961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>152</v>
       </c>
@@ -56006,22 +56006,22 @@
   </sheetPr>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.81640625" customWidth="1"/>
-    <col min="8" max="8" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="7" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>134</v>
       </c>
@@ -56047,7 +56047,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>143</v>
       </c>
@@ -56080,7 +56080,7 @@
         <v>5789</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>145</v>
       </c>
@@ -56113,7 +56113,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>147</v>
       </c>
@@ -56131,7 +56131,7 @@
       </c>
       <c r="E4">
         <f>Calculations!P47</f>
-        <v>427.51291684613307</v>
+        <v>149.19164587141501</v>
       </c>
       <c r="F4">
         <f>Calculations!Q47</f>
@@ -56146,7 +56146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>149</v>
       </c>
@@ -56179,7 +56179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>151</v>
       </c>
@@ -56212,7 +56212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>152</v>
       </c>
@@ -56251,6 +56251,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="00484652-42e1-479e-92f4-fb0efddcdf60">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A08BDF573E2FFD46A5F05DED9AF68025" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f85c0eb68479ad8b8987805fd5b8836b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="00484652-42e1-479e-92f4-fb0efddcdf60" xmlns:ns3="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f7dbc72841229da9eaa30ebb1456cd70" ns2:_="" ns3:_="">
     <xsd:import namespace="00484652-42e1-479e-92f4-fb0efddcdf60"/>
@@ -56473,27 +56493,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="00484652-42e1-479e-92f4-fb0efddcdf60">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B958747-05AB-4C5B-933F-03EB048ECECF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D86501B8-0259-48A1-9C13-881AE5763A57}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="00484652-42e1-479e-92f4-fb0efddcdf60"/>
+    <ds:schemaRef ds:uri="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89B30F10-D8D4-42D8-A216-DE34B9D88FB1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -56510,23 +56529,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D86501B8-0259-48A1-9C13-881AE5763A57}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="00484652-42e1-479e-92f4-fb0efddcdf60"/>
-    <ds:schemaRef ds:uri="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B958747-05AB-4C5B-933F-03EB048ECECF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/InputData/trans/SYVbT/Start Year Vehicles by Technology.xlsx
+++ b/InputData/trans/SYVbT/Start Year Vehicles by Technology.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mary Francis Swint\Vensim\eps-eu\InputData\trans\SYVbT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03FD2AF4-5C02-4842-B627-9F4923B19DF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B1781FD-DCA6-4309-B143-18F2EC742918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="744" firstSheet="1" activeTab="1" xr2:uid="{05A92713-FF8C-4705-B0D9-268054C6A6B1}"/>
+    <workbookView xWindow="-38520" yWindow="-5880" windowWidth="38640" windowHeight="21120" tabRatio="744" firstSheet="1" activeTab="6" xr2:uid="{05A92713-FF8C-4705-B0D9-268054C6A6B1}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -1810,22 +1810,22 @@
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="10.85546875" style="2"/>
+    <col min="1" max="2" width="10.81640625" style="2"/>
     <col min="3" max="3" width="26" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="10.85546875" style="2"/>
+    <col min="4" max="16384" width="10.81640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B11" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B12" s="3"/>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B13" s="3" t="s">
         <v>1</v>
       </c>
@@ -1836,7 +1836,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B14" s="3"/>
       <c r="C14" s="3" t="s">
         <v>4</v>
@@ -1845,84 +1845,84 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B15" s="3"/>
       <c r="C15" s="4"/>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B16" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B17" s="70" t="s">
         <v>7</v>
       </c>
       <c r="C17" s="5"/>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B18" s="138" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="5"/>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B19" s="138" t="s">
         <v>9</v>
       </c>
       <c r="C19" s="5"/>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B20" s="138" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="5"/>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B22" s="138" t="s">
         <v>11</v>
       </c>
       <c r="C22" s="5"/>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B23" s="138" t="s">
         <v>12</v>
       </c>
       <c r="C23" s="5"/>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
     </row>
@@ -1939,17 +1939,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{357CB24D-1D6B-4122-9DA1-45BAC6D526D4}">
   <dimension ref="A1:E120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.81640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -1963,7 +1963,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
         <v>15</v>
       </c>
@@ -1971,7 +1971,7 @@
         <v>327835506.99146843</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
         <v>16</v>
       </c>
@@ -1983,7 +1983,7 @@
       </c>
       <c r="E3" s="102"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
         <v>18</v>
       </c>
@@ -1997,7 +1997,7 @@
         <v>377464.49938113766</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
         <v>20</v>
       </c>
@@ -2011,7 +2011,7 @@
         <v>10913.60207637002</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="10" t="s">
         <v>22</v>
       </c>
@@ -2025,7 +2025,7 @@
         <v>92736.437017180739</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
         <v>24</v>
       </c>
@@ -2039,7 +2039,7 @@
         <v>273814.4602875869</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
         <v>26</v>
       </c>
@@ -2053,7 +2053,7 @@
         <v>6658.1409445442414</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="10" t="s">
         <v>28</v>
       </c>
@@ -2067,7 +2067,7 @@
         <v>215.38927813957602</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="10" t="s">
         <v>30</v>
       </c>
@@ -2081,7 +2081,7 @@
         <v>6442.7516664046652</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="10" t="s">
         <v>31</v>
       </c>
@@ -2090,7 +2090,7 @@
       </c>
       <c r="E11" s="16"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="s">
         <v>32</v>
       </c>
@@ -2104,7 +2104,7 @@
         <v>2609.5848279533971</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="10" t="s">
         <v>22</v>
       </c>
@@ -2118,7 +2118,7 @@
         <v>2473.626992400099</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="10" t="s">
         <v>24</v>
       </c>
@@ -2132,7 +2132,7 @@
         <v>125.51628099055287</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="10" t="s">
         <v>26</v>
       </c>
@@ -2146,7 +2146,7 @@
         <v>754.56742128280655</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="10" t="s">
         <v>28</v>
       </c>
@@ -2160,7 +2160,7 @@
         <v>1593.5432901267395</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="10" t="s">
         <v>31</v>
       </c>
@@ -2174,7 +2174,7 @@
         <v>135.95783555329817</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="13" t="s">
         <v>34</v>
       </c>
@@ -2188,7 +2188,7 @@
         <v>9.1876875380647771</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="12" t="s">
         <v>35</v>
       </c>
@@ -2202,7 +2202,7 @@
         <v>126.7701480152334</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="10" t="s">
         <v>22</v>
       </c>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="E20" s="16"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="10" t="s">
         <v>24</v>
       </c>
@@ -2225,7 +2225,7 @@
         <v>1913337</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="10" t="s">
         <v>26</v>
       </c>
@@ -2239,7 +2239,7 @@
         <v>1859073</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="10" t="s">
         <v>28</v>
       </c>
@@ -2253,7 +2253,7 @@
         <v>263203</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="10" t="s">
         <v>31</v>
       </c>
@@ -2267,7 +2267,7 @@
         <v>1124284</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="11" t="s">
         <v>37</v>
       </c>
@@ -2281,7 +2281,7 @@
         <v>471585.99999999994</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="10" t="s">
         <v>21</v>
       </c>
@@ -2295,7 +2295,7 @@
         <v>54264</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="9" t="s">
         <v>38</v>
       </c>
@@ -2309,7 +2309,7 @@
         <v>17901</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D28" s="21" t="s">
         <v>25</v>
       </c>
@@ -2317,7 +2317,7 @@
         <v>36363</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="14" t="s">
         <v>39</v>
       </c>
@@ -2325,7 +2325,7 @@
         <v>8854.0777976351601</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="24" t="s">
         <v>16</v>
       </c>
@@ -2337,7 +2337,7 @@
       </c>
       <c r="E30" s="20"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="22" t="s">
         <v>21</v>
       </c>
@@ -2351,7 +2351,7 @@
         <v>242091488</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="22" t="s">
         <v>23</v>
       </c>
@@ -2365,7 +2365,7 @@
         <v>22885420</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="22" t="s">
         <v>25</v>
       </c>
@@ -2379,7 +2379,7 @@
         <v>138174654</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="23" t="s">
         <v>34</v>
       </c>
@@ -2393,7 +2393,7 @@
         <v>81031414</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="22" t="s">
         <v>29</v>
       </c>
@@ -2407,7 +2407,7 @@
         <v>2267709.2929717926</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="21" t="s">
         <v>25</v>
       </c>
@@ -2421,7 +2421,7 @@
         <v>419657.6616262116</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D37" s="21" t="s">
         <v>25</v>
       </c>
@@ -2429,7 +2429,7 @@
         <v>1848051.6313455808</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D39" s="14" t="s">
         <v>39</v>
       </c>
@@ -2437,7 +2437,7 @@
         <v>1688.128457276671</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D40" s="24" t="s">
         <v>16</v>
       </c>
@@ -2445,7 +2445,7 @@
         <v>1607.642640613188</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D41" s="22" t="s">
         <v>21</v>
       </c>
@@ -2453,7 +2453,7 @@
         <v>136.969297198725</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D42" s="22" t="s">
         <v>23</v>
       </c>
@@ -2461,7 +2461,7 @@
         <v>633.04279279279297</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D43" s="22" t="s">
         <v>25</v>
       </c>
@@ -2469,7 +2469,7 @@
         <v>837.63055062166995</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D44" s="23" t="s">
         <v>34</v>
       </c>
@@ -2477,7 +2477,7 @@
         <v>80.485816663482993</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D45" s="22" t="s">
         <v>29</v>
       </c>
@@ -2485,7 +2485,7 @@
         <v>16.485103132161999</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D46" s="21" t="s">
         <v>25</v>
       </c>
@@ -2493,7 +2493,7 @@
         <v>64.000713531320997</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D48" s="14" t="s">
         <v>43</v>
       </c>
@@ -2501,7 +2501,7 @@
         <v>1674.497023245706</v>
       </c>
     </row>
-    <row r="49" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D49" s="24" t="s">
         <v>16</v>
       </c>
@@ -2509,7 +2509,7 @@
         <v>1594.0112065822229</v>
       </c>
     </row>
-    <row r="50" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D50" s="22" t="s">
         <v>21</v>
       </c>
@@ -2517,7 +2517,7 @@
         <v>123.33786316776001</v>
       </c>
     </row>
-    <row r="51" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D51" s="22" t="s">
         <v>23</v>
       </c>
@@ -2525,7 +2525,7 @@
         <v>633.04279279279297</v>
       </c>
     </row>
-    <row r="52" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D52" s="22" t="s">
         <v>25</v>
       </c>
@@ -2533,7 +2533,7 @@
         <v>837.63055062166995</v>
       </c>
     </row>
-    <row r="53" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D53" s="23" t="s">
         <v>34</v>
       </c>
@@ -2541,7 +2541,7 @@
         <v>80.485816663482993</v>
       </c>
     </row>
-    <row r="54" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D54" s="22" t="s">
         <v>29</v>
       </c>
@@ -2549,7 +2549,7 @@
         <v>16.485103132161999</v>
       </c>
     </row>
-    <row r="55" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D55" s="21" t="s">
         <v>25</v>
       </c>
@@ -2557,7 +2557,7 @@
         <v>64.000713531320997</v>
       </c>
     </row>
-    <row r="57" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D57" s="14" t="s">
         <v>44</v>
       </c>
@@ -2565,7 +2565,7 @@
         <v>83.600020599576894</v>
       </c>
     </row>
-    <row r="58" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D58" s="24" t="s">
         <v>16</v>
       </c>
@@ -2573,7 +2573,7 @@
         <v>81.206615141762882</v>
       </c>
     </row>
-    <row r="59" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D59" s="22" t="s">
         <v>21</v>
       </c>
@@ -2581,7 +2581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D60" s="22" t="s">
         <v>23</v>
       </c>
@@ -2589,7 +2589,7 @@
         <v>42.50539376196491</v>
       </c>
     </row>
-    <row r="61" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D61" s="22" t="s">
         <v>25</v>
       </c>
@@ -2597,7 +2597,7 @@
         <v>38.701221379797971</v>
       </c>
     </row>
-    <row r="62" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D62" s="23" t="s">
         <v>34</v>
       </c>
@@ -2605,7 +2605,7 @@
         <v>2.3934054578140085</v>
       </c>
     </row>
-    <row r="63" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D63" s="22" t="s">
         <v>29</v>
       </c>
@@ -2613,7 +2613,7 @@
         <v>0.87423703090800231</v>
       </c>
     </row>
-    <row r="64" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D64" s="21" t="s">
         <v>25</v>
       </c>
@@ -2621,19 +2621,19 @@
         <v>1.5191684269060062</v>
       </c>
     </row>
-    <row r="66" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D66" s="83" t="s">
         <v>45</v>
       </c>
       <c r="E66" s="118"/>
     </row>
-    <row r="68" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D68" s="14" t="s">
         <v>46</v>
       </c>
       <c r="E68" s="102"/>
     </row>
-    <row r="69" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D69" s="24" t="s">
         <v>47</v>
       </c>
@@ -2641,7 +2641,7 @@
         <v>130.22161475100762</v>
       </c>
     </row>
-    <row r="70" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D70" s="22" t="s">
         <v>21</v>
       </c>
@@ -2649,7 +2649,7 @@
         <v>86.949692822650192</v>
       </c>
     </row>
-    <row r="71" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D71" s="22" t="s">
         <v>23</v>
       </c>
@@ -2657,7 +2657,7 @@
         <v>122.90013377402863</v>
       </c>
     </row>
-    <row r="72" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D72" s="22" t="s">
         <v>25</v>
       </c>
@@ -2665,7 +2665,7 @@
         <v>171.82743762537481</v>
       </c>
     </row>
-    <row r="73" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D73" s="23" t="s">
         <v>48</v>
       </c>
@@ -2673,7 +2673,7 @@
         <v>41.790308362298994</v>
       </c>
     </row>
-    <row r="74" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D74" s="22" t="s">
         <v>29</v>
       </c>
@@ -2681,7 +2681,7 @@
         <v>23.443252423116675</v>
       </c>
     </row>
-    <row r="75" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D75" s="21" t="s">
         <v>25</v>
       </c>
@@ -2689,13 +2689,13 @@
         <v>50.822309252415387</v>
       </c>
     </row>
-    <row r="77" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D77" s="14" t="s">
         <v>49</v>
       </c>
       <c r="E77" s="102"/>
     </row>
-    <row r="78" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D78" s="24" t="s">
         <v>16</v>
       </c>
@@ -2703,7 +2703,7 @@
         <v>1330.5701241425693</v>
       </c>
     </row>
-    <row r="79" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D79" s="22" t="s">
         <v>21</v>
       </c>
@@ -2711,7 +2711,7 @@
         <v>476.88013050973154</v>
       </c>
     </row>
-    <row r="80" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D80" s="22" t="s">
         <v>23</v>
       </c>
@@ -2719,7 +2719,7 @@
         <v>671.15374877060117</v>
       </c>
     </row>
-    <row r="81" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D81" s="22" t="s">
         <v>25</v>
       </c>
@@ -2727,7 +2727,7 @@
         <v>3379.1149231036115</v>
       </c>
     </row>
-    <row r="82" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D82" s="23" t="s">
         <v>34</v>
       </c>
@@ -2735,7 +2735,7 @@
         <v>2505.4886398588046</v>
       </c>
     </row>
-    <row r="83" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D83" s="22" t="s">
         <v>29</v>
       </c>
@@ -2743,7 +2743,7 @@
         <v>513.24996022930441</v>
       </c>
     </row>
-    <row r="84" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D84" s="21" t="s">
         <v>25</v>
       </c>
@@ -2751,13 +2751,13 @@
         <v>3486.2400796203119</v>
       </c>
     </row>
-    <row r="86" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D86" s="14" t="s">
         <v>50</v>
       </c>
       <c r="E86" s="102"/>
     </row>
-    <row r="87" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D87" s="24" t="s">
         <v>51</v>
       </c>
@@ -2765,7 +2765,7 @@
         <v>203039.09495815259</v>
       </c>
     </row>
-    <row r="88" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D88" s="22" t="s">
         <v>21</v>
       </c>
@@ -2773,7 +2773,7 @@
         <v>41464.580861046496</v>
       </c>
     </row>
-    <row r="89" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D89" s="22" t="s">
         <v>23</v>
       </c>
@@ -2781,7 +2781,7 @@
         <v>82484.885506847684</v>
       </c>
     </row>
-    <row r="90" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D90" s="22" t="s">
         <v>25</v>
       </c>
@@ -2789,7 +2789,7 @@
         <v>580624.658678559</v>
       </c>
     </row>
-    <row r="91" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D91" s="23" t="s">
         <v>52</v>
       </c>
@@ -2797,7 +2797,7 @@
         <v>122699.0443856745</v>
       </c>
     </row>
-    <row r="92" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D92" s="22" t="s">
         <v>29</v>
       </c>
@@ -2805,7 +2805,7 @@
         <v>12032.24837381018</v>
       </c>
     </row>
-    <row r="93" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D93" s="21" t="s">
         <v>25</v>
       </c>
@@ -2813,13 +2813,13 @@
         <v>177178.77145462873</v>
       </c>
     </row>
-    <row r="95" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D95" s="14" t="s">
         <v>53</v>
       </c>
       <c r="E95" s="102"/>
     </row>
-    <row r="96" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D96" s="24" t="s">
         <v>16</v>
       </c>
@@ -2827,7 +2827,7 @@
         <v>1166.2860288078562</v>
       </c>
     </row>
-    <row r="97" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D97" s="22" t="s">
         <v>21</v>
       </c>
@@ -2835,7 +2835,7 @@
         <v>2134.0000000000014</v>
       </c>
     </row>
-    <row r="98" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D98" s="22" t="s">
         <v>23</v>
       </c>
@@ -2843,7 +2843,7 @@
         <v>1775.9999999999995</v>
       </c>
     </row>
-    <row r="99" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D99" s="22" t="s">
         <v>25</v>
       </c>
@@ -2851,7 +2851,7 @@
         <v>562.99999999999966</v>
       </c>
     </row>
-    <row r="100" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D100" s="23" t="s">
         <v>34</v>
       </c>
@@ -2859,7 +2859,7 @@
         <v>674.20574517969669</v>
       </c>
     </row>
-    <row r="101" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D101" s="22" t="s">
         <v>29</v>
       </c>
@@ -2867,7 +2867,7 @@
         <v>1085.8894758793242</v>
       </c>
     </row>
-    <row r="102" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D102" s="21" t="s">
         <v>25</v>
       </c>
@@ -2875,13 +2875,13 @@
         <v>568.16554056392647</v>
       </c>
     </row>
-    <row r="104" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D104" s="14" t="s">
         <v>54</v>
       </c>
       <c r="E104" s="95"/>
     </row>
-    <row r="105" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D105" s="24" t="s">
         <v>55</v>
       </c>
@@ -2889,7 +2889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D106" s="22" t="s">
         <v>21</v>
       </c>
@@ -2897,7 +2897,7 @@
         <v>2.8912923186851052E-2</v>
       </c>
     </row>
-    <row r="107" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D107" s="22" t="s">
         <v>23</v>
       </c>
@@ -2905,7 +2905,7 @@
         <v>0.24568254013085841</v>
       </c>
     </row>
-    <row r="108" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D108" s="22" t="s">
         <v>25</v>
       </c>
@@ -2913,7 +2913,7 @@
         <v>0.72540453668229055</v>
       </c>
     </row>
-    <row r="109" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D109" s="23" t="s">
         <v>56</v>
       </c>
@@ -2921,7 +2921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D110" s="22" t="s">
         <v>29</v>
       </c>
@@ -2929,7 +2929,7 @@
         <v>3.2349762483785884E-2</v>
       </c>
     </row>
-    <row r="111" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D111" s="21" t="s">
         <v>25</v>
       </c>
@@ -2937,13 +2937,13 @@
         <v>0.96765023751621404</v>
       </c>
     </row>
-    <row r="113" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D113" s="14" t="s">
         <v>57</v>
       </c>
       <c r="E113" s="95"/>
     </row>
-    <row r="114" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D114" s="24" t="s">
         <v>16</v>
       </c>
@@ -2951,7 +2951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D115" s="22" t="s">
         <v>21</v>
       </c>
@@ -2959,7 +2959,7 @@
         <v>5.0741797925146159E-2</v>
       </c>
     </row>
-    <row r="116" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D116" s="22" t="s">
         <v>23</v>
       </c>
@@ -2967,7 +2967,7 @@
         <v>0.30504494962301026</v>
       </c>
     </row>
-    <row r="117" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D117" s="22" t="s">
         <v>25</v>
       </c>
@@ -2975,7 +2975,7 @@
         <v>0.64421325245184358</v>
       </c>
     </row>
-    <row r="118" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D118" s="23" t="s">
         <v>34</v>
       </c>
@@ -2983,7 +2983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D119" s="22" t="s">
         <v>29</v>
       </c>
@@ -2991,7 +2991,7 @@
         <v>6.7577477242663386E-2</v>
       </c>
     </row>
-    <row r="120" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D120" s="21" t="s">
         <v>25</v>
       </c>
@@ -3015,16 +3015,16 @@
       <selection pane="bottomRight" activeCell="D222" sqref="D222"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="37" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.85546875" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" customWidth="1"/>
-    <col min="5" max="33" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.81640625" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="8.81640625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="13.453125" customWidth="1"/>
+    <col min="5" max="33" width="7.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="27" t="s">
         <v>58</v>
       </c>
@@ -3125,7 +3125,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A2" s="29"/>
       <c r="B2" s="30"/>
       <c r="C2" s="30"/>
@@ -3160,7 +3160,7 @@
       <c r="AF2" s="30"/>
       <c r="AG2" s="30"/>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A3" s="31" t="s">
         <v>59</v>
       </c>
@@ -3197,7 +3197,7 @@
       <c r="AF3" s="32"/>
       <c r="AG3" s="32"/>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A4" s="33" t="s">
         <v>16</v>
       </c>
@@ -3234,7 +3234,7 @@
       <c r="AF4" s="34"/>
       <c r="AG4" s="34"/>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A5" s="35" t="s">
         <v>60</v>
       </c>
@@ -3335,7 +3335,7 @@
         <v>393783978</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A6" s="38" t="s">
         <v>18</v>
       </c>
@@ -3436,7 +3436,7 @@
         <v>80506210</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A7" s="40" t="s">
         <v>20</v>
       </c>
@@ -3537,7 +3537,7 @@
         <v>312281036</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A8" s="40" t="s">
         <v>32</v>
       </c>
@@ -3638,7 +3638,7 @@
         <v>996732</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A9" s="35" t="s">
         <v>61</v>
       </c>
@@ -3739,7 +3739,7 @@
         <v>35955</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A10" s="38" t="s">
         <v>62</v>
       </c>
@@ -3840,7 +3840,7 @@
         <v>14750</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A11" s="40" t="s">
         <v>63</v>
       </c>
@@ -3941,7 +3941,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A12" s="40" t="s">
         <v>64</v>
       </c>
@@ -4042,7 +4042,7 @@
         <v>19775</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A13" s="35" t="s">
         <v>65</v>
       </c>
@@ -4143,7 +4143,7 @@
         <v>38747747</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A14" s="38" t="s">
         <v>21</v>
       </c>
@@ -4244,7 +4244,7 @@
         <v>3261850</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A15" s="40" t="s">
         <v>23</v>
       </c>
@@ -4345,7 +4345,7 @@
         <v>26285443</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A16" s="40" t="s">
         <v>25</v>
       </c>
@@ -4446,7 +4446,7 @@
         <v>9200454</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A17" s="33" t="s">
         <v>34</v>
       </c>
@@ -4483,7 +4483,7 @@
       <c r="AF17" s="34"/>
       <c r="AG17" s="34"/>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A18" s="35" t="s">
         <v>60</v>
       </c>
@@ -4584,7 +4584,7 @@
         <v>52156647</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A19" s="40" t="s">
         <v>66</v>
       </c>
@@ -4685,7 +4685,7 @@
         <v>43490302</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A20" s="43" t="s">
         <v>67</v>
       </c>
@@ -4786,7 +4786,7 @@
         <v>8666345</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A21" s="35" t="s">
         <v>68</v>
       </c>
@@ -4887,7 +4887,7 @@
         <v>8949</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A22" s="35" t="s">
         <v>65</v>
       </c>
@@ -4988,7 +4988,7 @@
         <v>2857657</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A23" s="38" t="s">
         <v>29</v>
       </c>
@@ -5089,7 +5089,7 @@
         <v>1634020</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A24" s="43" t="s">
         <v>25</v>
       </c>
@@ -5190,7 +5190,7 @@
         <v>1223638</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A25" s="35" t="s">
         <v>69</v>
       </c>
@@ -5291,7 +5291,7 @@
         <v>2737.3</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A26" s="40" t="s">
         <v>70</v>
       </c>
@@ -5392,7 +5392,7 @@
         <v>1187.4000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A27" s="43" t="s">
         <v>71</v>
       </c>
@@ -5493,7 +5493,7 @@
         <v>1549.9</v>
       </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A28" s="48"/>
       <c r="B28" s="30"/>
       <c r="C28" s="30"/>
@@ -5528,7 +5528,7 @@
       <c r="AF28" s="30"/>
       <c r="AG28" s="30"/>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A29" s="49"/>
       <c r="B29" s="50"/>
       <c r="C29" s="50"/>
@@ -5563,7 +5563,7 @@
       <c r="AF29" s="50"/>
       <c r="AG29" s="50"/>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A30" s="31" t="s">
         <v>60</v>
       </c>
@@ -5664,7 +5664,7 @@
         <v>445940625</v>
       </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A31" s="52" t="s">
         <v>16</v>
       </c>
@@ -5765,7 +5765,7 @@
         <v>393783978</v>
       </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A32" s="54" t="s">
         <v>18</v>
       </c>
@@ -5866,7 +5866,7 @@
         <v>80506210</v>
       </c>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A33" s="56" t="s">
         <v>72</v>
       </c>
@@ -5967,7 +5967,7 @@
         <v>49309742</v>
       </c>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A34" s="58" t="s">
         <v>73</v>
       </c>
@@ -6068,7 +6068,7 @@
         <v>49309742</v>
       </c>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A35" s="58" t="s">
         <v>74</v>
       </c>
@@ -6169,7 +6169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A36" s="58" t="s">
         <v>75</v>
       </c>
@@ -6270,7 +6270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A37" s="56" t="s">
         <v>76</v>
       </c>
@@ -6371,7 +6371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A38" s="58" t="s">
         <v>73</v>
       </c>
@@ -6472,7 +6472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A39" s="56" t="s">
         <v>77</v>
       </c>
@@ -6573,7 +6573,7 @@
         <v>31196468</v>
       </c>
     </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A40" s="58" t="s">
         <v>78</v>
       </c>
@@ -6674,7 +6674,7 @@
         <v>31196468</v>
       </c>
     </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A41" s="58" t="s">
         <v>79</v>
       </c>
@@ -6775,7 +6775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A42" s="58" t="s">
         <v>80</v>
       </c>
@@ -6876,7 +6876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A43" s="56" t="s">
         <v>81</v>
       </c>
@@ -6977,7 +6977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A44" s="58" t="s">
         <v>82</v>
       </c>
@@ -7078,7 +7078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A45" s="54" t="s">
         <v>20</v>
       </c>
@@ -7179,7 +7179,7 @@
         <v>312281036</v>
       </c>
     </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A46" s="56" t="s">
         <v>72</v>
       </c>
@@ -7280,7 +7280,7 @@
         <v>188145308</v>
       </c>
     </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A47" s="58" t="s">
         <v>83</v>
       </c>
@@ -7381,7 +7381,7 @@
         <v>5129305</v>
       </c>
     </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A48" s="58" t="s">
         <v>73</v>
       </c>
@@ -7482,7 +7482,7 @@
         <v>105650949</v>
       </c>
     </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A49" s="58" t="s">
         <v>84</v>
       </c>
@@ -7583,7 +7583,7 @@
         <v>5897974</v>
       </c>
     </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A50" s="58" t="s">
         <v>85</v>
       </c>
@@ -7684,7 +7684,7 @@
         <v>1802791</v>
       </c>
     </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A51" s="58" t="s">
         <v>74</v>
       </c>
@@ -7785,7 +7785,7 @@
         <v>68520575</v>
       </c>
     </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A52" s="58" t="s">
         <v>75</v>
       </c>
@@ -7886,7 +7886,7 @@
         <v>1143714</v>
       </c>
     </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A53" s="58" t="s">
         <v>86</v>
       </c>
@@ -7987,7 +7987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A54" s="56"/>
       <c r="B54" s="59"/>
       <c r="C54" s="59"/>
@@ -8022,7 +8022,7 @@
       <c r="AF54" s="59"/>
       <c r="AG54" s="59"/>
     </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A55" s="58"/>
       <c r="B55" s="42"/>
       <c r="C55" s="42"/>
@@ -8057,7 +8057,7 @@
       <c r="AF55" s="42"/>
       <c r="AG55" s="42"/>
     </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A56" s="58"/>
       <c r="B56" s="42"/>
       <c r="C56" s="42"/>
@@ -8092,7 +8092,7 @@
       <c r="AF56" s="42"/>
       <c r="AG56" s="42"/>
     </row>
-    <row r="57" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A57" s="58"/>
       <c r="B57" s="42"/>
       <c r="C57" s="42"/>
@@ -8127,7 +8127,7 @@
       <c r="AF57" s="42"/>
       <c r="AG57" s="42"/>
     </row>
-    <row r="58" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A58" s="58"/>
       <c r="B58" s="42"/>
       <c r="C58" s="42"/>
@@ -8162,7 +8162,7 @@
       <c r="AF58" s="42"/>
       <c r="AG58" s="42"/>
     </row>
-    <row r="59" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A59" s="58"/>
       <c r="B59" s="42"/>
       <c r="C59" s="42"/>
@@ -8197,7 +8197,7 @@
       <c r="AF59" s="42"/>
       <c r="AG59" s="42"/>
     </row>
-    <row r="60" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A60" s="58"/>
       <c r="B60" s="42"/>
       <c r="C60" s="42"/>
@@ -8232,7 +8232,7 @@
       <c r="AF60" s="42"/>
       <c r="AG60" s="42"/>
     </row>
-    <row r="61" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A61" s="58"/>
       <c r="B61" s="42"/>
       <c r="C61" s="42"/>
@@ -8267,7 +8267,7 @@
       <c r="AF61" s="42"/>
       <c r="AG61" s="42"/>
     </row>
-    <row r="62" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A62" s="56" t="s">
         <v>76</v>
       </c>
@@ -8368,7 +8368,7 @@
         <v>32149494</v>
       </c>
     </row>
-    <row r="63" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A63" s="58" t="s">
         <v>83</v>
       </c>
@@ -8469,7 +8469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A64" s="58" t="s">
         <v>73</v>
       </c>
@@ -8570,7 +8570,7 @@
         <v>32149323</v>
       </c>
     </row>
-    <row r="65" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A65" s="58" t="s">
         <v>84</v>
       </c>
@@ -8671,7 +8671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A66" s="58" t="s">
         <v>85</v>
       </c>
@@ -8772,7 +8772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A67" s="58" t="s">
         <v>74</v>
       </c>
@@ -8873,7 +8873,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="68" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A68" s="58" t="s">
         <v>75</v>
       </c>
@@ -8974,7 +8974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A69" s="58" t="s">
         <v>86</v>
       </c>
@@ -9075,7 +9075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A70" s="56" t="s">
         <v>77</v>
       </c>
@@ -9176,7 +9176,7 @@
         <v>88167271</v>
       </c>
     </row>
-    <row r="71" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A71" s="58" t="s">
         <v>78</v>
       </c>
@@ -9277,7 +9277,7 @@
         <v>68754176</v>
       </c>
     </row>
-    <row r="72" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A72" s="58" t="s">
         <v>79</v>
       </c>
@@ -9378,7 +9378,7 @@
         <v>19413095</v>
       </c>
     </row>
-    <row r="73" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A73" s="58" t="s">
         <v>80</v>
       </c>
@@ -9479,7 +9479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A74" s="58" t="s">
         <v>87</v>
       </c>
@@ -9580,7 +9580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A75" s="56" t="s">
         <v>81</v>
       </c>
@@ -9681,7 +9681,7 @@
         <v>3818963</v>
       </c>
     </row>
-    <row r="76" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A76" s="58" t="s">
         <v>82</v>
       </c>
@@ -9782,7 +9782,7 @@
         <v>3270716</v>
       </c>
     </row>
-    <row r="77" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A77" s="58" t="s">
         <v>88</v>
       </c>
@@ -9883,7 +9883,7 @@
         <v>548247</v>
       </c>
     </row>
-    <row r="78" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A78" s="54" t="s">
         <v>32</v>
       </c>
@@ -9984,7 +9984,7 @@
         <v>996732</v>
       </c>
     </row>
-    <row r="79" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A79" s="56" t="s">
         <v>72</v>
       </c>
@@ -10085,7 +10085,7 @@
         <v>655057</v>
       </c>
     </row>
-    <row r="80" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A80" s="58" t="s">
         <v>83</v>
       </c>
@@ -10186,7 +10186,7 @@
         <v>2177</v>
       </c>
     </row>
-    <row r="81" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A81" s="58" t="s">
         <v>73</v>
       </c>
@@ -10287,7 +10287,7 @@
         <v>3534</v>
       </c>
     </row>
-    <row r="82" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A82" s="58" t="s">
         <v>84</v>
       </c>
@@ -10388,7 +10388,7 @@
         <v>103905</v>
       </c>
     </row>
-    <row r="83" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A83" s="58" t="s">
         <v>74</v>
       </c>
@@ -10489,7 +10489,7 @@
         <v>524052</v>
       </c>
     </row>
-    <row r="84" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A84" s="58" t="s">
         <v>75</v>
       </c>
@@ -10590,7 +10590,7 @@
         <v>10609</v>
       </c>
     </row>
-    <row r="85" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A85" s="58" t="s">
         <v>89</v>
       </c>
@@ -10691,7 +10691,7 @@
         <v>10780</v>
       </c>
     </row>
-    <row r="86" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A86" s="56"/>
       <c r="B86" s="59"/>
       <c r="C86" s="59"/>
@@ -10726,7 +10726,7 @@
       <c r="AF86" s="59"/>
       <c r="AG86" s="59"/>
     </row>
-    <row r="87" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A87" s="58"/>
       <c r="B87" s="42"/>
       <c r="C87" s="42"/>
@@ -10761,7 +10761,7 @@
       <c r="AF87" s="42"/>
       <c r="AG87" s="42"/>
     </row>
-    <row r="88" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A88" s="58"/>
       <c r="B88" s="42"/>
       <c r="C88" s="42"/>
@@ -10796,7 +10796,7 @@
       <c r="AF88" s="42"/>
       <c r="AG88" s="42"/>
     </row>
-    <row r="89" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A89" s="58"/>
       <c r="B89" s="42"/>
       <c r="C89" s="42"/>
@@ -10831,7 +10831,7 @@
       <c r="AF89" s="42"/>
       <c r="AG89" s="42"/>
     </row>
-    <row r="90" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A90" s="58"/>
       <c r="B90" s="42"/>
       <c r="C90" s="42"/>
@@ -10866,7 +10866,7 @@
       <c r="AF90" s="42"/>
       <c r="AG90" s="42"/>
     </row>
-    <row r="91" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A91" s="58"/>
       <c r="B91" s="42"/>
       <c r="C91" s="42"/>
@@ -10901,7 +10901,7 @@
       <c r="AF91" s="42"/>
       <c r="AG91" s="42"/>
     </row>
-    <row r="92" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A92" s="58"/>
       <c r="B92" s="42"/>
       <c r="C92" s="42"/>
@@ -10936,7 +10936,7 @@
       <c r="AF92" s="42"/>
       <c r="AG92" s="42"/>
     </row>
-    <row r="93" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A93" s="56" t="s">
         <v>76</v>
       </c>
@@ -11037,7 +11037,7 @@
         <v>13647</v>
       </c>
     </row>
-    <row r="94" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A94" s="58" t="s">
         <v>83</v>
       </c>
@@ -11138,7 +11138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A95" s="58" t="s">
         <v>73</v>
       </c>
@@ -11239,7 +11239,7 @@
         <v>9901</v>
       </c>
     </row>
-    <row r="96" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A96" s="58" t="s">
         <v>84</v>
       </c>
@@ -11340,7 +11340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A97" s="58" t="s">
         <v>74</v>
       </c>
@@ -11441,7 +11441,7 @@
         <v>3746</v>
       </c>
     </row>
-    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A98" s="58" t="s">
         <v>75</v>
       </c>
@@ -11542,7 +11542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A99" s="58" t="s">
         <v>89</v>
       </c>
@@ -11643,7 +11643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A100" s="56" t="s">
         <v>77</v>
       </c>
@@ -11744,7 +11744,7 @@
         <v>262749</v>
       </c>
     </row>
-    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A101" s="58" t="s">
         <v>78</v>
       </c>
@@ -11845,7 +11845,7 @@
         <v>222170</v>
       </c>
     </row>
-    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A102" s="58" t="s">
         <v>79</v>
       </c>
@@ -11946,7 +11946,7 @@
         <v>7575</v>
       </c>
     </row>
-    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A103" s="58" t="s">
         <v>80</v>
       </c>
@@ -12047,7 +12047,7 @@
         <v>33004</v>
       </c>
     </row>
-    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A104" s="58" t="s">
         <v>87</v>
       </c>
@@ -12148,7 +12148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A105" s="56" t="s">
         <v>81</v>
       </c>
@@ -12249,7 +12249,7 @@
         <v>65279</v>
       </c>
     </row>
-    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A106" s="58" t="s">
         <v>82</v>
       </c>
@@ -12350,7 +12350,7 @@
         <v>58533</v>
       </c>
     </row>
-    <row r="107" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A107" s="58" t="s">
         <v>90</v>
       </c>
@@ -12451,7 +12451,7 @@
         <v>6746</v>
       </c>
     </row>
-    <row r="108" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A108" s="52" t="s">
         <v>34</v>
       </c>
@@ -12552,7 +12552,7 @@
         <v>52156647</v>
       </c>
     </row>
-    <row r="109" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A109" s="54" t="s">
         <v>66</v>
       </c>
@@ -12653,7 +12653,7 @@
         <v>43490302</v>
       </c>
     </row>
-    <row r="110" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A110" s="56" t="s">
         <v>72</v>
       </c>
@@ -12754,7 +12754,7 @@
         <v>24914392</v>
       </c>
     </row>
-    <row r="111" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A111" s="58" t="s">
         <v>83</v>
       </c>
@@ -12855,7 +12855,7 @@
         <v>275435</v>
       </c>
     </row>
-    <row r="112" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A112" s="58" t="s">
         <v>73</v>
       </c>
@@ -12956,7 +12956,7 @@
         <v>2025432</v>
       </c>
     </row>
-    <row r="113" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A113" s="58" t="s">
         <v>84</v>
       </c>
@@ -13057,7 +13057,7 @@
         <v>740673</v>
       </c>
     </row>
-    <row r="114" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A114" s="58" t="s">
         <v>85</v>
       </c>
@@ -13158,7 +13158,7 @@
         <v>211544</v>
       </c>
     </row>
-    <row r="115" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A115" s="58" t="s">
         <v>74</v>
       </c>
@@ -13259,7 +13259,7 @@
         <v>21521228</v>
       </c>
     </row>
-    <row r="116" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A116" s="58" t="s">
         <v>75</v>
       </c>
@@ -13360,7 +13360,7 @@
         <v>140080</v>
       </c>
     </row>
-    <row r="117" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A117" s="58" t="s">
         <v>86</v>
       </c>
@@ -13461,7 +13461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A118" s="56"/>
       <c r="B118" s="59"/>
       <c r="C118" s="59"/>
@@ -13496,7 +13496,7 @@
       <c r="AF118" s="59"/>
       <c r="AG118" s="59"/>
     </row>
-    <row r="119" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A119" s="58"/>
       <c r="B119" s="42"/>
       <c r="C119" s="42"/>
@@ -13531,7 +13531,7 @@
       <c r="AF119" s="42"/>
       <c r="AG119" s="42"/>
     </row>
-    <row r="120" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A120" s="58"/>
       <c r="B120" s="42"/>
       <c r="C120" s="42"/>
@@ -13566,7 +13566,7 @@
       <c r="AF120" s="42"/>
       <c r="AG120" s="42"/>
     </row>
-    <row r="121" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A121" s="58"/>
       <c r="B121" s="42"/>
       <c r="C121" s="42"/>
@@ -13601,7 +13601,7 @@
       <c r="AF121" s="42"/>
       <c r="AG121" s="42"/>
     </row>
-    <row r="122" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A122" s="58"/>
       <c r="B122" s="42"/>
       <c r="C122" s="42"/>
@@ -13636,7 +13636,7 @@
       <c r="AF122" s="42"/>
       <c r="AG122" s="42"/>
     </row>
-    <row r="123" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A123" s="58"/>
       <c r="B123" s="42"/>
       <c r="C123" s="42"/>
@@ -13671,7 +13671,7 @@
       <c r="AF123" s="42"/>
       <c r="AG123" s="42"/>
     </row>
-    <row r="124" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A124" s="58"/>
       <c r="B124" s="42"/>
       <c r="C124" s="42"/>
@@ -13706,7 +13706,7 @@
       <c r="AF124" s="42"/>
       <c r="AG124" s="42"/>
     </row>
-    <row r="125" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A125" s="58"/>
       <c r="B125" s="42"/>
       <c r="C125" s="42"/>
@@ -13741,7 +13741,7 @@
       <c r="AF125" s="42"/>
       <c r="AG125" s="42"/>
     </row>
-    <row r="126" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A126" s="56" t="s">
         <v>76</v>
       </c>
@@ -13842,7 +13842,7 @@
         <v>6555702</v>
       </c>
     </row>
-    <row r="127" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A127" s="58" t="s">
         <v>83</v>
       </c>
@@ -13943,7 +13943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A128" s="58" t="s">
         <v>73</v>
       </c>
@@ -14044,7 +14044,7 @@
         <v>636630</v>
       </c>
     </row>
-    <row r="129" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A129" s="58" t="s">
         <v>84</v>
       </c>
@@ -14145,7 +14145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A130" s="58" t="s">
         <v>85</v>
       </c>
@@ -14246,7 +14246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A131" s="58" t="s">
         <v>74</v>
       </c>
@@ -14347,7 +14347,7 @@
         <v>5919072</v>
       </c>
     </row>
-    <row r="132" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A132" s="58" t="s">
         <v>75</v>
       </c>
@@ -14448,7 +14448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A133" s="58" t="s">
         <v>86</v>
       </c>
@@ -14549,7 +14549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A134" s="56" t="s">
         <v>77</v>
       </c>
@@ -14650,7 +14650,7 @@
         <v>11496650</v>
       </c>
     </row>
-    <row r="135" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A135" s="58" t="s">
         <v>78</v>
       </c>
@@ -14751,7 +14751,7 @@
         <v>8733268</v>
       </c>
     </row>
-    <row r="136" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A136" s="58" t="s">
         <v>79</v>
       </c>
@@ -14852,7 +14852,7 @@
         <v>2763382</v>
       </c>
     </row>
-    <row r="137" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A137" s="58" t="s">
         <v>80</v>
       </c>
@@ -14953,7 +14953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A138" s="58" t="s">
         <v>87</v>
       </c>
@@ -15054,7 +15054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A139" s="56" t="s">
         <v>81</v>
       </c>
@@ -15155,7 +15155,7 @@
         <v>523558</v>
       </c>
     </row>
-    <row r="140" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A140" s="58" t="s">
         <v>82</v>
       </c>
@@ -15256,7 +15256,7 @@
         <v>450759</v>
       </c>
     </row>
-    <row r="141" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A141" s="58" t="s">
         <v>88</v>
       </c>
@@ -15357,7 +15357,7 @@
         <v>72799</v>
       </c>
     </row>
-    <row r="142" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A142" s="54" t="s">
         <v>91</v>
       </c>
@@ -15458,7 +15458,7 @@
         <v>7813580</v>
       </c>
     </row>
-    <row r="143" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A143" s="56" t="s">
         <v>72</v>
       </c>
@@ -15559,7 +15559,7 @@
         <v>7391953</v>
       </c>
     </row>
-    <row r="144" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A144" s="58" t="s">
         <v>74</v>
       </c>
@@ -15660,7 +15660,7 @@
         <v>6822844</v>
       </c>
     </row>
-    <row r="145" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A145" s="58" t="s">
         <v>75</v>
       </c>
@@ -15761,7 +15761,7 @@
         <v>139892</v>
       </c>
     </row>
-    <row r="146" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A146" s="58" t="s">
         <v>92</v>
       </c>
@@ -15862,7 +15862,7 @@
         <v>191797</v>
       </c>
     </row>
-    <row r="147" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A147" s="58" t="s">
         <v>86</v>
       </c>
@@ -15963,7 +15963,7 @@
         <v>237420</v>
       </c>
     </row>
-    <row r="148" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A148" s="56"/>
       <c r="B148" s="59"/>
       <c r="C148" s="59"/>
@@ -15998,7 +15998,7 @@
       <c r="AF148" s="59"/>
       <c r="AG148" s="59"/>
     </row>
-    <row r="149" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A149" s="58"/>
       <c r="B149" s="42"/>
       <c r="C149" s="42"/>
@@ -16033,7 +16033,7 @@
       <c r="AF149" s="42"/>
       <c r="AG149" s="42"/>
     </row>
-    <row r="150" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A150" s="58"/>
       <c r="B150" s="42"/>
       <c r="C150" s="42"/>
@@ -16068,7 +16068,7 @@
       <c r="AF150" s="42"/>
       <c r="AG150" s="42"/>
     </row>
-    <row r="151" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A151" s="58"/>
       <c r="B151" s="42"/>
       <c r="C151" s="42"/>
@@ -16103,7 +16103,7 @@
       <c r="AF151" s="42"/>
       <c r="AG151" s="42"/>
     </row>
-    <row r="152" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A152" s="58"/>
       <c r="B152" s="42"/>
       <c r="C152" s="42"/>
@@ -16138,7 +16138,7 @@
       <c r="AF152" s="42"/>
       <c r="AG152" s="42"/>
     </row>
-    <row r="153" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A153" s="56" t="s">
         <v>77</v>
       </c>
@@ -16239,7 +16239,7 @@
         <v>118644</v>
       </c>
     </row>
-    <row r="154" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A154" s="58" t="s">
         <v>78</v>
       </c>
@@ -16340,7 +16340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A155" s="58" t="s">
         <v>79</v>
       </c>
@@ -16441,7 +16441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A156" s="58" t="s">
         <v>80</v>
       </c>
@@ -16542,7 +16542,7 @@
         <v>118644</v>
       </c>
     </row>
-    <row r="157" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A157" s="58" t="s">
         <v>87</v>
       </c>
@@ -16643,7 +16643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A158" s="56" t="s">
         <v>81</v>
       </c>
@@ -16744,7 +16744,7 @@
         <v>302983</v>
       </c>
     </row>
-    <row r="159" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A159" s="58" t="s">
         <v>82</v>
       </c>
@@ -16845,7 +16845,7 @@
         <v>261375</v>
       </c>
     </row>
-    <row r="160" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A160" s="60" t="s">
         <v>88</v>
       </c>
@@ -16946,7 +16946,7 @@
         <v>41608</v>
       </c>
     </row>
-    <row r="161" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A161" s="54" t="s">
         <v>93</v>
       </c>
@@ -17047,7 +17047,7 @@
         <v>852765</v>
       </c>
     </row>
-    <row r="162" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A162" s="56" t="s">
         <v>72</v>
       </c>
@@ -17148,7 +17148,7 @@
         <v>782544</v>
       </c>
     </row>
-    <row r="163" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A163" s="58" t="s">
         <v>74</v>
       </c>
@@ -17249,7 +17249,7 @@
         <v>712466</v>
       </c>
     </row>
-    <row r="164" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A164" s="58" t="s">
         <v>75</v>
       </c>
@@ -17350,7 +17350,7 @@
         <v>16182</v>
       </c>
     </row>
-    <row r="165" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A165" s="58" t="s">
         <v>92</v>
       </c>
@@ -17451,7 +17451,7 @@
         <v>26402</v>
       </c>
     </row>
-    <row r="166" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A166" s="58" t="s">
         <v>86</v>
       </c>
@@ -17552,7 +17552,7 @@
         <v>27494</v>
       </c>
     </row>
-    <row r="167" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A167" s="56"/>
       <c r="B167" s="59"/>
       <c r="C167" s="59"/>
@@ -17587,7 +17587,7 @@
       <c r="AF167" s="59"/>
       <c r="AG167" s="59"/>
     </row>
-    <row r="168" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A168" s="58"/>
       <c r="B168" s="42"/>
       <c r="C168" s="42"/>
@@ -17622,7 +17622,7 @@
       <c r="AF168" s="42"/>
       <c r="AG168" s="42"/>
     </row>
-    <row r="169" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A169" s="58"/>
       <c r="B169" s="42"/>
       <c r="C169" s="42"/>
@@ -17657,7 +17657,7 @@
       <c r="AF169" s="42"/>
       <c r="AG169" s="42"/>
     </row>
-    <row r="170" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A170" s="58"/>
       <c r="B170" s="42"/>
       <c r="C170" s="42"/>
@@ -17692,7 +17692,7 @@
       <c r="AF170" s="42"/>
       <c r="AG170" s="42"/>
     </row>
-    <row r="171" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A171" s="58"/>
       <c r="B171" s="42"/>
       <c r="C171" s="42"/>
@@ -17727,7 +17727,7 @@
       <c r="AF171" s="42"/>
       <c r="AG171" s="42"/>
     </row>
-    <row r="172" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A172" s="56" t="s">
         <v>77</v>
       </c>
@@ -17828,7 +17828,7 @@
         <v>17612</v>
       </c>
     </row>
-    <row r="173" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A173" s="58" t="s">
         <v>78</v>
       </c>
@@ -17929,7 +17929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A174" s="58" t="s">
         <v>79</v>
       </c>
@@ -18030,7 +18030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A175" s="58" t="s">
         <v>80</v>
       </c>
@@ -18131,7 +18131,7 @@
         <v>17612</v>
       </c>
     </row>
-    <row r="176" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A176" s="58" t="s">
         <v>87</v>
       </c>
@@ -18232,7 +18232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A177" s="56" t="s">
         <v>81</v>
       </c>
@@ -18333,7 +18333,7 @@
         <v>52609</v>
       </c>
     </row>
-    <row r="178" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A178" s="58" t="s">
         <v>82</v>
       </c>
@@ -18434,7 +18434,7 @@
         <v>45643</v>
       </c>
     </row>
-    <row r="179" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A179" s="60" t="s">
         <v>88</v>
       </c>
@@ -18535,7 +18535,7 @@
         <v>6966</v>
       </c>
     </row>
-    <row r="180" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A180" s="62"/>
       <c r="B180" s="62"/>
       <c r="C180" s="62"/>
@@ -18570,7 +18570,7 @@
       <c r="AF180" s="62"/>
       <c r="AG180" s="62"/>
     </row>
-    <row r="181" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A181" s="31" t="s">
         <v>61</v>
       </c>
@@ -18671,7 +18671,7 @@
         <v>44904</v>
       </c>
     </row>
-    <row r="182" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A182" s="52" t="s">
         <v>16</v>
       </c>
@@ -18772,7 +18772,7 @@
         <v>35955</v>
       </c>
     </row>
-    <row r="183" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A183" s="63" t="s">
         <v>62</v>
       </c>
@@ -18873,7 +18873,7 @@
         <v>14750</v>
       </c>
     </row>
-    <row r="184" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A184" s="40" t="s">
         <v>74</v>
       </c>
@@ -18974,7 +18974,7 @@
         <v>4083</v>
       </c>
     </row>
-    <row r="185" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A185" s="40" t="s">
         <v>94</v>
       </c>
@@ -19075,7 +19075,7 @@
         <v>10666</v>
       </c>
     </row>
-    <row r="186" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A186" s="63" t="s">
         <v>63</v>
       </c>
@@ -19176,7 +19176,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="187" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A187" s="63" t="s">
         <v>64</v>
       </c>
@@ -19277,7 +19277,7 @@
         <v>19775</v>
       </c>
     </row>
-    <row r="188" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A188" s="52" t="s">
         <v>34</v>
       </c>
@@ -19378,7 +19378,7 @@
         <v>8949</v>
       </c>
     </row>
-    <row r="189" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A189" s="64" t="s">
         <v>74</v>
       </c>
@@ -19479,7 +19479,7 @@
         <v>2051</v>
       </c>
     </row>
-    <row r="190" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A190" s="65" t="s">
         <v>94</v>
       </c>
@@ -19580,7 +19580,7 @@
         <v>6898</v>
       </c>
     </row>
-    <row r="191" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A191" s="62"/>
       <c r="B191" s="62"/>
       <c r="C191" s="62"/>
@@ -19615,7 +19615,7 @@
       <c r="AF191" s="62"/>
       <c r="AG191" s="62"/>
     </row>
-    <row r="192" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A192" s="31" t="s">
         <v>65</v>
       </c>
@@ -19716,7 +19716,7 @@
         <v>41605404</v>
       </c>
     </row>
-    <row r="193" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A193" s="52" t="s">
         <v>16</v>
       </c>
@@ -19817,7 +19817,7 @@
         <v>38747747</v>
       </c>
     </row>
-    <row r="194" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A194" s="63" t="s">
         <v>21</v>
       </c>
@@ -19918,7 +19918,7 @@
         <v>3261850</v>
       </c>
     </row>
-    <row r="195" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A195" s="40" t="s">
         <v>95</v>
       </c>
@@ -20019,7 +20019,7 @@
         <v>2928575</v>
       </c>
     </row>
-    <row r="196" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A196" s="40" t="s">
         <v>96</v>
       </c>
@@ -20120,7 +20120,7 @@
         <v>333275</v>
       </c>
     </row>
-    <row r="197" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A197" s="40" t="s">
         <v>97</v>
       </c>
@@ -20221,7 +20221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A198" s="40" t="s">
         <v>98</v>
       </c>
@@ -20322,7 +20322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A199" s="63" t="s">
         <v>23</v>
       </c>
@@ -20423,7 +20423,7 @@
         <v>26285443</v>
       </c>
     </row>
-    <row r="200" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A200" s="40" t="s">
         <v>95</v>
       </c>
@@ -20524,7 +20524,7 @@
         <v>25924766</v>
       </c>
     </row>
-    <row r="201" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A201" s="40" t="s">
         <v>96</v>
       </c>
@@ -20625,7 +20625,7 @@
         <v>360677</v>
       </c>
     </row>
-    <row r="202" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A202" s="40" t="s">
         <v>97</v>
       </c>
@@ -20726,7 +20726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A203" s="40" t="s">
         <v>98</v>
       </c>
@@ -20827,7 +20827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A204" s="63" t="s">
         <v>25</v>
       </c>
@@ -20928,7 +20928,7 @@
         <v>9200454</v>
       </c>
     </row>
-    <row r="205" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A205" s="40" t="s">
         <v>95</v>
       </c>
@@ -21029,7 +21029,7 @@
         <v>9182980</v>
       </c>
     </row>
-    <row r="206" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A206" s="40" t="s">
         <v>96</v>
       </c>
@@ -21130,7 +21130,7 @@
         <v>17474</v>
       </c>
     </row>
-    <row r="207" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A207" s="40" t="s">
         <v>97</v>
       </c>
@@ -21231,7 +21231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A208" s="40" t="s">
         <v>98</v>
       </c>
@@ -21332,7 +21332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A209" s="52" t="s">
         <v>34</v>
       </c>
@@ -21433,7 +21433,7 @@
         <v>2857657</v>
       </c>
     </row>
-    <row r="210" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A210" s="63" t="s">
         <v>29</v>
       </c>
@@ -21534,7 +21534,7 @@
         <v>1634020</v>
       </c>
     </row>
-    <row r="211" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A211" s="40" t="s">
         <v>95</v>
       </c>
@@ -21635,7 +21635,7 @@
         <v>1581926</v>
       </c>
     </row>
-    <row r="212" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A212" s="40" t="s">
         <v>96</v>
       </c>
@@ -21736,7 +21736,7 @@
         <v>52093</v>
       </c>
     </row>
-    <row r="213" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A213" s="40" t="s">
         <v>97</v>
       </c>
@@ -21837,7 +21837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A214" s="40" t="s">
         <v>98</v>
       </c>
@@ -21938,7 +21938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A215" s="63" t="s">
         <v>25</v>
       </c>
@@ -22039,7 +22039,7 @@
         <v>1223638</v>
       </c>
     </row>
-    <row r="216" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A216" s="40" t="s">
         <v>95</v>
       </c>
@@ -22140,7 +22140,7 @@
         <v>1221806</v>
       </c>
     </row>
-    <row r="217" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A217" s="40" t="s">
         <v>96</v>
       </c>
@@ -22241,7 +22241,7 @@
         <v>1831</v>
       </c>
     </row>
-    <row r="218" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A218" s="40" t="s">
         <v>97</v>
       </c>
@@ -22342,7 +22342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A219" s="43" t="s">
         <v>98</v>
       </c>
@@ -22443,7 +22443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A220" s="62"/>
       <c r="B220" s="62"/>
       <c r="C220" s="62"/>
@@ -22478,7 +22478,7 @@
       <c r="AF220" s="62"/>
       <c r="AG220" s="62"/>
     </row>
-    <row r="221" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A221" s="31" t="s">
         <v>69</v>
       </c>
@@ -22515,7 +22515,7 @@
       <c r="AF221" s="66"/>
       <c r="AG221" s="66"/>
     </row>
-    <row r="222" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A222" s="67" t="s">
         <v>70</v>
       </c>
@@ -22616,7 +22616,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="223" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A223" s="64" t="s">
         <v>99</v>
       </c>
@@ -22717,7 +22717,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="224" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A224" s="64" t="s">
         <v>100</v>
       </c>
@@ -22818,7 +22818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A225" s="64" t="s">
         <v>92</v>
       </c>
@@ -22919,7 +22919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A226" s="64" t="s">
         <v>101</v>
       </c>
@@ -23020,7 +23020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A227" s="64" t="s">
         <v>102</v>
       </c>
@@ -23121,7 +23121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A228" s="64" t="s">
         <v>103</v>
       </c>
@@ -23222,7 +23222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A229" s="67" t="s">
         <v>71</v>
       </c>
@@ -23323,7 +23323,7 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="230" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A230" s="64" t="s">
         <v>99</v>
       </c>
@@ -23424,7 +23424,7 @@
         <v>1549</v>
       </c>
     </row>
-    <row r="231" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A231" s="64" t="s">
         <v>100</v>
       </c>
@@ -23525,7 +23525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A232" s="64" t="s">
         <v>92</v>
       </c>
@@ -23626,7 +23626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A233" s="64" t="s">
         <v>101</v>
       </c>
@@ -23727,7 +23727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A234" s="64" t="s">
         <v>102</v>
       </c>
@@ -23828,7 +23828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A235" s="65" t="s">
         <v>103</v>
       </c>
@@ -23929,7 +23929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A236" s="62"/>
       <c r="B236" s="62"/>
       <c r="C236" s="62"/>
@@ -23964,7 +23964,7 @@
       <c r="AF236" s="62"/>
       <c r="AG236" s="62"/>
     </row>
-    <row r="237" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A237" s="31" t="s">
         <v>104</v>
       </c>
@@ -24001,7 +24001,7 @@
       <c r="AF237" s="66"/>
       <c r="AG237" s="66"/>
     </row>
-    <row r="238" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A238" s="67" t="s">
         <v>105</v>
       </c>
@@ -24102,7 +24102,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="239" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A239" s="64" t="s">
         <v>99</v>
       </c>
@@ -24203,7 +24203,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="240" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A240" s="64" t="s">
         <v>100</v>
       </c>
@@ -24304,7 +24304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A241" s="64" t="s">
         <v>92</v>
       </c>
@@ -24405,7 +24405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A242" s="64" t="s">
         <v>101</v>
       </c>
@@ -24506,7 +24506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A243" s="64" t="s">
         <v>102</v>
       </c>
@@ -24607,7 +24607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A244" s="64" t="s">
         <v>103</v>
       </c>
@@ -24708,7 +24708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A245" s="67" t="s">
         <v>106</v>
       </c>
@@ -24809,7 +24809,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="246" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A246" s="64" t="s">
         <v>99</v>
       </c>
@@ -24910,7 +24910,7 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="247" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A247" s="64" t="s">
         <v>100</v>
       </c>
@@ -25011,7 +25011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A248" s="64" t="s">
         <v>92</v>
       </c>
@@ -25112,7 +25112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A249" s="64" t="s">
         <v>101</v>
       </c>
@@ -25213,7 +25213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A250" s="64" t="s">
         <v>102</v>
       </c>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A251" s="65" t="s">
         <v>103</v>
       </c>
@@ -25428,13 +25428,13 @@
       <selection activeCell="Q287" sqref="Q287:Q295"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.54296875" bestFit="1" customWidth="1"/>
     <col min="2" max="16" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" s="75" t="s">
         <v>107</v>
       </c>
@@ -25487,7 +25487,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="111"/>
       <c r="B2" s="110"/>
       <c r="C2" s="110"/>
@@ -25506,7 +25506,7 @@
       <c r="P2" s="110"/>
       <c r="Q2" s="110"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="14" t="s">
         <v>17</v>
       </c>
@@ -25527,7 +25527,7 @@
       <c r="P3" s="102"/>
       <c r="Q3" s="102"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="13" t="s">
         <v>19</v>
       </c>
@@ -25580,7 +25580,7 @@
         <v>703591.6530207874</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
         <v>18</v>
       </c>
@@ -25633,7 +25633,7 @@
         <v>5194.5945602601159</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
         <v>20</v>
       </c>
@@ -25686,7 +25686,7 @@
         <v>657597.05846052733</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
         <v>22</v>
       </c>
@@ -25739,7 +25739,7 @@
         <v>347492.75821898464</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
         <v>24</v>
       </c>
@@ -25792,7 +25792,7 @@
         <v>309043.92193413706</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" s="10" t="s">
         <v>26</v>
       </c>
@@ -25845,7 +25845,7 @@
         <v>222.15290830933625</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" s="10" t="s">
         <v>28</v>
       </c>
@@ -25898,7 +25898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" s="10" t="s">
         <v>30</v>
       </c>
@@ -25951,7 +25951,7 @@
         <v>500.34638062116716</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" s="10" t="s">
         <v>31</v>
       </c>
@@ -26004,7 +26004,7 @@
         <v>337.87901847508363</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" s="11" t="s">
         <v>32</v>
       </c>
@@ -26057,7 +26057,7 @@
         <v>40800</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" s="10" t="s">
         <v>22</v>
       </c>
@@ -26110,7 +26110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" s="10" t="s">
         <v>24</v>
       </c>
@@ -26163,7 +26163,7 @@
         <v>40627.464882008491</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" s="10" t="s">
         <v>26</v>
       </c>
@@ -26216,7 +26216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17" s="10" t="s">
         <v>28</v>
       </c>
@@ -26269,7 +26269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18" s="10" t="s">
         <v>31</v>
       </c>
@@ -26322,7 +26322,7 @@
         <v>172.53511799151062</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19" s="13" t="s">
         <v>27</v>
       </c>
@@ -26375,7 +26375,7 @@
         <v>189072.55787882462</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20" s="12" t="s">
         <v>35</v>
       </c>
@@ -26428,7 +26428,7 @@
         <v>23025.81043839869</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21" s="10" t="s">
         <v>22</v>
       </c>
@@ -26481,7 +26481,7 @@
         <v>728.80113244052234</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A22" s="10" t="s">
         <v>24</v>
       </c>
@@ -26534,7 +26534,7 @@
         <v>22088.801297183498</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A23" s="10" t="s">
         <v>26</v>
       </c>
@@ -26587,7 +26587,7 @@
         <v>187.03461178483647</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A24" s="10" t="s">
         <v>28</v>
       </c>
@@ -26640,7 +26640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A25" s="10" t="s">
         <v>31</v>
       </c>
@@ -26693,7 +26693,7 @@
         <v>21.173396989833488</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A26" s="11" t="s">
         <v>37</v>
       </c>
@@ -26746,7 +26746,7 @@
         <v>166046.74744042594</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A27" s="10" t="s">
         <v>21</v>
       </c>
@@ -26799,7 +26799,7 @@
         <v>142868</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A28" s="9" t="s">
         <v>38</v>
       </c>
@@ -26852,7 +26852,7 @@
         <v>23178.747440425941</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A29" s="74"/>
       <c r="B29" s="77"/>
       <c r="C29" s="77"/>
@@ -26871,7 +26871,7 @@
       <c r="P29" s="77"/>
       <c r="Q29" s="77"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A30" s="14" t="s">
         <v>108</v>
       </c>
@@ -26924,7 +26924,7 @@
         <v>475021.63306841312</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A31" s="13" t="s">
         <v>16</v>
       </c>
@@ -26977,7 +26977,7 @@
         <v>383447.32483790943</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A32" s="12" t="s">
         <v>18</v>
       </c>
@@ -27030,7 +27030,7 @@
         <v>4507.63</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A33" s="11" t="s">
         <v>20</v>
       </c>
@@ -27083,7 +27083,7 @@
         <v>376787.69483790942</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A34" s="10" t="s">
         <v>22</v>
       </c>
@@ -27136,7 +27136,7 @@
         <v>201734.62373074971</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A35" s="10" t="s">
         <v>24</v>
       </c>
@@ -27189,7 +27189,7 @@
         <v>174411.18509556589</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A36" s="10" t="s">
         <v>26</v>
       </c>
@@ -27242,7 +27242,7 @@
         <v>131.22516217561952</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A37" s="10" t="s">
         <v>28</v>
       </c>
@@ -27295,7 +27295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A38" s="10" t="s">
         <v>30</v>
       </c>
@@ -27348,7 +27348,7 @@
         <v>295.55334404882763</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A39" s="10" t="s">
         <v>31</v>
       </c>
@@ -27401,7 +27401,7 @@
         <v>215.1075053693875</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A40" s="11" t="s">
         <v>32</v>
       </c>
@@ -27454,7 +27454,7 @@
         <v>2152</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A41" s="10" t="s">
         <v>22</v>
       </c>
@@ -27507,7 +27507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A42" s="10" t="s">
         <v>24</v>
       </c>
@@ -27560,7 +27560,7 @@
         <v>2142.8996182863302</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A43" s="10" t="s">
         <v>26</v>
       </c>
@@ -27613,7 +27613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A44" s="10" t="s">
         <v>28</v>
       </c>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A45" s="10" t="s">
         <v>31</v>
       </c>
@@ -27719,7 +27719,7 @@
         <v>9.1003817136698739</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A46" s="13" t="s">
         <v>34</v>
       </c>
@@ -27772,7 +27772,7 @@
         <v>91574.308230503666</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A47" s="12" t="s">
         <v>35</v>
       </c>
@@ -27825,7 +27825,7 @@
         <v>73123.750665528176</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A48" s="10" t="s">
         <v>22</v>
       </c>
@@ -27878,7 +27878,7 @@
         <v>2892.7051187101574</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A49" s="10" t="s">
         <v>24</v>
       </c>
@@ -27931,7 +27931,7 @@
         <v>69404.641270081949</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A50" s="10" t="s">
         <v>26</v>
       </c>
@@ -27984,7 +27984,7 @@
         <v>742.36434989364898</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A51" s="10" t="s">
         <v>28</v>
       </c>
@@ -28037,7 +28037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A52" s="10" t="s">
         <v>31</v>
       </c>
@@ -28090,7 +28090,7 @@
         <v>84.039926842418936</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A53" s="11" t="s">
         <v>37</v>
       </c>
@@ -28143,7 +28143,7 @@
         <v>18450.557564975494</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A54" s="10" t="s">
         <v>21</v>
       </c>
@@ -28196,7 +28196,7 @@
         <v>16784</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A55" s="9" t="s">
         <v>38</v>
       </c>
@@ -28249,7 +28249,7 @@
         <v>1666.5575649754946</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A57" s="14" t="s">
         <v>15</v>
       </c>
@@ -28302,7 +28302,7 @@
         <v>35800612.559587948</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A58" s="13" t="s">
         <v>16</v>
       </c>
@@ -28355,7 +28355,7 @@
         <v>31544294</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A59" s="12" t="s">
         <v>18</v>
       </c>
@@ -28408,7 +28408,7 @@
         <v>1253100</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A60" s="11" t="s">
         <v>20</v>
       </c>
@@ -28461,7 +28461,7 @@
         <v>30250374</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A61" s="10" t="s">
         <v>22</v>
       </c>
@@ -28514,7 +28514,7 @@
         <v>18748833</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A62" s="10" t="s">
         <v>24</v>
       </c>
@@ -28567,7 +28567,7 @@
         <v>11439660</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A63" s="10" t="s">
         <v>26</v>
       </c>
@@ -28620,7 +28620,7 @@
         <v>13793</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A64" s="10" t="s">
         <v>28</v>
       </c>
@@ -28673,7 +28673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A65" s="10" t="s">
         <v>30</v>
       </c>
@@ -28726,7 +28726,7 @@
         <v>26590</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A66" s="10" t="s">
         <v>31</v>
       </c>
@@ -28779,7 +28779,7 @@
         <v>21498</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A67" s="11" t="s">
         <v>32</v>
       </c>
@@ -28832,7 +28832,7 @@
         <v>40820</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A68" s="10" t="s">
         <v>22</v>
       </c>
@@ -28885,7 +28885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A69" s="10" t="s">
         <v>24</v>
       </c>
@@ -28938,7 +28938,7 @@
         <v>40626</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A70" s="10" t="s">
         <v>26</v>
       </c>
@@ -28991,7 +28991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A71" s="10" t="s">
         <v>28</v>
       </c>
@@ -29044,7 +29044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A72" s="10" t="s">
         <v>31</v>
       </c>
@@ -29097,7 +29097,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A73" s="13" t="s">
         <v>34</v>
       </c>
@@ -29150,7 +29150,7 @@
         <v>4256318.5595879471</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A74" s="12" t="s">
         <v>35</v>
       </c>
@@ -29203,7 +29203,7 @@
         <v>3603480</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A75" s="10" t="s">
         <v>22</v>
       </c>
@@ -29256,7 +29256,7 @@
         <v>189531</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A76" s="10" t="s">
         <v>24</v>
       </c>
@@ -29309,7 +29309,7 @@
         <v>3369616</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A77" s="10" t="s">
         <v>26</v>
       </c>
@@ -29362,7 +29362,7 @@
         <v>38173</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A78" s="10" t="s">
         <v>28</v>
       </c>
@@ -29415,7 +29415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A79" s="10" t="s">
         <v>31</v>
       </c>
@@ -29468,7 +29468,7 @@
         <v>6160</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A80" s="11" t="s">
         <v>37</v>
       </c>
@@ -29521,7 +29521,7 @@
         <v>652838.55958794698</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A81" s="10" t="s">
         <v>21</v>
       </c>
@@ -29574,7 +29574,7 @@
         <v>633232</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A82" s="9" t="s">
         <v>38</v>
       </c>
@@ -29627,7 +29627,7 @@
         <v>19606.559587946995</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A84" s="14" t="s">
         <v>109</v>
       </c>
@@ -29680,7 +29680,7 @@
         <v>35800612.559587948</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A85" s="13" t="s">
         <v>16</v>
       </c>
@@ -29733,7 +29733,7 @@
         <v>31544294</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A86" s="12" t="s">
         <v>18</v>
       </c>
@@ -29786,7 +29786,7 @@
         <v>1253100</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A87" s="11" t="s">
         <v>20</v>
       </c>
@@ -29839,7 +29839,7 @@
         <v>30250374</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A88" s="10" t="s">
         <v>22</v>
       </c>
@@ -29892,7 +29892,7 @@
         <v>18748833</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A89" s="10" t="s">
         <v>24</v>
       </c>
@@ -29945,7 +29945,7 @@
         <v>11439660</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A90" s="10" t="s">
         <v>26</v>
       </c>
@@ -29998,7 +29998,7 @@
         <v>13793</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A91" s="10" t="s">
         <v>28</v>
       </c>
@@ -30051,7 +30051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A92" s="10" t="s">
         <v>30</v>
       </c>
@@ -30104,7 +30104,7 @@
         <v>26590</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A93" s="10" t="s">
         <v>31</v>
       </c>
@@ -30157,7 +30157,7 @@
         <v>21498</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A94" s="11" t="s">
         <v>32</v>
       </c>
@@ -30210,7 +30210,7 @@
         <v>40820</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A95" s="10" t="s">
         <v>22</v>
       </c>
@@ -30263,7 +30263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A96" s="10" t="s">
         <v>24</v>
       </c>
@@ -30316,7 +30316,7 @@
         <v>40626</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A97" s="10" t="s">
         <v>26</v>
       </c>
@@ -30369,7 +30369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A98" s="10" t="s">
         <v>28</v>
       </c>
@@ -30422,7 +30422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A99" s="10" t="s">
         <v>31</v>
       </c>
@@ -30475,7 +30475,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A100" s="13" t="s">
         <v>34</v>
       </c>
@@ -30528,7 +30528,7 @@
         <v>4256318.5595879471</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A101" s="12" t="s">
         <v>35</v>
       </c>
@@ -30581,7 +30581,7 @@
         <v>3603480</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A102" s="10" t="s">
         <v>22</v>
       </c>
@@ -30634,7 +30634,7 @@
         <v>189531</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A103" s="10" t="s">
         <v>24</v>
       </c>
@@ -30687,7 +30687,7 @@
         <v>3369616</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A104" s="10" t="s">
         <v>26</v>
       </c>
@@ -30740,7 +30740,7 @@
         <v>38173</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A105" s="10" t="s">
         <v>28</v>
       </c>
@@ -30793,7 +30793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A106" s="10" t="s">
         <v>31</v>
       </c>
@@ -30846,7 +30846,7 @@
         <v>6160</v>
       </c>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A107" s="11" t="s">
         <v>37</v>
       </c>
@@ -30899,7 +30899,7 @@
         <v>652838.55958794698</v>
       </c>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A108" s="10" t="s">
         <v>21</v>
       </c>
@@ -30952,7 +30952,7 @@
         <v>633232</v>
       </c>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A109" s="9" t="s">
         <v>38</v>
       </c>
@@ -31005,7 +31005,7 @@
         <v>19606.559587946995</v>
       </c>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A111" s="14" t="s">
         <v>110</v>
       </c>
@@ -31056,7 +31056,7 @@
         <v>3536062</v>
       </c>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A112" s="13" t="s">
         <v>16</v>
       </c>
@@ -31107,7 +31107,7 @@
         <v>2960995</v>
       </c>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A113" s="12" t="s">
         <v>18</v>
       </c>
@@ -31158,7 +31158,7 @@
         <v>89859</v>
       </c>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A114" s="11" t="s">
         <v>20</v>
       </c>
@@ -31209,7 +31209,7 @@
         <v>2868393</v>
       </c>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A115" s="10" t="s">
         <v>22</v>
       </c>
@@ -31260,7 +31260,7 @@
         <v>1554374</v>
       </c>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A116" s="10" t="s">
         <v>24</v>
       </c>
@@ -31311,7 +31311,7 @@
         <v>1284820</v>
       </c>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A117" s="10" t="s">
         <v>26</v>
       </c>
@@ -31362,7 +31362,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A118" s="10" t="s">
         <v>28</v>
       </c>
@@ -31413,7 +31413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A119" s="10" t="s">
         <v>30</v>
       </c>
@@ -31464,7 +31464,7 @@
         <v>19271</v>
       </c>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A120" s="10" t="s">
         <v>31</v>
       </c>
@@ -31515,7 +31515,7 @@
         <v>9926</v>
       </c>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A121" s="11" t="s">
         <v>32</v>
       </c>
@@ -31566,7 +31566,7 @@
         <v>2743</v>
       </c>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A122" s="10" t="s">
         <v>22</v>
       </c>
@@ -31617,7 +31617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A123" s="10" t="s">
         <v>24</v>
       </c>
@@ -31668,7 +31668,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A124" s="10" t="s">
         <v>26</v>
       </c>
@@ -31719,7 +31719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A125" s="10" t="s">
         <v>28</v>
       </c>
@@ -31770,7 +31770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A126" s="10" t="s">
         <v>31</v>
       </c>
@@ -31821,7 +31821,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A127" s="13" t="s">
         <v>34</v>
       </c>
@@ -31872,7 +31872,7 @@
         <v>575067</v>
       </c>
     </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A128" s="12" t="s">
         <v>35</v>
       </c>
@@ -31923,7 +31923,7 @@
         <v>440130</v>
       </c>
     </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A129" s="10" t="s">
         <v>22</v>
       </c>
@@ -31974,7 +31974,7 @@
         <v>17166</v>
       </c>
     </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A130" s="10" t="s">
         <v>24</v>
       </c>
@@ -32025,7 +32025,7 @@
         <v>420289</v>
       </c>
     </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A131" s="10" t="s">
         <v>26</v>
       </c>
@@ -32076,7 +32076,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A132" s="10" t="s">
         <v>28</v>
       </c>
@@ -32127,7 +32127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A133" s="10" t="s">
         <v>31</v>
       </c>
@@ -32178,7 +32178,7 @@
         <v>1938</v>
       </c>
     </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A134" s="11" t="s">
         <v>37</v>
       </c>
@@ -32229,7 +32229,7 @@
         <v>134937</v>
       </c>
     </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A135" s="10" t="s">
         <v>21</v>
       </c>
@@ -32280,7 +32280,7 @@
         <v>130080</v>
       </c>
     </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A136" s="9" t="s">
         <v>38</v>
       </c>
@@ -32331,7 +32331,7 @@
         <v>4857</v>
       </c>
     </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A138" s="83" t="s">
         <v>45</v>
       </c>
@@ -32352,7 +32352,7 @@
       <c r="P138" s="104"/>
       <c r="Q138" s="104"/>
     </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A140" s="14" t="s">
         <v>111</v>
       </c>
@@ -32373,7 +32373,7 @@
       <c r="P140" s="103"/>
       <c r="Q140" s="103"/>
     </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A141" s="13" t="s">
         <v>112</v>
       </c>
@@ -32426,7 +32426,7 @@
         <v>1.8349108402782812</v>
       </c>
     </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A142" s="12" t="s">
         <v>18</v>
       </c>
@@ -32479,7 +32479,7 @@
         <v>1.1524003878446358</v>
       </c>
     </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A143" s="11" t="s">
         <v>20</v>
       </c>
@@ -32532,7 +32532,7 @@
         <v>1.7452721186752649</v>
       </c>
     </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A144" s="10" t="s">
         <v>22</v>
       </c>
@@ -32585,7 +32585,7 @@
         <v>1.7225241348890847</v>
       </c>
     </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A145" s="10" t="s">
         <v>24</v>
       </c>
@@ -32638,7 +32638,7 @@
         <v>1.7719271947197726</v>
       </c>
     </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A146" s="10" t="s">
         <v>26</v>
       </c>
@@ -32691,7 +32691,7 @@
         <v>1.692913955115007</v>
       </c>
     </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A147" s="10" t="s">
         <v>28</v>
       </c>
@@ -32744,7 +32744,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A148" s="10" t="s">
         <v>30</v>
       </c>
@@ -32797,7 +32797,7 @@
         <v>1.692913955115007</v>
       </c>
     </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A149" s="10" t="s">
         <v>31</v>
       </c>
@@ -32850,7 +32850,7 @@
         <v>1.5707449068077384</v>
       </c>
     </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A150" s="11" t="s">
         <v>32</v>
       </c>
@@ -32903,7 +32903,7 @@
         <v>18.959107806691449</v>
       </c>
     </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A151" s="10" t="s">
         <v>22</v>
       </c>
@@ -32956,7 +32956,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A152" s="10" t="s">
         <v>24</v>
       </c>
@@ -33009,7 +33009,7 @@
         <v>18.959107806691449</v>
       </c>
     </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A153" s="10" t="s">
         <v>26</v>
       </c>
@@ -33062,7 +33062,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A154" s="10" t="s">
         <v>28</v>
       </c>
@@ -33115,7 +33115,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A155" s="10" t="s">
         <v>31</v>
       </c>
@@ -33168,7 +33168,7 @@
         <v>18.959107806691449</v>
       </c>
     </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A156" s="13" t="s">
         <v>114</v>
       </c>
@@ -33221,7 +33221,7 @@
         <v>2.0646899936487211</v>
       </c>
     </row>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A157" s="12" t="s">
         <v>35</v>
       </c>
@@ -33274,7 +33274,7 @@
         <v>0.31488825762945255</v>
       </c>
     </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A158" s="10" t="s">
         <v>22</v>
       </c>
@@ -33327,7 +33327,7 @@
         <v>0.2519444957339762</v>
       </c>
     </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A159" s="10" t="s">
         <v>24</v>
       </c>
@@ -33380,7 +33380,7 @@
         <v>0.31826115506060904</v>
       </c>
     </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A160" s="10" t="s">
         <v>26</v>
       </c>
@@ -33433,7 +33433,7 @@
         <v>0.2519444957339762</v>
       </c>
     </row>
-    <row r="161" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A161" s="10" t="s">
         <v>28</v>
       </c>
@@ -33486,7 +33486,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="162" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A162" s="10" t="s">
         <v>31</v>
       </c>
@@ -33539,7 +33539,7 @@
         <v>0.2519444957339762</v>
       </c>
     </row>
-    <row r="163" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A163" s="11" t="s">
         <v>37</v>
       </c>
@@ -33592,7 +33592,7 @@
         <v>8.9995517401398644</v>
       </c>
     </row>
-    <row r="164" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A164" s="10" t="s">
         <v>21</v>
       </c>
@@ -33645,7 +33645,7 @@
         <v>8.5121544327931371</v>
       </c>
     </row>
-    <row r="165" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A165" s="9" t="s">
         <v>38</v>
       </c>
@@ -33698,7 +33698,7 @@
         <v>13.908158906450234</v>
       </c>
     </row>
-    <row r="167" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A167" s="14" t="s">
         <v>115</v>
       </c>
@@ -33751,7 +33751,7 @@
         <v>13268.533667622822</v>
       </c>
     </row>
-    <row r="168" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A168" s="13" t="s">
         <v>16</v>
       </c>
@@ -33804,7 +33804,7 @@
         <v>12155.83790963619</v>
       </c>
     </row>
-    <row r="169" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A169" s="12" t="s">
         <v>18</v>
       </c>
@@ -33857,7 +33857,7 @@
         <v>3597.1829861942383</v>
       </c>
     </row>
-    <row r="170" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A170" s="11" t="s">
         <v>20</v>
       </c>
@@ -33910,7 +33910,7 @@
         <v>12455.637567916001</v>
       </c>
     </row>
-    <row r="171" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A171" s="10" t="s">
         <v>22</v>
       </c>
@@ -33963,7 +33963,7 @@
         <v>10759.849625347331</v>
       </c>
     </row>
-    <row r="172" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A172" s="10" t="s">
         <v>24</v>
       </c>
@@ -34016,7 +34016,7 @@
         <v>15246.186083814195</v>
       </c>
     </row>
-    <row r="173" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A173" s="10" t="s">
         <v>26</v>
       </c>
@@ -34069,7 +34069,7 @@
         <v>9513.8956119495051</v>
       </c>
     </row>
-    <row r="174" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A174" s="10" t="s">
         <v>28</v>
       </c>
@@ -34122,7 +34122,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="175" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A175" s="10" t="s">
         <v>30</v>
       </c>
@@ -34175,7 +34175,7 @@
         <v>11115.206620866027</v>
       </c>
     </row>
-    <row r="176" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A176" s="10" t="s">
         <v>31</v>
       </c>
@@ -34228,7 +34228,7 @@
         <v>10005.931034021189</v>
       </c>
     </row>
-    <row r="177" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A177" s="11" t="s">
         <v>32</v>
       </c>
@@ -34281,7 +34281,7 @@
         <v>52719.255267025968</v>
       </c>
     </row>
-    <row r="178" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A178" s="10" t="s">
         <v>22</v>
       </c>
@@ -34334,7 +34334,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="179" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A179" s="10" t="s">
         <v>24</v>
       </c>
@@ -34387,7 +34387,7 @@
         <v>52746.999908588841</v>
       </c>
     </row>
-    <row r="180" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A180" s="10" t="s">
         <v>26</v>
       </c>
@@ -34440,7 +34440,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="181" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A181" s="10" t="s">
         <v>28</v>
       </c>
@@ -34493,7 +34493,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="182" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A182" s="10" t="s">
         <v>31</v>
       </c>
@@ -34546,7 +34546,7 @@
         <v>46909.184091081821</v>
       </c>
     </row>
-    <row r="183" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A183" s="13" t="s">
         <v>34</v>
       </c>
@@ -34599,7 +34599,7 @@
         <v>21514.909410203767</v>
       </c>
     </row>
-    <row r="184" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A184" s="12" t="s">
         <v>35</v>
       </c>
@@ -34652,7 +34652,7 @@
         <v>20292.53684369781</v>
       </c>
     </row>
-    <row r="185" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A185" s="10" t="s">
         <v>22</v>
       </c>
@@ -34705,7 +34705,7 @@
         <v>15262.437905726016</v>
       </c>
     </row>
-    <row r="186" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A186" s="10" t="s">
         <v>24</v>
       </c>
@@ -34758,7 +34758,7 @@
         <v>20597.19602176686</v>
       </c>
     </row>
-    <row r="187" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A187" s="10" t="s">
         <v>26</v>
       </c>
@@ -34811,7 +34811,7 @@
         <v>19447.367246316742</v>
       </c>
     </row>
-    <row r="188" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A188" s="10" t="s">
         <v>28</v>
       </c>
@@ -34864,7 +34864,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="189" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A189" s="10" t="s">
         <v>31</v>
       </c>
@@ -34917,7 +34917,7 @@
         <v>13642.845266626451</v>
       </c>
     </row>
-    <row r="190" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A190" s="11" t="s">
         <v>37</v>
       </c>
@@ -34970,7 +34970,7 @@
         <v>28262.052377269134</v>
       </c>
     </row>
-    <row r="191" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A191" s="10" t="s">
         <v>21</v>
       </c>
@@ -35023,7 +35023,7 @@
         <v>26505.293478535514</v>
       </c>
     </row>
-    <row r="192" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A192" s="9" t="s">
         <v>38</v>
       </c>
@@ -35076,7 +35076,7 @@
         <v>85000</v>
       </c>
     </row>
-    <row r="194" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A194" s="14" t="s">
         <v>116</v>
       </c>
@@ -35097,7 +35097,7 @@
       <c r="P194" s="102"/>
       <c r="Q194" s="102"/>
     </row>
-    <row r="195" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A195" s="13" t="s">
         <v>117</v>
       </c>
@@ -35150,7 +35150,7 @@
         <v>22304.878753057124</v>
       </c>
     </row>
-    <row r="196" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A196" s="12" t="s">
         <v>18</v>
       </c>
@@ -35203,7 +35203,7 @@
         <v>4145.3950684383653</v>
       </c>
     </row>
-    <row r="197" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A197" s="11" t="s">
         <v>20</v>
       </c>
@@ -35256,7 +35256,7 @@
         <v>21738.476967607981</v>
       </c>
     </row>
-    <row r="198" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A198" s="10" t="s">
         <v>22</v>
       </c>
@@ -35309,7 +35309,7 @@
         <v>18534.100667438055</v>
       </c>
     </row>
-    <row r="199" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A199" s="10" t="s">
         <v>24</v>
       </c>
@@ -35362,7 +35362,7 @@
         <v>27015.131737668522</v>
       </c>
     </row>
-    <row r="200" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A200" s="10" t="s">
         <v>26</v>
       </c>
@@ -35415,7 +35415,7 @@
         <v>16106.206648976746</v>
       </c>
     </row>
-    <row r="201" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A201" s="10" t="s">
         <v>28</v>
       </c>
@@ -35468,7 +35468,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="202" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A202" s="10" t="s">
         <v>30</v>
       </c>
@@ -35521,7 +35521,7 @@
         <v>18817.088402450816</v>
       </c>
     </row>
-    <row r="203" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A203" s="10" t="s">
         <v>31</v>
       </c>
@@ -35574,7 +35574,7 @@
         <v>15716.765209558269</v>
       </c>
     </row>
-    <row r="204" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A204" s="11" t="s">
         <v>32</v>
       </c>
@@ -35627,7 +35627,7 @@
         <v>999510.04409603134</v>
       </c>
     </row>
-    <row r="205" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A205" s="10" t="s">
         <v>22</v>
       </c>
@@ -35680,7 +35680,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="206" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A206" s="10" t="s">
         <v>24</v>
       </c>
@@ -35733,7 +35733,7 @@
         <v>1000036.0577464799</v>
       </c>
     </row>
-    <row r="207" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A207" s="10" t="s">
         <v>26</v>
       </c>
@@ -35786,7 +35786,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="208" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A208" s="10" t="s">
         <v>28</v>
       </c>
@@ -35839,7 +35839,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="209" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A209" s="10" t="s">
         <v>31</v>
       </c>
@@ -35892,7 +35892,7 @@
         <v>889356.27830675582</v>
       </c>
     </row>
-    <row r="210" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A210" s="13" t="s">
         <v>118</v>
       </c>
@@ -35945,7 +35945,7 @@
         <v>44421.618173506416</v>
       </c>
     </row>
-    <row r="211" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A211" s="12" t="s">
         <v>35</v>
       </c>
@@ -35998,7 +35998,7 @@
         <v>6389.8815695934736</v>
       </c>
     </row>
-    <row r="212" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A212" s="10" t="s">
         <v>22</v>
       </c>
@@ -36051,7 +36051,7 @@
         <v>3845.2872218292646</v>
       </c>
     </row>
-    <row r="213" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A213" s="10" t="s">
         <v>24</v>
       </c>
@@ -36104,7 +36104,7 @@
         <v>6555.2873968973017</v>
       </c>
     </row>
-    <row r="214" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A214" s="10" t="s">
         <v>26</v>
       </c>
@@ -36157,7 +36157,7 @@
         <v>4899.6571342267171</v>
       </c>
     </row>
-    <row r="215" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A215" s="10" t="s">
         <v>28</v>
       </c>
@@ -36210,7 +36210,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="216" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A216" s="10" t="s">
         <v>31</v>
       </c>
@@ -36263,7 +36263,7 @@
         <v>3437.2397710768651</v>
       </c>
     </row>
-    <row r="217" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A217" s="11" t="s">
         <v>37</v>
       </c>
@@ -36316,7 +36316,7 @@
         <v>254345.80265177641</v>
       </c>
     </row>
-    <row r="218" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A218" s="10" t="s">
         <v>21</v>
       </c>
@@ -36369,7 +36369,7 @@
         <v>225617.15137579906</v>
       </c>
     </row>
-    <row r="219" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A219" s="9" t="s">
         <v>38</v>
       </c>
@@ -36422,7 +36422,7 @@
         <v>1182193.50704827</v>
       </c>
     </row>
-    <row r="221" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A221" s="14" t="s">
         <v>54</v>
       </c>
@@ -36443,7 +36443,7 @@
       <c r="P221" s="95"/>
       <c r="Q221" s="95"/>
     </row>
-    <row r="222" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A222" s="13" t="s">
         <v>55</v>
       </c>
@@ -36496,7 +36496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A223" s="93" t="s">
         <v>18</v>
       </c>
@@ -36549,7 +36549,7 @@
         <v>7.382967859208874E-3</v>
       </c>
     </row>
-    <row r="224" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A224" s="89" t="s">
         <v>20</v>
       </c>
@@ -36602,7 +36602,7 @@
         <v>0.93462885131910289</v>
       </c>
     </row>
-    <row r="225" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A225" s="91" t="s">
         <v>22</v>
       </c>
@@ -36655,7 +36655,7 @@
         <v>0.49388413965268868</v>
       </c>
     </row>
-    <row r="226" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A226" s="91" t="s">
         <v>24</v>
       </c>
@@ -36708,7 +36708,7 @@
         <v>0.43923761830785457</v>
       </c>
     </row>
-    <row r="227" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A227" s="91" t="s">
         <v>26</v>
       </c>
@@ -36761,7 +36761,7 @@
         <v>3.1574125041925822E-4</v>
       </c>
     </row>
-    <row r="228" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A228" s="91" t="s">
         <v>28</v>
       </c>
@@ -36814,7 +36814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A229" s="91" t="s">
         <v>30</v>
       </c>
@@ -36867,7 +36867,7 @@
         <v>7.1113177433670407E-4</v>
       </c>
     </row>
-    <row r="230" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A230" s="91" t="s">
         <v>31</v>
       </c>
@@ -36920,7 +36920,7 @@
         <v>4.8022033380362044E-4</v>
       </c>
     </row>
-    <row r="231" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A231" s="89" t="s">
         <v>32</v>
       </c>
@@ -36973,7 +36973,7 @@
         <v>5.7988180821688308E-2</v>
       </c>
     </row>
-    <row r="232" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A232" s="91" t="s">
         <v>22</v>
       </c>
@@ -37026,7 +37026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A233" s="91" t="s">
         <v>24</v>
       </c>
@@ -37079,7 +37079,7 @@
         <v>5.7742960291781865E-2</v>
       </c>
     </row>
-    <row r="234" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A234" s="91" t="s">
         <v>26</v>
       </c>
@@ -37132,7 +37132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A235" s="91" t="s">
         <v>28</v>
       </c>
@@ -37185,7 +37185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A236" s="91" t="s">
         <v>31</v>
       </c>
@@ -37238,7 +37238,7 @@
         <v>2.4522052990644721E-4</v>
       </c>
     </row>
-    <row r="237" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A237" s="13" t="s">
         <v>56</v>
       </c>
@@ -37291,7 +37291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A238" s="93" t="s">
         <v>35</v>
       </c>
@@ -37344,7 +37344,7 @@
         <v>0.12178293188986095</v>
       </c>
     </row>
-    <row r="239" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A239" s="91" t="s">
         <v>22</v>
       </c>
@@ -37397,7 +37397,7 @@
         <v>3.8546108468454016E-3</v>
       </c>
     </row>
-    <row r="240" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A240" s="91" t="s">
         <v>24</v>
       </c>
@@ -37450,7 +37450,7 @@
         <v>0.11682711412483279</v>
       </c>
     </row>
-    <row r="241" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A241" s="91" t="s">
         <v>26</v>
       </c>
@@ -37503,7 +37503,7 @@
         <v>9.8922135440038706E-4</v>
       </c>
     </row>
-    <row r="242" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A242" s="91" t="s">
         <v>28</v>
       </c>
@@ -37556,7 +37556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A243" s="91" t="s">
         <v>31</v>
       </c>
@@ -37609,7 +37609,7 @@
         <v>3.0093303266074885E-5</v>
       </c>
     </row>
-    <row r="244" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A244" s="89" t="s">
         <v>37</v>
       </c>
@@ -37662,7 +37662,7 @@
         <v>0.87821706811013911</v>
       </c>
     </row>
-    <row r="245" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A245" s="91" t="s">
         <v>21</v>
       </c>
@@ -37715,7 +37715,7 @@
         <v>0.75562525626570931</v>
       </c>
     </row>
-    <row r="246" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A246" s="85" t="s">
         <v>38</v>
       </c>
@@ -37768,7 +37768,7 @@
         <v>0.12259181184442985</v>
       </c>
     </row>
-    <row r="248" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A248" s="14" t="s">
         <v>57</v>
       </c>
@@ -37789,7 +37789,7 @@
       <c r="P248" s="95"/>
       <c r="Q248" s="95"/>
     </row>
-    <row r="249" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A249" s="13" t="s">
         <v>16</v>
       </c>
@@ -37842,7 +37842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A250" s="93" t="s">
         <v>18</v>
       </c>
@@ -37895,7 +37895,7 @@
         <v>1.1755539048043854E-2</v>
       </c>
     </row>
-    <row r="251" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A251" s="89" t="s">
         <v>20</v>
       </c>
@@ -37948,7 +37948,7 @@
         <v>0.98263221681670321</v>
       </c>
     </row>
-    <row r="252" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A252" s="91" t="s">
         <v>22</v>
       </c>
@@ -38001,7 +38001,7 @@
         <v>0.52610778759775367</v>
       </c>
     </row>
-    <row r="253" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A253" s="91" t="s">
         <v>24</v>
       </c>
@@ -38054,7 +38054,7 @@
         <v>0.4548504417635274</v>
       </c>
     </row>
-    <row r="254" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A254" s="91" t="s">
         <v>26</v>
       </c>
@@ -38107,7 +38107,7 @@
         <v>3.4222474294504709E-4</v>
       </c>
     </row>
-    <row r="255" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A255" s="91" t="s">
         <v>28</v>
       </c>
@@ -38160,7 +38160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A256" s="91" t="s">
         <v>30</v>
       </c>
@@ -38213,7 +38213,7 @@
         <v>7.7077951756154177E-4</v>
       </c>
     </row>
-    <row r="257" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A257" s="91" t="s">
         <v>31</v>
       </c>
@@ -38266,7 +38266,7 @@
         <v>5.6098319491554045E-4</v>
       </c>
     </row>
-    <row r="258" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A258" s="89" t="s">
         <v>32</v>
       </c>
@@ -38319,7 +38319,7 @@
         <v>5.6122441352529761E-3</v>
       </c>
     </row>
-    <row r="259" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A259" s="91" t="s">
         <v>22</v>
       </c>
@@ -38372,7 +38372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A260" s="91" t="s">
         <v>24</v>
       </c>
@@ -38425,7 +38425,7 @@
         <v>5.5885110665256964E-3</v>
       </c>
     </row>
-    <row r="261" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A261" s="91" t="s">
         <v>26</v>
       </c>
@@ -38478,7 +38478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A262" s="91" t="s">
         <v>28</v>
       </c>
@@ -38531,7 +38531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A263" s="91" t="s">
         <v>31</v>
       </c>
@@ -38584,7 +38584,7 @@
         <v>2.3733068727280287E-5</v>
       </c>
     </row>
-    <row r="264" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A264" s="13" t="s">
         <v>34</v>
       </c>
@@ -38637,7 +38637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A265" s="93" t="s">
         <v>35</v>
       </c>
@@ -38690,7 +38690,7 @@
         <v>0.79851818789028473</v>
       </c>
     </row>
-    <row r="266" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A266" s="91" t="s">
         <v>22</v>
       </c>
@@ -38743,7 +38743,7 @@
         <v>3.1588610109168032E-2</v>
       </c>
     </row>
-    <row r="267" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A267" s="91" t="s">
         <v>24</v>
       </c>
@@ -38796,7 +38796,7 @@
         <v>0.75790516588323043</v>
       </c>
     </row>
-    <row r="268" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A268" s="91" t="s">
         <v>26</v>
       </c>
@@ -38849,7 +38849,7 @@
         <v>8.106688046444507E-3</v>
       </c>
     </row>
-    <row r="269" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A269" s="91" t="s">
         <v>28</v>
       </c>
@@ -38902,7 +38902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A270" s="91" t="s">
         <v>31</v>
       </c>
@@ -38955,7 +38955,7 @@
         <v>9.1772385144182824E-4</v>
       </c>
     </row>
-    <row r="271" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A271" s="89" t="s">
         <v>37</v>
       </c>
@@ -39008,7 +39008,7 @@
         <v>0.20148181210971527</v>
       </c>
     </row>
-    <row r="272" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A272" s="87" t="s">
         <v>21</v>
       </c>
@@ -39061,7 +39061,7 @@
         <v>0.18328284782400575</v>
       </c>
     </row>
-    <row r="273" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A273" s="85" t="s">
         <v>38</v>
       </c>
@@ -39114,12 +39114,12 @@
         <v>1.8198964285709555E-2</v>
       </c>
     </row>
-    <row r="274" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A274" s="134" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="275" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A275" s="14" t="s">
         <v>120</v>
       </c>
@@ -39127,7 +39127,7 @@
         <v>3736.5</v>
       </c>
     </row>
-    <row r="276" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A276" s="13" t="s">
         <v>16</v>
       </c>
@@ -39135,7 +39135,7 @@
         <v>3374.5</v>
       </c>
     </row>
-    <row r="277" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A277" s="124" t="s">
         <v>64</v>
       </c>
@@ -39143,7 +39143,7 @@
         <v>1433</v>
       </c>
     </row>
-    <row r="278" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A278" s="11" t="s">
         <v>62</v>
       </c>
@@ -39151,7 +39151,7 @@
         <v>1919.5</v>
       </c>
     </row>
-    <row r="279" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A279" s="10" t="s">
         <v>121</v>
       </c>
@@ -39159,7 +39159,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="280" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A280" s="10" t="s">
         <v>122</v>
       </c>
@@ -39167,7 +39167,7 @@
         <v>667.5</v>
       </c>
     </row>
-    <row r="281" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A281" s="125" t="s">
         <v>63</v>
       </c>
@@ -39175,7 +39175,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="282" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A282" s="13" t="s">
         <v>34</v>
       </c>
@@ -39183,7 +39183,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="283" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A283" s="22" t="s">
         <v>121</v>
       </c>
@@ -39191,7 +39191,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="284" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A284" s="21" t="s">
         <v>122</v>
       </c>
@@ -39199,7 +39199,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="287" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A287" s="75" t="s">
         <v>123</v>
       </c>
@@ -39207,10 +39207,10 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="288" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:17" x14ac:dyDescent="0.35">
       <c r="Q288" s="77"/>
     </row>
-    <row r="289" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A289" s="14" t="s">
         <v>124</v>
       </c>
@@ -39218,7 +39218,7 @@
         <v>904480.4206648746</v>
       </c>
     </row>
-    <row r="290" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A290" s="140" t="s">
         <v>125</v>
       </c>
@@ -39226,7 +39226,7 @@
         <v>100591.62798774872</v>
       </c>
     </row>
-    <row r="291" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A291" s="139" t="s">
         <v>126</v>
       </c>
@@ -39234,7 +39234,7 @@
         <v>803888.79267712589</v>
       </c>
     </row>
-    <row r="293" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A293" s="14" t="s">
         <v>33</v>
       </c>
@@ -39242,7 +39242,7 @@
         <v>21.310651668275597</v>
       </c>
     </row>
-    <row r="294" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A294" s="140" t="s">
         <v>125</v>
       </c>
@@ -39250,7 +39250,7 @@
         <v>7.9016338037875116</v>
       </c>
     </row>
-    <row r="295" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A295" s="139" t="s">
         <v>126</v>
       </c>
@@ -39271,13 +39271,13 @@
       <selection activeCell="W202" sqref="W202"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.140625" customWidth="1"/>
+    <col min="1" max="1" width="25.1796875" customWidth="1"/>
     <col min="2" max="16" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" s="75" t="s">
         <v>127</v>
       </c>
@@ -39330,7 +39330,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="111"/>
       <c r="B2" s="110"/>
       <c r="C2" s="110"/>
@@ -39349,7 +39349,7 @@
       <c r="P2" s="110"/>
       <c r="Q2" s="110"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="14" t="s">
         <v>17</v>
       </c>
@@ -39370,7 +39370,7 @@
       <c r="P3" s="102"/>
       <c r="Q3" s="102"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="13" t="s">
         <v>19</v>
       </c>
@@ -39423,7 +39423,7 @@
         <v>5387885.2102444759</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
         <v>18</v>
       </c>
@@ -39476,7 +39476,7 @@
         <v>124572.07616194514</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
         <v>20</v>
       </c>
@@ -39529,7 +39529,7 @@
         <v>4719824.7265817737</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
         <v>22</v>
       </c>
@@ -39582,7 +39582,7 @@
         <v>1885032.439136676</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
         <v>24</v>
       </c>
@@ -39635,7 +39635,7 @@
         <v>2671347.2581787887</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" s="10" t="s">
         <v>26</v>
       </c>
@@ -39688,7 +39688,7 @@
         <v>130898.8274178088</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" s="10" t="s">
         <v>28</v>
       </c>
@@ -39741,7 +39741,7 @@
         <v>26412.458849760857</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" s="10" t="s">
         <v>30</v>
       </c>
@@ -39794,7 +39794,7 @@
         <v>2897.4455713570092</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" s="10" t="s">
         <v>31</v>
       </c>
@@ -39847,7 +39847,7 @@
         <v>3236.2974273826035</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" s="11" t="s">
         <v>32</v>
       </c>
@@ -39900,7 +39900,7 @@
         <v>543488.40750075656</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" s="10" t="s">
         <v>22</v>
       </c>
@@ -39953,7 +39953,7 @@
         <v>615.80206249370519</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" s="10" t="s">
         <v>24</v>
       </c>
@@ -40006,7 +40006,7 @@
         <v>505026.61755038705</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" s="10" t="s">
         <v>26</v>
       </c>
@@ -40059,7 +40059,7 @@
         <v>983.06236435623714</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17" s="10" t="s">
         <v>28</v>
       </c>
@@ -40112,7 +40112,7 @@
         <v>33182.745988862509</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18" s="10" t="s">
         <v>31</v>
       </c>
@@ -40165,7 +40165,7 @@
         <v>3680.1795346570198</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19" s="13" t="s">
         <v>27</v>
       </c>
@@ -40218,7 +40218,7 @@
         <v>1839969.9161456034</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20" s="12" t="s">
         <v>35</v>
       </c>
@@ -40271,7 +40271,7 @@
         <v>117316.14408828289</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21" s="10" t="s">
         <v>22</v>
       </c>
@@ -40324,7 +40324,7 @@
         <v>4409.4864845661323</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A22" s="10" t="s">
         <v>24</v>
       </c>
@@ -40377,7 +40377,7 @@
         <v>111884.29225176512</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A23" s="10" t="s">
         <v>26</v>
       </c>
@@ -40430,7 +40430,7 @@
         <v>599.636173717926</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A24" s="10" t="s">
         <v>28</v>
       </c>
@@ -40483,7 +40483,7 @@
         <v>328.79533002535783</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A25" s="10" t="s">
         <v>31</v>
       </c>
@@ -40536,7 +40536,7 @@
         <v>93.933848208376332</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A26" s="11" t="s">
         <v>37</v>
       </c>
@@ -40589,7 +40589,7 @@
         <v>1722653.7720573205</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A27" s="10" t="s">
         <v>21</v>
       </c>
@@ -40642,7 +40642,7 @@
         <v>1143331.675949363</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A28" s="9" t="s">
         <v>38</v>
       </c>
@@ -40695,7 +40695,7 @@
         <v>579322.0961079573</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A29" s="74"/>
       <c r="B29" s="77"/>
       <c r="C29" s="77"/>
@@ -40714,7 +40714,7 @@
       <c r="P29" s="77"/>
       <c r="Q29" s="77"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A30" s="14" t="s">
         <v>108</v>
       </c>
@@ -40767,7 +40767,7 @@
         <v>3636616.8056466528</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A31" s="13" t="s">
         <v>16</v>
       </c>
@@ -40820,7 +40820,7 @@
         <v>3030208.2761597843</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A32" s="12" t="s">
         <v>18</v>
       </c>
@@ -40873,7 +40873,7 @@
         <v>105129.0876757605</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A33" s="11" t="s">
         <v>20</v>
       </c>
@@ -40926,7 +40926,7 @@
         <v>2896900.983536006</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A34" s="10" t="s">
         <v>22</v>
       </c>
@@ -40979,7 +40979,7 @@
         <v>1161469.6826307648</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A35" s="10" t="s">
         <v>24</v>
       </c>
@@ -41032,7 +41032,7 @@
         <v>1636190.7444116129</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A36" s="10" t="s">
         <v>26</v>
       </c>
@@ -41085,7 +41085,7 @@
         <v>79595.214647008805</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A37" s="10" t="s">
         <v>28</v>
       </c>
@@ -41138,7 +41138,7 @@
         <v>15522.046566037176</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A38" s="10" t="s">
         <v>30</v>
       </c>
@@ -41191,7 +41191,7 @@
         <v>1905.0221530917511</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A39" s="10" t="s">
         <v>31</v>
       </c>
@@ -41244,7 +41244,7 @@
         <v>2218.273127490892</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A40" s="11" t="s">
         <v>32</v>
       </c>
@@ -41297,7 +41297,7 @@
         <v>28178.204948018065</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A41" s="10" t="s">
         <v>22</v>
       </c>
@@ -41350,7 +41350,7 @@
         <v>72.265479066891118</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A42" s="10" t="s">
         <v>24</v>
       </c>
@@ -41403,7 +41403,7 @@
         <v>26261.849541092113</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A43" s="10" t="s">
         <v>26</v>
       </c>
@@ -41456,7 +41456,7 @@
         <v>49.539667353143813</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A44" s="10" t="s">
         <v>28</v>
       </c>
@@ -41509,7 +41509,7 @@
         <v>1623.532337939748</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A45" s="10" t="s">
         <v>31</v>
       </c>
@@ -41562,7 +41562,7 @@
         <v>171.01792256617077</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A46" s="13" t="s">
         <v>34</v>
       </c>
@@ -41615,7 +41615,7 @@
         <v>606408.52948686853</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A47" s="12" t="s">
         <v>35</v>
       </c>
@@ -41668,7 +41668,7 @@
         <v>450004.70075862878</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A48" s="10" t="s">
         <v>22</v>
       </c>
@@ -41721,7 +41721,7 @@
         <v>21987.258283096267</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A49" s="10" t="s">
         <v>24</v>
       </c>
@@ -41774,7 +41774,7 @@
         <v>422963.13590048673</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A50" s="10" t="s">
         <v>26</v>
       </c>
@@ -41827,7 +41827,7 @@
         <v>3061.9875477612886</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A51" s="10" t="s">
         <v>28</v>
       </c>
@@ -41880,7 +41880,7 @@
         <v>1574.4170728517074</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A52" s="10" t="s">
         <v>31</v>
       </c>
@@ -41933,7 +41933,7 @@
         <v>417.90195443278617</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A53" s="11" t="s">
         <v>37</v>
       </c>
@@ -41986,7 +41986,7 @@
         <v>156403.82872823978</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A54" s="10" t="s">
         <v>21</v>
       </c>
@@ -42039,7 +42039,7 @@
         <v>114750.42945342396</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A55" s="9" t="s">
         <v>38</v>
       </c>
@@ -42092,7 +42092,7 @@
         <v>41653.399274815827</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A57" s="14" t="s">
         <v>15</v>
       </c>
@@ -42145,7 +42145,7 @@
         <v>327835506.99146843</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A58" s="13" t="s">
         <v>16</v>
       </c>
@@ -42198,7 +42198,7 @@
         <v>292751201</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A59" s="12" t="s">
         <v>18</v>
       </c>
@@ -42251,7 +42251,7 @@
         <v>37036579</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A60" s="11" t="s">
         <v>20</v>
       </c>
@@ -42304,7 +42304,7 @@
         <v>255004455</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A61" s="10" t="s">
         <v>22</v>
       </c>
@@ -42357,7 +42357,7 @@
         <v>139055432</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A62" s="10" t="s">
         <v>24</v>
       </c>
@@ -42410,7 +42410,7 @@
         <v>106612315</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A63" s="10" t="s">
         <v>26</v>
       </c>
@@ -42463,7 +42463,7 @@
         <v>7685081</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A64" s="10" t="s">
         <v>28</v>
       </c>
@@ -42516,7 +42516,7 @@
         <v>1313031</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A65" s="10" t="s">
         <v>30</v>
       </c>
@@ -42569,7 +42569,7 @@
         <v>181560</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A66" s="10" t="s">
         <v>31</v>
       </c>
@@ -42622,7 +42622,7 @@
         <v>157036</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A67" s="11" t="s">
         <v>32</v>
       </c>
@@ -42675,7 +42675,7 @@
         <v>710167</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A68" s="10" t="s">
         <v>22</v>
       </c>
@@ -42728,7 +42728,7 @@
         <v>4259</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A69" s="10" t="s">
         <v>24</v>
       </c>
@@ -42781,7 +42781,7 @@
         <v>664879</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A70" s="10" t="s">
         <v>26</v>
       </c>
@@ -42834,7 +42834,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A71" s="10" t="s">
         <v>28</v>
       </c>
@@ -42887,7 +42887,7 @@
         <v>34907</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A72" s="10" t="s">
         <v>31</v>
       </c>
@@ -42940,7 +42940,7 @@
         <v>4118</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A73" s="13" t="s">
         <v>34</v>
       </c>
@@ -42993,7 +42993,7 @@
         <v>35084305.991468422</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A74" s="12" t="s">
         <v>35</v>
       </c>
@@ -43046,7 +43046,7 @@
         <v>29147375</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A75" s="10" t="s">
         <v>22</v>
       </c>
@@ -43099,7 +43099,7 @@
         <v>2226999</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A76" s="10" t="s">
         <v>24</v>
       </c>
@@ -43152,7 +43152,7 @@
         <v>26430217</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A77" s="10" t="s">
         <v>26</v>
       </c>
@@ -43205,7 +43205,7 @@
         <v>320764</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A78" s="10" t="s">
         <v>28</v>
       </c>
@@ -43258,7 +43258,7 @@
         <v>128891</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A79" s="10" t="s">
         <v>31</v>
       </c>
@@ -43311,7 +43311,7 @@
         <v>40504</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A80" s="11" t="s">
         <v>37</v>
       </c>
@@ -43364,7 +43364,7 @@
         <v>5936930.9914684212</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A81" s="10" t="s">
         <v>21</v>
       </c>
@@ -43417,7 +43417,7 @@
         <v>5446891</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A82" s="9" t="s">
         <v>38</v>
       </c>
@@ -43470,7 +43470,7 @@
         <v>490039.99146842147</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A84" s="14" t="s">
         <v>109</v>
       </c>
@@ -43523,7 +43523,7 @@
         <v>327835506.99146843</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A85" s="13" t="s">
         <v>16</v>
       </c>
@@ -43576,7 +43576,7 @@
         <v>292751201</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A86" s="12" t="s">
         <v>18</v>
       </c>
@@ -43629,7 +43629,7 @@
         <v>37036579</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A87" s="11" t="s">
         <v>20</v>
       </c>
@@ -43682,7 +43682,7 @@
         <v>255004455</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A88" s="10" t="s">
         <v>22</v>
       </c>
@@ -43735,7 +43735,7 @@
         <v>139055432</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A89" s="10" t="s">
         <v>24</v>
       </c>
@@ -43788,7 +43788,7 @@
         <v>106612315</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A90" s="10" t="s">
         <v>26</v>
       </c>
@@ -43841,7 +43841,7 @@
         <v>7685081</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A91" s="10" t="s">
         <v>28</v>
       </c>
@@ -43894,7 +43894,7 @@
         <v>1313031</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A92" s="10" t="s">
         <v>30</v>
       </c>
@@ -43947,7 +43947,7 @@
         <v>181560</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A93" s="10" t="s">
         <v>31</v>
       </c>
@@ -44000,7 +44000,7 @@
         <v>157036</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A94" s="11" t="s">
         <v>32</v>
       </c>
@@ -44053,7 +44053,7 @@
         <v>710167</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A95" s="10" t="s">
         <v>22</v>
       </c>
@@ -44106,7 +44106,7 @@
         <v>4259</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A96" s="10" t="s">
         <v>24</v>
       </c>
@@ -44159,7 +44159,7 @@
         <v>664879</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A97" s="10" t="s">
         <v>26</v>
       </c>
@@ -44212,7 +44212,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A98" s="10" t="s">
         <v>28</v>
       </c>
@@ -44265,7 +44265,7 @@
         <v>34907</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A99" s="10" t="s">
         <v>31</v>
       </c>
@@ -44318,7 +44318,7 @@
         <v>4118</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A100" s="13" t="s">
         <v>34</v>
       </c>
@@ -44371,7 +44371,7 @@
         <v>35084305.991468422</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A101" s="12" t="s">
         <v>35</v>
       </c>
@@ -44424,7 +44424,7 @@
         <v>29147375</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A102" s="10" t="s">
         <v>22</v>
       </c>
@@ -44477,7 +44477,7 @@
         <v>2226999</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A103" s="10" t="s">
         <v>24</v>
       </c>
@@ -44530,7 +44530,7 @@
         <v>26430217</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A104" s="10" t="s">
         <v>26</v>
       </c>
@@ -44583,7 +44583,7 @@
         <v>320764</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A105" s="10" t="s">
         <v>28</v>
       </c>
@@ -44636,7 +44636,7 @@
         <v>128891</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A106" s="10" t="s">
         <v>31</v>
       </c>
@@ -44689,7 +44689,7 @@
         <v>40504</v>
       </c>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A107" s="11" t="s">
         <v>37</v>
       </c>
@@ -44742,7 +44742,7 @@
         <v>5936930.9914684212</v>
       </c>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A108" s="10" t="s">
         <v>21</v>
       </c>
@@ -44795,7 +44795,7 @@
         <v>5446891</v>
       </c>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A109" s="9" t="s">
         <v>38</v>
       </c>
@@ -44848,7 +44848,7 @@
         <v>490039.99146842147</v>
       </c>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A111" s="14" t="s">
         <v>110</v>
       </c>
@@ -44899,7 +44899,7 @@
         <v>24382696</v>
       </c>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A112" s="13" t="s">
         <v>16</v>
       </c>
@@ -44950,7 +44950,7 @@
         <v>20815237</v>
       </c>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A113" s="12" t="s">
         <v>18</v>
       </c>
@@ -45001,7 +45001,7 @@
         <v>2031962</v>
       </c>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A114" s="11" t="s">
         <v>20</v>
       </c>
@@ -45052,7 +45052,7 @@
         <v>18714984</v>
       </c>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A115" s="10" t="s">
         <v>22</v>
       </c>
@@ -45103,7 +45103,7 @@
         <v>9118346</v>
       </c>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A116" s="10" t="s">
         <v>24</v>
       </c>
@@ -45154,7 +45154,7 @@
         <v>8794891</v>
       </c>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A117" s="10" t="s">
         <v>26</v>
       </c>
@@ -45205,7 +45205,7 @@
         <v>557532</v>
       </c>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A118" s="10" t="s">
         <v>28</v>
       </c>
@@ -45256,7 +45256,7 @@
         <v>94046</v>
       </c>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A119" s="10" t="s">
         <v>30</v>
       </c>
@@ -45307,7 +45307,7 @@
         <v>92083</v>
       </c>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A120" s="10" t="s">
         <v>31</v>
       </c>
@@ -45358,7 +45358,7 @@
         <v>58086</v>
       </c>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A121" s="11" t="s">
         <v>32</v>
       </c>
@@ -45409,7 +45409,7 @@
         <v>68291</v>
       </c>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A122" s="10" t="s">
         <v>22</v>
       </c>
@@ -45460,7 +45460,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A123" s="10" t="s">
         <v>24</v>
       </c>
@@ -45511,7 +45511,7 @@
         <v>57538</v>
       </c>
     </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A124" s="10" t="s">
         <v>26</v>
       </c>
@@ -45562,7 +45562,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A125" s="10" t="s">
         <v>28</v>
       </c>
@@ -45613,7 +45613,7 @@
         <v>10117</v>
       </c>
     </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A126" s="10" t="s">
         <v>31</v>
       </c>
@@ -45664,7 +45664,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A127" s="13" t="s">
         <v>34</v>
       </c>
@@ -45715,7 +45715,7 @@
         <v>3567459</v>
       </c>
     </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A128" s="12" t="s">
         <v>35</v>
       </c>
@@ -45766,7 +45766,7 @@
         <v>2926545</v>
       </c>
     </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A129" s="10" t="s">
         <v>22</v>
       </c>
@@ -45817,7 +45817,7 @@
         <v>201298</v>
       </c>
     </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A130" s="10" t="s">
         <v>24</v>
       </c>
@@ -45868,7 +45868,7 @@
         <v>2687171</v>
       </c>
     </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A131" s="10" t="s">
         <v>26</v>
       </c>
@@ -45919,7 +45919,7 @@
         <v>11205</v>
       </c>
     </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A132" s="10" t="s">
         <v>28</v>
       </c>
@@ -45970,7 +45970,7 @@
         <v>16637</v>
       </c>
     </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A133" s="10" t="s">
         <v>31</v>
       </c>
@@ -46021,7 +46021,7 @@
         <v>10234</v>
       </c>
     </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A134" s="11" t="s">
         <v>37</v>
       </c>
@@ -46072,7 +46072,7 @@
         <v>640914</v>
       </c>
     </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A135" s="10" t="s">
         <v>21</v>
       </c>
@@ -46123,7 +46123,7 @@
         <v>529607</v>
       </c>
     </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A136" s="9" t="s">
         <v>38</v>
       </c>
@@ -46174,7 +46174,7 @@
         <v>111307</v>
       </c>
     </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A138" s="83" t="s">
         <v>45</v>
       </c>
@@ -46195,7 +46195,7 @@
       <c r="P138" s="104"/>
       <c r="Q138" s="104"/>
     </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A140" s="14" t="s">
         <v>111</v>
       </c>
@@ -46216,7 +46216,7 @@
       <c r="P140" s="103"/>
       <c r="Q140" s="103"/>
     </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A141" s="13" t="s">
         <v>112</v>
       </c>
@@ -46269,7 +46269,7 @@
         <v>1.7780577172314376</v>
       </c>
     </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A142" s="12" t="s">
         <v>18</v>
       </c>
@@ -46322,7 +46322,7 @@
         <v>1.1849439476365549</v>
       </c>
     </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A143" s="11" t="s">
         <v>20</v>
       </c>
@@ -46375,7 +46375,7 @@
         <v>1.6292668452964092</v>
       </c>
     </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A144" s="10" t="s">
         <v>22</v>
       </c>
@@ -46428,7 +46428,7 @@
         <v>1.6229717118978251</v>
       </c>
     </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A145" s="10" t="s">
         <v>24</v>
       </c>
@@ -46481,7 +46481,7 @@
         <v>1.6326624920124617</v>
       </c>
     </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A146" s="10" t="s">
         <v>26</v>
       </c>
@@ -46534,7 +46534,7 @@
         <v>1.6445564975020517</v>
       </c>
     </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A147" s="10" t="s">
         <v>28</v>
       </c>
@@ -46587,7 +46587,7 @@
         <v>1.701609303733975</v>
       </c>
     </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A148" s="10" t="s">
         <v>30</v>
       </c>
@@ -46640,7 +46640,7 @@
         <v>1.5209511168437631</v>
       </c>
     </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A149" s="10" t="s">
         <v>31</v>
       </c>
@@ -46693,7 +46693,7 @@
         <v>1.4589264898336516</v>
       </c>
     </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A150" s="11" t="s">
         <v>32</v>
       </c>
@@ -46746,7 +46746,7 @@
         <v>19.287545409771859</v>
       </c>
     </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A151" s="10" t="s">
         <v>22</v>
       </c>
@@ -46799,7 +46799,7 @@
         <v>8.5213862890703336</v>
       </c>
     </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A152" s="10" t="s">
         <v>24</v>
       </c>
@@ -46852,7 +46852,7 @@
         <v>19.230428411379332</v>
       </c>
     </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A153" s="10" t="s">
         <v>26</v>
       </c>
@@ -46905,7 +46905,7 @@
         <v>19.843943588649299</v>
       </c>
     </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A154" s="10" t="s">
         <v>28</v>
       </c>
@@ -46958,7 +46958,7 @@
         <v>20.43861105407435</v>
       </c>
     </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A155" s="10" t="s">
         <v>31</v>
       </c>
@@ -47011,7 +47011,7 @@
         <v>21.519262305581297</v>
       </c>
     </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A156" s="13" t="s">
         <v>114</v>
       </c>
@@ -47064,7 +47064,7 @@
         <v>3.0342085024802525</v>
       </c>
     </row>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A157" s="12" t="s">
         <v>35</v>
       </c>
@@ -47117,7 +47117,7 @@
         <v>0.26069981911413037</v>
       </c>
     </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A158" s="10" t="s">
         <v>22</v>
       </c>
@@ -47170,7 +47170,7 @@
         <v>0.200547354644764</v>
       </c>
     </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A159" s="10" t="s">
         <v>24</v>
       </c>
@@ -47223,7 +47223,7 @@
         <v>0.26452492606374295</v>
       </c>
     </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A160" s="10" t="s">
         <v>26</v>
       </c>
@@ -47276,7 +47276,7 @@
         <v>0.19583233581610679</v>
       </c>
     </row>
-    <row r="161" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A161" s="10" t="s">
         <v>28</v>
       </c>
@@ -47329,7 +47329,7 @@
         <v>0.208836232593577</v>
       </c>
     </row>
-    <row r="162" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A162" s="10" t="s">
         <v>31</v>
       </c>
@@ -47382,7 +47382,7 @@
         <v>0.22477484781297979</v>
       </c>
     </row>
-    <row r="163" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A163" s="11" t="s">
         <v>37</v>
       </c>
@@ -47435,7 +47435,7 @@
         <v>11.014140677147525</v>
       </c>
     </row>
-    <row r="164" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A164" s="10" t="s">
         <v>21</v>
       </c>
@@ -47488,7 +47488,7 @@
         <v>9.9636374468945217</v>
       </c>
     </row>
-    <row r="165" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A165" s="9" t="s">
         <v>38</v>
       </c>
@@ -47541,7 +47541,7 @@
         <v>13.908158906450231</v>
       </c>
     </row>
-    <row r="167" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A167" s="14" t="s">
         <v>115</v>
       </c>
@@ -47594,7 +47594,7 @@
         <v>11092.80943671941</v>
       </c>
     </row>
-    <row r="168" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A168" s="13" t="s">
         <v>16</v>
       </c>
@@ -47647,7 +47647,7 @@
         <v>10350.797078915431</v>
       </c>
     </row>
-    <row r="169" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A169" s="12" t="s">
         <v>18</v>
       </c>
@@ -47700,7 +47700,7 @@
         <v>2838.5204712282011</v>
       </c>
     </row>
-    <row r="170" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A170" s="11" t="s">
         <v>20</v>
       </c>
@@ -47753,7 +47753,7 @@
         <v>11360.197544533117</v>
       </c>
     </row>
-    <row r="171" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A171" s="10" t="s">
         <v>22</v>
       </c>
@@ -47806,7 +47806,7 @@
         <v>8352.5660661049533</v>
       </c>
     </row>
-    <row r="172" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A172" s="10" t="s">
         <v>24</v>
       </c>
@@ -47859,7 +47859,7 @@
         <v>15347.108299933387</v>
       </c>
     </row>
-    <row r="173" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A173" s="10" t="s">
         <v>26</v>
       </c>
@@ -47912,7 +47912,7 @@
         <v>10357.10809645452</v>
       </c>
     </row>
-    <row r="174" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A174" s="10" t="s">
         <v>28</v>
       </c>
@@ -47965,7 +47965,7 @@
         <v>11821.538536437583</v>
       </c>
     </row>
-    <row r="175" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A175" s="10" t="s">
         <v>30</v>
       </c>
@@ -48018,7 +48018,7 @@
         <v>10492.521222140071</v>
       </c>
     </row>
-    <row r="176" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A176" s="10" t="s">
         <v>31</v>
       </c>
@@ -48071,7 +48071,7 @@
         <v>14125.889143195776</v>
       </c>
     </row>
-    <row r="177" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A177" s="11" t="s">
         <v>32</v>
       </c>
@@ -48124,7 +48124,7 @@
         <v>39678.27982434845</v>
       </c>
     </row>
-    <row r="178" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A178" s="10" t="s">
         <v>22</v>
       </c>
@@ -48177,7 +48177,7 @@
         <v>16967.710511127287</v>
       </c>
     </row>
-    <row r="179" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A179" s="10" t="s">
         <v>24</v>
       </c>
@@ -48230,7 +48230,7 @@
         <v>39498.690049004574</v>
       </c>
     </row>
-    <row r="180" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A180" s="10" t="s">
         <v>26</v>
       </c>
@@ -48283,7 +48283,7 @@
         <v>24720.392890790325</v>
       </c>
     </row>
-    <row r="181" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A181" s="10" t="s">
         <v>28</v>
       </c>
@@ -48336,7 +48336,7 @@
         <v>46510.222532436135</v>
       </c>
     </row>
-    <row r="182" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A182" s="10" t="s">
         <v>31</v>
       </c>
@@ -48389,7 +48389,7 @@
         <v>41529.364391979303</v>
       </c>
     </row>
-    <row r="183" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A183" s="13" t="s">
         <v>34</v>
       </c>
@@ -48442,7 +48442,7 @@
         <v>17284.324496381119</v>
       </c>
     </row>
-    <row r="184" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A184" s="12" t="s">
         <v>35</v>
       </c>
@@ -48495,7 +48495,7 @@
         <v>15438.944356348686</v>
       </c>
     </row>
-    <row r="185" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A185" s="10" t="s">
         <v>22</v>
       </c>
@@ -48548,7 +48548,7 @@
         <v>9873.0436264660511</v>
       </c>
     </row>
-    <row r="186" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A186" s="10" t="s">
         <v>24</v>
       </c>
@@ -48601,7 +48601,7 @@
         <v>16003.014122074244</v>
       </c>
     </row>
-    <row r="187" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A187" s="10" t="s">
         <v>26</v>
       </c>
@@ -48654,7 +48654,7 @@
         <v>9545.9202022711052</v>
       </c>
     </row>
-    <row r="188" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A188" s="10" t="s">
         <v>28</v>
       </c>
@@ -48707,7 +48707,7 @@
         <v>12215.10480058117</v>
       </c>
     </row>
-    <row r="189" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A189" s="10" t="s">
         <v>31</v>
       </c>
@@ -48760,7 +48760,7 @@
         <v>10317.547759055555</v>
       </c>
     </row>
-    <row r="190" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A190" s="11" t="s">
         <v>37</v>
       </c>
@@ -48813,7 +48813,7 @@
         <v>26344.222116274821</v>
       </c>
     </row>
-    <row r="191" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A191" s="10" t="s">
         <v>21</v>
       </c>
@@ -48866,7 +48866,7 @@
         <v>21067.142605465018</v>
       </c>
     </row>
-    <row r="192" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A192" s="9" t="s">
         <v>38</v>
       </c>
@@ -48919,7 +48919,7 @@
         <v>85000</v>
       </c>
     </row>
-    <row r="194" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A194" s="14" t="s">
         <v>116</v>
       </c>
@@ -48940,7 +48940,7 @@
       <c r="P194" s="102"/>
       <c r="Q194" s="102"/>
     </row>
-    <row r="195" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A195" s="13" t="s">
         <v>117</v>
       </c>
@@ -48993,7 +48993,7 @@
         <v>18404.314625662202</v>
       </c>
     </row>
-    <row r="196" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A196" s="12" t="s">
         <v>18</v>
       </c>
@@ -49046,7 +49046,7 @@
         <v>3363.4876526243183</v>
       </c>
     </row>
-    <row r="197" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A197" s="11" t="s">
         <v>20</v>
       </c>
@@ -49099,7 +49099,7 @@
         <v>18508.793215325488</v>
       </c>
     </row>
-    <row r="198" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A198" s="10" t="s">
         <v>22</v>
       </c>
@@ -49152,7 +49152,7 @@
         <v>13555.978447046038</v>
       </c>
     </row>
-    <row r="199" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A199" s="10" t="s">
         <v>24</v>
       </c>
@@ -49205,7 +49205,7 @@
         <v>25056.648082154381</v>
       </c>
     </row>
-    <row r="200" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A200" s="10" t="s">
         <v>26</v>
       </c>
@@ -49258,7 +49258,7 @@
         <v>17032.849415355387</v>
       </c>
     </row>
-    <row r="201" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A201" s="10" t="s">
         <v>28</v>
       </c>
@@ -49311,7 +49311,7 @@
         <v>20115.63995805191</v>
       </c>
     </row>
-    <row r="202" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A202" s="10" t="s">
         <v>30</v>
       </c>
@@ -49364,7 +49364,7 @@
         <v>15958.611871320825</v>
       </c>
     </row>
-    <row r="203" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A203" s="10" t="s">
         <v>31</v>
       </c>
@@ -49417,7 +49417,7 @@
         <v>20608.633863461906</v>
       </c>
     </row>
-    <row r="204" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A204" s="11" t="s">
         <v>32</v>
       </c>
@@ -49470,7 +49470,7 @@
         <v>765296.62389375537</v>
       </c>
     </row>
-    <row r="205" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A205" s="10" t="s">
         <v>22</v>
       </c>
@@ -49523,7 +49523,7 @@
         <v>144588.41570643464</v>
       </c>
     </row>
-    <row r="206" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A206" s="10" t="s">
         <v>24</v>
       </c>
@@ -49576,7 +49576,7 @@
         <v>759576.73133064364</v>
       </c>
     </row>
-    <row r="207" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A207" s="10" t="s">
         <v>26</v>
       </c>
@@ -49629,7 +49629,7 @@
         <v>490550.08201409038</v>
       </c>
     </row>
-    <row r="208" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A208" s="10" t="s">
         <v>28</v>
       </c>
@@ -49682,7 +49682,7 @@
         <v>950604.34837890707</v>
       </c>
     </row>
-    <row r="209" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A209" s="10" t="s">
         <v>31</v>
       </c>
@@ -49735,7 +49735,7 @@
         <v>893681.28573507036</v>
       </c>
     </row>
-    <row r="210" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A210" s="13" t="s">
         <v>118</v>
       </c>
@@ -49788,7 +49788,7 @@
         <v>52444.244346547304</v>
       </c>
     </row>
-    <row r="211" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A211" s="12" t="s">
         <v>35</v>
       </c>
@@ -49841,7 +49841,7 @@
         <v>4024.930001013226</v>
       </c>
     </row>
-    <row r="212" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A212" s="10" t="s">
         <v>22</v>
       </c>
@@ -49894,7 +49894,7 @@
         <v>1980.0127815801141</v>
       </c>
     </row>
-    <row r="213" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A213" s="10" t="s">
         <v>24</v>
       </c>
@@ -49947,7 +49947,7 @@
         <v>4233.196127438724</v>
       </c>
     </row>
-    <row r="214" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A214" s="10" t="s">
         <v>26</v>
       </c>
@@ -50000,7 +50000,7 @@
         <v>1869.399850724913</v>
       </c>
     </row>
-    <row r="215" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A215" s="10" t="s">
         <v>28</v>
       </c>
@@ -50053,7 +50053,7 @@
         <v>2550.9564672890879</v>
       </c>
     </row>
-    <row r="216" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A216" s="10" t="s">
         <v>31</v>
       </c>
@@ -50106,7 +50106,7 @@
         <v>2319.1252273448631</v>
       </c>
     </row>
-    <row r="217" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A217" s="11" t="s">
         <v>37</v>
       </c>
@@ -50159,7 +50159,7 @@
         <v>290158.96841867198</v>
       </c>
     </row>
-    <row r="218" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A218" s="10" t="s">
         <v>21</v>
       </c>
@@ -50212,7 +50212,7 @@
         <v>209905.37096287828</v>
       </c>
     </row>
-    <row r="219" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A219" s="9" t="s">
         <v>38</v>
       </c>
@@ -50265,7 +50265,7 @@
         <v>1182193.5070482695</v>
       </c>
     </row>
-    <row r="221" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A221" s="14" t="s">
         <v>54</v>
       </c>
@@ -50286,7 +50286,7 @@
       <c r="P221" s="95"/>
       <c r="Q221" s="95"/>
     </row>
-    <row r="222" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A222" s="13" t="s">
         <v>55</v>
       </c>
@@ -50339,7 +50339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A223" s="93" t="s">
         <v>18</v>
       </c>
@@ -50392,7 +50392,7 @@
         <v>2.3120773977345493E-2</v>
       </c>
     </row>
-    <row r="224" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A224" s="89" t="s">
         <v>20</v>
       </c>
@@ -50445,7 +50445,7 @@
         <v>0.87600691967370459</v>
       </c>
     </row>
-    <row r="225" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A225" s="91" t="s">
         <v>22</v>
       </c>
@@ -50498,7 +50498,7 @@
         <v>0.34986499629808232</v>
       </c>
     </row>
-    <row r="226" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A226" s="91" t="s">
         <v>24</v>
       </c>
@@ -50551,7 +50551,7 @@
         <v>0.49580626793969429</v>
       </c>
     </row>
-    <row r="227" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A227" s="91" t="s">
         <v>26</v>
       </c>
@@ -50604,7 +50604,7 @@
         <v>2.4295028997447638E-2</v>
       </c>
     </row>
-    <row r="228" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A228" s="91" t="s">
         <v>28</v>
       </c>
@@ -50657,7 +50657,7 @@
         <v>4.9021940555712745E-3</v>
       </c>
     </row>
-    <row r="229" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A229" s="91" t="s">
         <v>30</v>
       </c>
@@ -50710,7 +50710,7 @@
         <v>5.3777047177022859E-4</v>
       </c>
     </row>
-    <row r="230" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A230" s="91" t="s">
         <v>31</v>
       </c>
@@ -50763,7 +50763,7 @@
         <v>6.0066191113892652E-4</v>
       </c>
     </row>
-    <row r="231" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A231" s="89" t="s">
         <v>32</v>
       </c>
@@ -50816,7 +50816,7 @@
         <v>0.10087230634894979</v>
       </c>
     </row>
-    <row r="232" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A232" s="91" t="s">
         <v>22</v>
       </c>
@@ -50869,7 +50869,7 @@
         <v>1.1429383486545422E-4</v>
       </c>
     </row>
-    <row r="233" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A233" s="91" t="s">
         <v>24</v>
       </c>
@@ -50922,7 +50922,7 @@
         <v>9.3733737420785071E-2</v>
       </c>
     </row>
-    <row r="234" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A234" s="91" t="s">
         <v>26</v>
       </c>
@@ -50975,7 +50975,7 @@
         <v>1.8245792662528358E-4</v>
       </c>
     </row>
-    <row r="235" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A235" s="91" t="s">
         <v>28</v>
       </c>
@@ -51028,7 +51028,7 @@
         <v>6.1587700357403933E-3</v>
       </c>
     </row>
-    <row r="236" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A236" s="91" t="s">
         <v>31</v>
       </c>
@@ -51081,7 +51081,7 @@
         <v>6.8304713093359155E-4</v>
       </c>
     </row>
-    <row r="237" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A237" s="13" t="s">
         <v>56</v>
       </c>
@@ -51134,7 +51134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A238" s="93" t="s">
         <v>35</v>
       </c>
@@ -51187,7 +51187,7 @@
         <v>6.3759816428976462E-2</v>
       </c>
     </row>
-    <row r="239" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A239" s="91" t="s">
         <v>22</v>
       </c>
@@ -51240,7 +51240,7 @@
         <v>2.3964992285326007E-3</v>
       </c>
     </row>
-    <row r="240" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A240" s="91" t="s">
         <v>24</v>
       </c>
@@ -51293,7 +51293,7 @@
         <v>6.0807674772282154E-2</v>
       </c>
     </row>
-    <row r="241" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A241" s="91" t="s">
         <v>26</v>
       </c>
@@ -51346,7 +51346,7 @@
         <v>3.2589455319685488E-4</v>
       </c>
     </row>
-    <row r="242" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A242" s="91" t="s">
         <v>28</v>
       </c>
@@ -51399,7 +51399,7 @@
         <v>1.7869603581026109E-4</v>
       </c>
     </row>
-    <row r="243" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A243" s="91" t="s">
         <v>31</v>
       </c>
@@ -51452,7 +51452,7 @@
         <v>1.7434270505572646E-5</v>
       </c>
     </row>
-    <row r="244" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A244" s="89" t="s">
         <v>37</v>
       </c>
@@ -51505,7 +51505,7 @@
         <v>0.93624018357102345</v>
       </c>
     </row>
-    <row r="245" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A245" s="91" t="s">
         <v>21</v>
       </c>
@@ -51558,7 +51558,7 @@
         <v>0.62138607045512539</v>
       </c>
     </row>
-    <row r="246" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A246" s="85" t="s">
         <v>38</v>
       </c>
@@ -51611,7 +51611,7 @@
         <v>0.31485411311589806</v>
       </c>
     </row>
-    <row r="248" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A248" s="14" t="s">
         <v>57</v>
       </c>
@@ -51632,7 +51632,7 @@
       <c r="P248" s="95"/>
       <c r="Q248" s="95"/>
     </row>
-    <row r="249" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A249" s="13" t="s">
         <v>16</v>
       </c>
@@ -51685,7 +51685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A250" s="93" t="s">
         <v>18</v>
       </c>
@@ -51738,7 +51738,7 @@
         <v>3.4693683765193765E-2</v>
       </c>
     </row>
-    <row r="251" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A251" s="89" t="s">
         <v>20</v>
       </c>
@@ -51791,7 +51791,7 @@
         <v>0.95600721782968656</v>
       </c>
     </row>
-    <row r="252" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A252" s="91" t="s">
         <v>22</v>
       </c>
@@ -51844,7 +51844,7 @@
         <v>0.38329698053056205</v>
       </c>
     </row>
-    <row r="253" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A253" s="91" t="s">
         <v>24</v>
       </c>
@@ -51897,7 +51897,7 @@
         <v>0.53995982958807542</v>
       </c>
     </row>
-    <row r="254" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A254" s="91" t="s">
         <v>26</v>
       </c>
@@ -51950,7 +51950,7 @@
         <v>2.6267242180422225E-2</v>
       </c>
     </row>
-    <row r="255" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A255" s="91" t="s">
         <v>28</v>
       </c>
@@ -52003,7 +52003,7 @@
         <v>5.1224355395492593E-3</v>
       </c>
     </row>
-    <row r="256" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A256" s="91" t="s">
         <v>30</v>
       </c>
@@ -52056,7 +52056,7 @@
         <v>6.2867696853696352E-4</v>
       </c>
     </row>
-    <row r="257" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A257" s="91" t="s">
         <v>31</v>
       </c>
@@ -52109,7 +52109,7 @@
         <v>7.3205302254079169E-4</v>
       </c>
     </row>
-    <row r="258" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A258" s="89" t="s">
         <v>32</v>
       </c>
@@ -52162,7 +52162,7 @@
         <v>9.2990984051197333E-3</v>
       </c>
     </row>
-    <row r="259" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A259" s="91" t="s">
         <v>22</v>
       </c>
@@ -52215,7 +52215,7 @@
         <v>2.3848353803083774E-5</v>
       </c>
     </row>
-    <row r="260" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A260" s="91" t="s">
         <v>24</v>
       </c>
@@ -52268,7 +52268,7 @@
         <v>8.6666813458690824E-3</v>
       </c>
     </row>
-    <row r="261" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A261" s="91" t="s">
         <v>26</v>
       </c>
@@ -52321,7 +52321,7 @@
         <v>1.6348601428785605E-5</v>
       </c>
     </row>
-    <row r="262" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A262" s="91" t="s">
         <v>28</v>
       </c>
@@ -52374,7 +52374,7 @@
         <v>5.3578242482964504E-4</v>
       </c>
     </row>
-    <row r="263" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A263" s="91" t="s">
         <v>31</v>
       </c>
@@ -52427,7 +52427,7 @@
         <v>5.6437679189136012E-5</v>
       </c>
     </row>
-    <row r="264" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A264" s="13" t="s">
         <v>34</v>
       </c>
@@ -52480,7 +52480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A265" s="93" t="s">
         <v>35</v>
       </c>
@@ -52533,7 +52533,7 @@
         <v>0.74208174667235349</v>
       </c>
     </row>
-    <row r="266" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A266" s="91" t="s">
         <v>22</v>
       </c>
@@ -52586,7 +52586,7 @@
         <v>3.6258161311981334E-2</v>
       </c>
     </row>
-    <row r="267" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A267" s="91" t="s">
         <v>24</v>
       </c>
@@ -52639,7 +52639,7 @@
         <v>0.69748876431271534</v>
       </c>
     </row>
-    <row r="268" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A268" s="91" t="s">
         <v>26</v>
       </c>
@@ -52692,7 +52692,7 @@
         <v>5.0493807373591607E-3</v>
       </c>
     </row>
-    <row r="269" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A269" s="91" t="s">
         <v>28</v>
       </c>
@@ -52745,7 +52745,7 @@
         <v>2.596297704097186E-3</v>
       </c>
     </row>
-    <row r="270" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A270" s="91" t="s">
         <v>31</v>
       </c>
@@ -52798,7 +52798,7 @@
         <v>6.8914260620048815E-4</v>
       </c>
     </row>
-    <row r="271" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A271" s="89" t="s">
         <v>37</v>
       </c>
@@ -52851,7 +52851,7 @@
         <v>0.25791825332764656</v>
       </c>
     </row>
-    <row r="272" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A272" s="87" t="s">
         <v>21</v>
       </c>
@@ -52904,7 +52904,7 @@
         <v>0.18922957688362926</v>
       </c>
     </row>
-    <row r="273" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A273" s="85" t="s">
         <v>38</v>
       </c>
@@ -52957,7 +52957,7 @@
         <v>6.8688676444017285E-2</v>
       </c>
     </row>
-    <row r="275" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A275" s="75" t="s">
         <v>128</v>
       </c>
@@ -52965,7 +52965,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="276" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A276" s="14" t="s">
         <v>129</v>
       </c>
@@ -52973,7 +52973,7 @@
         <v>30819</v>
       </c>
     </row>
-    <row r="277" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A277" s="13" t="s">
         <v>16</v>
       </c>
@@ -52981,7 +52981,7 @@
         <v>25061</v>
       </c>
     </row>
-    <row r="278" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A278" s="124" t="s">
         <v>64</v>
       </c>
@@ -52989,7 +52989,7 @@
         <v>12071</v>
       </c>
     </row>
-    <row r="279" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A279" s="11" t="s">
         <v>62</v>
       </c>
@@ -52997,7 +52997,7 @@
         <v>12285</v>
       </c>
     </row>
-    <row r="280" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A280" s="10" t="s">
         <v>121</v>
       </c>
@@ -53005,7 +53005,7 @@
         <v>4092</v>
       </c>
     </row>
-    <row r="281" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A281" s="10" t="s">
         <v>122</v>
       </c>
@@ -53013,7 +53013,7 @@
         <v>8193</v>
       </c>
     </row>
-    <row r="282" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A282" s="125" t="s">
         <v>63</v>
       </c>
@@ -53021,7 +53021,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="283" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A283" s="13" t="s">
         <v>34</v>
       </c>
@@ -53029,7 +53029,7 @@
         <v>5758</v>
       </c>
     </row>
-    <row r="284" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A284" s="22" t="s">
         <v>121</v>
       </c>
@@ -53037,7 +53037,7 @@
         <v>1640.5</v>
       </c>
     </row>
-    <row r="285" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A285" s="21" t="s">
         <v>122</v>
       </c>
@@ -53045,7 +53045,7 @@
         <v>4117.5</v>
       </c>
     </row>
-    <row r="288" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A288" s="75" t="s">
         <v>130</v>
       </c>
@@ -53053,10 +53053,10 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="289" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:17" x14ac:dyDescent="0.35">
       <c r="Q289" s="77"/>
     </row>
-    <row r="290" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A290" s="14" t="s">
         <v>124</v>
       </c>
@@ -53064,7 +53064,7 @@
         <v>14053817.860116277</v>
       </c>
     </row>
-    <row r="291" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A291" s="140" t="s">
         <v>125</v>
       </c>
@@ -53072,7 +53072,7 @@
         <v>934012.70063174493</v>
       </c>
     </row>
-    <row r="292" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A292" s="139" t="s">
         <v>126</v>
       </c>
@@ -53080,7 +53080,7 @@
         <v>13119805.159484532</v>
       </c>
     </row>
-    <row r="294" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A294" s="14" t="s">
         <v>33</v>
       </c>
@@ -53088,7 +53088,7 @@
         <v>367.14488211210704</v>
       </c>
     </row>
-    <row r="295" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A295" s="140" t="s">
         <v>125</v>
       </c>
@@ -53096,7 +53096,7 @@
         <v>83.780844053560372</v>
       </c>
     </row>
-    <row r="296" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A296" s="139" t="s">
         <v>126</v>
       </c>
@@ -53117,29 +53117,29 @@
   <dimension ref="A1:T58"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="P37" sqref="P37"/>
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.81640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.42578125" customWidth="1"/>
-    <col min="13" max="13" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.453125" customWidth="1"/>
+    <col min="13" max="13" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="28.81640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" s="146" t="s">
         <v>131</v>
       </c>
@@ -53163,7 +53163,7 @@
       <c r="S1" s="146"/>
       <c r="T1" s="133"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" s="146"/>
       <c r="B2" s="146"/>
       <c r="C2" s="146"/>
@@ -53183,7 +53183,7 @@
       <c r="S2" s="146"/>
       <c r="T2" s="133"/>
     </row>
-    <row r="4" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A4" s="145" t="s">
         <v>133</v>
       </c>
@@ -53207,7 +53207,7 @@
       <c r="S4" s="145"/>
       <c r="T4" s="135"/>
     </row>
-    <row r="5" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>134</v>
       </c>
@@ -53263,7 +53263,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" s="68" t="s">
         <v>143</v>
       </c>
@@ -53337,7 +53337,7 @@
         <v>3603480</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7" s="68" t="s">
         <v>145</v>
       </c>
@@ -53405,7 +53405,7 @@
         <v>652838.55958794698</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8" s="68" t="s">
         <v>147</v>
       </c>
@@ -53419,8 +53419,8 @@
         <v>0</v>
       </c>
       <c r="E8" s="73">
-        <f>'Raw data JRC Aircraft'!E41+'Raw data JRC Aircraft'!E42</f>
-        <v>770.012089991518</v>
+        <f>'Raw data JRC Aircraft'!E41</f>
+        <v>136.969297198725</v>
       </c>
       <c r="F8" s="73">
         <v>0</v>
@@ -53430,7 +53430,7 @@
       </c>
       <c r="H8" s="73">
         <f>('Raw data JRC Aircraft'!E41+'Raw data JRC Aircraft'!E42)-SUM(B8:G8)</f>
-        <v>0</v>
+        <v>633.04279279279297</v>
       </c>
       <c r="I8" s="136">
         <f t="shared" si="0"/>
@@ -53469,7 +53469,7 @@
         <v>16.485103132161999</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9" s="68" t="s">
         <v>149</v>
       </c>
@@ -53536,7 +53536,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>151</v>
       </c>
@@ -53596,7 +53596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11" s="68" t="s">
         <v>152</v>
       </c>
@@ -53655,7 +53655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A13" s="145" t="s">
         <v>153</v>
       </c>
@@ -53679,7 +53679,7 @@
       <c r="S13" s="145"/>
       <c r="T13" s="135"/>
     </row>
-    <row r="14" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
         <v>134</v>
       </c>
@@ -53735,7 +53735,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A15" s="126" t="s">
         <v>143</v>
       </c>
@@ -53806,7 +53806,7 @@
         <v>29147375</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A16" s="126" t="s">
         <v>145</v>
       </c>
@@ -53871,7 +53871,7 @@
         <v>1722653.7720573205</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A17" s="126" t="s">
         <v>147</v>
       </c>
@@ -53885,8 +53885,8 @@
         <v>0</v>
       </c>
       <c r="E17" s="73">
-        <f>'Raw data JRC Aircraft'!B31+'Raw data JRC Aircraft'!B32</f>
-        <v>4828.8394913743059</v>
+        <f>'Raw data JRC Aircraft'!B31</f>
+        <v>1103.3234132134789</v>
       </c>
       <c r="F17" s="73">
         <v>0</v>
@@ -53899,7 +53899,7 @@
       </c>
       <c r="I17" s="136">
         <f t="shared" si="2"/>
-        <v>4828.8394913743059</v>
+        <v>1103.3234132134789</v>
       </c>
       <c r="L17" s="126" t="s">
         <v>147</v>
@@ -53931,7 +53931,7 @@
         <v>165.67674900357699</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A18" s="126" t="s">
         <v>149</v>
       </c>
@@ -53993,7 +53993,7 @@
         <v>5758</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>151</v>
       </c>
@@ -54051,7 +54051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A20" s="126" t="s">
         <v>152</v>
       </c>
@@ -54110,7 +54110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A22" s="145" t="s">
         <v>154</v>
       </c>
@@ -54134,7 +54134,7 @@
       <c r="S22" s="145"/>
       <c r="T22" s="135"/>
     </row>
-    <row r="23" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
         <v>134</v>
       </c>
@@ -54190,7 +54190,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>143</v>
       </c>
@@ -54262,7 +54262,7 @@
         <v>0.12362965790229824</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>145</v>
       </c>
@@ -54334,7 +54334,7 @@
         <v>0.37897258879146617</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>147</v>
       </c>
@@ -54352,7 +54352,7 @@
       </c>
       <c r="E26" s="115">
         <f>IFERROR(E8/E17,0)</f>
-        <v>0.15946110682845863</v>
+        <v>0.12414247314828186</v>
       </c>
       <c r="F26" s="115">
         <f t="shared" si="9"/>
@@ -54368,7 +54368,7 @@
       </c>
       <c r="I26" s="115">
         <f t="shared" si="7"/>
-        <v>0.15946110682845863</v>
+        <v>0.6979024289431357</v>
       </c>
       <c r="L26" s="1" t="s">
         <v>147</v>
@@ -54406,7 +54406,7 @@
         <v>9.9501609195663795E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>149</v>
       </c>
@@ -54478,7 +54478,7 @@
         <v>6.2869051754081279E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>151</v>
       </c>
@@ -54544,7 +54544,7 @@
       </c>
       <c r="T28" s="115"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>152</v>
       </c>
@@ -54613,7 +54613,7 @@
       </c>
       <c r="T29" s="115"/>
     </row>
-    <row r="33" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:20" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A33" s="145" t="s">
         <v>155</v>
       </c>
@@ -54637,7 +54637,7 @@
       <c r="S33" s="145"/>
       <c r="T33" s="135"/>
     </row>
-    <row r="34" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A34" s="6" t="s">
         <v>134</v>
       </c>
@@ -54693,7 +54693,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A35" s="117" t="s">
         <v>143</v>
       </c>
@@ -54765,7 +54765,7 @@
         <v>32946552</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A36" s="117" t="s">
         <v>145</v>
       </c>
@@ -54835,7 +54835,7 @@
         <v>7007448</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A37" s="69" t="s">
         <v>147</v>
       </c>
@@ -54853,7 +54853,7 @@
       </c>
       <c r="E37" s="73">
         <f t="shared" si="19"/>
-        <v>4828.8394913743059</v>
+        <v>1103.3234132134789</v>
       </c>
       <c r="F37" s="73">
         <f t="shared" si="19"/>
@@ -54869,7 +54869,7 @@
       </c>
       <c r="I37" s="136">
         <f t="shared" si="17"/>
-        <v>4828.8394913743059</v>
+        <v>1103.3234132134789</v>
       </c>
       <c r="J37" s="129" t="s">
         <v>156</v>
@@ -54909,7 +54909,7 @@
         <v>165.67674900357699</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A38" s="117" t="s">
         <v>149</v>
       </c>
@@ -54971,7 +54971,7 @@
         <v>6476</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>151</v>
       </c>
@@ -55029,7 +55029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A40" s="117" t="s">
         <v>152</v>
       </c>
@@ -55092,7 +55092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:20" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A43" s="145" t="s">
         <v>157</v>
       </c>
@@ -55116,7 +55116,7 @@
       <c r="S43" s="145"/>
       <c r="T43" s="135"/>
     </row>
-    <row r="44" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A44" s="6" t="s">
         <v>134</v>
       </c>
@@ -55172,7 +55172,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A45" s="131" t="s">
         <v>143</v>
       </c>
@@ -55244,7 +55244,7 @@
         <v>28893739.526498262</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A46" s="131" t="s">
         <v>145</v>
       </c>
@@ -55316,7 +55316,7 @@
         <v>4352253.1090955287</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A47" s="131" t="s">
         <v>147</v>
       </c>
@@ -55334,7 +55334,7 @@
       </c>
       <c r="E47" s="73">
         <f t="shared" si="27"/>
-        <v>4058.8274013827881</v>
+        <v>966.35411601475391</v>
       </c>
       <c r="F47" s="73">
         <f t="shared" si="27"/>
@@ -55350,7 +55350,7 @@
       </c>
       <c r="I47" s="136">
         <f t="shared" si="25"/>
-        <v>4058.8274013827881</v>
+        <v>966.35411601475391</v>
       </c>
       <c r="L47" s="131" t="s">
         <v>147</v>
@@ -55388,7 +55388,7 @@
         <v>149.19164587141501</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A48" s="131" t="s">
         <v>149</v>
       </c>
@@ -55460,7 +55460,7 @@
         <v>6086.9993183694387</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A49" s="131" t="s">
         <v>151</v>
       </c>
@@ -55532,7 +55532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A50" s="131" t="s">
         <v>152</v>
       </c>
@@ -55604,7 +55604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:20" ht="18.5" x14ac:dyDescent="0.45">
       <c r="L53" s="137" t="s">
         <v>158</v>
       </c>
@@ -55633,7 +55633,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.35">
       <c r="L54" s="116" t="s">
         <v>159</v>
       </c>
@@ -55664,7 +55664,7 @@
         <v>21.310651668275597</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.35">
       <c r="L55" s="71" t="s">
         <v>160</v>
       </c>
@@ -55695,7 +55695,7 @@
         <v>367.14488211210704</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.35">
       <c r="L56" t="s">
         <v>154</v>
       </c>
@@ -55704,7 +55704,7 @@
         <v>5.8044256386415943E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.35">
       <c r="L57" s="113" t="s">
         <v>161</v>
       </c>
@@ -55713,7 +55713,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.35">
       <c r="L58" s="130" t="s">
         <v>162</v>
       </c>
@@ -55755,22 +55755,22 @@
   </sheetPr>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.81640625" customWidth="1"/>
+    <col min="8" max="8" width="15.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="7" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>134</v>
       </c>
@@ -55796,7 +55796,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>143</v>
       </c>
@@ -55829,7 +55829,7 @@
         <v>41503</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>145</v>
       </c>
@@ -55862,7 +55862,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>147</v>
       </c>
@@ -55880,7 +55880,7 @@
       </c>
       <c r="E4" s="144">
         <f>Calculations!E47</f>
-        <v>4058.8274013827881</v>
+        <v>966.35411601475391</v>
       </c>
       <c r="F4" s="144">
         <f>Calculations!F47</f>
@@ -55895,7 +55895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>149</v>
       </c>
@@ -55928,7 +55928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>151</v>
       </c>
@@ -55961,7 +55961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>152</v>
       </c>
@@ -56010,18 +56010,18 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.81640625" customWidth="1"/>
+    <col min="8" max="8" width="15.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="7" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>134</v>
       </c>
@@ -56047,7 +56047,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>143</v>
       </c>
@@ -56080,7 +56080,7 @@
         <v>5789</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>145</v>
       </c>
@@ -56113,7 +56113,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>147</v>
       </c>
@@ -56146,7 +56146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>149</v>
       </c>
@@ -56179,7 +56179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>151</v>
       </c>
@@ -56212,7 +56212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>152</v>
       </c>
@@ -56251,15 +56251,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="00484652-42e1-479e-92f4-fb0efddcdf60">
@@ -56268,6 +56259,15 @@
     <TaxCatchAll xmlns="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -56494,20 +56494,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B958747-05AB-4C5B-933F-03EB048ECECF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D86501B8-0259-48A1-9C13-881AE5763A57}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="00484652-42e1-479e-92f4-fb0efddcdf60"/>
     <ds:schemaRef ds:uri="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B958747-05AB-4C5B-933F-03EB048ECECF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/InputData/trans/SYVbT/Start Year Vehicles by Technology.xlsx
+++ b/InputData/trans/SYVbT/Start Year Vehicles by Technology.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mary Francis Swint\Vensim\eps-eu\InputData\trans\SYVbT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Modeling\EPS\EU\eps-eu\InputData\trans\SYVbT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B1781FD-DCA6-4309-B143-18F2EC742918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA5CC78E-CB2D-4DB1-9FFD-CA20CAC1B1AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5880" windowWidth="38640" windowHeight="21120" tabRatio="744" firstSheet="1" activeTab="6" xr2:uid="{05A92713-FF8C-4705-B0D9-268054C6A6B1}"/>
+    <workbookView xWindow="32250" yWindow="1470" windowWidth="25020" windowHeight="12165" tabRatio="744" firstSheet="1" activeTab="6" xr2:uid="{05A92713-FF8C-4705-B0D9-268054C6A6B1}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -1939,8 +1939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{357CB24D-1D6B-4122-9DA1-45BAC6D526D4}">
   <dimension ref="A1:E120"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -53116,8 +53116,8 @@
   </sheetPr>
   <dimension ref="A1:T58"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView topLeftCell="A32" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -53419,8 +53419,8 @@
         <v>0</v>
       </c>
       <c r="E8" s="73">
-        <f>'Raw data JRC Aircraft'!E41</f>
-        <v>136.969297198725</v>
+        <f>'Raw data JRC Aircraft'!E41+'Raw data JRC Aircraft'!E42</f>
+        <v>770.012089991518</v>
       </c>
       <c r="F8" s="73">
         <v>0</v>
@@ -53430,7 +53430,7 @@
       </c>
       <c r="H8" s="73">
         <f>('Raw data JRC Aircraft'!E41+'Raw data JRC Aircraft'!E42)-SUM(B8:G8)</f>
-        <v>633.04279279279297</v>
+        <v>0</v>
       </c>
       <c r="I8" s="136">
         <f t="shared" si="0"/>
@@ -53885,8 +53885,8 @@
         <v>0</v>
       </c>
       <c r="E17" s="73">
-        <f>'Raw data JRC Aircraft'!B31</f>
-        <v>1103.3234132134789</v>
+        <f>'Raw data JRC Aircraft'!B31+'Raw data JRC Aircraft'!B32</f>
+        <v>4828.8394913743059</v>
       </c>
       <c r="F17" s="73">
         <v>0</v>
@@ -53899,7 +53899,7 @@
       </c>
       <c r="I17" s="136">
         <f t="shared" si="2"/>
-        <v>1103.3234132134789</v>
+        <v>4828.8394913743059</v>
       </c>
       <c r="L17" s="126" t="s">
         <v>147</v>
@@ -54352,7 +54352,7 @@
       </c>
       <c r="E26" s="115">
         <f>IFERROR(E8/E17,0)</f>
-        <v>0.12414247314828186</v>
+        <v>0.15946110682845863</v>
       </c>
       <c r="F26" s="115">
         <f t="shared" si="9"/>
@@ -54368,7 +54368,7 @@
       </c>
       <c r="I26" s="115">
         <f t="shared" si="7"/>
-        <v>0.6979024289431357</v>
+        <v>0.15946110682845863</v>
       </c>
       <c r="L26" s="1" t="s">
         <v>147</v>
@@ -54853,7 +54853,7 @@
       </c>
       <c r="E37" s="73">
         <f t="shared" si="19"/>
-        <v>1103.3234132134789</v>
+        <v>4828.8394913743059</v>
       </c>
       <c r="F37" s="73">
         <f t="shared" si="19"/>
@@ -54869,7 +54869,7 @@
       </c>
       <c r="I37" s="136">
         <f t="shared" si="17"/>
-        <v>1103.3234132134789</v>
+        <v>4828.8394913743059</v>
       </c>
       <c r="J37" s="129" t="s">
         <v>156</v>
@@ -55334,7 +55334,7 @@
       </c>
       <c r="E47" s="73">
         <f t="shared" si="27"/>
-        <v>966.35411601475391</v>
+        <v>4058.8274013827881</v>
       </c>
       <c r="F47" s="73">
         <f t="shared" si="27"/>
@@ -55350,7 +55350,7 @@
       </c>
       <c r="I47" s="136">
         <f t="shared" si="25"/>
-        <v>966.35411601475391</v>
+        <v>4058.8274013827881</v>
       </c>
       <c r="L47" s="131" t="s">
         <v>147</v>
@@ -55880,7 +55880,7 @@
       </c>
       <c r="E4" s="144">
         <f>Calculations!E47</f>
-        <v>966.35411601475391</v>
+        <v>4058.8274013827881</v>
       </c>
       <c r="F4" s="144">
         <f>Calculations!F47</f>
@@ -56251,6 +56251,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="00484652-42e1-479e-92f4-fb0efddcdf60">
@@ -56259,15 +56268,6 @@
     <TaxCatchAll xmlns="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -56494,20 +56494,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B958747-05AB-4C5B-933F-03EB048ECECF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D86501B8-0259-48A1-9C13-881AE5763A57}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="00484652-42e1-479e-92f4-fb0efddcdf60"/>
     <ds:schemaRef ds:uri="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B958747-05AB-4C5B-933F-03EB048ECECF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
